--- a/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-15" windowWidth="19140" windowHeight="12015"/>
+    <workbookView xWindow="19095" yWindow="-15" windowWidth="19140" windowHeight="12015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="4" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>FedFund</t>
-  </si>
-  <si>
     <t>UnitedKingdom::Exchange</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>6MD</t>
+  </si>
+  <si>
+    <t>USDFedFunds</t>
   </si>
 </sst>
 </file>
@@ -1429,6 +1429,15 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1446,15 +1455,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -1541,43 +1541,43 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>73</v>
+            <v>89</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="8">
           <cell r="D8" t="str">
-            <v>USDSTD</v>
+            <v>USD1M#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="7">
           <cell r="D7" t="str">
-            <v>LiborYC3M</v>
+            <v>3M</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>LiborYC3M</v>
+            <v>3M</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="7">
           <cell r="D7" t="str">
-            <v>LiborYC3M</v>
+            <v>3M</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>LiborYC3M</v>
+            <v>3M</v>
           </cell>
         </row>
       </sheetData>
@@ -2131,8 +2131,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2151,23 +2151,23 @@
     <row r="1" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="139" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="234"/>
-      <c r="H2" s="235" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="237"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="237"/>
+      <c r="H2" s="238" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="240"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B3" s="142"/>
@@ -2192,7 +2192,7 @@
       <c r="F4" s="143"/>
       <c r="H4" s="155"/>
       <c r="I4" s="158" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="159" t="b">
         <v>1</v>
@@ -2206,14 +2206,14 @@
         <v>16</v>
       </c>
       <c r="D5" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="143"/>
       <c r="G5" s="139"/>
       <c r="H5" s="155"/>
       <c r="I5" s="158" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="159" t="b">
         <v>0</v>
@@ -2260,7 +2260,7 @@
       <c r="G6" s="139"/>
       <c r="H6" s="155"/>
       <c r="I6" s="158" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="159" t="b">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>27</v>
       </c>
       <c r="D7" s="138" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="143"/>
       <c r="H7" s="155"/>
       <c r="I7" s="158" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="161"/>
       <c r="K7" s="160"/>
@@ -2312,16 +2312,16 @@
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B8" s="142"/>
       <c r="C8" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="143"/>
       <c r="H8" s="155"/>
       <c r="I8" s="158" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="162" t="b">
         <v>1</v>
@@ -2346,23 +2346,23 @@
       </c>
       <c r="D10" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="143"/>
       <c r="H10" s="155"/>
       <c r="I10" s="158" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="162" t="s">
         <v>71</v>
-      </c>
-      <c r="J10" s="162" t="s">
-        <v>72</v>
       </c>
       <c r="K10" s="160"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B11" s="142"/>
       <c r="C11" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="57">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate),12,31),"Preceding")</f>
@@ -2372,7 +2372,7 @@
       <c r="F11" s="143"/>
       <c r="H11" s="155"/>
       <c r="I11" s="158" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="163">
         <v>1E-4</v>
@@ -2382,7 +2382,7 @@
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B12" s="142"/>
       <c r="C12" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="57">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate)+1,12,31),"Preceding")</f>
@@ -2392,7 +2392,7 @@
       <c r="F12" s="143"/>
       <c r="H12" s="155"/>
       <c r="I12" s="158" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" s="164">
         <v>-0.01</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="D14" s="51" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00274#0000</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="143"/>
@@ -2583,11 +2583,9 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="58"/>
       <c r="B2" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="152">
-        <v>41752.613599537035</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C2" s="152"/>
       <c r="D2" s="59"/>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
@@ -2619,7 +2617,7 @@
       </c>
       <c r="C3" s="151">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41752</v>
+        <v>41761</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -2680,7 +2678,7 @@
       </c>
       <c r="C5" s="150">
         <f>[1]!TriggerCounter</f>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D5" s="59"/>
       <c r="E5" s="60"/>
@@ -2713,7 +2711,7 @@
       </c>
       <c r="C6" s="231">
         <f>[1]!LastFixingsTrigger</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
@@ -8049,16 +8047,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="26.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="32.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="6" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" style="1"/>
@@ -8132,7 +8130,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00286#0000</v>
+        <v>obj_0048c#0000</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -8144,23 +8142,23 @@
       </c>
       <c r="E2" s="112">
         <f>SettlementDate</f>
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="F2" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41786</v>
+        <v>41799</v>
       </c>
       <c r="G2" s="114">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
-        <v>1.5229999999999998E-3</v>
+        <v>1.505E-3</v>
       </c>
       <c r="H2" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>9.109858327968624E-4</v>
+        <v>9.0000000005797563E-4</v>
       </c>
       <c r="I2" s="116">
         <f>G2-H2</f>
-        <v>6.1201416720313743E-4</v>
+        <v>6.0499999994202442E-4</v>
       </c>
       <c r="J2" s="117" t="b">
         <v>0</v>
@@ -8174,33 +8172,33 @@
       </c>
       <c r="O2" s="120">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="120">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="117"/>
       <c r="R2" s="131">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>341.33333333333331</v>
+        <v>363</v>
       </c>
       <c r="S2" s="131">
         <f>(O2+N2)/2</f>
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="T2" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="238" t="str">
+      <c r="A3" s="232" t="str">
         <f>_xll.qlPeriodEquivalent(A2&amp;"M")</f>
         <v>1M</v>
       </c>
       <c r="B3" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00287#0000</v>
+        <v>obj_00491#0000</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -8212,23 +8210,23 @@
       </c>
       <c r="E3" s="105">
         <f>E2</f>
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="F3" s="106">
         <f>F2</f>
-        <v>41786</v>
+        <v>41799</v>
       </c>
       <c r="G3" s="107">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>1.5229999999999998E-3</v>
+        <v>1.505E-3</v>
       </c>
       <c r="H3" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>9.109858327968624E-4</v>
+        <v>9.0000000005797563E-4</v>
       </c>
       <c r="I3" s="109">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>6.1201416720313743E-4</v>
+        <v>6.0499999994202442E-4</v>
       </c>
       <c r="J3" s="117" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -8236,11 +8234,11 @@
       </c>
       <c r="K3" s="119">
         <f>K4</f>
-        <v>-7.163187341494072E-8</v>
+        <v>-5.3786613586453301E-7</v>
       </c>
       <c r="L3" s="108">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>6.143063871524155E-4</v>
+        <v>6.2274958242555399E-4</v>
       </c>
       <c r="M3" s="118"/>
       <c r="N3" s="120">
@@ -8249,20 +8247,20 @@
       </c>
       <c r="O3" s="120">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="120">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="117"/>
       <c r="R3" s="131">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>341.33333333333331</v>
+        <v>363</v>
       </c>
       <c r="S3" s="131">
         <f>(O3+N3)/2</f>
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="T3" s="131">
         <v>1</v>
@@ -8275,7 +8273,7 @@
       </c>
       <c r="B4" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00289#0000</v>
+        <v>obj_00490#0000</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -8286,23 +8284,23 @@
       </c>
       <c r="E4" s="55">
         <f>F3</f>
-        <v>41786</v>
+        <v>41799</v>
       </c>
       <c r="F4" s="56">
         <f>F5</f>
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="G4" s="27">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>1.5375159924341816E-3</v>
+        <v>1.5156837559380876E-3</v>
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>9.298713695093556E-4</v>
+        <v>9.4349359028379971E-4</v>
       </c>
       <c r="I4" s="16">
         <f>G4-H4</f>
-        <v>6.0764462292482605E-4</v>
+        <v>5.721901656542879E-4</v>
       </c>
       <c r="J4" s="1" t="b">
         <f>NOT(ISERROR(I4))</f>
@@ -8310,16 +8308,16 @@
       </c>
       <c r="K4" s="15">
         <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>-7.163187341494072E-8</v>
+        <v>-5.3786613586453301E-7</v>
       </c>
       <c r="L4" s="15">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>6.143063871524155E-4</v>
+        <v>6.2274958242555399E-4</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="121">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="121">
         <f t="shared" si="0"/>
@@ -8327,15 +8325,15 @@
       </c>
       <c r="P4" s="121">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R4" s="100">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2232.333333333333</v>
+        <v>2274.3333333333335</v>
       </c>
       <c r="S4" s="100">
         <f>(O4+N4)/2</f>
-        <v>46.5</v>
+        <v>47</v>
       </c>
       <c r="T4" s="100">
         <v>1</v>
@@ -8351,15 +8349,15 @@
       </c>
       <c r="E5" s="55">
         <f>SettlementDate</f>
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="F5" s="56">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="G5" s="52">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>1.5299999999999999E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="16"/>
@@ -8382,7 +8380,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00282#0000</v>
+        <v>obj_00489#0000</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -8394,23 +8392,23 @@
       </c>
       <c r="E6" s="112">
         <f>SettlementDate</f>
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="F6" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41845</v>
+        <v>41858</v>
       </c>
       <c r="G6" s="114">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>2.2875E-3</v>
+        <v>2.2285E-3</v>
       </c>
       <c r="H6" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>9.200000000000538E-4</v>
+        <v>9.2999999946704562E-4</v>
       </c>
       <c r="I6" s="116">
         <f t="shared" si="1"/>
-        <v>1.3674999999999462E-3</v>
+        <v>1.2985000005329545E-3</v>
       </c>
       <c r="J6" s="117" t="b">
         <v>0</v>
@@ -8424,33 +8422,33 @@
       </c>
       <c r="O6" s="120">
         <f t="shared" ref="O6:O27" si="3">F6-SettlementDate</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P6" s="120">
         <f>(O6^2-N6^2)/(O6-N6)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="117"/>
       <c r="R6" s="131">
         <f t="shared" ref="R6:R14" si="4">(O6^3-N6^3)/3/(O6-N6)</f>
-        <v>2760.3333333333335</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="S6" s="131">
         <f t="shared" ref="S6:S14" si="5">(O6+N6)/2</f>
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="T6" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="238" t="str">
+      <c r="A7" s="232" t="str">
         <f>_xll.qlPeriodEquivalent(A6&amp;"M")</f>
         <v>3M</v>
       </c>
       <c r="B7" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00288#0000</v>
+        <v>obj_0048f#0000</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -8462,23 +8460,23 @@
       </c>
       <c r="E7" s="105">
         <f>E6</f>
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="F7" s="106">
         <f>F6</f>
-        <v>41845</v>
+        <v>41858</v>
       </c>
       <c r="G7" s="107">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>2.2875E-3</v>
+        <v>2.2285E-3</v>
       </c>
       <c r="H7" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>9.200000000000538E-4</v>
+        <v>9.2999999946704562E-4</v>
       </c>
       <c r="I7" s="109">
         <f t="shared" si="1"/>
-        <v>1.3674999999999462E-3</v>
+        <v>1.2985000005329545E-3</v>
       </c>
       <c r="J7" s="117" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)))</f>
@@ -8493,27 +8491,27 @@
       </c>
       <c r="O7" s="120">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P7" s="120">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="117"/>
       <c r="R7" s="131">
         <f t="shared" si="4"/>
-        <v>2760.3333333333335</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="S7" s="131">
         <f t="shared" si="5"/>
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="T7" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="238" t="str">
+      <c r="A8" s="232" t="str">
         <f>PROPER(Currency)&amp;IborType&amp;A7</f>
         <v>UsdLibor3M</v>
       </c>
@@ -8537,11 +8535,11 @@
       <c r="M8" s="118"/>
       <c r="N8" s="120">
         <f t="shared" si="2"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="O8" s="120">
         <f t="shared" si="3"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="P8" s="120" t="e">
         <f t="shared" si="6"/>
@@ -8554,7 +8552,7 @@
       </c>
       <c r="S8" s="131">
         <f t="shared" si="5"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="T8" s="131">
         <v>1</v>
@@ -8585,20 +8583,20 @@
       </c>
       <c r="K9" s="108">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>-3.7175264097954424E-7</v>
+        <v>-8.0180558696483716E-7</v>
       </c>
       <c r="L9" s="108">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4013294903290848E-3</v>
+        <v>1.3722661145337196E-3</v>
       </c>
       <c r="M9" s="118"/>
       <c r="N9" s="120">
         <f t="shared" si="2"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="O9" s="120">
         <f t="shared" si="3"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="P9" s="120" t="e">
         <f t="shared" si="6"/>
@@ -8611,18 +8609,18 @@
       </c>
       <c r="S9" s="131">
         <f t="shared" si="5"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="T9" s="131">
         <v>1</v>
       </c>
       <c r="V9" s="91">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>2760.3333333333335</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="W9" s="92">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="X9" s="93">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -8630,35 +8628,35 @@
       </c>
       <c r="Z9" s="76">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>2.4255205846153995E-8</v>
+        <v>3.1587917154378896E-8</v>
       </c>
       <c r="AB9" s="76">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.3674999999999462E-3</v>
+        <v>1.2985000005329545E-3</v>
       </c>
       <c r="AD9" s="82">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>6.9979006298110584E-4</v>
+        <v>1.7006802721088478E-3</v>
       </c>
       <c r="AE9" s="83">
-        <v>-1.3620913725882239E-3</v>
+        <v>-2.5510204081632716E-3</v>
       </c>
       <c r="AF9" s="84">
-        <v>6.6230130960711784E-4</v>
+        <v>8.5034013605442401E-4</v>
       </c>
       <c r="AH9" s="79">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>8.6736173798840355E-19</v>
+        <v>2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="238" t="str">
+      <c r="A10" s="232" t="str">
         <f>_xll.qlIMMNextCode(EvaluationDate,FALSE)</f>
         <v>K4</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0032d#0000</v>
+        <v>obj_00487#0000</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -8678,15 +8676,15 @@
       </c>
       <c r="G10" s="52">
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
-        <v>2.2874999999999979E-3</v>
+        <v>2.2124999999999506E-3</v>
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>9.4652137208311765E-4</v>
+        <v>9.4385006975855851E-4</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="1"/>
-        <v>1.3409786279168802E-3</v>
+        <v>1.2686499302413921E-3</v>
       </c>
       <c r="J10" s="1" t="b">
         <f>AND(NOT(ISERROR(I10)),E10&lt;&gt;$E$9,E10&lt;&gt;$E$8)</f>
@@ -8694,41 +8692,41 @@
       </c>
       <c r="K10" s="15">
         <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-5.0040324685030221E-7</v>
+        <v>-1.066073938984371E-6</v>
       </c>
       <c r="L10" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4130366954633238E-3</v>
+        <v>1.3965788029195166E-3</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="121">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O10" s="121">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="P10" s="121">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="R10" s="100">
         <f t="shared" si="4"/>
-        <v>5889.333333333333</v>
+        <v>4305.3333333333339</v>
       </c>
       <c r="S10" s="100">
         <f t="shared" si="5"/>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="T10" s="100">
         <v>1</v>
       </c>
       <c r="V10" s="94">
-        <v>5889.333333333333</v>
+        <v>4305.3333333333339</v>
       </c>
       <c r="W10" s="95">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="X10" s="96">
         <v>1</v>
@@ -8737,35 +8735,35 @@
         <v>47</v>
       </c>
       <c r="Z10" s="77">
-        <v>-3.8647513651200672E-6</v>
+        <v>-5.4804670963328801E-6</v>
       </c>
       <c r="AA10" s="67" t="s">
         <v>48</v>
       </c>
       <c r="AB10" s="77">
-        <v>1.3409786279168802E-3</v>
+        <v>1.2686499302413921E-3</v>
       </c>
       <c r="AD10" s="85">
-        <v>-0.12036389083275019</v>
+        <v>-0.2517006802721094</v>
       </c>
       <c r="AE10" s="86">
-        <v>0.19856543037088875</v>
+        <v>0.34183673469387837</v>
       </c>
       <c r="AF10" s="87">
-        <v>-7.8201539538138548E-2</v>
+        <v>-9.0136054421768988E-2</v>
       </c>
       <c r="AH10" s="80">
-        <v>8.6736173798840355E-19</v>
+        <v>2.3852447794681098E-18</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="238" t="str">
+      <c r="A11" s="232" t="str">
         <f>_xll.qlIMMNextCode(E10,IF(_xll.qlIMMIsIMMdate(E10,TRUE),FALSE,TRUE))</f>
         <v>M4</v>
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0032c#0001</v>
+        <v>obj_00472#0000</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -8785,15 +8783,15 @@
       </c>
       <c r="G11" s="52">
         <f>1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
-        <v>2.3250000000000215E-3</v>
+        <v>2.2249999999999215E-3</v>
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>9.7542133895142538E-4</v>
+        <v>9.7890281976810499E-4</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="1"/>
-        <v>1.3495786610485962E-3</v>
+        <v>1.2460971802318165E-3</v>
       </c>
       <c r="J11" s="1" t="b">
         <f>NOT(ISERROR(I11))</f>
@@ -8801,62 +8799,62 @@
       </c>
       <c r="K11" s="15">
         <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.644159536821102E-7</v>
+        <v>-6.2384309882307147E-7</v>
       </c>
       <c r="L11" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3824618517850184E-3</v>
+        <v>1.355893565624677E-3</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="121">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="O11" s="121">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="P11" s="121">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="R11" s="100">
         <f t="shared" si="4"/>
-        <v>10705.333333333332</v>
+        <v>8449.3333333333321</v>
       </c>
       <c r="S11" s="100">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T11" s="100">
         <v>1</v>
       </c>
       <c r="V11" s="97">
-        <v>10705.333333333332</v>
+        <v>8449.3333333333321</v>
       </c>
       <c r="W11" s="98">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="X11" s="99">
         <v>1</v>
       </c>
       <c r="Z11" s="78">
-        <v>1.4763937339089097E-3</v>
+        <v>1.461481443366048E-3</v>
       </c>
       <c r="AB11" s="78">
-        <v>1.3495786610485962E-3</v>
+        <v>1.2460971802318165E-3</v>
       </c>
       <c r="AD11" s="88">
-        <v>4.5449031957079544</v>
+        <v>7.7800453514739374</v>
       </c>
       <c r="AE11" s="89">
-        <v>-5.2749008630744108</v>
+        <v>-8.527210884353762</v>
       </c>
       <c r="AF11" s="90">
-        <v>1.7299976673664565</v>
+        <v>1.7471655328798255</v>
       </c>
       <c r="AH11" s="81">
-        <v>6.5052130349130266E-19</v>
+        <v>3.4694469519536142E-18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -8865,7 +8863,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0032e#0000</v>
+        <v>obj_00473#0000</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -8877,23 +8875,23 @@
       </c>
       <c r="E12" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41786</v>
+        <v>41799</v>
       </c>
       <c r="F12" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41878</v>
+        <v>41891</v>
       </c>
       <c r="G12" s="52">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>2.2899999999999999E-3</v>
+        <v>2.2200000000000002E-3</v>
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>9.5177851695645813E-4</v>
+        <v>9.6872298119079223E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>1.3382214830435419E-3</v>
+        <v>1.251277018809208E-3</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -8901,32 +8899,32 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-4.504387224062203E-7</v>
+        <v>-7.1549972308706887E-7</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4084899237389124E-3</v>
+        <v>1.3643259750569649E-3</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="121">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="121">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P12" s="121">
         <f t="shared" si="6"/>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R12" s="100">
         <f t="shared" si="4"/>
-        <v>6789.333333333333</v>
+        <v>6946.333333333333</v>
       </c>
       <c r="S12" s="100">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T12" s="100">
         <v>1</v>
@@ -8941,7 +8939,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0032f#0000</v>
+        <v>obj_00470#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -8953,23 +8951,23 @@
       </c>
       <c r="E13" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="F13" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41907</v>
+        <v>41919</v>
       </c>
       <c r="G13" s="52">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.3400000000000001E-3</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>9.8636797532269472E-4</v>
+        <v>1.0029958170922604E-3</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>1.3536320246773054E-3</v>
+        <v>1.2470041829077399E-3</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -8977,11 +8975,11 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.1274776685073888E-7</v>
+        <v>-4.2209686578044786E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3777600467833634E-3</v>
+        <v>1.3373329121847558E-3</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="121">
@@ -9017,7 +9015,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00330#0000</v>
+        <v>obj_00475#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -9029,23 +9027,23 @@
       </c>
       <c r="E14" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41845</v>
+        <v>41858</v>
       </c>
       <c r="F14" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41939</v>
+        <v>41950</v>
       </c>
       <c r="G14" s="52">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.3799999999999997E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>1.0575200252880845E-3</v>
+        <v>1.0697457576254274E-3</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>1.3224799747119152E-3</v>
+        <v>1.2202542423745725E-3</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -9053,20 +9051,20 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-2.4335148804341083E-7</v>
+        <v>-4.2524868564338047E-7</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3896449854118966E-3</v>
+        <v>1.3376228796121454E-3</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="121">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O14" s="121">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P14" s="121">
         <f t="shared" si="6"/>
@@ -9074,7 +9072,7 @@
       </c>
       <c r="R14" s="100">
         <f t="shared" si="4"/>
-        <v>19780.333333333332</v>
+        <v>19749.333333333336</v>
       </c>
       <c r="S14" s="100">
         <f t="shared" si="5"/>
@@ -9093,7 +9091,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00333#0000</v>
+        <v>obj_00474#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -9105,23 +9103,23 @@
       </c>
       <c r="E15" s="112">
         <f>SettlementDate</f>
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="F15" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41939</v>
+        <v>41950</v>
       </c>
       <c r="G15" s="114">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
-        <v>3.228E-3</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="H15" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>9.8999999999881626E-4</v>
+        <v>1.0000000000004693E-3</v>
       </c>
       <c r="I15" s="116">
         <f t="shared" si="1"/>
-        <v>2.2380000000011835E-3</v>
+        <v>2.2199999999995309E-3</v>
       </c>
       <c r="J15" s="117" t="b">
         <v>0</v>
@@ -9135,33 +9133,33 @@
       </c>
       <c r="O15" s="120">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P15" s="120">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="117"/>
       <c r="R15" s="131">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11408.333333333332</v>
+        <v>11285.333333333332</v>
       </c>
       <c r="S15" s="131">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="T15" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="238" t="str">
+      <c r="A16" s="232" t="str">
         <f>_xll.qlPeriodEquivalent(A15&amp;"M")</f>
         <v>6M</v>
       </c>
       <c r="B16" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00332#0001</v>
+        <v>obj_0048d#0000</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -9173,23 +9171,23 @@
       </c>
       <c r="E16" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41754</v>
+        <v>41765</v>
       </c>
       <c r="F16" s="106">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41939</v>
+        <v>41949</v>
       </c>
       <c r="G16" s="107">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>3.228E-3</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="H16" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>9.8999999999881626E-4</v>
+        <v>1.0017321044090675E-3</v>
       </c>
       <c r="I16" s="109">
         <f t="shared" si="1"/>
-        <v>2.2380000000011835E-3</v>
+        <v>2.2182678955909325E-3</v>
       </c>
       <c r="J16" s="117" t="b">
         <f>AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
@@ -9200,31 +9198,31 @@
       <c r="M16" s="118"/>
       <c r="N16" s="120">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="120">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P16" s="120">
         <f t="shared" si="7"/>
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="117"/>
       <c r="R16" s="131">
         <f t="shared" si="8"/>
-        <v>11408.333333333332</v>
+        <v>11102.333333333332</v>
       </c>
       <c r="S16" s="131">
         <f t="shared" si="9"/>
-        <v>92.5</v>
+        <v>91</v>
       </c>
       <c r="T16" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="238" t="str">
+      <c r="A17" s="232" t="str">
         <f>PROPER(Currency)&amp;IborType&amp;A16</f>
         <v>UsdLibor6M</v>
       </c>
@@ -9248,11 +9246,11 @@
       <c r="M17" s="118"/>
       <c r="N17" s="120">
         <f t="shared" si="2"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="O17" s="120">
         <f t="shared" si="3"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="P17" s="120" t="e">
         <f t="shared" si="7"/>
@@ -9265,7 +9263,7 @@
       </c>
       <c r="S17" s="131">
         <f t="shared" si="9"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="T17" s="131">
         <v>1</v>
@@ -9296,20 +9294,20 @@
       </c>
       <c r="K18" s="108">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-2.6339997809853552E-7</v>
+        <v>-5.814751652831254E-7</v>
       </c>
       <c r="L18" s="108">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2867289959494124E-3</v>
+        <v>2.3240963756724613E-3</v>
       </c>
       <c r="M18" s="118"/>
       <c r="N18" s="120">
         <f t="shared" si="2"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="O18" s="120">
         <f t="shared" si="3"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="P18" s="120" t="e">
         <f t="shared" si="7"/>
@@ -9322,18 +9320,18 @@
       </c>
       <c r="S18" s="131">
         <f t="shared" si="9"/>
-        <v>-41754</v>
+        <v>-41766</v>
       </c>
       <c r="T18" s="131">
         <v>1</v>
       </c>
       <c r="V18" s="91">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>11408.333333333332</v>
+        <v>11102.333333333332</v>
       </c>
       <c r="W18" s="92">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>92.5</v>
+        <v>91</v>
       </c>
       <c r="X18" s="93">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -9341,25 +9339,25 @@
       </c>
       <c r="Z18" s="76">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>2.0400485387877149E-8</v>
+        <v>1.8183142703755349E-8</v>
       </c>
       <c r="AB18" s="76">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>2.2380000000011835E-3</v>
+        <v>2.2182678955909325E-3</v>
       </c>
       <c r="AD18" s="82">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>4.8777315296566059E-4</v>
+        <v>4.6651970841154181E-4</v>
       </c>
       <c r="AE18" s="83">
-        <v>-1.0080645161290318E-3</v>
+        <v>-1.0148849797023017E-3</v>
       </c>
       <c r="AF18" s="84">
-        <v>5.2029136316337132E-4</v>
+        <v>5.4836527129075992E-4</v>
       </c>
       <c r="AH18" s="79">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>4.3368086899420177E-18</v>
+        <v>-1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -9368,56 +9366,56 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00334#0000</v>
+        <v>obj_00482#0000</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D19" s="11" t="str">
-        <f>Currency&amp;A19&amp;"x"&amp;A19+6&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" ref="D19:D24" si="10">Currency&amp;A19&amp;"x"&amp;A19+6&amp;"F"&amp;QuoteSuffix</f>
         <v>USD1x7F_Quote</v>
       </c>
       <c r="E19" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41786</v>
+        <v>41799</v>
       </c>
       <c r="F19" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>41971</v>
+        <v>41982</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>3.2499999999999994E-3</v>
+        <v>3.2199999999999993E-3</v>
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>1.0409991832463117E-3</v>
+        <v>1.0545039539739298E-3</v>
       </c>
       <c r="I19" s="16">
-        <f t="shared" ref="I19:I24" si="10">G19-H19</f>
-        <v>2.2090008167536877E-3</v>
+        <f t="shared" ref="I19:I24" si="11">G19-H19</f>
+        <v>2.1654960460260695E-3</v>
       </c>
       <c r="J19" s="1" t="b">
-        <f t="shared" ref="J19:J24" si="11">NOT(ISERROR(I19))</f>
+        <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
         <v>1</v>
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-4.5311223824212149E-7</v>
+        <v>-7.8763954574422344E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3218257640759761E-3</v>
+        <v>2.361618292916381E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="121">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O19" s="121">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P19" s="121">
         <f t="shared" si="7"/>
@@ -9425,7 +9423,7 @@
       </c>
       <c r="R19" s="100">
         <f t="shared" si="8"/>
-        <v>18352.333333333332</v>
+        <v>18291</v>
       </c>
       <c r="S19" s="100">
         <f t="shared" si="9"/>
@@ -9435,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="94">
-        <v>18352.333333333332</v>
+        <v>18291</v>
       </c>
       <c r="W19" s="95">
         <v>124.5</v>
@@ -9447,25 +9445,25 @@
         <v>47</v>
       </c>
       <c r="Z19" s="77">
-        <v>-5.3331298056535285E-6</v>
+        <v>-5.4771463108833191E-6</v>
       </c>
       <c r="AA19" s="67" t="s">
         <v>48</v>
       </c>
       <c r="AB19" s="77">
-        <v>2.2090008167536877E-3</v>
+        <v>2.1654960460260695E-3</v>
       </c>
       <c r="AD19" s="85">
-        <v>-0.13709677419354835</v>
+        <v>-0.1299598411104807</v>
       </c>
       <c r="AE19" s="86">
-        <v>0.24999999999999989</v>
+        <v>0.24763193504736158</v>
       </c>
       <c r="AF19" s="87">
-        <v>-0.11290322580645157</v>
+        <v>-0.1176720939368809</v>
       </c>
       <c r="AH19" s="80">
-        <v>6.0715321659188248E-18</v>
+        <v>-8.6736173798840355E-19</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -9474,47 +9472,47 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00337#0000</v>
+        <v>obj_0048a#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D20" s="11" t="str">
-        <f>Currency&amp;A20&amp;"x"&amp;A20+6&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="10"/>
         <v>USD2x8F_Quote</v>
       </c>
       <c r="E20" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="F20" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42002</v>
+        <v>42011</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>3.2999999999999995E-3</v>
+        <v>3.2599999999999994E-3</v>
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>1.0789761846253399E-3</v>
+        <v>1.1062405928614241E-3</v>
       </c>
       <c r="I20" s="16">
-        <f t="shared" si="10"/>
-        <v>2.2210238153746596E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.1537594071385753E-3</v>
       </c>
       <c r="J20" s="1" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.3690471473003103E-7</v>
+        <v>-5.2022974558352525E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2633273722262393E-3</v>
+        <v>2.3129497092871341E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="121">
@@ -9523,49 +9521,49 @@
       </c>
       <c r="O20" s="121">
         <f t="shared" si="3"/>
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P20" s="121">
         <f t="shared" si="7"/>
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="R20" s="100">
         <f t="shared" si="8"/>
-        <v>26784.333333333332</v>
+        <v>26230.333333333332</v>
       </c>
       <c r="S20" s="100">
         <f t="shared" si="9"/>
-        <v>154.5</v>
+        <v>153</v>
       </c>
       <c r="T20" s="100">
         <v>1</v>
       </c>
       <c r="V20" s="97">
-        <v>26784.333333333332</v>
+        <v>26230.333333333332</v>
       </c>
       <c r="W20" s="98">
-        <v>154.5</v>
+        <v>153</v>
       </c>
       <c r="X20" s="99">
         <v>1</v>
       </c>
       <c r="Z20" s="78">
-        <v>2.4985789695574408E-3</v>
+        <v>2.514812898536653E-3</v>
       </c>
       <c r="AB20" s="78">
-        <v>2.2210238153746596E-3</v>
+        <v>2.1537594071385753E-3</v>
       </c>
       <c r="AD20" s="88">
-        <v>8.1167728928199789</v>
+        <v>7.6468882316993367</v>
       </c>
       <c r="AE20" s="89">
-        <v>-11.624663978494622</v>
+        <v>-11.266914749661719</v>
       </c>
       <c r="AF20" s="90">
-        <v>4.5078910856746441</v>
+        <v>4.6200265179623816</v>
       </c>
       <c r="AH20" s="81">
-        <v>8.2399365108898337E-18</v>
+        <v>4.3368086899420177E-19</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -9574,68 +9572,68 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00336#0000</v>
+        <v>obj_00486#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D21" s="11" t="str">
-        <f>Currency&amp;A21&amp;"x"&amp;A21+6&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="10"/>
         <v>USD3x9F_Quote</v>
       </c>
       <c r="E21" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41845</v>
+        <v>41858</v>
       </c>
       <c r="F21" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42030</v>
+        <v>42044</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>3.3599999999999997E-3</v>
+        <v>3.3199999999999996E-3</v>
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>1.1584333025996851E-3</v>
+        <v>1.1838046708591331E-3</v>
       </c>
       <c r="I21" s="16">
-        <f t="shared" si="10"/>
-        <v>2.2015666974003149E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.1361953291408665E-3</v>
       </c>
       <c r="J21" s="1" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.0018298132345395E-7</v>
+        <v>-4.3655620452162754E-7</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2750338515460226E-3</v>
+        <v>2.2977211248138688E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="121">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O21" s="121">
         <f t="shared" si="3"/>
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P21" s="121">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="R21" s="100">
         <f t="shared" si="8"/>
-        <v>36524.333333333336</v>
+        <v>37108</v>
       </c>
       <c r="S21" s="100">
         <f t="shared" si="9"/>
-        <v>183.5</v>
+        <v>185</v>
       </c>
       <c r="T21" s="100">
         <v>1</v>
@@ -9651,56 +9649,56 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00339#0000</v>
+        <v>obj_00480#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D22" s="11" t="str">
-        <f>Currency&amp;A22&amp;"x"&amp;A22+6&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="10"/>
         <v>USD4x10F_Quote</v>
       </c>
       <c r="E22" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41877</v>
+        <v>41890</v>
       </c>
       <c r="F22" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42061</v>
+        <v>42072</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>3.4499999999999999E-3</v>
+        <v>3.4299999999999999E-3</v>
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>1.2586773629802673E-3</v>
+        <v>1.2858429796138568E-3</v>
       </c>
       <c r="I22" s="16">
-        <f t="shared" si="10"/>
-        <v>2.1913226370197329E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.1441570203861431E-3</v>
       </c>
       <c r="J22" s="1" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.9051984890388013E-7</v>
+        <v>-2.9883417421286026E-7</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2732461720484012E-3</v>
+        <v>2.2726557152976733E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="121">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O22" s="121">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P22" s="121">
         <f t="shared" si="7"/>
@@ -9708,7 +9706,7 @@
       </c>
       <c r="R22" s="100">
         <f t="shared" si="8"/>
-        <v>49046.333333333336</v>
+        <v>48985.333333333328</v>
       </c>
       <c r="S22" s="100">
         <f t="shared" si="9"/>
@@ -9728,47 +9726,47 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00335#0000</v>
+        <v>obj_0047e#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D23" s="11" t="str">
-        <f>Currency&amp;A23&amp;"x"&amp;A23+6&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="10"/>
         <v>USD5x11F_Quote</v>
       </c>
       <c r="E23" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41907</v>
+        <v>41919</v>
       </c>
       <c r="F23" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42088</v>
+        <v>42101</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>3.5699999999999998E-3</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>1.3469642507371027E-3</v>
+        <v>1.411176484716123E-3</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" si="10"/>
-        <v>2.2230357492628973E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.1688235152838766E-3</v>
       </c>
       <c r="J23" s="1" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-4.9550499133397883E-8</v>
+        <v>-1.6158294217992113E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2471668423408621E-3</v>
+        <v>2.2476759910676782E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="121">
@@ -9777,19 +9775,19 @@
       </c>
       <c r="O23" s="121">
         <f t="shared" si="3"/>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P23" s="121">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="R23" s="100">
         <f t="shared" si="8"/>
-        <v>62022.333333333336</v>
+        <v>62296.333333333328</v>
       </c>
       <c r="S23" s="100">
         <f t="shared" si="9"/>
-        <v>243.5</v>
+        <v>244</v>
       </c>
       <c r="T23" s="100">
         <v>1</v>
@@ -9805,68 +9803,68 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00338#0000</v>
+        <v>obj_0047f#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D24" s="11" t="str">
-        <f>Currency&amp;A24&amp;"x"&amp;A24+6&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="10"/>
         <v>USD6x12F_Quote</v>
       </c>
       <c r="E24" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41939</v>
+        <v>41950</v>
       </c>
       <c r="F24" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42121</v>
+        <v>42131</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>3.7299999999999998E-3</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>1.4933611316396166E-3</v>
+        <v>1.5839970313506456E-3</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" si="10"/>
-        <v>2.2366388683603832E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.1960029686493542E-3</v>
       </c>
       <c r="J24" s="1" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-3.7088055607638353E-9</v>
+        <v>-6.0667375862611227E-8</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2386861290299249E-3</v>
+        <v>2.2293093579979278E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="121">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O24" s="121">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P24" s="121">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R24" s="100">
         <f t="shared" si="8"/>
-        <v>78936.333333333328</v>
+        <v>78080.333333333343</v>
       </c>
       <c r="S24" s="100">
         <f t="shared" si="9"/>
-        <v>276</v>
+        <v>274.5</v>
       </c>
       <c r="T24" s="100">
         <v>1</v>
@@ -9878,7 +9876,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0033a#0000</v>
+        <v>obj_00477#0000</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -9890,23 +9888,23 @@
       </c>
       <c r="E25" s="112">
         <f>SettlementDate</f>
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="F25" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42121</v>
+        <v>42131</v>
       </c>
       <c r="G25" s="114">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>5.483E-3</v>
+        <v>5.4749999999999998E-3</v>
       </c>
       <c r="H25" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>1.2399999999967541E-3</v>
+        <v>1.2899999999996363E-3</v>
       </c>
       <c r="I25" s="116">
         <f t="shared" si="1"/>
-        <v>4.2430000000032459E-3</v>
+        <v>4.1850000000003638E-3</v>
       </c>
       <c r="J25" s="117" t="b">
         <v>0</v>
@@ -9920,33 +9918,33 @@
       </c>
       <c r="O25" s="120">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P25" s="120">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="117"/>
       <c r="R25" s="131">
         <f t="shared" si="8"/>
-        <v>44896.333333333336</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="S25" s="131">
         <f t="shared" si="9"/>
-        <v>183.5</v>
+        <v>182.5</v>
       </c>
       <c r="T25" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="238" t="str">
+      <c r="A26" s="232" t="str">
         <f>_xll.qlPeriodEquivalent(A25&amp;"M")</f>
         <v>1Y</v>
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0033b#0001</v>
+        <v>obj_0048e#0000</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -9958,23 +9956,23 @@
       </c>
       <c r="E26" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41754</v>
+        <v>41765</v>
       </c>
       <c r="F26" s="106">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42121</v>
+        <v>42130</v>
       </c>
       <c r="G26" s="107">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>5.483E-3</v>
+        <v>5.4749999999999998E-3</v>
       </c>
       <c r="H26" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>1.2399999999967541E-3</v>
+        <v>1.2875088968702711E-3</v>
       </c>
       <c r="I26" s="109">
         <f t="shared" si="1"/>
-        <v>4.2430000000032459E-3</v>
+        <v>4.1874911031297285E-3</v>
       </c>
       <c r="J26" s="117" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -9991,37 +9989,37 @@
       <c r="M26" s="118"/>
       <c r="N26" s="120">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O26" s="120">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P26" s="120">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="117"/>
       <c r="R26" s="131">
         <f t="shared" si="8"/>
-        <v>44896.333333333336</v>
+        <v>44044.333333333328</v>
       </c>
       <c r="S26" s="131">
         <f t="shared" si="9"/>
-        <v>183.5</v>
+        <v>181.5</v>
       </c>
       <c r="T26" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="238" t="str">
+      <c r="A27" s="232" t="str">
         <f>PROPER(Currency)&amp;IborType&amp;A26</f>
         <v>UsdLibor1Y</v>
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0033c#0000</v>
+        <v>obj_0046d#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -10033,11 +10031,11 @@
       </c>
       <c r="E27" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42121</v>
+        <v>42131</v>
       </c>
       <c r="F27" s="56">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42487</v>
+        <v>42499</v>
       </c>
       <c r="G27" s="27" t="e">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
@@ -10045,7 +10043,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.3740210273735328E-3</v>
+        <v>6.2655189115717888E-3</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -10066,7 +10064,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="121">
         <f t="shared" si="2"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O27" s="121">
         <f t="shared" si="3"/>
@@ -10074,15 +10072,15 @@
       </c>
       <c r="P27" s="121">
         <f t="shared" si="7"/>
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="R27" s="100">
         <f t="shared" si="8"/>
-        <v>313663</v>
+        <v>312686.33333333337</v>
       </c>
       <c r="S27" s="100">
         <f t="shared" si="9"/>
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T27" s="100">
         <v>1</v>
@@ -10153,11 +10151,11 @@
       </c>
       <c r="V30" s="126">
         <f>Z9</f>
-        <v>2.4255205846153995E-8</v>
+        <v>3.1587917154378896E-8</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>2.0400485387877149E-8</v>
+        <v>1.8183142703755349E-8</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -10166,34 +10164,34 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>6.1201416720313743E-4</v>
+        <v>6.0499999994202442E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.3674999999999462E-3</v>
+        <v>1.2985000005329545E-3</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>2.2380000000011835E-3</v>
+        <v>2.2182678955909325E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>4.2430000000032459E-3</v>
+        <v>4.1874911031297285E-3</v>
       </c>
       <c r="M31" s="67" t="s">
         <v>46</v>
       </c>
       <c r="N31" s="66">
         <f>K4</f>
-        <v>-7.163187341494072E-8</v>
+        <v>-5.3786613586453301E-7</v>
       </c>
       <c r="O31" s="66">
         <f>K9</f>
-        <v>-3.7175264097954424E-7</v>
+        <v>-8.0180558696483716E-7</v>
       </c>
       <c r="P31" s="66">
         <f>AVERAGE(K19:K21)</f>
-        <v>-2.6339997809853552E-7</v>
+        <v>-5.814751652831254E-7</v>
       </c>
       <c r="Q31" s="66" t="e">
         <f>K26</f>
@@ -10204,11 +10202,11 @@
       </c>
       <c r="V31" s="72">
         <f>Z10</f>
-        <v>-3.8647513651200672E-6</v>
+        <v>-5.4804670963328801E-6</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-5.3331298056535285E-6</v>
+        <v>-5.4771463108833191E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -10217,34 +10215,34 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>6.1201416720313743E-4</v>
+        <v>6.0499999994202442E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>1.3674999999999462E-3</v>
+        <v>1.2985000005329545E-3</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>2.2380000000011835E-3</v>
+        <v>2.2182678955909325E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>4.2430000000032459E-3</v>
+        <v>4.1874911031297285E-3</v>
       </c>
       <c r="M32" s="67" t="s">
         <v>45</v>
       </c>
       <c r="N32" s="66">
         <f>L4</f>
-        <v>6.143063871524155E-4</v>
+        <v>6.2274958242555399E-4</v>
       </c>
       <c r="O32" s="66">
         <f>L9</f>
-        <v>1.4013294903290848E-3</v>
+        <v>1.3722661145337196E-3</v>
       </c>
       <c r="P32" s="66">
         <f>L18</f>
-        <v>2.2867289959494124E-3</v>
+        <v>2.3240963756724613E-3</v>
       </c>
       <c r="Q32" s="66" t="e">
         <f>L26</f>
@@ -10255,11 +10253,11 @@
       </c>
       <c r="V32" s="72">
         <f>Z11</f>
-        <v>1.4763937339089097E-3</v>
+        <v>1.461481443366048E-3</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>2.4985789695574408E-3</v>
+        <v>2.514812898536653E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -10317,7 +10315,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="132" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00331#0000</v>
+        <v>obj_0047d#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -10327,69 +10325,69 @@
         <v>14</v>
       </c>
       <c r="E34" s="53">
-        <f t="shared" ref="E34:E49" si="12">SettlementDate</f>
-        <v>41754</v>
+        <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
+        <v>41766</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41757</v>
+        <v>41767</v>
       </c>
       <c r="G34" s="32">
-        <f t="shared" ref="G34:J38" si="13">$L34+IF(G$30,G$32,N34)</f>
-        <v>1.4640914902387782E-3</v>
+        <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
+        <v>1.5222117163012955E-3</v>
       </c>
       <c r="H34" s="32">
-        <f t="shared" si="13"/>
-        <v>2.3206693711853759E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.3587517391352054E-3</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" si="13"/>
-        <v>3.340640475011732E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.4120803864403854E-3</v>
       </c>
       <c r="J34" s="32">
-        <f t="shared" si="13"/>
-        <v>5.0929999987098535E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.0874911031413344E-3</v>
       </c>
       <c r="K34" s="133">
         <f>F34-$E$6</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>8.4999999870660758E-4</v>
+        <v>9.0000000001160593E-4</v>
       </c>
       <c r="N34" s="71">
         <f>N$31*$K34+N$32</f>
-        <v>6.1409149153217064E-4</v>
+        <v>6.2221171628968946E-4</v>
       </c>
       <c r="O34" s="72">
-        <f t="shared" ref="O34:P40" si="14">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>1.4706693724787681E-3</v>
+        <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
+        <v>1.4587517391235997E-3</v>
       </c>
       <c r="P34" s="72">
-        <f t="shared" si="14"/>
-        <v>2.4906404763051244E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.5120803864287795E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
-        <f t="shared" ref="Q34:Q49" si="15">Q$31*$K34+Q$32</f>
+        <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
         <v>#NUM!</v>
       </c>
       <c r="U34" s="21" t="s">
         <v>14</v>
       </c>
       <c r="V34" s="72">
-        <f t="shared" ref="V34:W40" si="16">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>1.4706693724787681E-3</v>
+        <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
+        <v>1.4587517391235997E-3</v>
       </c>
       <c r="W34" s="16">
-        <f t="shared" si="16"/>
-        <v>2.4906404763051244E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.5120803864287795E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00280#0000</v>
+        <v>obj_00483#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -10399,69 +10397,69 @@
         <v>4</v>
       </c>
       <c r="E35" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41761</v>
+        <v>41773</v>
       </c>
       <c r="G35" s="32">
-        <f t="shared" si="13"/>
-        <v>1.4638049627451184E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.5189845194861083E-3</v>
       </c>
       <c r="H35" s="32">
-        <f t="shared" si="13"/>
-        <v>2.3132632711997509E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.3428157445206771E-3</v>
       </c>
       <c r="I35" s="32">
-        <f t="shared" si="13"/>
-        <v>3.330246221872263E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.3959398777909954E-3</v>
       </c>
       <c r="J35" s="32">
-        <f t="shared" si="13"/>
-        <v>5.0929999987098535E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.0874911031413344E-3</v>
       </c>
       <c r="K35" s="134">
-        <f t="shared" ref="K35:K49" si="17">F35-$E$6</f>
+        <f t="shared" ref="K35:K49" si="18">F35-$E$6</f>
         <v>7</v>
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>8.4999999870660758E-4</v>
+        <v>9.0000000001160593E-4</v>
       </c>
       <c r="N35" s="71">
         <f>N$31*$K35+N$32</f>
-        <v>6.1380496403851093E-4</v>
+        <v>6.1898451947450231E-4</v>
       </c>
       <c r="O35" s="72">
-        <f t="shared" si="14"/>
-        <v>1.4632632724931433E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.4428157445090712E-3</v>
       </c>
       <c r="P35" s="72">
-        <f t="shared" si="14"/>
-        <v>2.4802462231656554E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.4959398777793895E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="U35" s="23" t="s">
         <v>4</v>
       </c>
       <c r="V35" s="72">
-        <f t="shared" si="16"/>
-        <v>1.4632632724931433E-3</v>
+        <f t="shared" si="17"/>
+        <v>1.4428157445090712E-3</v>
       </c>
       <c r="W35" s="16">
-        <f t="shared" si="16"/>
-        <v>2.4802462231656554E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.4959398777793895E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00275#0000</v>
+        <v>obj_00479#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -10471,69 +10469,69 @@
         <v>5</v>
       </c>
       <c r="E36" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="G36" s="32">
-        <f t="shared" si="13"/>
-        <v>1.5033035367629133E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.515219457614193E-3</v>
       </c>
       <c r="H36" s="32">
-        <f t="shared" si="13"/>
-        <v>2.3409251436399916E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.3251819187032133E-3</v>
       </c>
       <c r="I36" s="32">
-        <f t="shared" si="13"/>
-        <v>3.352579888468181E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.377660840774524E-3</v>
       </c>
       <c r="J36" s="32">
-        <f t="shared" si="13"/>
-        <v>5.1329999958415525E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.0874911042204712E-3</v>
       </c>
       <c r="K36" s="134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>8.8999999583830693E-4</v>
+        <v>9.0000000109074249E-4</v>
       </c>
       <c r="N36" s="71">
         <f>N$31*$K36+N$32</f>
-        <v>6.1330354092460637E-4</v>
+        <v>6.1521945652345052E-4</v>
       </c>
       <c r="O36" s="72">
-        <f t="shared" si="14"/>
-        <v>1.4509251478016846E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.4251819176124706E-3</v>
       </c>
       <c r="P36" s="72">
-        <f t="shared" si="14"/>
-        <v>2.462579892629874E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.4776608396837817E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="U36" s="23" t="s">
         <v>5</v>
       </c>
       <c r="V36" s="72">
-        <f t="shared" si="16"/>
-        <v>1.4509251478016846E-3</v>
+        <f t="shared" si="17"/>
+        <v>1.4251819176124706E-3</v>
       </c>
       <c r="W36" s="16">
-        <f t="shared" si="16"/>
-        <v>2.462579892629874E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.4776608396837817E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00284#0000</v>
+        <v>obj_0046e#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -10543,69 +10541,69 @@
         <v>8</v>
       </c>
       <c r="E37" s="54">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41775</v>
+        <v>41787</v>
       </c>
       <c r="G37" s="35">
-        <f t="shared" si="13"/>
-        <v>1.5128021123447842E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.5114543904398529E-3</v>
       </c>
       <c r="H37" s="35">
-        <f t="shared" si="13"/>
-        <v>2.339379354368616E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.3085799595437008E-3</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" si="13"/>
-        <v>3.3455799724841791E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.3599757811172844E-3</v>
       </c>
       <c r="J37" s="35">
-        <f t="shared" si="13"/>
-        <v>5.142999994537328E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.0874910999971828E-3</v>
       </c>
       <c r="K37" s="135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>8.9999999453408254E-4</v>
+        <v>8.9999999686745421E-4</v>
       </c>
       <c r="N37" s="101">
         <f>N$31*$K37+N$32</f>
-        <v>6.128021178107017E-4</v>
+        <v>6.1145439357239884E-4</v>
       </c>
       <c r="O37" s="102">
-        <f t="shared" si="14"/>
-        <v>1.4393793598345337E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.4085799626762465E-3</v>
       </c>
       <c r="P37" s="102">
-        <f t="shared" si="14"/>
-        <v>2.4455799779500966E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.4599757842498301E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="U37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="V37" s="102">
-        <f t="shared" si="16"/>
-        <v>1.4393793598345337E-3</v>
+        <f t="shared" si="17"/>
+        <v>1.4085799626762465E-3</v>
       </c>
       <c r="W37" s="14">
-        <f t="shared" si="16"/>
-        <v>2.4455799779500966E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.4599757842498301E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0027b#0000</v>
+        <v>obj_0048b#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -10615,69 +10613,69 @@
         <v>9</v>
       </c>
       <c r="E38" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41786</v>
+        <v>41799</v>
       </c>
       <c r="G38" s="34">
-        <f t="shared" si="13"/>
-        <v>1.5229999999999998E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.505E-3</v>
       </c>
       <c r="H38" s="34">
-        <f t="shared" si="13"/>
-        <v>2.3338226551260048E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.2825201502615707E-3</v>
       </c>
       <c r="I38" s="34">
-        <f t="shared" si="13"/>
-        <v>3.3311980911429088E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.3310404652665171E-3</v>
       </c>
       <c r="J38" s="34">
-        <f t="shared" si="13"/>
-        <v>5.1539858328001082E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.0874911031877044E-3</v>
       </c>
       <c r="K38" s="133">
-        <f t="shared" si="17"/>
-        <v>32</v>
+        <f t="shared" si="18"/>
+        <v>33</v>
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>9.109858327968624E-4</v>
+        <v>9.0000000005797563E-4</v>
       </c>
       <c r="N38" s="71">
         <f>N$31*$K38+N$32</f>
-        <v>6.1201416720313743E-4</v>
+        <v>6.0499999994202442E-4</v>
       </c>
       <c r="O38" s="72">
-        <f t="shared" si="14"/>
-        <v>1.4228368223291425E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.3825201502035949E-3</v>
       </c>
       <c r="P38" s="72">
-        <f t="shared" si="14"/>
-        <v>2.4202122583460465E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.4310404652085416E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="U38" s="23" t="s">
         <v>9</v>
       </c>
       <c r="V38" s="72">
-        <f t="shared" si="16"/>
-        <v>1.4228368223291425E-3</v>
+        <f t="shared" si="17"/>
+        <v>1.3825201502035949E-3</v>
       </c>
       <c r="W38" s="16">
-        <f t="shared" si="16"/>
-        <v>2.4202122583460465E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.4310404652085416E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00276#0000</v>
+        <v>obj_0047b#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -10687,63 +10685,63 @@
         <v>10</v>
       </c>
       <c r="E39" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="32">
-        <f t="shared" ref="H39:J40" si="18">$L39+IF(H$30,H$32,O39)</f>
-        <v>2.3086033575903308E-3</v>
+        <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
+        <v>2.2535067435047801E-3</v>
       </c>
       <c r="I39" s="32">
+        <f t="shared" si="19"/>
+        <v>3.2903130940546733E-3</v>
+      </c>
+      <c r="J39" s="32">
+        <f t="shared" si="19"/>
+        <v>5.1074911031294655E-3</v>
+      </c>
+      <c r="K39" s="134">
         <f t="shared" si="18"/>
-        <v>3.2812219125275088E-3</v>
-      </c>
-      <c r="J39" s="32">
-        <f t="shared" si="18"/>
-        <v>5.1630000000029829E-3</v>
-      </c>
-      <c r="K39" s="134">
-        <f t="shared" si="17"/>
         <v>61</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>9.1999999999973689E-4</v>
+        <v>9.19999999999737E-4</v>
       </c>
       <c r="N39" s="49"/>
       <c r="O39" s="72">
-        <f t="shared" si="14"/>
-        <v>1.388603357590594E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.3335067435050431E-3</v>
       </c>
       <c r="P39" s="72">
-        <f t="shared" si="14"/>
-        <v>2.3612219125277718E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.3703130940549363E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="U39" s="23" t="s">
         <v>10</v>
       </c>
       <c r="V39" s="72">
-        <f t="shared" si="16"/>
-        <v>1.388603357590594E-3</v>
+        <f t="shared" si="17"/>
+        <v>1.3335067435050431E-3</v>
       </c>
       <c r="W39" s="16">
-        <f t="shared" si="16"/>
-        <v>2.3612219125277718E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.3703130940549363E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0027d#0000</v>
+        <v>obj_00478#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -10753,63 +10751,63 @@
         <v>3</v>
       </c>
       <c r="E40" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41845</v>
+        <v>41858</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="32">
+        <f t="shared" si="19"/>
+        <v>2.2285000000000022E-3</v>
+      </c>
+      <c r="I40" s="32">
+        <f t="shared" si="19"/>
+        <v>3.2441648743179274E-3</v>
+      </c>
+      <c r="J40" s="32">
+        <f t="shared" si="19"/>
+        <v>5.117491102596774E-3</v>
+      </c>
+      <c r="K40" s="134">
         <f t="shared" si="18"/>
-        <v>2.2875000000000009E-3</v>
-      </c>
-      <c r="I40" s="32">
-        <f t="shared" si="18"/>
-        <v>3.2322337032325956E-3</v>
-      </c>
-      <c r="J40" s="32">
-        <f t="shared" si="18"/>
-        <v>5.1630000000032995E-3</v>
-      </c>
-      <c r="K40" s="134">
-        <f t="shared" si="17"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>9.200000000000538E-4</v>
+        <v>9.2999999946704562E-4</v>
       </c>
       <c r="N40" s="47"/>
       <c r="O40" s="72">
-        <f t="shared" si="14"/>
-        <v>1.3674999999999471E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.2985000005329567E-3</v>
       </c>
       <c r="P40" s="72">
-        <f t="shared" si="14"/>
-        <v>2.312233703232542E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.3141648748508819E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="U40" s="23" t="s">
         <v>3</v>
       </c>
       <c r="V40" s="72">
-        <f t="shared" si="16"/>
-        <v>1.3674999999999471E-3</v>
+        <f t="shared" si="17"/>
+        <v>1.2985000005329567E-3</v>
       </c>
       <c r="W40" s="16">
-        <f t="shared" si="16"/>
-        <v>2.312233703232542E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.3141648748508819E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00277#0000</v>
+        <v>obj_00484#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -10819,39 +10817,39 @@
         <v>12</v>
       </c>
       <c r="E41" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41877</v>
+        <v>41890</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="48"/>
       <c r="I41" s="32">
-        <f t="shared" ref="I41:J43" si="19">$L41+IF(I$30,I$32,P41)</f>
-        <v>3.2141301064413756E-3</v>
+        <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
+        <v>3.2184244950372947E-3</v>
       </c>
       <c r="J41" s="32">
-        <f t="shared" si="19"/>
-        <v>5.1836589721238084E-3</v>
+        <f t="shared" si="20"/>
+        <v>5.1374911035008217E-3</v>
       </c>
       <c r="K41" s="134">
-        <f t="shared" si="17"/>
-        <v>123</v>
+        <f t="shared" si="18"/>
+        <v>124</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>9.4065897212056247E-4</v>
+        <v>9.5000000037109324E-4</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="48"/>
       <c r="P41" s="72">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>2.2734711343208132E-3</v>
+        <v>2.2684244946662015E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="U41" s="23" t="s">
@@ -10860,13 +10858,13 @@
       <c r="V41" s="72"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>2.2734711343208132E-3</v>
+        <v>2.2684244946662015E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0027f#0000</v>
+        <v>obj_0047c#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -10876,39 +10874,39 @@
         <v>13</v>
       </c>
       <c r="E42" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41907</v>
+        <v>41919</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="46"/>
       <c r="I42" s="32">
-        <f t="shared" si="19"/>
-        <v>3.2097795269059441E-3</v>
+        <f t="shared" si="20"/>
+        <v>3.2076942677200346E-3</v>
       </c>
       <c r="J42" s="32">
-        <f t="shared" si="19"/>
-        <v>5.2030000000026387E-3</v>
+        <f t="shared" si="20"/>
+        <v>5.1574911025782811E-3</v>
       </c>
       <c r="K42" s="134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>153</v>
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>9.5999999999939287E-4</v>
+        <v>9.6999999944855249E-4</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="46"/>
       <c r="P42" s="72">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>2.2497795269065513E-3</v>
+        <v>2.237694268271482E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="U42" s="23" t="s">
@@ -10917,13 +10915,13 @@
       <c r="V42" s="72"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>2.2497795269065513E-3</v>
+        <v>2.237694268271482E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0027e#0000</v>
+        <v>obj_0047a#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -10933,39 +10931,39 @@
         <v>15</v>
       </c>
       <c r="E43" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41939</v>
+        <v>41950</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="46"/>
       <c r="I43" s="32">
-        <f t="shared" si="19"/>
-        <v>3.2280000000000043E-3</v>
+        <f t="shared" si="20"/>
+        <v>3.2161182643953038E-3</v>
       </c>
       <c r="J43" s="32">
-        <f t="shared" si="19"/>
-        <v>5.2330000000020624E-3</v>
+        <f t="shared" si="20"/>
+        <v>5.1874911031301978E-3</v>
       </c>
       <c r="K43" s="134">
-        <f t="shared" si="17"/>
-        <v>185</v>
+        <f t="shared" si="18"/>
+        <v>184</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>9.8999999999881626E-4</v>
+        <v>1.0000000000004693E-3</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="46"/>
       <c r="P43" s="72">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>2.2380000000011878E-3</v>
+        <v>2.2161182643948346E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="U43" s="129" t="s">
@@ -10974,13 +10972,13 @@
       <c r="V43" s="102"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>2.2380000000011878E-3</v>
+        <v>2.2161182643948346E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00283#0000</v>
+        <v>obj_0046f#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -10990,40 +10988,40 @@
         <v>18</v>
       </c>
       <c r="E44" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>41968</v>
+        <v>41981</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
       <c r="I44" s="48"/>
       <c r="J44" s="32">
-        <f t="shared" ref="J44:J49" si="20">$L44+IF(J$30,J$32,Q44)</f>
-        <v>5.2630000000020091E-3</v>
+        <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
+        <v>5.2174911031296917E-3</v>
       </c>
       <c r="K44" s="134">
-        <f t="shared" si="17"/>
-        <v>214</v>
+        <f t="shared" si="18"/>
+        <v>215</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>1.0199999999987634E-3</v>
+        <v>1.0299999999999628E-3</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
       <c r="P44" s="48"/>
       <c r="Q44" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00281#0000</v>
+        <v>obj_00485#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -11033,40 +11031,40 @@
         <v>19</v>
       </c>
       <c r="E45" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42002</v>
+        <v>42011</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="46"/>
       <c r="J45" s="32">
-        <f t="shared" si="20"/>
-        <v>5.2830000000010984E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.2474911031296576E-3</v>
       </c>
       <c r="K45" s="134">
-        <f t="shared" si="17"/>
-        <v>248</v>
+        <f t="shared" si="18"/>
+        <v>245</v>
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>1.0399999999978528E-3</v>
+        <v>1.0599999999999295E-3</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
       <c r="P45" s="46"/>
       <c r="Q45" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0027a#0000</v>
+        <v>obj_00481#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -11076,40 +11074,40 @@
         <v>20</v>
       </c>
       <c r="E46" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42030</v>
+        <v>42044</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
       <c r="I46" s="46"/>
       <c r="J46" s="32">
-        <f t="shared" si="20"/>
-        <v>5.323000000001285E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.2874911031297461E-3</v>
       </c>
       <c r="K46" s="134">
-        <f t="shared" si="17"/>
-        <v>276</v>
+        <f t="shared" si="18"/>
+        <v>278</v>
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>1.0799999999980389E-3</v>
+        <v>1.1000000000000176E-3</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
       <c r="P46" s="46"/>
       <c r="Q46" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00285#0000</v>
+        <v>obj_00476#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -11119,40 +11117,40 @@
         <v>21</v>
       </c>
       <c r="E47" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42060</v>
+        <v>42072</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
       <c r="I47" s="46"/>
       <c r="J47" s="32">
-        <f t="shared" si="20"/>
-        <v>5.3730000000013229E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.3374911031298169E-3</v>
       </c>
       <c r="K47" s="134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>306</v>
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>1.1299999999980772E-3</v>
+        <v>1.1500000000000889E-3</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
       <c r="P47" s="46"/>
       <c r="Q47" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0027c#0000</v>
+        <v>obj_00471#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -11162,40 +11160,40 @@
         <v>22</v>
       </c>
       <c r="E48" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42088</v>
+        <v>42101</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="46"/>
       <c r="J48" s="32">
-        <f t="shared" si="20"/>
-        <v>5.4130000000011703E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.397491103129602E-3</v>
       </c>
       <c r="K48" s="134">
-        <f t="shared" si="17"/>
-        <v>334</v>
+        <f t="shared" si="18"/>
+        <v>335</v>
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>1.1699999999979242E-3</v>
+        <v>1.2099999999998737E-3</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00278#0000</v>
+        <v>obj_00488#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -11205,33 +11203,33 @@
         <v>23</v>
       </c>
       <c r="E49" s="55">
-        <f t="shared" si="12"/>
-        <v>41754</v>
+        <f t="shared" si="13"/>
+        <v>41766</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42121</v>
+        <v>42131</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="46"/>
       <c r="J49" s="32">
-        <f t="shared" si="20"/>
-        <v>5.483E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.4774911031293646E-3</v>
       </c>
       <c r="K49" s="134">
-        <f t="shared" si="17"/>
-        <v>367</v>
+        <f t="shared" si="18"/>
+        <v>365</v>
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>1.2399999999967541E-3</v>
+        <v>1.2899999999996363E-3</v>
       </c>
       <c r="N49" s="73"/>
       <c r="O49" s="74"/>
       <c r="P49" s="75"/>
       <c r="Q49" s="14" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -11265,7 +11263,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11320,22 +11318,22 @@
       <c r="H2" s="168"/>
       <c r="I2" s="171"/>
       <c r="J2" s="172" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" s="170"/>
       <c r="L2" s="191" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M2" s="170"/>
       <c r="N2" s="171" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="172" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="239">
+      <c r="P2" s="233">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -11343,7 +11341,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="208" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="203" t="str">
         <f t="shared" ref="C3:C7" si="0">Currency&amp;$B3&amp;"_SYNTH"&amp;Tenor1M&amp;QuoteSuffix</f>
@@ -11351,7 +11349,7 @@
       </c>
       <c r="D3" s="204" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSND_SYNTH1M_Quote#0000</v>
+        <v>USDSND_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E3" s="205" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -11360,11 +11358,11 @@
       <c r="F3" s="202"/>
       <c r="H3" s="206"/>
       <c r="I3" s="176" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" s="177">
         <f>Calculation!$G34</f>
-        <v>1.4640914902387782E-3</v>
+        <v>1.5222117163012955E-3</v>
       </c>
       <c r="K3" s="169"/>
       <c r="L3" s="182">
@@ -11373,11 +11371,11 @@
       <c r="M3" s="153"/>
       <c r="N3" s="185">
         <f t="array" ref="N3:N24">QuoteLive</f>
-        <v>1.4640914902387782E-3</v>
+        <v>1.5222117163012955E-3</v>
       </c>
       <c r="O3" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
-        <v>1.464E-3</v>
+        <v>0</v>
       </c>
       <c r="P3" s="207"/>
     </row>
@@ -11387,7 +11385,7 @@
         <v>1M</v>
       </c>
       <c r="B4" s="208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="203" t="str">
         <f t="shared" si="0"/>
@@ -11395,7 +11393,7 @@
       </c>
       <c r="D4" s="204" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSWD_SYNTH1M_Quote#0000</v>
+        <v>USDSWD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E4" s="205" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -11404,11 +11402,11 @@
       <c r="F4" s="202"/>
       <c r="H4" s="206"/>
       <c r="I4" s="176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="177">
         <f>Calculation!$G35</f>
-        <v>1.4638049627451184E-3</v>
+        <v>1.5189845194861083E-3</v>
       </c>
       <c r="K4" s="169"/>
       <c r="L4" s="182">
@@ -11416,18 +11414,18 @@
       </c>
       <c r="M4" s="153"/>
       <c r="N4" s="185">
-        <v>1.4638049627451184E-3</v>
+        <v>1.5189845194861083E-3</v>
       </c>
       <c r="O4" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
-        <v>1.464E-3</v>
+        <v>0</v>
       </c>
       <c r="P4" s="207"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="219"/>
       <c r="B5" s="208" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="203" t="str">
         <f t="shared" si="0"/>
@@ -11435,7 +11433,7 @@
       </c>
       <c r="D5" s="204" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2WD_SYNTH1M_Quote#0000</v>
+        <v>USD2WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E5" s="205" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -11444,11 +11442,11 @@
       <c r="F5" s="202"/>
       <c r="H5" s="206"/>
       <c r="I5" s="176" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="177">
         <f>Calculation!$G36</f>
-        <v>1.5033035367629133E-3</v>
+        <v>1.515219457614193E-3</v>
       </c>
       <c r="K5" s="169"/>
       <c r="L5" s="182">
@@ -11456,18 +11454,18 @@
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="185">
-        <v>1.5033035367629133E-3</v>
+        <v>1.515219457614193E-3</v>
       </c>
       <c r="O5" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
-        <v>1.503E-3</v>
+        <v>0</v>
       </c>
       <c r="P5" s="207"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="219"/>
       <c r="B6" s="208" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="203" t="str">
         <f t="shared" si="0"/>
@@ -11475,7 +11473,7 @@
       </c>
       <c r="D6" s="204" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3WD_SYNTH1M_Quote#0000</v>
+        <v>USD3WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E6" s="205" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -11484,11 +11482,11 @@
       <c r="F6" s="202"/>
       <c r="H6" s="206"/>
       <c r="I6" s="178" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="179">
         <f>Calculation!$G37</f>
-        <v>1.5128021123447842E-3</v>
+        <v>1.5114543904398529E-3</v>
       </c>
       <c r="K6" s="169"/>
       <c r="L6" s="183">
@@ -11496,18 +11494,18 @@
       </c>
       <c r="M6" s="153"/>
       <c r="N6" s="187">
-        <v>1.5128021123447842E-3</v>
+        <v>1.5114543904398529E-3</v>
       </c>
       <c r="O6" s="188">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
-        <v>1.513E-3</v>
+        <v>0</v>
       </c>
       <c r="P6" s="207"/>
     </row>
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="219"/>
       <c r="B7" s="209" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="210" t="str">
         <f t="shared" si="0"/>
@@ -11515,7 +11513,7 @@
       </c>
       <c r="D7" s="210" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD1MD_SYNTH1M_Quote#0000</v>
+        <v>USD1MD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E7" s="211" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -11524,11 +11522,11 @@
       <c r="F7" s="202"/>
       <c r="H7" s="206"/>
       <c r="I7" s="180" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="181">
         <f>Calculation!$G38</f>
-        <v>1.5229999999999998E-3</v>
+        <v>1.505E-3</v>
       </c>
       <c r="K7" s="169"/>
       <c r="L7" s="184">
@@ -11536,11 +11534,11 @@
       </c>
       <c r="M7" s="153"/>
       <c r="N7" s="189">
-        <v>1.5229999999999998E-3</v>
+        <v>1.505E-3</v>
       </c>
       <c r="O7" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND(N7,6),EvaluationDate)</f>
-        <v>1.523E-3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="207"/>
     </row>
@@ -11549,7 +11547,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="212" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="203" t="str">
         <f t="shared" ref="C8:C14" si="1">Currency&amp;$B8&amp;"_SYNTH"&amp;Tenor3M&amp;QuoteSuffix</f>
@@ -11557,7 +11555,7 @@
       </c>
       <c r="D8" s="213" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSND_SYNTH3M_Quote#0000</v>
+        <v>USDSND_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E8" s="214" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -11566,11 +11564,11 @@
       <c r="F8" s="215"/>
       <c r="H8" s="206"/>
       <c r="I8" s="176" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="177">
         <f>Calculation!$H34</f>
-        <v>2.3206693711853759E-3</v>
+        <v>2.3587517391352054E-3</v>
       </c>
       <c r="K8" s="169"/>
       <c r="L8" s="182">
@@ -11578,15 +11576,15 @@
       </c>
       <c r="M8" s="153"/>
       <c r="N8" s="185">
-        <v>2.3206693711853759E-3</v>
+        <v>2.3587517391352054E-3</v>
       </c>
       <c r="O8" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
-        <v>2.3210000000000001E-3</v>
-      </c>
-      <c r="P8" s="240">
+        <v>0</v>
+      </c>
+      <c r="P8" s="234">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -11595,7 +11593,7 @@
         <v>3M</v>
       </c>
       <c r="B9" s="208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="203" t="str">
         <f t="shared" si="1"/>
@@ -11603,7 +11601,7 @@
       </c>
       <c r="D9" s="203" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSWD_SYNTH3M_Quote#0000</v>
+        <v>USDSWD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E9" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -11612,11 +11610,11 @@
       <c r="F9" s="215"/>
       <c r="H9" s="206"/>
       <c r="I9" s="176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="177">
         <f>Calculation!$H35</f>
-        <v>2.3132632711997509E-3</v>
+        <v>2.3428157445206771E-3</v>
       </c>
       <c r="K9" s="169"/>
       <c r="L9" s="182">
@@ -11624,18 +11622,18 @@
       </c>
       <c r="M9" s="153"/>
       <c r="N9" s="185">
-        <v>2.3132632711997509E-3</v>
+        <v>2.3428157445206771E-3</v>
       </c>
       <c r="O9" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
-        <v>2.313E-3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="207"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="221"/>
       <c r="B10" s="217" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="203" t="str">
         <f t="shared" si="1"/>
@@ -11643,7 +11641,7 @@
       </c>
       <c r="D10" s="203" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2WD_SYNTH3M_Quote#0000</v>
+        <v>USD2WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E10" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -11652,11 +11650,11 @@
       <c r="F10" s="215"/>
       <c r="H10" s="206"/>
       <c r="I10" s="176" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="177">
         <f>Calculation!$H36</f>
-        <v>2.3409251436399916E-3</v>
+        <v>2.3251819187032133E-3</v>
       </c>
       <c r="K10" s="169"/>
       <c r="L10" s="182">
@@ -11664,18 +11662,18 @@
       </c>
       <c r="M10" s="153"/>
       <c r="N10" s="185">
-        <v>2.3409251436399916E-3</v>
+        <v>2.3251819187032133E-3</v>
       </c>
       <c r="O10" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
-        <v>2.3410000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="P10" s="207"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="222"/>
       <c r="B11" s="217" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="203" t="str">
         <f t="shared" si="1"/>
@@ -11683,7 +11681,7 @@
       </c>
       <c r="D11" s="203" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3WD_SYNTH3M_Quote#0000</v>
+        <v>USD3WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E11" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -11692,11 +11690,11 @@
       <c r="F11" s="215"/>
       <c r="H11" s="206"/>
       <c r="I11" s="176" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="177">
         <f>Calculation!$H37</f>
-        <v>2.339379354368616E-3</v>
+        <v>2.3085799595437008E-3</v>
       </c>
       <c r="K11" s="169"/>
       <c r="L11" s="182">
@@ -11704,18 +11702,18 @@
       </c>
       <c r="M11" s="153"/>
       <c r="N11" s="185">
-        <v>2.339379354368616E-3</v>
+        <v>2.3085799595437008E-3</v>
       </c>
       <c r="O11" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
-        <v>2.3389999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="207"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="222"/>
       <c r="B12" s="217" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="203" t="str">
         <f t="shared" si="1"/>
@@ -11723,7 +11721,7 @@
       </c>
       <c r="D12" s="203" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD1MD_SYNTH3M_Quote#0000</v>
+        <v>USD1MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E12" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -11732,11 +11730,11 @@
       <c r="F12" s="215"/>
       <c r="H12" s="206"/>
       <c r="I12" s="176" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="177">
         <f>Calculation!$H38</f>
-        <v>2.3338226551260048E-3</v>
+        <v>2.2825201502615707E-3</v>
       </c>
       <c r="K12" s="169"/>
       <c r="L12" s="182">
@@ -11744,18 +11742,18 @@
       </c>
       <c r="M12" s="153"/>
       <c r="N12" s="185">
-        <v>2.3338226551260048E-3</v>
+        <v>2.2825201502615707E-3</v>
       </c>
       <c r="O12" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
-        <v>2.3340000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P12" s="207"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="222"/>
       <c r="B13" s="217" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="203" t="str">
         <f t="shared" si="1"/>
@@ -11763,7 +11761,7 @@
       </c>
       <c r="D13" s="203" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2MD_SYNTH3M_Quote#0000</v>
+        <v>USD2MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E13" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -11772,11 +11770,11 @@
       <c r="F13" s="215"/>
       <c r="H13" s="206"/>
       <c r="I13" s="176" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="177">
         <f>Calculation!$H39</f>
-        <v>2.3086033575903308E-3</v>
+        <v>2.2535067435047801E-3</v>
       </c>
       <c r="K13" s="169"/>
       <c r="L13" s="182">
@@ -11784,18 +11782,18 @@
       </c>
       <c r="M13" s="153"/>
       <c r="N13" s="185">
-        <v>2.3086033575903308E-3</v>
+        <v>2.2535067435047801E-3</v>
       </c>
       <c r="O13" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
-        <v>2.3089999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="P13" s="207"/>
     </row>
     <row r="14" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="224"/>
       <c r="B14" s="209" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="210" t="str">
         <f t="shared" si="1"/>
@@ -11803,7 +11801,7 @@
       </c>
       <c r="D14" s="210" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3MD_SYNTH3M_Quote#0000</v>
+        <v>USD3MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E14" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -11812,11 +11810,11 @@
       <c r="F14" s="215"/>
       <c r="H14" s="223"/>
       <c r="I14" s="180" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" s="181">
         <f>Calculation!$H40</f>
-        <v>2.2875000000000009E-3</v>
+        <v>2.2285000000000022E-3</v>
       </c>
       <c r="K14" s="223"/>
       <c r="L14" s="184">
@@ -11824,11 +11822,11 @@
       </c>
       <c r="M14" s="223"/>
       <c r="N14" s="189">
-        <v>2.2875000000000009E-3</v>
+        <v>2.2285000000000022E-3</v>
       </c>
       <c r="O14" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
-        <v>2.2880000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P14" s="223"/>
     </row>
@@ -11837,7 +11835,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="212" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="203" t="str">
         <f t="shared" ref="C15:C24" si="2">Currency&amp;$B15&amp;"_SYNTH"&amp;Tenor6M&amp;QuoteSuffix</f>
@@ -11845,7 +11843,7 @@
       </c>
       <c r="D15" s="213" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSND_SYNTH6M_Quote#0000</v>
+        <v>USDSND_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E15" s="214" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -11854,11 +11852,11 @@
       <c r="F15" s="215"/>
       <c r="H15" s="206"/>
       <c r="I15" s="176" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="177">
         <f>Calculation!$I34</f>
-        <v>3.340640475011732E-3</v>
+        <v>3.4120803864403854E-3</v>
       </c>
       <c r="K15" s="169"/>
       <c r="L15" s="182">
@@ -11866,15 +11864,15 @@
       </c>
       <c r="M15" s="153"/>
       <c r="N15" s="185">
-        <v>3.340640475011732E-3</v>
+        <v>3.4120803864403854E-3</v>
       </c>
       <c r="O15" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
-        <v>3.3409999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="P15" s="207">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -11883,7 +11881,7 @@
         <v>6M</v>
       </c>
       <c r="B16" s="208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="203" t="str">
         <f t="shared" si="2"/>
@@ -11891,7 +11889,7 @@
       </c>
       <c r="D16" s="203" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSWD_SYNTH6M_Quote#0000</v>
+        <v>USDSWD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E16" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -11900,11 +11898,11 @@
       <c r="F16" s="215"/>
       <c r="H16" s="206"/>
       <c r="I16" s="176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" s="177">
         <f>Calculation!$I35</f>
-        <v>3.330246221872263E-3</v>
+        <v>3.3959398777909954E-3</v>
       </c>
       <c r="K16" s="169"/>
       <c r="L16" s="182">
@@ -11912,18 +11910,18 @@
       </c>
       <c r="M16" s="153"/>
       <c r="N16" s="185">
-        <v>3.330246221872263E-3</v>
+        <v>3.3959398777909954E-3</v>
       </c>
       <c r="O16" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
-        <v>3.3300000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P16" s="207"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="221"/>
       <c r="B17" s="217" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="203" t="str">
         <f t="shared" si="2"/>
@@ -11931,7 +11929,7 @@
       </c>
       <c r="D17" s="203" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2WD_SYNTH6M_Quote#0000</v>
+        <v>USD2WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E17" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -11940,11 +11938,11 @@
       <c r="F17" s="215"/>
       <c r="H17" s="206"/>
       <c r="I17" s="176" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="177">
         <f>Calculation!$I36</f>
-        <v>3.352579888468181E-3</v>
+        <v>3.377660840774524E-3</v>
       </c>
       <c r="K17" s="169"/>
       <c r="L17" s="182">
@@ -11952,18 +11950,18 @@
       </c>
       <c r="M17" s="153"/>
       <c r="N17" s="185">
-        <v>3.352579888468181E-3</v>
+        <v>3.377660840774524E-3</v>
       </c>
       <c r="O17" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
-        <v>3.3530000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="207"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="222"/>
       <c r="B18" s="217" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="203" t="str">
         <f t="shared" si="2"/>
@@ -11971,7 +11969,7 @@
       </c>
       <c r="D18" s="203" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3WD_SYNTH6M_Quote#0000</v>
+        <v>USD3WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E18" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -11980,11 +11978,11 @@
       <c r="F18" s="215"/>
       <c r="H18" s="206"/>
       <c r="I18" s="176" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="177">
         <f>Calculation!$I37</f>
-        <v>3.3455799724841791E-3</v>
+        <v>3.3599757811172844E-3</v>
       </c>
       <c r="K18" s="169"/>
       <c r="L18" s="182">
@@ -11992,18 +11990,18 @@
       </c>
       <c r="M18" s="153"/>
       <c r="N18" s="185">
-        <v>3.3455799724841791E-3</v>
+        <v>3.3599757811172844E-3</v>
       </c>
       <c r="O18" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
-        <v>3.346E-3</v>
+        <v>0</v>
       </c>
       <c r="P18" s="207"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="222"/>
       <c r="B19" s="217" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="203" t="str">
         <f t="shared" si="2"/>
@@ -12011,7 +12009,7 @@
       </c>
       <c r="D19" s="203" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD1MD_SYNTH6M_Quote#0000</v>
+        <v>USD1MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E19" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -12020,11 +12018,11 @@
       <c r="F19" s="215"/>
       <c r="H19" s="206"/>
       <c r="I19" s="176" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="177">
         <f>Calculation!$I38</f>
-        <v>3.3311980911429088E-3</v>
+        <v>3.3310404652665171E-3</v>
       </c>
       <c r="K19" s="169"/>
       <c r="L19" s="182">
@@ -12032,18 +12030,18 @@
       </c>
       <c r="M19" s="153"/>
       <c r="N19" s="185">
-        <v>3.3311980911429088E-3</v>
+        <v>3.3310404652665171E-3</v>
       </c>
       <c r="O19" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
-        <v>3.3310000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="P19" s="207"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="222"/>
       <c r="B20" s="217" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="203" t="str">
         <f t="shared" si="2"/>
@@ -12051,7 +12049,7 @@
       </c>
       <c r="D20" s="203" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2MD_SYNTH6M_Quote#0000</v>
+        <v>USD2MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E20" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -12060,11 +12058,11 @@
       <c r="F20" s="215"/>
       <c r="H20" s="206"/>
       <c r="I20" s="176" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" s="177">
         <f>Calculation!$I39</f>
-        <v>3.2812219125275088E-3</v>
+        <v>3.2903130940546733E-3</v>
       </c>
       <c r="K20" s="169"/>
       <c r="L20" s="182">
@@ -12072,18 +12070,18 @@
       </c>
       <c r="M20" s="153"/>
       <c r="N20" s="185">
-        <v>3.2812219125275088E-3</v>
+        <v>3.2903130940546733E-3</v>
       </c>
       <c r="O20" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
-        <v>3.2810000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P20" s="207"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="222"/>
       <c r="B21" s="217" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="203" t="str">
         <f t="shared" si="2"/>
@@ -12091,7 +12089,7 @@
       </c>
       <c r="D21" s="203" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3MD_SYNTH6M_Quote#0000</v>
+        <v>USD3MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E21" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -12100,11 +12098,11 @@
       <c r="F21" s="215"/>
       <c r="H21" s="206"/>
       <c r="I21" s="176" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="177">
         <f>Calculation!$I40</f>
-        <v>3.2322337032325956E-3</v>
+        <v>3.2441648743179274E-3</v>
       </c>
       <c r="K21" s="169"/>
       <c r="L21" s="182">
@@ -12112,18 +12110,18 @@
       </c>
       <c r="M21" s="153"/>
       <c r="N21" s="185">
-        <v>3.2322337032325956E-3</v>
+        <v>3.2441648743179274E-3</v>
       </c>
       <c r="O21" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
-        <v>3.2320000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P21" s="207"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="222"/>
       <c r="B22" s="217" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="203" t="str">
         <f t="shared" si="2"/>
@@ -12131,7 +12129,7 @@
       </c>
       <c r="D22" s="203" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD4MD_SYNTH6M_Quote#0000</v>
+        <v>USD4MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E22" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -12140,11 +12138,11 @@
       <c r="F22" s="215"/>
       <c r="H22" s="206"/>
       <c r="I22" s="176" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="177">
         <f>Calculation!$I41</f>
-        <v>3.2141301064413756E-3</v>
+        <v>3.2184244950372947E-3</v>
       </c>
       <c r="K22" s="169"/>
       <c r="L22" s="182">
@@ -12152,18 +12150,18 @@
       </c>
       <c r="M22" s="153"/>
       <c r="N22" s="185">
-        <v>3.2141301064413756E-3</v>
+        <v>3.2184244950372947E-3</v>
       </c>
       <c r="O22" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
-        <v>3.2139999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="207"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="222"/>
       <c r="B23" s="217" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="203" t="str">
         <f t="shared" si="2"/>
@@ -12171,7 +12169,7 @@
       </c>
       <c r="D23" s="203" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD5MD_SYNTH6M_Quote#0000</v>
+        <v>USD5MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E23" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -12180,11 +12178,11 @@
       <c r="F23" s="215"/>
       <c r="H23" s="206"/>
       <c r="I23" s="176" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="177">
         <f>Calculation!$I42</f>
-        <v>3.2097795269059441E-3</v>
+        <v>3.2076942677200346E-3</v>
       </c>
       <c r="K23" s="169"/>
       <c r="L23" s="182">
@@ -12192,18 +12190,18 @@
       </c>
       <c r="M23" s="153"/>
       <c r="N23" s="185">
-        <v>3.2097795269059441E-3</v>
+        <v>3.2076942677200346E-3</v>
       </c>
       <c r="O23" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
-        <v>3.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="P23" s="207"/>
     </row>
     <row r="24" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="224"/>
       <c r="B24" s="209" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="210" t="str">
         <f t="shared" si="2"/>
@@ -12211,7 +12209,7 @@
       </c>
       <c r="D24" s="210" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD6MD_SYNTH6M_Quote#0000</v>
+        <v>USD6MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E24" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -12220,11 +12218,11 @@
       <c r="F24" s="226"/>
       <c r="H24" s="227"/>
       <c r="I24" s="180" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" s="181">
         <f>Calculation!$I43</f>
-        <v>3.2280000000000043E-3</v>
+        <v>3.2161182643953038E-3</v>
       </c>
       <c r="K24" s="228"/>
       <c r="L24" s="184">
@@ -12232,11 +12230,11 @@
       </c>
       <c r="M24" s="229"/>
       <c r="N24" s="189">
-        <v>3.2280000000000043E-3</v>
+        <v>3.2161182643953038E-3</v>
       </c>
       <c r="O24" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
-        <v>3.228E-3</v>
+        <v>0</v>
       </c>
       <c r="P24" s="230"/>
     </row>

--- a/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-15" windowWidth="19140" windowHeight="12015" activeTab="2"/>
+    <workbookView xWindow="19095" yWindow="-15" windowWidth="19140" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="LastFixingsTrigger">Triggers!$C$6</definedName>
     <definedName name="LastUpdate">'General Settings'!$D$16</definedName>
     <definedName name="LiveDataFeed">'General Settings'!$D$17</definedName>
+    <definedName name="Months12M" localSheetId="3">Contribution!$A$25</definedName>
     <definedName name="Months1M" localSheetId="3">Contribution!$A$3</definedName>
     <definedName name="Months3M" localSheetId="3">Contribution!$A$8</definedName>
     <definedName name="Months6M" localSheetId="3">Contribution!$A$15</definedName>
@@ -38,14 +39,15 @@
     <definedName name="OvernightIndex">'General Settings'!$D$7</definedName>
     <definedName name="Permanent">'General Settings'!$J$4</definedName>
     <definedName name="PriceTickValue">'General Settings'!$J$12</definedName>
-    <definedName name="Quote" localSheetId="3">Contribution!$N$3:$N$24</definedName>
-    <definedName name="QuoteLive" localSheetId="3">Contribution!$J$3:$J$24</definedName>
-    <definedName name="QuoteStatic" localSheetId="3">Contribution!$L$3:$L$24</definedName>
+    <definedName name="Quote" localSheetId="3">Contribution!$N$3:$N$40</definedName>
+    <definedName name="QuoteLive" localSheetId="3">Contribution!$J$3:$J$40</definedName>
+    <definedName name="QuoteStatic" localSheetId="3">Contribution!$L$3:$L$40</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$J$10</definedName>
     <definedName name="RateTickValue">'General Settings'!$J$11</definedName>
     <definedName name="SerializationPath">'General Settings'!$J$7</definedName>
     <definedName name="Serialize">'General Settings'!$J$6</definedName>
     <definedName name="SettlementDate">'General Settings'!$D$10</definedName>
+    <definedName name="Tenor12M" localSheetId="3">Contribution!$A$26</definedName>
     <definedName name="Tenor1M" localSheetId="3">Contribution!$A$4</definedName>
     <definedName name="Tenor3M" localSheetId="3">Contribution!$A$9</definedName>
     <definedName name="Tenor6M" localSheetId="3">Contribution!$A$16</definedName>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>Currency</t>
   </si>
@@ -308,6 +310,24 @@
   </si>
   <si>
     <t>USDFedFunds</t>
+  </si>
+  <si>
+    <t>7MD</t>
+  </si>
+  <si>
+    <t>8MD</t>
+  </si>
+  <si>
+    <t>9MD</t>
+  </si>
+  <si>
+    <t>10MD</t>
+  </si>
+  <si>
+    <t>11MD</t>
+  </si>
+  <si>
+    <t>1YD</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1528,6 @@
       <sheetName val="Libor"/>
       <sheetName val="LiborSwapIsdaFixAm"/>
       <sheetName val="LiborSwapIsdaFixPm"/>
-      <sheetName val="LiborSwapForBasisCalc"/>
       <sheetName val="BasisSwap1MxM"/>
       <sheetName val="BasisSwap3M6M"/>
       <sheetName val="BasisSwapxM12M"/>
@@ -1526,8 +1545,6 @@
       <sheetName val="ON"/>
       <sheetName val="1M (2)"/>
       <sheetName val="3M (2)"/>
-      <sheetName val="6M_2"/>
-      <sheetName val="1Y (2)"/>
       <sheetName val="FwdEONIAOIS"/>
       <sheetName val="SFIX3"/>
       <sheetName val="IB365"/>
@@ -1541,7 +1558,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>89</v>
+            <v>472</v>
           </cell>
         </row>
         <row r="8">
@@ -1551,6 +1568,11 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>USDON#0000</v>
+          </cell>
+        </row>
         <row r="8">
           <cell r="D8" t="str">
             <v>USD1M#0000</v>
@@ -1559,66 +1581,45 @@
       </sheetData>
       <sheetData sheetId="2">
         <row r="7">
-          <cell r="D7" t="str">
-            <v>3M</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>3M</v>
+          <cell r="F7" t="str">
+            <v>UsdLiborSwapIsdaFixAm1Y#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="7">
-          <cell r="D7" t="str">
-            <v>3M</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>3M</v>
+          <cell r="F7" t="str">
+            <v>UsdLiborSwapIsdaFixPm1Y#0000</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>1L</v>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="S3" t="str">
+            <v>obj_0070b#0003</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>1L</v>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="S3" t="str">
+            <v>obj_00709#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>3L</v>
+        <row r="3">
+          <cell r="S3" t="str">
+            <v>obj_0070a#0001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3L</v>
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>USDOND_Quote#0000</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
         <row r="7">
           <cell r="D7" t="str">
             <v>USDSND_Quote#0000</v>
@@ -1630,212 +1631,89 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>USD1x4F_Quote</v>
+      <sheetData sheetId="8">
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>USDT1F1_Quote#0000</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>USD2x5F_Quote</v>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>USDFUT1MK4_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>M4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>N4</v>
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>USDFUT3MK4_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>M4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>N4</v>
+        <row r="3">
+          <cell r="F3" t="str">
+            <v>USDIMMFRA6MK4_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>U4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>V4</v>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>USDHW_Volatility_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3W</v>
+      <sheetData sheetId="13">
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>USDOISSW_Quote#0000</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>1M</v>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>USD2X1S_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>X1S</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>X1S</v>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>USD1S12_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="16">
-        <row r="7">
-          <cell r="D7">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>12</v>
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>USDAM3L1Y_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="17">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>3L</v>
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>USDAM6L1Y_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="18">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>6L</v>
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>USDTOY_SYNTHON_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>2X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>2X</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>USD-4Y=</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>USD-5Y=</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="26">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>USD-SWD=</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>USD-2WD=</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="27">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>USD-SWD=</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>USD-2WD=</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2131,8 +2009,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2346,7 +2224,7 @@
       </c>
       <c r="D10" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="143"/>
@@ -2422,7 +2300,7 @@
       </c>
       <c r="D14" s="51" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00345#0001</v>
+        <v>obj_002fd#0000</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="143"/>
@@ -2440,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="148">
-        <v>41654.636678240742</v>
+        <v>41765.704270833332</v>
       </c>
       <c r="E16" s="144"/>
       <c r="F16" s="143"/>
@@ -2585,7 +2463,9 @@
       <c r="B2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="152"/>
+      <c r="C2" s="152">
+        <v>41765.696666666663</v>
+      </c>
       <c r="D2" s="59"/>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
@@ -2617,7 +2497,7 @@
       </c>
       <c r="C3" s="151">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -2678,7 +2558,7 @@
       </c>
       <c r="C5" s="150">
         <f>[1]!TriggerCounter</f>
-        <v>89</v>
+        <v>472</v>
       </c>
       <c r="D5" s="59"/>
       <c r="E5" s="60"/>
@@ -8047,16 +7927,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="10" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="32.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" style="1"/>
@@ -8130,7 +8010,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0048c#0000</v>
+        <v>obj_0031d#0000</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -8142,7 +8022,7 @@
       </c>
       <c r="E2" s="112">
         <f>SettlementDate</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F2" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
@@ -8154,11 +8034,11 @@
       </c>
       <c r="H2" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>9.0000000005797563E-4</v>
+        <v>8.4999999972579221E-4</v>
       </c>
       <c r="I2" s="116">
         <f>G2-H2</f>
-        <v>6.0499999994202442E-4</v>
+        <v>6.5500000027420783E-4</v>
       </c>
       <c r="J2" s="117" t="b">
         <v>0</v>
@@ -8172,20 +8052,20 @@
       </c>
       <c r="O2" s="120">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="120">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="117"/>
       <c r="R2" s="131">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>363</v>
+        <v>341.33333333333331</v>
       </c>
       <c r="S2" s="131">
         <f>(O2+N2)/2</f>
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="T2" s="131">
         <v>1</v>
@@ -8198,7 +8078,7 @@
       </c>
       <c r="B3" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00491#0000</v>
+        <v>obj_0031f#0000</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -8210,7 +8090,7 @@
       </c>
       <c r="E3" s="105">
         <f>E2</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F3" s="106">
         <f>F2</f>
@@ -8222,11 +8102,11 @@
       </c>
       <c r="H3" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>9.0000000005797563E-4</v>
+        <v>8.4999999972579221E-4</v>
       </c>
       <c r="I3" s="109">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>6.0499999994202442E-4</v>
+        <v>6.5500000027420783E-4</v>
       </c>
       <c r="J3" s="117" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -8234,11 +8114,11 @@
       </c>
       <c r="K3" s="119">
         <f>K4</f>
-        <v>-5.3786613586453301E-7</v>
+        <v>-1.5538643652095545E-6</v>
       </c>
       <c r="L3" s="108">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>6.2274958242555399E-4</v>
+        <v>7.0472365996091359E-4</v>
       </c>
       <c r="M3" s="118"/>
       <c r="N3" s="120">
@@ -8247,20 +8127,20 @@
       </c>
       <c r="O3" s="120">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="120">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="117"/>
       <c r="R3" s="131">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>363</v>
+        <v>341.33333333333331</v>
       </c>
       <c r="S3" s="131">
         <f>(O3+N3)/2</f>
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="T3" s="131">
         <v>1</v>
@@ -8273,7 +8153,7 @@
       </c>
       <c r="B4" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00490#0000</v>
+        <v>obj_00320#0000</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -8288,19 +8168,19 @@
       </c>
       <c r="F4" s="56">
         <f>F5</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="G4" s="27">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>1.5156837559380876E-3</v>
+        <v>1.5153145259730616E-3</v>
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>9.4349359028379971E-4</v>
+        <v>9.5510025197663656E-4</v>
       </c>
       <c r="I4" s="16">
         <f>G4-H4</f>
-        <v>5.721901656542879E-4</v>
+        <v>5.6021427399642501E-4</v>
       </c>
       <c r="J4" s="1" t="b">
         <f>NOT(ISERROR(I4))</f>
@@ -8308,16 +8188,16 @@
       </c>
       <c r="K4" s="15">
         <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>-5.3786613586453301E-7</v>
+        <v>-1.5538643652095545E-6</v>
       </c>
       <c r="L4" s="15">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>6.2274958242555399E-4</v>
+        <v>7.0472365996091359E-4</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="121">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="121">
         <f t="shared" si="0"/>
@@ -8325,15 +8205,15 @@
       </c>
       <c r="P4" s="121">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R4" s="100">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2274.3333333333335</v>
+        <v>2232.333333333333</v>
       </c>
       <c r="S4" s="100">
         <f>(O4+N4)/2</f>
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="T4" s="100">
         <v>1</v>
@@ -8349,11 +8229,11 @@
       </c>
       <c r="E5" s="55">
         <f>SettlementDate</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F5" s="56">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="G5" s="52">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
@@ -8380,7 +8260,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00489#0000</v>
+        <v>obj_00304#0000</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -8392,23 +8272,23 @@
       </c>
       <c r="E6" s="112">
         <f>SettlementDate</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F6" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="G6" s="114">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>2.2285E-3</v>
+        <v>2.2485000000000001E-3</v>
       </c>
       <c r="H6" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>9.2999999946704562E-4</v>
+        <v>9.3000000093804288E-4</v>
       </c>
       <c r="I6" s="116">
         <f t="shared" si="1"/>
-        <v>1.2985000005329545E-3</v>
+        <v>1.3184999990619572E-3</v>
       </c>
       <c r="J6" s="117" t="b">
         <v>0</v>
@@ -8448,7 +8328,7 @@
       </c>
       <c r="B7" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0048f#0000</v>
+        <v>obj_0031e#0000</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -8460,23 +8340,23 @@
       </c>
       <c r="E7" s="105">
         <f>E6</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F7" s="106">
         <f>F6</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="G7" s="107">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>2.2285E-3</v>
+        <v>2.2485000000000001E-3</v>
       </c>
       <c r="H7" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>9.2999999946704562E-4</v>
+        <v>9.3000000093804288E-4</v>
       </c>
       <c r="I7" s="109">
         <f t="shared" si="1"/>
-        <v>1.2985000005329545E-3</v>
+        <v>1.3184999990619572E-3</v>
       </c>
       <c r="J7" s="117" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)))</f>
@@ -8535,11 +8415,11 @@
       <c r="M8" s="118"/>
       <c r="N8" s="120">
         <f t="shared" si="2"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="O8" s="120">
         <f t="shared" si="3"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="P8" s="120" t="e">
         <f t="shared" si="6"/>
@@ -8552,7 +8432,7 @@
       </c>
       <c r="S8" s="131">
         <f t="shared" si="5"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="T8" s="131">
         <v>1</v>
@@ -8583,20 +8463,20 @@
       </c>
       <c r="K9" s="108">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>-8.0180558696483716E-7</v>
+        <v>-1.3905650475273017E-6</v>
       </c>
       <c r="L9" s="108">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3722661145337196E-3</v>
+        <v>1.446431983434469E-3</v>
       </c>
       <c r="M9" s="118"/>
       <c r="N9" s="120">
         <f t="shared" si="2"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="O9" s="120">
         <f t="shared" si="3"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="P9" s="120" t="e">
         <f t="shared" si="6"/>
@@ -8609,7 +8489,7 @@
       </c>
       <c r="S9" s="131">
         <f t="shared" si="5"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="T9" s="131">
         <v>1</v>
@@ -8628,25 +8508,25 @@
       </c>
       <c r="Z9" s="76">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>3.1587917154378896E-8</v>
+        <v>3.8022335085286601E-8</v>
       </c>
       <c r="AB9" s="76">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.2985000005329545E-3</v>
+        <v>1.3184999990619572E-3</v>
       </c>
       <c r="AD9" s="82">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>1.7006802721088478E-3</v>
+        <v>1.8761726078799338E-3</v>
       </c>
       <c r="AE9" s="83">
-        <v>-2.5510204081632716E-3</v>
+        <v>-2.7472527472527592E-3</v>
       </c>
       <c r="AF9" s="84">
-        <v>8.5034013605442401E-4</v>
+        <v>8.7108013937282566E-4</v>
       </c>
       <c r="AH9" s="79">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>2.1684043449710089E-18</v>
+        <v>-1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -8656,7 +8536,7 @@
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00487#0000</v>
+        <v>obj_00308#0000</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -8676,15 +8556,15 @@
       </c>
       <c r="G10" s="52">
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
-        <v>2.2124999999999506E-3</v>
+        <v>2.2249999999999215E-3</v>
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>9.4385006975855851E-4</v>
+        <v>9.505190468656298E-4</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="1"/>
-        <v>1.2686499302413921E-3</v>
+        <v>1.2744809531342917E-3</v>
       </c>
       <c r="J10" s="1" t="b">
         <f>AND(NOT(ISERROR(I10)),E10&lt;&gt;$E$9,E10&lt;&gt;$E$8)</f>
@@ -8692,41 +8572,41 @@
       </c>
       <c r="K10" s="15">
         <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.066073938984371E-6</v>
+        <v>-1.6930402279871344E-6</v>
       </c>
       <c r="L10" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3965788029195166E-3</v>
+        <v>1.4742597000367735E-3</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="121">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O10" s="121">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P10" s="121">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R10" s="100">
         <f t="shared" si="4"/>
-        <v>4305.3333333333339</v>
+        <v>4186.3333333333339</v>
       </c>
       <c r="S10" s="100">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T10" s="100">
         <v>1</v>
       </c>
       <c r="V10" s="94">
-        <v>4305.3333333333339</v>
+        <v>4186.3333333333339</v>
       </c>
       <c r="W10" s="95">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X10" s="96">
         <v>1</v>
@@ -8735,25 +8615,25 @@
         <v>47</v>
       </c>
       <c r="Z10" s="77">
-        <v>-5.4804670963328801E-6</v>
+        <v>-7.3784256399294127E-6</v>
       </c>
       <c r="AA10" s="67" t="s">
         <v>48</v>
       </c>
       <c r="AB10" s="77">
-        <v>1.2686499302413921E-3</v>
+        <v>1.2744809531342917E-3</v>
       </c>
       <c r="AD10" s="85">
-        <v>-0.2517006802721094</v>
+        <v>-0.27392120075047022</v>
       </c>
       <c r="AE10" s="86">
-        <v>0.34183673469387837</v>
+        <v>0.36538461538461697</v>
       </c>
       <c r="AF10" s="87">
-        <v>-9.0136054421768988E-2</v>
+        <v>-9.1463414634146797E-2</v>
       </c>
       <c r="AH10" s="80">
-        <v>2.3852447794681098E-18</v>
+        <v>-2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -8763,7 +8643,7 @@
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00472#0000</v>
+        <v>obj_00307#0000</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -8787,11 +8667,11 @@
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>9.7890281976810499E-4</v>
+        <v>1.0016796589550009E-3</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="1"/>
-        <v>1.2460971802318165E-3</v>
+        <v>1.2233203410449206E-3</v>
       </c>
       <c r="J11" s="1" t="b">
         <f>NOT(ISERROR(I11))</f>
@@ -8799,62 +8679,62 @@
       </c>
       <c r="K11" s="15">
         <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-6.2384309882307147E-7</v>
+        <v>-1.1607275367931294E-6</v>
       </c>
       <c r="L11" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.355893565624677E-3</v>
+        <v>1.425286932446925E-3</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="121">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O11" s="121">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P11" s="121">
         <f t="shared" si="6"/>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R11" s="100">
         <f t="shared" si="4"/>
-        <v>8449.3333333333321</v>
+        <v>8274.3333333333321</v>
       </c>
       <c r="S11" s="100">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T11" s="100">
         <v>1</v>
       </c>
       <c r="V11" s="97">
-        <v>8449.3333333333321</v>
+        <v>8274.3333333333321</v>
       </c>
       <c r="W11" s="98">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X11" s="99">
         <v>1</v>
       </c>
       <c r="Z11" s="78">
-        <v>1.461481443366048E-3</v>
+        <v>1.5506338971114199E-3</v>
       </c>
       <c r="AB11" s="78">
-        <v>1.2460971802318165E-3</v>
+        <v>1.2233203410449206E-3</v>
       </c>
       <c r="AD11" s="88">
-        <v>7.7800453514739374</v>
+        <v>8.3070669168230449</v>
       </c>
       <c r="AE11" s="89">
-        <v>-8.527210884353762</v>
+        <v>-9.0567765567765974</v>
       </c>
       <c r="AF11" s="90">
-        <v>1.7471655328798255</v>
+        <v>1.7497096399535539</v>
       </c>
       <c r="AH11" s="81">
-        <v>3.4694469519536142E-18</v>
+        <v>-3.2526065174565133E-18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -8863,7 +8743,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00473#0000</v>
+        <v>obj_00313#0000</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -8887,11 +8767,11 @@
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>9.6872298119079223E-4</v>
+        <v>9.8584735311734806E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>1.251277018809208E-3</v>
+        <v>1.2341526468826521E-3</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -8899,32 +8779,32 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-7.1549972308706887E-7</v>
+        <v>-1.3179273778016415E-6</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3643259750569649E-3</v>
+        <v>1.4397493178197082E-3</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="121">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="121">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P12" s="121">
         <f t="shared" si="6"/>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R12" s="100">
         <f t="shared" si="4"/>
-        <v>6946.333333333333</v>
+        <v>6789.333333333333</v>
       </c>
       <c r="S12" s="100">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T12" s="100">
         <v>1</v>
@@ -8939,7 +8819,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00470#0000</v>
+        <v>obj_0031b#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -8951,23 +8831,23 @@
       </c>
       <c r="E13" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="F13" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="G13" s="52">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.2500000000000003E-3</v>
+        <v>2.2400000000000002E-3</v>
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>1.0029958170922604E-3</v>
+        <v>1.032885962337251E-3</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>1.2470041829077399E-3</v>
+        <v>1.2071140376627492E-3</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -8975,11 +8855,11 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-4.2209686578044786E-7</v>
+        <v>-9.1299968360006514E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3373329121847558E-3</v>
+        <v>1.4024959699531633E-3</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="121">
@@ -9015,7 +8895,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00475#0000</v>
+        <v>obj_00318#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -9027,23 +8907,23 @@
       </c>
       <c r="E14" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="F14" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
       <c r="G14" s="52">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.2899999999999999E-3</v>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>1.0697457576254274E-3</v>
+        <v>1.088039280753885E-3</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>1.2202542423745725E-3</v>
+        <v>1.1919607192461149E-3</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -9051,11 +8931,11 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-4.2524868564338047E-7</v>
+        <v>-6.8031870868732432E-7</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3376228796121454E-3</v>
+        <v>1.3810893202611911E-3</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="121">
@@ -9064,19 +8944,19 @@
       </c>
       <c r="O14" s="121">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P14" s="121">
         <f t="shared" si="6"/>
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R14" s="100">
         <f t="shared" si="4"/>
-        <v>19749.333333333336</v>
+        <v>20057.333333333332</v>
       </c>
       <c r="S14" s="100">
         <f t="shared" si="5"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T14" s="100">
         <v>1</v>
@@ -9091,7 +8971,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00474#0000</v>
+        <v>obj_00305#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -9103,23 +8983,23 @@
       </c>
       <c r="E15" s="112">
         <f>SettlementDate</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F15" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
       <c r="G15" s="114">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
-        <v>3.2200000000000002E-3</v>
+        <v>3.2290000000000001E-3</v>
       </c>
       <c r="H15" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>1.0000000000004693E-3</v>
+        <v>1.0100000000002132E-3</v>
       </c>
       <c r="I15" s="116">
         <f t="shared" si="1"/>
-        <v>2.2199999999995309E-3</v>
+        <v>2.2189999999997871E-3</v>
       </c>
       <c r="J15" s="117" t="b">
         <v>0</v>
@@ -9133,20 +9013,20 @@
       </c>
       <c r="O15" s="120">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P15" s="120">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q15" s="117"/>
       <c r="R15" s="131">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11285.333333333332</v>
+        <v>11532</v>
       </c>
       <c r="S15" s="131">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T15" s="131">
         <v>1</v>
@@ -9159,7 +9039,7 @@
       </c>
       <c r="B16" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0048d#0000</v>
+        <v>obj_002d5#0003</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -9171,23 +9051,23 @@
       </c>
       <c r="E16" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41765</v>
+        <v>41767</v>
       </c>
       <c r="F16" s="106">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41949</v>
+        <v>41953</v>
       </c>
       <c r="G16" s="107">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>3.2200000000000002E-3</v>
+        <v>3.2290000000000001E-3</v>
       </c>
       <c r="H16" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>1.0017321044090675E-3</v>
+        <v>1.0100000000002132E-3</v>
       </c>
       <c r="I16" s="109">
         <f t="shared" si="1"/>
-        <v>2.2182678955909325E-3</v>
+        <v>2.2189999999997871E-3</v>
       </c>
       <c r="J16" s="117" t="b">
         <f>AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
@@ -9198,24 +9078,24 @@
       <c r="M16" s="118"/>
       <c r="N16" s="120">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="120">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P16" s="120">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="117"/>
       <c r="R16" s="131">
         <f t="shared" si="8"/>
-        <v>11102.333333333332</v>
+        <v>11532</v>
       </c>
       <c r="S16" s="131">
         <f t="shared" si="9"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T16" s="131">
         <v>1</v>
@@ -9246,11 +9126,11 @@
       <c r="M17" s="118"/>
       <c r="N17" s="120">
         <f t="shared" si="2"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="O17" s="120">
         <f t="shared" si="3"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="P17" s="120" t="e">
         <f t="shared" si="7"/>
@@ -9263,7 +9143,7 @@
       </c>
       <c r="S17" s="131">
         <f t="shared" si="9"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="T17" s="131">
         <v>1</v>
@@ -9294,20 +9174,20 @@
       </c>
       <c r="K18" s="108">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-5.814751652831254E-7</v>
+        <v>-6.2377155946215708E-7</v>
       </c>
       <c r="L18" s="108">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3240963756724613E-3</v>
+        <v>2.3350215100597484E-3</v>
       </c>
       <c r="M18" s="118"/>
       <c r="N18" s="120">
         <f t="shared" si="2"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="O18" s="120">
         <f t="shared" si="3"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="P18" s="120" t="e">
         <f t="shared" si="7"/>
@@ -9320,18 +9200,18 @@
       </c>
       <c r="S18" s="131">
         <f t="shared" si="9"/>
-        <v>-41766</v>
+        <v>-41767</v>
       </c>
       <c r="T18" s="131">
         <v>1</v>
       </c>
       <c r="V18" s="91">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>11102.333333333332</v>
+        <v>11532</v>
       </c>
       <c r="W18" s="92">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X18" s="93">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -9339,25 +9219,25 @@
       </c>
       <c r="Z18" s="76">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>1.8183142703755349E-8</v>
+        <v>3.4464311418617314E-9</v>
       </c>
       <c r="AB18" s="76">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>2.2182678955909325E-3</v>
+        <v>2.2189999999997871E-3</v>
       </c>
       <c r="AD18" s="82">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>4.6651970841154181E-4</v>
+        <v>5.118047623866893E-4</v>
       </c>
       <c r="AE18" s="83">
-        <v>-1.0148849797023017E-3</v>
+        <v>-1.0409588387525887E-3</v>
       </c>
       <c r="AF18" s="84">
-        <v>5.4836527129075992E-4</v>
+        <v>5.2915407636589917E-4</v>
       </c>
       <c r="AH18" s="79">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>-1.7347234759768071E-18</v>
+        <v>9.1072982488782372E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -9366,7 +9246,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00482#0000</v>
+        <v>obj_00315#0000</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -9386,15 +9266,15 @@
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>3.2199999999999993E-3</v>
+        <v>3.2399999999999994E-3</v>
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>1.0545039539739298E-3</v>
+        <v>1.0625308575743092E-3</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>2.1654960460260695E-3</v>
+        <v>2.1774691424256902E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -9402,41 +9282,41 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-7.8763954574422344E-7</v>
+        <v>-6.8083373072290055E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.361618292916381E-3</v>
+        <v>2.3456350739142467E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="121">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="121">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P19" s="121">
         <f t="shared" si="7"/>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R19" s="100">
         <f t="shared" si="8"/>
-        <v>18291</v>
+        <v>18043</v>
       </c>
       <c r="S19" s="100">
         <f t="shared" si="9"/>
-        <v>124.5</v>
+        <v>123.5</v>
       </c>
       <c r="T19" s="100">
         <v>1</v>
       </c>
       <c r="V19" s="94">
-        <v>18291</v>
+        <v>18043</v>
       </c>
       <c r="W19" s="95">
-        <v>124.5</v>
+        <v>123.5</v>
       </c>
       <c r="X19" s="96">
         <v>1</v>
@@ -9445,25 +9325,25 @@
         <v>47</v>
       </c>
       <c r="Z19" s="77">
-        <v>-5.4771463108833191E-6</v>
+        <v>-2.0973957619264082E-6</v>
       </c>
       <c r="AA19" s="67" t="s">
         <v>48</v>
       </c>
       <c r="AB19" s="77">
-        <v>2.1654960460260695E-3</v>
+        <v>2.1774691424256902E-3</v>
       </c>
       <c r="AD19" s="85">
-        <v>-0.1299598411104807</v>
+        <v>-0.14204461665245036</v>
       </c>
       <c r="AE19" s="86">
-        <v>0.24763193504736158</v>
+        <v>0.25500599997108553</v>
       </c>
       <c r="AF19" s="87">
-        <v>-0.1176720939368809</v>
+        <v>-0.11296138331863512</v>
       </c>
       <c r="AH19" s="80">
-        <v>-8.6736173798840355E-19</v>
+        <v>1.2576745200831851E-17</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -9472,7 +9352,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0048a#0000</v>
+        <v>obj_00316#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -9484,23 +9364,23 @@
       </c>
       <c r="E20" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="F20" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>3.2599999999999994E-3</v>
+        <v>3.2699999999999995E-3</v>
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>1.1062405928614241E-3</v>
+        <v>1.1261869519823384E-3</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>2.1537594071385753E-3</v>
+        <v>2.1438130480176611E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9508,11 +9388,11 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-5.2022974558352525E-7</v>
+        <v>-6.2655793318438355E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3129497092871341E-3</v>
+        <v>2.3355397755720824E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="121">
@@ -9548,22 +9428,22 @@
         <v>1</v>
       </c>
       <c r="Z20" s="78">
-        <v>2.514812898536653E-3</v>
+        <v>2.3743135619310029E-3</v>
       </c>
       <c r="AB20" s="78">
-        <v>2.1537594071385753E-3</v>
+        <v>2.1438130480176611E-3</v>
       </c>
       <c r="AD20" s="88">
-        <v>7.6468882316993367</v>
+        <v>8.3080168288345835</v>
       </c>
       <c r="AE20" s="89">
-        <v>-11.266914749661719</v>
+        <v>-11.711220668816102</v>
       </c>
       <c r="AF20" s="90">
-        <v>4.6200265179623816</v>
+        <v>4.4032038399815177</v>
       </c>
       <c r="AH20" s="81">
-        <v>4.3368086899420177E-19</v>
+        <v>1.5178830414797062E-17</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -9572,7 +9452,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00486#0000</v>
+        <v>obj_0031a#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -9584,7 +9464,7 @@
       </c>
       <c r="E21" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="F21" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
@@ -9592,15 +9472,15 @@
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>3.3199999999999996E-3</v>
+        <v>3.3299999999999996E-3</v>
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>1.1838046708591331E-3</v>
+        <v>1.2141979116499038E-3</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>2.1361953291408665E-3</v>
+        <v>2.1158020883500959E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9608,11 +9488,11 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-4.3655620452162754E-7</v>
+        <v>-5.6392301447918714E-7</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2977211248138688E-3</v>
+        <v>2.3238896806929161E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="121">
@@ -9621,19 +9501,19 @@
       </c>
       <c r="O21" s="121">
         <f t="shared" si="3"/>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P21" s="121">
         <f t="shared" si="7"/>
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R21" s="100">
         <f t="shared" si="8"/>
-        <v>37108</v>
+        <v>36892.333333333336</v>
       </c>
       <c r="S21" s="100">
         <f t="shared" si="9"/>
-        <v>185</v>
+        <v>184.5</v>
       </c>
       <c r="T21" s="100">
         <v>1</v>
@@ -9649,7 +9529,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00480#0000</v>
+        <v>obj_00306#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -9669,15 +9549,15 @@
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>3.4299999999999999E-3</v>
+        <v>3.4499999999999999E-3</v>
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>1.2858429796138568E-3</v>
+        <v>1.3182534355869425E-3</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>2.1441570203861431E-3</v>
+        <v>2.1317465644130574E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9685,32 +9565,32 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.9883417421286026E-7</v>
+        <v>-3.6055138672202352E-7</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2726557152976733E-3</v>
+        <v>2.2860625579300834E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="121">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O22" s="121">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P22" s="121">
         <f t="shared" si="7"/>
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="R22" s="100">
         <f t="shared" si="8"/>
-        <v>48985.333333333328</v>
+        <v>48556.333333333328</v>
       </c>
       <c r="S22" s="100">
         <f t="shared" si="9"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T22" s="100">
         <v>1</v>
@@ -9726,7 +9606,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0047e#0000</v>
+        <v>obj_00317#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -9738,23 +9618,23 @@
       </c>
       <c r="E23" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="F23" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42101</v>
+        <v>42102</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>3.5799999999999998E-3</v>
+        <v>3.62E-3</v>
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>1.411176484716123E-3</v>
+        <v>1.4763631169906015E-3</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>2.1688235152838766E-3</v>
+        <v>2.1436368830093982E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9762,11 +9642,11 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.6158294217992113E-7</v>
+        <v>-2.4954674500128776E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2476759910676782E-3</v>
+        <v>2.2654156945700267E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="121">
@@ -9803,7 +9683,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0047f#0000</v>
+        <v>obj_0030c#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -9815,23 +9695,23 @@
       </c>
       <c r="E24" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
       <c r="F24" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42131</v>
+        <v>42135</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>3.7799999999999999E-3</v>
+        <v>3.8500000000000001E-3</v>
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>1.5839970313506456E-3</v>
+        <v>1.6749253276313748E-3</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>2.1960029686493542E-3</v>
+        <v>2.1750746723686251E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9839,32 +9719,32 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-6.0667375862611227E-8</v>
+        <v>-1.1936230334554891E-7</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2293093579979278E-3</v>
+        <v>2.2412013884220592E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="121">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O24" s="121">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P24" s="121">
         <f t="shared" si="7"/>
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="R24" s="100">
         <f t="shared" si="8"/>
-        <v>78080.333333333343</v>
+        <v>79489.333333333328</v>
       </c>
       <c r="S24" s="100">
         <f t="shared" si="9"/>
-        <v>274.5</v>
+        <v>277</v>
       </c>
       <c r="T24" s="100">
         <v>1</v>
@@ -9876,7 +9756,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00477#0000</v>
+        <v>obj_0031c#0000</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -9888,23 +9768,23 @@
       </c>
       <c r="E25" s="112">
         <f>SettlementDate</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F25" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="G25" s="114">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>5.4749999999999998E-3</v>
+        <v>5.4359999999999999E-3</v>
       </c>
       <c r="H25" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>1.2899999999996363E-3</v>
+        <v>1.3300000000001173E-3</v>
       </c>
       <c r="I25" s="116">
         <f t="shared" si="1"/>
-        <v>4.1850000000003638E-3</v>
+        <v>4.1059999999998823E-3</v>
       </c>
       <c r="J25" s="117" t="b">
         <v>0</v>
@@ -9944,7 +9824,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0048e#0000</v>
+        <v>obj_002d6#0003</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -9956,23 +9836,23 @@
       </c>
       <c r="E26" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41765</v>
+        <v>41767</v>
       </c>
       <c r="F26" s="106">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42130</v>
+        <v>42132</v>
       </c>
       <c r="G26" s="107">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>5.4749999999999998E-3</v>
+        <v>5.4359999999999999E-3</v>
       </c>
       <c r="H26" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>1.2875088968702711E-3</v>
+        <v>1.3300000000001173E-3</v>
       </c>
       <c r="I26" s="109">
         <f t="shared" si="1"/>
-        <v>4.1874911031297285E-3</v>
+        <v>4.1059999999998823E-3</v>
       </c>
       <c r="J26" s="117" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -9989,24 +9869,24 @@
       <c r="M26" s="118"/>
       <c r="N26" s="120">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="120">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P26" s="120">
         <f t="shared" si="7"/>
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="117"/>
       <c r="R26" s="131">
         <f t="shared" si="8"/>
-        <v>44044.333333333328</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="S26" s="131">
         <f t="shared" si="9"/>
-        <v>181.5</v>
+        <v>182.5</v>
       </c>
       <c r="T26" s="131">
         <v>1</v>
@@ -10019,7 +9899,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0046d#0000</v>
+        <v>obj_00314#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -10031,7 +9911,7 @@
       </c>
       <c r="E27" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="F27" s="56">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
@@ -10043,7 +9923,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.2655189115717888E-3</v>
+        <v>6.7537885797785673E-3</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -10068,19 +9948,19 @@
       </c>
       <c r="O27" s="121">
         <f t="shared" si="3"/>
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P27" s="121">
         <f t="shared" si="7"/>
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R27" s="100">
         <f t="shared" si="8"/>
-        <v>312686.33333333337</v>
+        <v>312076.33333333331</v>
       </c>
       <c r="S27" s="100">
         <f t="shared" si="9"/>
-        <v>549</v>
+        <v>548.5</v>
       </c>
       <c r="T27" s="100">
         <v>1</v>
@@ -10151,11 +10031,11 @@
       </c>
       <c r="V30" s="126">
         <f>Z9</f>
-        <v>3.1587917154378896E-8</v>
+        <v>3.8022335085286601E-8</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>1.8183142703755349E-8</v>
+        <v>3.4464311418617314E-9</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -10164,34 +10044,34 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>6.0499999994202442E-4</v>
+        <v>6.5500000027420783E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.2985000005329545E-3</v>
+        <v>1.3184999990619572E-3</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>2.2182678955909325E-3</v>
+        <v>2.2189999999997871E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>4.1874911031297285E-3</v>
+        <v>4.1059999999998823E-3</v>
       </c>
       <c r="M31" s="67" t="s">
         <v>46</v>
       </c>
       <c r="N31" s="66">
         <f>K4</f>
-        <v>-5.3786613586453301E-7</v>
+        <v>-1.5538643652095545E-6</v>
       </c>
       <c r="O31" s="66">
         <f>K9</f>
-        <v>-8.0180558696483716E-7</v>
+        <v>-1.3905650475273017E-6</v>
       </c>
       <c r="P31" s="66">
         <f>AVERAGE(K19:K21)</f>
-        <v>-5.814751652831254E-7</v>
+        <v>-6.2377155946215708E-7</v>
       </c>
       <c r="Q31" s="66" t="e">
         <f>K26</f>
@@ -10202,11 +10082,11 @@
       </c>
       <c r="V31" s="72">
         <f>Z10</f>
-        <v>-5.4804670963328801E-6</v>
+        <v>-7.3784256399294127E-6</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-5.4771463108833191E-6</v>
+        <v>-2.0973957619264082E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -10215,34 +10095,34 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>6.0499999994202442E-4</v>
+        <v>6.5500000027420783E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>1.2985000005329545E-3</v>
+        <v>1.3184999990619572E-3</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>2.2182678955909325E-3</v>
+        <v>2.2189999999997871E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>4.1874911031297285E-3</v>
+        <v>4.1059999999998823E-3</v>
       </c>
       <c r="M32" s="67" t="s">
         <v>45</v>
       </c>
       <c r="N32" s="66">
         <f>L4</f>
-        <v>6.2274958242555399E-4</v>
+        <v>7.0472365996091359E-4</v>
       </c>
       <c r="O32" s="66">
         <f>L9</f>
-        <v>1.3722661145337196E-3</v>
+        <v>1.446431983434469E-3</v>
       </c>
       <c r="P32" s="66">
         <f>L18</f>
-        <v>2.3240963756724613E-3</v>
+        <v>2.3350215100597484E-3</v>
       </c>
       <c r="Q32" s="66" t="e">
         <f>L26</f>
@@ -10253,11 +10133,11 @@
       </c>
       <c r="V32" s="72">
         <f>Z11</f>
-        <v>1.461481443366048E-3</v>
+        <v>1.5506338971114199E-3</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>2.514812898536653E-3</v>
+        <v>2.3743135619310029E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -10315,7 +10195,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="132" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0047d#0000</v>
+        <v>obj_00310#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -10326,27 +10206,27 @@
       </c>
       <c r="E34" s="53">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="G34" s="32">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>1.5222117163012955E-3</v>
+        <v>1.5531697955584497E-3</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>2.3587517391352054E-3</v>
+        <v>2.3969573583658959E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>3.4120803864403854E-3</v>
+        <v>3.2232660128231659E-3</v>
       </c>
       <c r="J34" s="32">
         <f t="shared" si="14"/>
-        <v>5.0874911031413344E-3</v>
+        <v>4.9559999999626283E-3</v>
       </c>
       <c r="K34" s="133">
         <f>F34-$E$6</f>
@@ -10354,19 +10234,19 @@
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>9.0000000001160593E-4</v>
+        <v>8.4999999996274568E-4</v>
       </c>
       <c r="N34" s="71">
         <f>N$31*$K34+N$32</f>
-        <v>6.2221171628968946E-4</v>
+        <v>7.0316979559570403E-4</v>
       </c>
       <c r="O34" s="72">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>1.4587517391235997E-3</v>
+        <v>1.5469573584031503E-3</v>
       </c>
       <c r="P34" s="72">
         <f t="shared" si="15"/>
-        <v>2.5120803864287795E-3</v>
+        <v>2.3732660128604204E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
@@ -10377,17 +10257,17 @@
       </c>
       <c r="V34" s="72">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>1.4587517391235997E-3</v>
+        <v>1.5469573584031503E-3</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>2.5120803864287795E-3</v>
+        <v>2.3732660128604204E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00483#0000</v>
+        <v>obj_00300#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -10398,27 +10278,27 @@
       </c>
       <c r="E35" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="G35" s="32">
         <f t="shared" si="14"/>
-        <v>1.5189845194861083E-3</v>
+        <v>1.5438466093671923E-3</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>2.3428157445206771E-3</v>
+        <v>2.3754304388074726E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>3.3959398777909954E-3</v>
+        <v>3.2170289684356566E-3</v>
       </c>
       <c r="J35" s="32">
         <f t="shared" si="14"/>
-        <v>5.0874911031413344E-3</v>
+        <v>4.9559999999626283E-3</v>
       </c>
       <c r="K35" s="134">
         <f t="shared" ref="K35:K49" si="18">F35-$E$6</f>
@@ -10426,19 +10306,19 @@
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>9.0000000001160593E-4</v>
+        <v>8.4999999996274568E-4</v>
       </c>
       <c r="N35" s="71">
         <f>N$31*$K35+N$32</f>
-        <v>6.1898451947450231E-4</v>
+        <v>6.9384660940444674E-4</v>
       </c>
       <c r="O35" s="72">
         <f t="shared" si="15"/>
-        <v>1.4428157445090712E-3</v>
+        <v>1.5254304388447268E-3</v>
       </c>
       <c r="P35" s="72">
         <f t="shared" si="15"/>
-        <v>2.4959398777793895E-3</v>
+        <v>2.367028968472911E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10449,17 +10329,17 @@
       </c>
       <c r="V35" s="72">
         <f t="shared" si="17"/>
-        <v>1.4428157445090712E-3</v>
+        <v>1.5254304388447268E-3</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>2.4959398777793895E-3</v>
+        <v>2.367028968472911E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00479#0000</v>
+        <v>obj_0030e#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -10470,27 +10350,27 @@
       </c>
       <c r="E36" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="G36" s="32">
         <f t="shared" si="14"/>
-        <v>1.515219457614193E-3</v>
+        <v>1.5329695587764671E-3</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>2.3251819187032133E-3</v>
+        <v>2.3514690434526401E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>3.377660840774524E-3</v>
+        <v>3.2098569583606071E-3</v>
       </c>
       <c r="J36" s="32">
         <f t="shared" si="14"/>
-        <v>5.0874911042204712E-3</v>
+        <v>4.9559999999283693E-3</v>
       </c>
       <c r="K36" s="134">
         <f t="shared" si="18"/>
@@ -10498,19 +10378,19 @@
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>9.0000000109074249E-4</v>
+        <v>8.4999999992848728E-4</v>
       </c>
       <c r="N36" s="71">
         <f>N$31*$K36+N$32</f>
-        <v>6.1521945652345052E-4</v>
+        <v>6.8296955884797979E-4</v>
       </c>
       <c r="O36" s="72">
         <f t="shared" si="15"/>
-        <v>1.4251819176124706E-3</v>
+        <v>1.5014690435241527E-3</v>
       </c>
       <c r="P36" s="72">
         <f t="shared" si="15"/>
-        <v>2.4776608396837817E-3</v>
+        <v>2.3598569584321197E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10521,17 +10401,17 @@
       </c>
       <c r="V36" s="72">
         <f t="shared" si="17"/>
-        <v>1.4251819176124706E-3</v>
+        <v>1.5014690435241527E-3</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>2.4776608396837817E-3</v>
+        <v>2.3598569584321197E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0046e#0000</v>
+        <v>obj_00319#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -10542,27 +10422,27 @@
       </c>
       <c r="E37" s="54">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="14"/>
-        <v>1.5114543904398529E-3</v>
+        <v>1.522092508178129E-3</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="14"/>
-        <v>2.3085799595437008E-3</v>
+        <v>2.3287497110363142E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>3.3599757811172844E-3</v>
+        <v>3.2027975316952454E-3</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="14"/>
-        <v>5.0874910999971828E-3</v>
+        <v>4.9559999998864982E-3</v>
       </c>
       <c r="K37" s="135">
         <f t="shared" si="18"/>
@@ -10570,19 +10450,19 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>8.9999999686745421E-4</v>
+        <v>8.4999999988661604E-4</v>
       </c>
       <c r="N37" s="101">
         <f>N$31*$K37+N$32</f>
-        <v>6.1145439357239884E-4</v>
+        <v>6.7209250829151294E-4</v>
       </c>
       <c r="O37" s="102">
         <f t="shared" si="15"/>
-        <v>1.4085799626762465E-3</v>
+        <v>1.4787497111496983E-3</v>
       </c>
       <c r="P37" s="102">
         <f t="shared" si="15"/>
-        <v>2.4599757842498301E-3</v>
+        <v>2.3527975318086295E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
         <f t="shared" si="16"/>
@@ -10593,17 +10473,17 @@
       </c>
       <c r="V37" s="102">
         <f t="shared" si="17"/>
-        <v>1.4085799626762465E-3</v>
+        <v>1.4787497111496983E-3</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>2.4599757842498301E-3</v>
+        <v>2.3527975318086295E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0048b#0000</v>
+        <v>obj_00312#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -10614,7 +10494,7 @@
       </c>
       <c r="E38" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
@@ -10626,35 +10506,35 @@
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>2.2825201502615707E-3</v>
+        <v>2.2955573769741192E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>3.3310404652665171E-3</v>
+        <v>3.1919316112957283E-3</v>
       </c>
       <c r="J38" s="34">
         <f t="shared" si="14"/>
-        <v>5.0874911031877044E-3</v>
+        <v>4.9559999997256746E-3</v>
       </c>
       <c r="K38" s="133">
         <f t="shared" si="18"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>9.0000000005797563E-4</v>
+        <v>8.4999999972579221E-4</v>
       </c>
       <c r="N38" s="71">
         <f>N$31*$K38+N$32</f>
-        <v>6.0499999994202442E-4</v>
+        <v>6.5500000027420783E-4</v>
       </c>
       <c r="O38" s="72">
         <f t="shared" si="15"/>
-        <v>1.3825201502035949E-3</v>
+        <v>1.4455573772483271E-3</v>
       </c>
       <c r="P38" s="72">
         <f t="shared" si="15"/>
-        <v>2.4310404652085416E-3</v>
+        <v>2.341931611569936E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10665,17 +10545,17 @@
       </c>
       <c r="V38" s="72">
         <f t="shared" si="17"/>
-        <v>1.3825201502035949E-3</v>
+        <v>1.4455573772483271E-3</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>2.4310404652085416E-3</v>
+        <v>2.341931611569936E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0047b#0000</v>
+        <v>obj_00302#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -10686,24 +10566,24 @@
       </c>
       <c r="E39" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>2.2535067435047801E-3</v>
+        <v>2.2727522851919493E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>3.2903130940546733E-3</v>
+        <v>3.2146177150994626E-3</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" si="19"/>
-        <v>5.1074911031294655E-3</v>
+        <v>5.0060000004808081E-3</v>
       </c>
       <c r="K39" s="134">
         <f t="shared" si="18"/>
@@ -10711,16 +10591,16 @@
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>9.19999999999737E-4</v>
+        <v>9.0000000048092582E-4</v>
       </c>
       <c r="N39" s="49"/>
       <c r="O39" s="72">
         <f t="shared" si="15"/>
-        <v>1.3335067435050431E-3</v>
+        <v>1.3727522847110233E-3</v>
       </c>
       <c r="P39" s="72">
         <f t="shared" si="15"/>
-        <v>2.3703130940549363E-3</v>
+        <v>2.3146177146185368E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10731,17 +10611,17 @@
       </c>
       <c r="V39" s="72">
         <f t="shared" si="17"/>
-        <v>1.3335067435050431E-3</v>
+        <v>1.3727522847110233E-3</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>2.3703130940549363E-3</v>
+        <v>2.3146177146185368E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00478#0000</v>
+        <v>obj_0030f#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -10752,24 +10632,24 @@
       </c>
       <c r="E40" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>2.2285000000000022E-3</v>
+        <v>2.2484999999999983E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>3.2441648743179274E-3</v>
+        <v>3.2175568888820035E-3</v>
       </c>
       <c r="J40" s="32">
         <f t="shared" si="19"/>
-        <v>5.117491102596774E-3</v>
+        <v>5.0360000009379256E-3</v>
       </c>
       <c r="K40" s="134">
         <f t="shared" si="18"/>
@@ -10777,16 +10657,16 @@
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>9.2999999946704562E-4</v>
+        <v>9.3000000093804288E-4</v>
       </c>
       <c r="N40" s="47"/>
       <c r="O40" s="72">
         <f t="shared" si="15"/>
-        <v>1.2985000005329567E-3</v>
+        <v>1.3184999990619554E-3</v>
       </c>
       <c r="P40" s="72">
         <f t="shared" si="15"/>
-        <v>2.3141648748508819E-3</v>
+        <v>2.2875568879439606E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10797,17 +10677,17 @@
       </c>
       <c r="V40" s="72">
         <f t="shared" si="17"/>
-        <v>1.2985000005329567E-3</v>
+        <v>1.3184999990619554E-3</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>2.3141648748508819E-3</v>
+        <v>2.2875568879439606E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00484#0000</v>
+        <v>obj_0030a#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -10818,7 +10698,7 @@
       </c>
       <c r="E41" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
@@ -10828,25 +10708,25 @@
       <c r="H41" s="48"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>3.2184244950372947E-3</v>
+        <v>3.2127040748211495E-3</v>
       </c>
       <c r="J41" s="32">
         <f t="shared" si="20"/>
-        <v>5.1374911035008217E-3</v>
+        <v>5.0560000000000943E-3</v>
       </c>
       <c r="K41" s="134">
         <f t="shared" si="18"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>9.5000000037109324E-4</v>
+        <v>9.5000000000021218E-4</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="48"/>
       <c r="P41" s="72">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>2.2684244946662015E-3</v>
+        <v>2.2627040748209376E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10858,13 +10738,13 @@
       <c r="V41" s="72"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>2.2684244946662015E-3</v>
+        <v>2.2627040748209376E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0047c#0000</v>
+        <v>obj_00309#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -10875,21 +10755,21 @@
       </c>
       <c r="E42" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="46"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>3.2076942677200346E-3</v>
+        <v>3.2207552880453546E-3</v>
       </c>
       <c r="J42" s="32">
         <f t="shared" si="20"/>
-        <v>5.1574911025782811E-3</v>
+        <v>5.0859999997016573E-3</v>
       </c>
       <c r="K42" s="134">
         <f t="shared" si="18"/>
@@ -10897,13 +10777,13 @@
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>9.6999999944855249E-4</v>
+        <v>9.7999999970177498E-4</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="46"/>
       <c r="P42" s="72">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>2.237694268271482E-3</v>
+        <v>2.2407552883435796E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10915,13 +10795,13 @@
       <c r="V42" s="72"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>2.237694268271482E-3</v>
+        <v>2.2407552883435796E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0047a#0000</v>
+        <v>obj_00301#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -10932,35 +10812,35 @@
       </c>
       <c r="E43" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="46"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>3.2161182643953038E-3</v>
+        <v>3.2290000000000096E-3</v>
       </c>
       <c r="J43" s="32">
         <f t="shared" si="20"/>
-        <v>5.1874911031301978E-3</v>
+        <v>5.1160000000000953E-3</v>
       </c>
       <c r="K43" s="134">
         <f t="shared" si="18"/>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>1.0000000000004693E-3</v>
+        <v>1.0100000000002132E-3</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="46"/>
       <c r="P43" s="72">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>2.2161182643948346E-3</v>
+        <v>2.2189999999997962E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10972,13 +10852,13 @@
       <c r="V43" s="102"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>2.2161182643948346E-3</v>
+        <v>2.2189999999997962E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0046f#0000</v>
+        <v>obj_0030b#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -10989,7 +10869,7 @@
       </c>
       <c r="E44" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
@@ -11000,15 +10880,15 @@
       <c r="I44" s="48"/>
       <c r="J44" s="32">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
-        <v>5.2174911031296917E-3</v>
+        <v>5.1359999999997944E-3</v>
       </c>
       <c r="K44" s="134">
         <f t="shared" si="18"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>1.0299999999999628E-3</v>
+        <v>1.0299999999999121E-3</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
@@ -11021,7 +10901,7 @@
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00485#0000</v>
+        <v>obj_002ff#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -11032,18 +10912,18 @@
       </c>
       <c r="E45" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="46"/>
       <c r="J45" s="32">
         <f t="shared" si="21"/>
-        <v>5.2474911031296576E-3</v>
+        <v>5.1759999999997953E-3</v>
       </c>
       <c r="K45" s="134">
         <f t="shared" si="18"/>
@@ -11051,7 +10931,7 @@
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>1.0599999999999295E-3</v>
+        <v>1.0699999999999135E-3</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
@@ -11064,7 +10944,7 @@
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00481#0000</v>
+        <v>obj_0030d#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -11075,7 +10955,7 @@
       </c>
       <c r="E46" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
@@ -11086,15 +10966,15 @@
       <c r="I46" s="46"/>
       <c r="J46" s="32">
         <f t="shared" si="21"/>
-        <v>5.2874911031297461E-3</v>
+        <v>5.2260000000001212E-3</v>
       </c>
       <c r="K46" s="134">
         <f t="shared" si="18"/>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>1.1000000000000176E-3</v>
+        <v>1.1200000000002384E-3</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
@@ -11107,7 +10987,7 @@
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00476#0000</v>
+        <v>obj_00303#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -11118,7 +10998,7 @@
       </c>
       <c r="E47" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
@@ -11129,15 +11009,15 @@
       <c r="I47" s="46"/>
       <c r="J47" s="32">
         <f t="shared" si="21"/>
-        <v>5.3374911031298169E-3</v>
+        <v>5.2759999999996195E-3</v>
       </c>
       <c r="K47" s="134">
         <f t="shared" si="18"/>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>1.1500000000000889E-3</v>
+        <v>1.1699999999997368E-3</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
@@ -11150,7 +11030,7 @@
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00471#0000</v>
+        <v>obj_002fe#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -11161,18 +11041,18 @@
       </c>
       <c r="E48" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42101</v>
+        <v>42102</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="46"/>
       <c r="J48" s="32">
         <f t="shared" si="21"/>
-        <v>5.397491103129602E-3</v>
+        <v>5.3560000000000179E-3</v>
       </c>
       <c r="K48" s="134">
         <f t="shared" si="18"/>
@@ -11180,7 +11060,7 @@
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>1.2099999999998737E-3</v>
+        <v>1.2500000000001358E-3</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
@@ -11193,7 +11073,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00488#0000</v>
+        <v>obj_00311#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -11204,18 +11084,18 @@
       </c>
       <c r="E49" s="55">
         <f t="shared" si="13"/>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="46"/>
       <c r="J49" s="32">
         <f t="shared" si="21"/>
-        <v>5.4774911031293646E-3</v>
+        <v>5.4359999999999999E-3</v>
       </c>
       <c r="K49" s="134">
         <f t="shared" si="18"/>
@@ -11223,7 +11103,7 @@
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>1.2899999999996363E-3</v>
+        <v>1.3300000000001173E-3</v>
       </c>
       <c r="N49" s="73"/>
       <c r="O49" s="74"/>
@@ -11260,10 +11140,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11333,7 +11213,7 @@
       </c>
       <c r="P2" s="233">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>92</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -11349,7 +11229,7 @@
       </c>
       <c r="D3" s="204" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSND_SYNTH1M_Quote#0001</v>
+        <v>USDSND_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E3" s="205" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -11362,16 +11242,16 @@
       </c>
       <c r="J3" s="177">
         <f>Calculation!$G34</f>
-        <v>1.5222117163012955E-3</v>
+        <v>1.5531697955584497E-3</v>
       </c>
       <c r="K3" s="169"/>
       <c r="L3" s="182">
-        <v>1.554E-3</v>
+        <v>1.5531697955584497E-3</v>
       </c>
       <c r="M3" s="153"/>
       <c r="N3" s="185">
-        <f t="array" ref="N3:N24">QuoteLive</f>
-        <v>1.5222117163012955E-3</v>
+        <f t="array" ref="N3:N40">QuoteLive</f>
+        <v>1.5531697955584497E-3</v>
       </c>
       <c r="O3" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
@@ -11393,7 +11273,7 @@
       </c>
       <c r="D4" s="204" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSWD_SYNTH1M_Quote#0001</v>
+        <v>USDSWD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E4" s="205" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -11406,15 +11286,15 @@
       </c>
       <c r="J4" s="177">
         <f>Calculation!$G35</f>
-        <v>1.5189845194861083E-3</v>
+        <v>1.5438466093671923E-3</v>
       </c>
       <c r="K4" s="169"/>
       <c r="L4" s="182">
-        <v>1.5560000000000001E-3</v>
+        <v>1.5438466093671923E-3</v>
       </c>
       <c r="M4" s="153"/>
       <c r="N4" s="185">
-        <v>1.5189845194861083E-3</v>
+        <v>1.5438466093671923E-3</v>
       </c>
       <c r="O4" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
@@ -11433,7 +11313,7 @@
       </c>
       <c r="D5" s="204" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2WD_SYNTH1M_Quote#0001</v>
+        <v>USD2WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E5" s="205" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -11446,15 +11326,15 @@
       </c>
       <c r="J5" s="177">
         <f>Calculation!$G36</f>
-        <v>1.515219457614193E-3</v>
+        <v>1.5329695587764671E-3</v>
       </c>
       <c r="K5" s="169"/>
       <c r="L5" s="182">
-        <v>1.5590000000000001E-3</v>
+        <v>1.5329695587764671E-3</v>
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="185">
-        <v>1.515219457614193E-3</v>
+        <v>1.5329695587764671E-3</v>
       </c>
       <c r="O5" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
@@ -11473,7 +11353,7 @@
       </c>
       <c r="D6" s="204" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3WD_SYNTH1M_Quote#0001</v>
+        <v>USD3WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E6" s="205" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -11486,15 +11366,15 @@
       </c>
       <c r="J6" s="179">
         <f>Calculation!$G37</f>
-        <v>1.5114543904398529E-3</v>
+        <v>1.522092508178129E-3</v>
       </c>
       <c r="K6" s="169"/>
       <c r="L6" s="183">
-        <v>1.572E-3</v>
+        <v>1.522092508178129E-3</v>
       </c>
       <c r="M6" s="153"/>
       <c r="N6" s="187">
-        <v>1.5114543904398529E-3</v>
+        <v>1.522092508178129E-3</v>
       </c>
       <c r="O6" s="188">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
@@ -11513,7 +11393,7 @@
       </c>
       <c r="D7" s="210" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD1MD_SYNTH1M_Quote#0001</v>
+        <v>USD1MD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E7" s="211" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -11530,7 +11410,7 @@
       </c>
       <c r="K7" s="169"/>
       <c r="L7" s="184">
-        <v>1.5870000000000001E-3</v>
+        <v>1.505E-3</v>
       </c>
       <c r="M7" s="153"/>
       <c r="N7" s="189">
@@ -11555,7 +11435,7 @@
       </c>
       <c r="D8" s="213" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSND_SYNTH3M_Quote#0001</v>
+        <v>USDSND_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E8" s="214" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -11568,15 +11448,15 @@
       </c>
       <c r="J8" s="177">
         <f>Calculation!$H34</f>
-        <v>2.3587517391352054E-3</v>
+        <v>2.3969573583658959E-3</v>
       </c>
       <c r="K8" s="169"/>
       <c r="L8" s="182">
-        <v>2.3010000000000001E-3</v>
+        <v>2.3969573583080884E-3</v>
       </c>
       <c r="M8" s="153"/>
       <c r="N8" s="185">
-        <v>2.3587517391352054E-3</v>
+        <v>2.3969573583658959E-3</v>
       </c>
       <c r="O8" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
@@ -11584,7 +11464,7 @@
       </c>
       <c r="P8" s="234">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>92</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -11601,7 +11481,7 @@
       </c>
       <c r="D9" s="203" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSWD_SYNTH3M_Quote#0001</v>
+        <v>USDSWD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E9" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -11614,15 +11494,15 @@
       </c>
       <c r="J9" s="177">
         <f>Calculation!$H35</f>
-        <v>2.3428157445206771E-3</v>
+        <v>2.3754304388074726E-3</v>
       </c>
       <c r="K9" s="169"/>
       <c r="L9" s="182">
-        <v>2.3E-3</v>
+        <v>2.3754304387571777E-3</v>
       </c>
       <c r="M9" s="153"/>
       <c r="N9" s="185">
-        <v>2.3428157445206771E-3</v>
+        <v>2.3754304388074726E-3</v>
       </c>
       <c r="O9" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
@@ -11641,7 +11521,7 @@
       </c>
       <c r="D10" s="203" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2WD_SYNTH3M_Quote#0001</v>
+        <v>USD2WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E10" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -11654,15 +11534,15 @@
       </c>
       <c r="J10" s="177">
         <f>Calculation!$H36</f>
-        <v>2.3251819187032133E-3</v>
+        <v>2.3514690434526401E-3</v>
       </c>
       <c r="K10" s="169"/>
       <c r="L10" s="182">
-        <v>2.2980000000000001E-3</v>
+        <v>2.3514690434104507E-3</v>
       </c>
       <c r="M10" s="153"/>
       <c r="N10" s="185">
-        <v>2.3251819187032133E-3</v>
+        <v>2.3514690434526401E-3</v>
       </c>
       <c r="O10" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
@@ -11681,7 +11561,7 @@
       </c>
       <c r="D11" s="203" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3WD_SYNTH3M_Quote#0001</v>
+        <v>USD3WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E11" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -11694,15 +11574,15 @@
       </c>
       <c r="J11" s="177">
         <f>Calculation!$H37</f>
-        <v>2.3085799595437008E-3</v>
+        <v>2.3287497110363142E-3</v>
       </c>
       <c r="K11" s="169"/>
       <c r="L11" s="182">
-        <v>2.3059999999999999E-3</v>
+        <v>2.3287497110015183E-3</v>
       </c>
       <c r="M11" s="153"/>
       <c r="N11" s="185">
-        <v>2.3085799595437008E-3</v>
+        <v>2.3287497110363142E-3</v>
       </c>
       <c r="O11" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
@@ -11721,7 +11601,7 @@
       </c>
       <c r="D12" s="203" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD1MD_SYNTH3M_Quote#0001</v>
+        <v>USD1MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E12" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -11734,15 +11614,15 @@
       </c>
       <c r="J12" s="177">
         <f>Calculation!$H38</f>
-        <v>2.2825201502615707E-3</v>
+        <v>2.2955573769741192E-3</v>
       </c>
       <c r="K12" s="169"/>
       <c r="L12" s="182">
-        <v>2.313E-3</v>
+        <v>2.2955573769495052E-3</v>
       </c>
       <c r="M12" s="153"/>
       <c r="N12" s="185">
-        <v>2.2825201502615707E-3</v>
+        <v>2.2955573769741192E-3</v>
       </c>
       <c r="O12" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
@@ -11761,7 +11641,7 @@
       </c>
       <c r="D13" s="203" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2MD_SYNTH3M_Quote#0001</v>
+        <v>USD2MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E13" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -11774,15 +11654,15 @@
       </c>
       <c r="J13" s="177">
         <f>Calculation!$H39</f>
-        <v>2.2535067435047801E-3</v>
+        <v>2.2727522851919493E-3</v>
       </c>
       <c r="K13" s="169"/>
       <c r="L13" s="182">
-        <v>2.3189999999999999E-3</v>
+        <v>2.2727522851857572E-3</v>
       </c>
       <c r="M13" s="153"/>
       <c r="N13" s="185">
-        <v>2.2535067435047801E-3</v>
+        <v>2.2727522851919493E-3</v>
       </c>
       <c r="O13" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
@@ -11801,7 +11681,7 @@
       </c>
       <c r="D14" s="210" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3MD_SYNTH3M_Quote#0001</v>
+        <v>USD3MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E14" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -11814,15 +11694,15 @@
       </c>
       <c r="J14" s="181">
         <f>Calculation!$H40</f>
-        <v>2.2285000000000022E-3</v>
+        <v>2.2484999999999983E-3</v>
       </c>
       <c r="K14" s="223"/>
       <c r="L14" s="184">
-        <v>2.379E-3</v>
+        <v>2.2484999999999988E-3</v>
       </c>
       <c r="M14" s="223"/>
       <c r="N14" s="189">
-        <v>2.2285000000000022E-3</v>
+        <v>2.2484999999999983E-3</v>
       </c>
       <c r="O14" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
@@ -11843,7 +11723,7 @@
       </c>
       <c r="D15" s="213" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSND_SYNTH6M_Quote#0001</v>
+        <v>USDSND_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E15" s="214" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -11856,15 +11736,15 @@
       </c>
       <c r="J15" s="177">
         <f>Calculation!$I34</f>
-        <v>3.4120803864403854E-3</v>
+        <v>3.2232660128231659E-3</v>
       </c>
       <c r="K15" s="169"/>
       <c r="L15" s="182">
-        <v>3.1589999999999999E-3</v>
+        <v>3.198244841023011E-3</v>
       </c>
       <c r="M15" s="153"/>
       <c r="N15" s="185">
-        <v>3.4120803864403854E-3</v>
+        <v>3.2232660128231659E-3</v>
       </c>
       <c r="O15" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
@@ -11872,7 +11752,7 @@
       </c>
       <c r="P15" s="207">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>92</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -11889,7 +11769,7 @@
       </c>
       <c r="D16" s="203" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USDSWD_SYNTH6M_Quote#0001</v>
+        <v>USDSWD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E16" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -11902,15 +11782,15 @@
       </c>
       <c r="J16" s="177">
         <f>Calculation!$I35</f>
-        <v>3.3959398777909954E-3</v>
+        <v>3.2170289684356566E-3</v>
       </c>
       <c r="K16" s="169"/>
       <c r="L16" s="182">
-        <v>3.1580000000000002E-3</v>
+        <v>3.1932773442126367E-3</v>
       </c>
       <c r="M16" s="153"/>
       <c r="N16" s="185">
-        <v>3.3959398777909954E-3</v>
+        <v>3.2170289684356566E-3</v>
       </c>
       <c r="O16" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
@@ -11929,7 +11809,7 @@
       </c>
       <c r="D17" s="203" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2WD_SYNTH6M_Quote#0001</v>
+        <v>USD2WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E17" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -11942,15 +11822,15 @@
       </c>
       <c r="J17" s="177">
         <f>Calculation!$I36</f>
-        <v>3.377660840774524E-3</v>
+        <v>3.2098569583606071E-3</v>
       </c>
       <c r="K17" s="169"/>
       <c r="L17" s="182">
-        <v>3.156E-3</v>
+        <v>3.1875393150908008E-3</v>
       </c>
       <c r="M17" s="153"/>
       <c r="N17" s="185">
-        <v>3.377660840774524E-3</v>
+        <v>3.2098569583606071E-3</v>
       </c>
       <c r="O17" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
@@ -11969,7 +11849,7 @@
       </c>
       <c r="D18" s="203" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3WD_SYNTH6M_Quote#0001</v>
+        <v>USD3WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E18" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -11982,15 +11862,15 @@
       </c>
       <c r="J18" s="177">
         <f>Calculation!$I37</f>
-        <v>3.3599757811172844E-3</v>
+        <v>3.2027975316952454E-3</v>
       </c>
       <c r="K18" s="169"/>
       <c r="L18" s="182">
-        <v>3.1649999999999998E-3</v>
+        <v>3.1818630839621233E-3</v>
       </c>
       <c r="M18" s="153"/>
       <c r="N18" s="185">
-        <v>3.3599757811172844E-3</v>
+        <v>3.2027975316952454E-3</v>
       </c>
       <c r="O18" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
@@ -12009,7 +11889,7 @@
       </c>
       <c r="D19" s="203" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD1MD_SYNTH6M_Quote#0001</v>
+        <v>USD1MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E19" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -12022,15 +11902,15 @@
       </c>
       <c r="J19" s="177">
         <f>Calculation!$I38</f>
-        <v>3.3310404652665171E-3</v>
+        <v>3.1919316112957283E-3</v>
       </c>
       <c r="K19" s="169"/>
       <c r="L19" s="182">
-        <v>3.173E-3</v>
+        <v>3.1730681492786942E-3</v>
       </c>
       <c r="M19" s="153"/>
       <c r="N19" s="185">
-        <v>3.3310404652665171E-3</v>
+        <v>3.1919316112957283E-3</v>
       </c>
       <c r="O19" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
@@ -12049,7 +11929,7 @@
       </c>
       <c r="D20" s="203" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD2MD_SYNTH6M_Quote#0001</v>
+        <v>USD2MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E20" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -12062,15 +11942,15 @@
       </c>
       <c r="J20" s="177">
         <f>Calculation!$I39</f>
-        <v>3.2903130940546733E-3</v>
+        <v>3.2146177150994626E-3</v>
       </c>
       <c r="K20" s="169"/>
       <c r="L20" s="182">
-        <v>3.1809999999999998E-3</v>
+        <v>3.2006129910139782E-3</v>
       </c>
       <c r="M20" s="153"/>
       <c r="N20" s="185">
-        <v>3.2903130940546733E-3</v>
+        <v>3.2146177150994626E-3</v>
       </c>
       <c r="O20" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
@@ -12089,7 +11969,7 @@
       </c>
       <c r="D21" s="203" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD3MD_SYNTH6M_Quote#0001</v>
+        <v>USD3MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E21" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -12102,15 +11982,15 @@
       </c>
       <c r="J21" s="177">
         <f>Calculation!$I40</f>
-        <v>3.2441648743179274E-3</v>
+        <v>3.2175568888820035E-3</v>
       </c>
       <c r="K21" s="169"/>
       <c r="L21" s="182">
-        <v>3.2429999999999998E-3</v>
+        <v>3.2077821016256772E-3</v>
       </c>
       <c r="M21" s="153"/>
       <c r="N21" s="185">
-        <v>3.2441648743179274E-3</v>
+        <v>3.2175568888820035E-3</v>
       </c>
       <c r="O21" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
@@ -12129,7 +12009,7 @@
       </c>
       <c r="D22" s="203" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD4MD_SYNTH6M_Quote#0001</v>
+        <v>USD4MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E22" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -12142,15 +12022,15 @@
       </c>
       <c r="J22" s="177">
         <f>Calculation!$I41</f>
-        <v>3.2184244950372947E-3</v>
+        <v>3.2127040748211495E-3</v>
       </c>
       <c r="K22" s="169"/>
       <c r="L22" s="182">
-        <v>3.2799999999999999E-3</v>
+        <v>3.2061632083677663E-3</v>
       </c>
       <c r="M22" s="153"/>
       <c r="N22" s="185">
-        <v>3.2184244950372947E-3</v>
+        <v>3.2127040748211495E-3</v>
       </c>
       <c r="O22" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
@@ -12169,7 +12049,7 @@
       </c>
       <c r="D23" s="203" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD5MD_SYNTH6M_Quote#0001</v>
+        <v>USD5MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E23" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -12182,15 +12062,15 @@
       </c>
       <c r="J23" s="177">
         <f>Calculation!$I42</f>
-        <v>3.2076942677200346E-3</v>
+        <v>3.2207552880453546E-3</v>
       </c>
       <c r="K23" s="169"/>
       <c r="L23" s="182">
-        <v>3.3110000000000001E-3</v>
+        <v>3.2163956824481127E-3</v>
       </c>
       <c r="M23" s="153"/>
       <c r="N23" s="185">
-        <v>3.2076942677200346E-3</v>
+        <v>3.2207552880453546E-3</v>
       </c>
       <c r="O23" s="186">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
@@ -12209,34 +12089,682 @@
       </c>
       <c r="D24" s="210" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>USD6MD_SYNTH6M_Quote#0001</v>
+        <v>USD6MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E24" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
         <v/>
       </c>
       <c r="F24" s="226"/>
-      <c r="H24" s="227"/>
+      <c r="H24" s="223"/>
       <c r="I24" s="180" t="s">
         <v>82</v>
       </c>
       <c r="J24" s="181">
         <f>Calculation!$I43</f>
-        <v>3.2161182643953038E-3</v>
+        <v>3.2290000000000096E-3</v>
       </c>
       <c r="K24" s="228"/>
       <c r="L24" s="184">
-        <v>3.356E-3</v>
+        <v>3.2259624050081544E-3</v>
       </c>
       <c r="M24" s="229"/>
       <c r="N24" s="189">
-        <v>3.2161182643953038E-3</v>
+        <v>3.2290000000000096E-3</v>
       </c>
       <c r="O24" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P24" s="230"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="220">
+        <v>12</v>
+      </c>
+      <c r="B25" s="212" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="203" t="str">
+        <f t="shared" ref="C25:C40" si="3">Currency&amp;$B25&amp;"_SYNTH"&amp;Tenor12M&amp;QuoteSuffix</f>
+        <v>USDSND_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D25" s="213" t="str">
+        <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USDSND_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E25" s="214" t="str">
+        <f>_xll.ohRangeRetrieveError(D25)</f>
+        <v/>
+      </c>
+      <c r="F25" s="215"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="176" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="177">
+        <f>Calculation!$J34</f>
+        <v>4.9559999999626283E-3</v>
+      </c>
+      <c r="K25" s="169"/>
+      <c r="L25" s="182">
+        <v>4.9585255903646479E-3</v>
+      </c>
+      <c r="M25" s="153"/>
+      <c r="N25" s="185">
+        <v>4.9559999999626283E-3</v>
+      </c>
+      <c r="O25" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D25,ROUND(N25,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="207">
+        <f>_xll.ohTrigger(O25:O40)</f>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="218" t="str">
+        <f>_xll.qlPeriodEquivalent(Months12M&amp;"M")</f>
+        <v>1Y</v>
+      </c>
+      <c r="B26" s="208" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USDSWD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D26" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USDSWD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E26" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D26)</f>
+        <v/>
+      </c>
+      <c r="F26" s="215"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="177">
+        <f>Calculation!$J35</f>
+        <v>4.9559999999626283E-3</v>
+      </c>
+      <c r="K26" s="169"/>
+      <c r="L26" s="182">
+        <v>4.9585255903646479E-3</v>
+      </c>
+      <c r="M26" s="153"/>
+      <c r="N26" s="185">
+        <v>4.9559999999626283E-3</v>
+      </c>
+      <c r="O26" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D26,ROUND(N26,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="207"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="222"/>
+      <c r="B27" s="217" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD2WD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D27" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD2WD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E27" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D27)</f>
+        <v/>
+      </c>
+      <c r="F27" s="215"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="176" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="177">
+        <f>Calculation!$J36</f>
+        <v>4.9559999999283693E-3</v>
+      </c>
+      <c r="K27" s="169"/>
+      <c r="L27" s="182">
+        <v>4.9585255903303888E-3</v>
+      </c>
+      <c r="M27" s="153"/>
+      <c r="N27" s="185">
+        <v>4.9559999999283693E-3</v>
+      </c>
+      <c r="O27" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D27,ROUND(N27,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="207"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="222"/>
+      <c r="B28" s="217" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD3WD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D28" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD3WD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E28" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D28)</f>
+        <v/>
+      </c>
+      <c r="F28" s="215"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="177">
+        <f>Calculation!$J37</f>
+        <v>4.9559999998864982E-3</v>
+      </c>
+      <c r="K28" s="169"/>
+      <c r="L28" s="182">
+        <v>4.9585255902885178E-3</v>
+      </c>
+      <c r="M28" s="153"/>
+      <c r="N28" s="185">
+        <v>4.9559999998864982E-3</v>
+      </c>
+      <c r="O28" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D28,ROUND(N28,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="207"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="222"/>
+      <c r="B29" s="217" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD1MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D29" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD1MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E29" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D29)</f>
+        <v/>
+      </c>
+      <c r="F29" s="215"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="176" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="177">
+        <f>Calculation!$J38</f>
+        <v>4.9559999997256746E-3</v>
+      </c>
+      <c r="K29" s="169"/>
+      <c r="L29" s="182">
+        <v>4.9585255901276942E-3</v>
+      </c>
+      <c r="M29" s="153"/>
+      <c r="N29" s="185">
+        <v>4.9559999997256746E-3</v>
+      </c>
+      <c r="O29" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D29,ROUND(N29,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="207"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="222"/>
+      <c r="B30" s="217" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD2MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D30" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD2MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E30" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D30)</f>
+        <v/>
+      </c>
+      <c r="F30" s="215"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="176" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="177">
+        <f>Calculation!$J39</f>
+        <v>5.0060000004808081E-3</v>
+      </c>
+      <c r="K30" s="169"/>
+      <c r="L30" s="182">
+        <v>5.0085255908828277E-3</v>
+      </c>
+      <c r="M30" s="153"/>
+      <c r="N30" s="185">
+        <v>5.0060000004808081E-3</v>
+      </c>
+      <c r="O30" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D30,ROUND(N30,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="207"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="222"/>
+      <c r="B31" s="217" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD3MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D31" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD3MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E31" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D31)</f>
+        <v/>
+      </c>
+      <c r="F31" s="215"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="176" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="177">
+        <f>Calculation!$J40</f>
+        <v>5.0360000009379256E-3</v>
+      </c>
+      <c r="K31" s="169"/>
+      <c r="L31" s="182">
+        <v>5.0385255913399443E-3</v>
+      </c>
+      <c r="M31" s="153"/>
+      <c r="N31" s="185">
+        <v>5.0360000009379256E-3</v>
+      </c>
+      <c r="O31" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D31,ROUND(N31,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="207"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="222"/>
+      <c r="B32" s="217" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD4MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D32" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD4MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E32" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D32)</f>
+        <v/>
+      </c>
+      <c r="F32" s="215"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="177">
+        <f>Calculation!$J41</f>
+        <v>5.0560000000000943E-3</v>
+      </c>
+      <c r="K32" s="169"/>
+      <c r="L32" s="182">
+        <v>5.0585255904021138E-3</v>
+      </c>
+      <c r="M32" s="153"/>
+      <c r="N32" s="185">
+        <v>5.0560000000000943E-3</v>
+      </c>
+      <c r="O32" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D32,ROUND(N32,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="207"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="222"/>
+      <c r="B33" s="217" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD5MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D33" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD5MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E33" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D33)</f>
+        <v/>
+      </c>
+      <c r="F33" s="215"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="176" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="177">
+        <f>Calculation!$J42</f>
+        <v>5.0859999997016573E-3</v>
+      </c>
+      <c r="K33" s="169"/>
+      <c r="L33" s="182">
+        <v>5.0885255901036769E-3</v>
+      </c>
+      <c r="M33" s="153"/>
+      <c r="N33" s="185">
+        <v>5.0859999997016573E-3</v>
+      </c>
+      <c r="O33" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D33,ROUND(N33,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="207"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="222"/>
+      <c r="B34" s="217" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD6MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D34" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD6MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E34" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D34)</f>
+        <v/>
+      </c>
+      <c r="F34" s="215"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="176" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="177">
+        <f>Calculation!$J43</f>
+        <v>5.1160000000000953E-3</v>
+      </c>
+      <c r="K34" s="169"/>
+      <c r="L34" s="182">
+        <v>5.1185255904021149E-3</v>
+      </c>
+      <c r="M34" s="153"/>
+      <c r="N34" s="185">
+        <v>5.1160000000000953E-3</v>
+      </c>
+      <c r="O34" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D34,ROUND(N34,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="207"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="222"/>
+      <c r="B35" s="217" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD7MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D35" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD7MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E35" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D35)</f>
+        <v/>
+      </c>
+      <c r="F35" s="215"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="176" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="177">
+        <f>Calculation!$J44</f>
+        <v>5.1359999999997944E-3</v>
+      </c>
+      <c r="K35" s="169"/>
+      <c r="L35" s="182">
+        <v>5.1385255904018139E-3</v>
+      </c>
+      <c r="M35" s="153"/>
+      <c r="N35" s="185">
+        <v>5.1359999999997944E-3</v>
+      </c>
+      <c r="O35" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="207"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="222"/>
+      <c r="B36" s="217" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD8MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D36" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD8MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E36" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D36)</f>
+        <v/>
+      </c>
+      <c r="F36" s="215"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="176" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="177">
+        <f>Calculation!$J45</f>
+        <v>5.1759999999997953E-3</v>
+      </c>
+      <c r="K36" s="169"/>
+      <c r="L36" s="182">
+        <v>5.1785255904018158E-3</v>
+      </c>
+      <c r="M36" s="153"/>
+      <c r="N36" s="185">
+        <v>5.1759999999997953E-3</v>
+      </c>
+      <c r="O36" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="207"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="222"/>
+      <c r="B37" s="217" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD9MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D37" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD9MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E37" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D37)</f>
+        <v/>
+      </c>
+      <c r="F37" s="215"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" s="177">
+        <f>Calculation!$J46</f>
+        <v>5.2260000000001212E-3</v>
+      </c>
+      <c r="K37" s="169"/>
+      <c r="L37" s="182">
+        <v>5.2285255904021399E-3</v>
+      </c>
+      <c r="M37" s="153"/>
+      <c r="N37" s="185">
+        <v>5.2260000000001212E-3</v>
+      </c>
+      <c r="O37" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D37,ROUND(N37,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="207"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="222"/>
+      <c r="B38" s="217" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD10MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D38" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD10MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E38" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D38)</f>
+        <v/>
+      </c>
+      <c r="F38" s="215"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="176" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="177">
+        <f>Calculation!$J47</f>
+        <v>5.2759999999996195E-3</v>
+      </c>
+      <c r="K38" s="169"/>
+      <c r="L38" s="182">
+        <v>5.2785255904016382E-3</v>
+      </c>
+      <c r="M38" s="153"/>
+      <c r="N38" s="185">
+        <v>5.2759999999996195E-3</v>
+      </c>
+      <c r="O38" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D38,ROUND(N38,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="207"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="222"/>
+      <c r="B39" s="217" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="203" t="str">
+        <f t="shared" si="3"/>
+        <v>USD11MD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D39" s="203" t="str">
+        <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD11MD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E39" s="216" t="str">
+        <f>_xll.ohRangeRetrieveError(D39)</f>
+        <v/>
+      </c>
+      <c r="F39" s="215"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="177">
+        <f>Calculation!$J48</f>
+        <v>5.3560000000000179E-3</v>
+      </c>
+      <c r="K39" s="169"/>
+      <c r="L39" s="182">
+        <v>5.3585255904020374E-3</v>
+      </c>
+      <c r="M39" s="153"/>
+      <c r="N39" s="185">
+        <v>5.3560000000000179E-3</v>
+      </c>
+      <c r="O39" s="186">
+        <f>_xll.qlSimpleQuoteSetValue(D39,ROUND(N39,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="207"/>
+    </row>
+    <row r="40" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="224"/>
+      <c r="B40" s="209" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="210" t="str">
+        <f t="shared" si="3"/>
+        <v>USD1YD_SYNTH1Y_Quote</v>
+      </c>
+      <c r="D40" s="210" t="str">
+        <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
+        <v>USD1YD_SYNTH1Y_Quote#0000</v>
+      </c>
+      <c r="E40" s="225" t="str">
+        <f>_xll.ohRangeRetrieveError(D40)</f>
+        <v/>
+      </c>
+      <c r="F40" s="226"/>
+      <c r="H40" s="227"/>
+      <c r="I40" s="180" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="181">
+        <f>Calculation!$J49</f>
+        <v>5.4359999999999999E-3</v>
+      </c>
+      <c r="K40" s="228"/>
+      <c r="L40" s="184">
+        <v>5.4385255904020194E-3</v>
+      </c>
+      <c r="M40" s="229"/>
+      <c r="N40" s="189">
+        <v>5.4359999999999999E-3</v>
+      </c>
+      <c r="O40" s="190">
+        <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="230"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-15" windowWidth="19140" windowHeight="12015"/>
+    <workbookView xWindow="19095" yWindow="-15" windowWidth="19140" windowHeight="12015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="4" r:id="rId1"/>
@@ -525,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1062,6 +1062,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1090,7 +1103,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1354,11 +1367,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="20" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="20" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="31" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="23" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1476,6 +1486,10 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="46" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="34" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="33" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Euro" xfId="1"/>
@@ -1558,7 +1572,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>472</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="8">
@@ -1568,11 +1582,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>USDON#0000</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="D8" t="str">
             <v>USD1M#0000</v>
@@ -1581,45 +1590,65 @@
       </sheetData>
       <sheetData sheetId="2">
         <row r="7">
-          <cell r="F7" t="str">
-            <v>UsdLiborSwapIsdaFixAm1Y#0000</v>
+          <cell r="D7" t="str">
+            <v>3M</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>3M</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="7">
-          <cell r="F7" t="str">
-            <v>UsdLiborSwapIsdaFixPm1Y#0000</v>
+          <cell r="D7" t="str">
+            <v>3M</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>3M</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
-        <row r="3">
-          <cell r="S3" t="str">
-            <v>obj_0070b#0003</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>1L</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>1L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
-        <row r="3">
-          <cell r="S3" t="str">
-            <v>obj_00709#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3L</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>3L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
-        <row r="3">
-          <cell r="S3" t="str">
-            <v>obj_0070a#0001</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3L</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>3L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>USDOND_Quote#0000</v>
-          </cell>
-        </row>
         <row r="7">
           <cell r="D7" t="str">
             <v>USDSND_Quote#0000</v>
@@ -1632,88 +1661,187 @@
         </row>
       </sheetData>
       <sheetData sheetId="8">
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>USDT1F1_Quote#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>USD1x4F_Quote</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>USD2x5F_Quote</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
-        <row r="6">
-          <cell r="F6" t="str">
-            <v>USDFUT1MK4_Quote#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>M4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>N4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
-        <row r="6">
-          <cell r="F6" t="str">
-            <v>USDFUT3MK4_Quote#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>M4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>N4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
-        <row r="3">
-          <cell r="F3" t="str">
-            <v>USDIMMFRA6MK4_Quote#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>U4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>V4</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12">
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>USDHW_Volatility_Quote#0000</v>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3W</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>USDOISSW_Quote#0000</v>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>1M</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>USD2X1S_Quote#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>X1S</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>X1S</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>USD1S12_Quote#0000</v>
+        <row r="7">
+          <cell r="D7">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>12</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="16">
-        <row r="6">
-          <cell r="F6" t="str">
-            <v>USDAM3L1Y_Quote#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3L</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>3L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="17">
-        <row r="6">
-          <cell r="F6" t="str">
-            <v>USDAM6L1Y_Quote#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6L</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>6L</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18">
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>USDTOY_SYNTHON_Quote#0000</v>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3L</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>3L</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="20">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6L</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>6L</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>2X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>2X</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>USD-4Y=</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>USD-5Y=</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>USD-SWD=</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>USD-2WD=</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>USD-SWD=</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>USD-2WD=</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2009,7 +2137,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2033,19 +2161,19 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="237"/>
-      <c r="H2" s="238" t="s">
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="234"/>
+      <c r="H2" s="235" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="240"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="237"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B3" s="142"/>
@@ -2224,7 +2352,7 @@
       </c>
       <c r="D10" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="143"/>
@@ -2464,7 +2592,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="152">
-        <v>41765.696666666663</v>
+        <v>41766.702766203707</v>
       </c>
       <c r="D2" s="59"/>
       <c r="E2" s="60"/>
@@ -2497,7 +2625,7 @@
       </c>
       <c r="C3" s="151">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -2558,7 +2686,7 @@
       </c>
       <c r="C5" s="150">
         <f>[1]!TriggerCounter</f>
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D5" s="59"/>
       <c r="E5" s="60"/>
@@ -2589,7 +2717,7 @@
       <c r="B6" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="231">
+      <c r="C6" s="228">
         <f>[1]!LastFixingsTrigger</f>
         <v>2</v>
       </c>
@@ -8022,7 +8150,7 @@
       </c>
       <c r="E2" s="112">
         <f>SettlementDate</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F2" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
@@ -8034,11 +8162,11 @@
       </c>
       <c r="H2" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>8.4999999972579221E-4</v>
+        <v>8.4999999920427395E-4</v>
       </c>
       <c r="I2" s="116">
         <f>G2-H2</f>
-        <v>6.5500000027420783E-4</v>
+        <v>6.550000007957261E-4</v>
       </c>
       <c r="J2" s="117" t="b">
         <v>0</v>
@@ -8052,33 +8180,33 @@
       </c>
       <c r="O2" s="120">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="120">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="117"/>
       <c r="R2" s="131">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>341.33333333333331</v>
+        <v>320.33333333333337</v>
       </c>
       <c r="S2" s="131">
         <f>(O2+N2)/2</f>
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="T2" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="232" t="str">
+      <c r="A3" s="229" t="str">
         <f>_xll.qlPeriodEquivalent(A2&amp;"M")</f>
         <v>1M</v>
       </c>
       <c r="B3" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031f#0000</v>
+        <v>obj_00319#0000</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -8090,7 +8218,7 @@
       </c>
       <c r="E3" s="105">
         <f>E2</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F3" s="106">
         <f>F2</f>
@@ -8102,11 +8230,11 @@
       </c>
       <c r="H3" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>8.4999999972579221E-4</v>
+        <v>8.4999999920427395E-4</v>
       </c>
       <c r="I3" s="109">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>6.5500000027420783E-4</v>
+        <v>6.550000007957261E-4</v>
       </c>
       <c r="J3" s="117" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -8114,11 +8242,11 @@
       </c>
       <c r="K3" s="119">
         <f>K4</f>
-        <v>-1.5538643652095545E-6</v>
+        <v>-1.5020768516775448E-6</v>
       </c>
       <c r="L3" s="108">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>7.0472365996091359E-4</v>
+        <v>7.0156438319772996E-4</v>
       </c>
       <c r="M3" s="118"/>
       <c r="N3" s="120">
@@ -8127,20 +8255,20 @@
       </c>
       <c r="O3" s="120">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="120">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="117"/>
       <c r="R3" s="131">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>341.33333333333331</v>
+        <v>320.33333333333337</v>
       </c>
       <c r="S3" s="131">
         <f>(O3+N3)/2</f>
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="T3" s="131">
         <v>1</v>
@@ -8168,19 +8296,19 @@
       </c>
       <c r="F4" s="56">
         <f>F5</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G4" s="27">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>1.5153145259730616E-3</v>
+        <v>1.5149703307208995E-3</v>
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>9.5510025197663656E-4</v>
+        <v>9.5159701787750361E-4</v>
       </c>
       <c r="I4" s="16">
         <f>G4-H4</f>
-        <v>5.6021427399642501E-4</v>
+        <v>5.6337331284339587E-4</v>
       </c>
       <c r="J4" s="1" t="b">
         <f>NOT(ISERROR(I4))</f>
@@ -8188,16 +8316,16 @@
       </c>
       <c r="K4" s="15">
         <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>-1.5538643652095545E-6</v>
+        <v>-1.5020768516775448E-6</v>
       </c>
       <c r="L4" s="15">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>7.0472365996091359E-4</v>
+        <v>7.0156438319772996E-4</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="121">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="121">
         <f t="shared" si="0"/>
@@ -8205,15 +8333,15 @@
       </c>
       <c r="P4" s="121">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R4" s="100">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2232.333333333333</v>
+        <v>2191</v>
       </c>
       <c r="S4" s="100">
         <f>(O4+N4)/2</f>
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="T4" s="100">
         <v>1</v>
@@ -8229,11 +8357,11 @@
       </c>
       <c r="E5" s="55">
         <f>SettlementDate</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F5" s="56">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G5" s="52">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
@@ -8260,7 +8388,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00304#0000</v>
+        <v>obj_00317#0000</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -8272,11 +8400,11 @@
       </c>
       <c r="E6" s="112">
         <f>SettlementDate</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F6" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="G6" s="114">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
@@ -8284,11 +8412,11 @@
       </c>
       <c r="H6" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>9.3000000093804288E-4</v>
+        <v>9.2999999913674538E-4</v>
       </c>
       <c r="I6" s="116">
         <f t="shared" si="1"/>
-        <v>1.3184999990619572E-3</v>
+        <v>1.3185000008632546E-3</v>
       </c>
       <c r="J6" s="117" t="b">
         <v>0</v>
@@ -8302,33 +8430,33 @@
       </c>
       <c r="O6" s="120">
         <f t="shared" ref="O6:O27" si="3">F6-SettlementDate</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P6" s="120">
         <f>(O6^2-N6^2)/(O6-N6)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="117"/>
       <c r="R6" s="131">
         <f t="shared" ref="R6:R14" si="4">(O6^3-N6^3)/3/(O6-N6)</f>
-        <v>2821.333333333333</v>
+        <v>2945.333333333333</v>
       </c>
       <c r="S6" s="131">
         <f t="shared" ref="S6:S14" si="5">(O6+N6)/2</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T6" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="232" t="str">
+      <c r="A7" s="229" t="str">
         <f>_xll.qlPeriodEquivalent(A6&amp;"M")</f>
         <v>3M</v>
       </c>
       <c r="B7" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031e#0000</v>
+        <v>obj_0031f#0000</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -8340,11 +8468,11 @@
       </c>
       <c r="E7" s="105">
         <f>E6</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F7" s="106">
         <f>F6</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="G7" s="107">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
@@ -8352,11 +8480,11 @@
       </c>
       <c r="H7" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>9.3000000093804288E-4</v>
+        <v>9.2999999913674538E-4</v>
       </c>
       <c r="I7" s="109">
         <f t="shared" si="1"/>
-        <v>1.3184999990619572E-3</v>
+        <v>1.3185000008632546E-3</v>
       </c>
       <c r="J7" s="117" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)))</f>
@@ -8371,27 +8499,27 @@
       </c>
       <c r="O7" s="120">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P7" s="120">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="117"/>
       <c r="R7" s="131">
         <f t="shared" si="4"/>
-        <v>2821.333333333333</v>
+        <v>2945.333333333333</v>
       </c>
       <c r="S7" s="131">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="232" t="str">
+      <c r="A8" s="229" t="str">
         <f>PROPER(Currency)&amp;IborType&amp;A7</f>
         <v>UsdLibor3M</v>
       </c>
@@ -8415,11 +8543,11 @@
       <c r="M8" s="118"/>
       <c r="N8" s="120">
         <f t="shared" si="2"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="O8" s="120">
         <f t="shared" si="3"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="P8" s="120" t="e">
         <f t="shared" si="6"/>
@@ -8432,7 +8560,7 @@
       </c>
       <c r="S8" s="131">
         <f t="shared" si="5"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="T8" s="131">
         <v>1</v>
@@ -8463,20 +8591,20 @@
       </c>
       <c r="K9" s="108">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>-1.3905650475273017E-6</v>
+        <v>-1.4925354260837801E-6</v>
       </c>
       <c r="L9" s="108">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.446431983434469E-3</v>
+        <v>1.4587983309151298E-3</v>
       </c>
       <c r="M9" s="118"/>
       <c r="N9" s="120">
         <f t="shared" si="2"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="O9" s="120">
         <f t="shared" si="3"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="P9" s="120" t="e">
         <f t="shared" si="6"/>
@@ -8489,18 +8617,18 @@
       </c>
       <c r="S9" s="131">
         <f t="shared" si="5"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="T9" s="131">
         <v>1</v>
       </c>
       <c r="V9" s="91">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>2821.333333333333</v>
+        <v>2945.333333333333</v>
       </c>
       <c r="W9" s="92">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X9" s="93">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -8508,35 +8636,35 @@
       </c>
       <c r="Z9" s="76">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>3.8022335085286601E-8</v>
+        <v>4.8278265966133045E-8</v>
       </c>
       <c r="AB9" s="76">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.3184999990619572E-3</v>
+        <v>1.3185000008632546E-3</v>
       </c>
       <c r="AD9" s="82">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>1.8761726078799338E-3</v>
+        <v>2.1739130434782626E-3</v>
       </c>
       <c r="AE9" s="83">
-        <v>-2.7472527472527592E-3</v>
+        <v>-3.0279503105590097E-3</v>
       </c>
       <c r="AF9" s="84">
-        <v>8.7108013937282566E-4</v>
+        <v>8.5403726708074682E-4</v>
       </c>
       <c r="AH9" s="79">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>-1.7347234759768071E-18</v>
+        <v>-4.3368086899420177E-19</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="232" t="str">
+      <c r="A10" s="229" t="str">
         <f>_xll.qlIMMNextCode(EvaluationDate,FALSE)</f>
         <v>K4</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00308#0000</v>
+        <v>obj_00309#0000</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -8560,11 +8688,11 @@
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>9.505190468656298E-4</v>
+        <v>9.4866976758114217E-4</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="1"/>
-        <v>1.2744809531342917E-3</v>
+        <v>1.2763302324187793E-3</v>
       </c>
       <c r="J10" s="1" t="b">
         <f>AND(NOT(ISERROR(I10)),E10&lt;&gt;$E$9,E10&lt;&gt;$E$8)</f>
@@ -8572,41 +8700,41 @@
       </c>
       <c r="K10" s="15">
         <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.6930402279871344E-6</v>
+        <v>-1.916807656567057E-6</v>
       </c>
       <c r="L10" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4742597000367735E-3</v>
+        <v>1.4986799205805579E-3</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="121">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" s="121">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P10" s="121">
         <f t="shared" si="6"/>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R10" s="100">
         <f t="shared" si="4"/>
-        <v>4186.3333333333339</v>
+        <v>4069.3333333333335</v>
       </c>
       <c r="S10" s="100">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T10" s="100">
         <v>1</v>
       </c>
       <c r="V10" s="94">
-        <v>4186.3333333333339</v>
+        <v>4069.3333333333335</v>
       </c>
       <c r="W10" s="95">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X10" s="96">
         <v>1</v>
@@ -8615,35 +8743,35 @@
         <v>47</v>
       </c>
       <c r="Z10" s="77">
-        <v>-7.3784256399294127E-6</v>
+        <v>-8.7667763082189924E-6</v>
       </c>
       <c r="AA10" s="67" t="s">
         <v>48</v>
       </c>
       <c r="AB10" s="77">
-        <v>1.2744809531342917E-3</v>
+        <v>1.2763302324187793E-3</v>
       </c>
       <c r="AD10" s="85">
-        <v>-0.27392120075047022</v>
+        <v>-0.31304347826086992</v>
       </c>
       <c r="AE10" s="86">
-        <v>0.36538461538461697</v>
+        <v>0.40031055900621171</v>
       </c>
       <c r="AF10" s="87">
-        <v>-9.1463414634146797E-2</v>
+        <v>-8.7267080745341799E-2</v>
       </c>
       <c r="AH10" s="80">
-        <v>-2.1684043449710089E-18</v>
+        <v>-6.5052130349130266E-19</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="232" t="str">
+      <c r="A11" s="229" t="str">
         <f>_xll.qlIMMNextCode(E10,IF(_xll.qlIMMIsIMMdate(E10,TRUE),FALSE,TRUE))</f>
         <v>M4</v>
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00307#0000</v>
+        <v>obj_00303#0000</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -8667,11 +8795,11 @@
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>1.0016796589550009E-3</v>
+        <v>9.9948153583582513E-4</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="1"/>
-        <v>1.2233203410449206E-3</v>
+        <v>1.2255184641640964E-3</v>
       </c>
       <c r="J11" s="1" t="b">
         <f>NOT(ISERROR(I11))</f>
@@ -8679,62 +8807,62 @@
       </c>
       <c r="K11" s="15">
         <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.1607275367931294E-6</v>
+        <v>-1.1920709833225413E-6</v>
       </c>
       <c r="L11" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.425286932446925E-3</v>
+        <v>1.4305546732955735E-3</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="121">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="121">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P11" s="121">
         <f t="shared" si="6"/>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R11" s="100">
         <f t="shared" si="4"/>
-        <v>8274.3333333333321</v>
+        <v>8101.333333333333</v>
       </c>
       <c r="S11" s="100">
         <f t="shared" si="5"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T11" s="100">
         <v>1</v>
       </c>
       <c r="V11" s="97">
-        <v>8274.3333333333321</v>
+        <v>8101.333333333333</v>
       </c>
       <c r="W11" s="98">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X11" s="99">
         <v>1</v>
       </c>
       <c r="Z11" s="78">
-        <v>1.5506338971114199E-3</v>
+        <v>1.5883429013239629E-3</v>
       </c>
       <c r="AB11" s="78">
-        <v>1.2233203410449206E-3</v>
+        <v>1.2255184641640964E-3</v>
       </c>
       <c r="AD11" s="88">
-        <v>8.3070669168230449</v>
+        <v>9.3101449275362445</v>
       </c>
       <c r="AE11" s="89">
-        <v>-9.0567765567765974</v>
+        <v>-9.8962732919254837</v>
       </c>
       <c r="AF11" s="90">
-        <v>1.7497096399535539</v>
+        <v>1.5861283643892392</v>
       </c>
       <c r="AH11" s="81">
-        <v>-3.2526065174565133E-18</v>
+        <v>-1.0842021724855044E-18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -8767,11 +8895,11 @@
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>9.8584735311734806E-4</v>
+        <v>9.8362365743845013E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>1.2341526468826521E-3</v>
+        <v>1.2363763425615501E-3</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -8779,32 +8907,32 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.3179273778016415E-6</v>
+        <v>-1.3687276383617419E-6</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4397493178197082E-3</v>
+        <v>1.4471603988692582E-3</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="121">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="121">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P12" s="121">
         <f t="shared" si="6"/>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R12" s="100">
         <f t="shared" si="4"/>
-        <v>6789.333333333333</v>
+        <v>6634.333333333333</v>
       </c>
       <c r="S12" s="100">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T12" s="100">
         <v>1</v>
@@ -8819,7 +8947,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031b#0000</v>
+        <v>obj_0030a#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -8831,11 +8959,11 @@
       </c>
       <c r="E13" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="F13" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="G13" s="52">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
@@ -8843,11 +8971,11 @@
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>1.032885962337251E-3</v>
+        <v>1.0328859624979922E-3</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>1.2071140376627492E-3</v>
+        <v>1.207114037502008E-3</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -8855,11 +8983,11 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-9.1299968360006514E-7</v>
+        <v>-9.2821636134372122E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4024959699531633E-3</v>
+        <v>1.4057523388295644E-3</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="121">
@@ -8895,7 +9023,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00318#0000</v>
+        <v>obj_0030e#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -8907,11 +9035,11 @@
       </c>
       <c r="E14" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="F14" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41953</v>
+        <v>41955</v>
       </c>
       <c r="G14" s="52">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
@@ -8919,11 +9047,11 @@
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>1.088039280753885E-3</v>
+        <v>1.0933329919471737E-3</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>1.1919607192461149E-3</v>
+        <v>1.1866670080528262E-3</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -8931,32 +9059,32 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-6.8031870868732432E-7</v>
+        <v>-7.0498926636592729E-7</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3810893202611911E-3</v>
+        <v>1.3847689919016517E-3</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="121">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O14" s="121">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P14" s="121">
         <f t="shared" si="6"/>
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="R14" s="100">
         <f t="shared" si="4"/>
-        <v>20057.333333333332</v>
+        <v>20461</v>
       </c>
       <c r="S14" s="100">
         <f t="shared" si="5"/>
-        <v>139</v>
+        <v>140.5</v>
       </c>
       <c r="T14" s="100">
         <v>1</v>
@@ -8971,7 +9099,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00305#0000</v>
+        <v>obj_00318#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -8983,7 +9111,7 @@
       </c>
       <c r="E15" s="112">
         <f>SettlementDate</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F15" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
@@ -8995,11 +9123,11 @@
       </c>
       <c r="H15" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>1.0100000000002132E-3</v>
+        <v>1.0100000000000274E-3</v>
       </c>
       <c r="I15" s="116">
         <f t="shared" si="1"/>
-        <v>2.2189999999997871E-3</v>
+        <v>2.2189999999999727E-3</v>
       </c>
       <c r="J15" s="117" t="b">
         <v>0</v>
@@ -9013,33 +9141,33 @@
       </c>
       <c r="O15" s="120">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P15" s="120">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="117"/>
       <c r="R15" s="131">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11532</v>
+        <v>11408.333333333332</v>
       </c>
       <c r="S15" s="131">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="T15" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="232" t="str">
+      <c r="A16" s="229" t="str">
         <f>_xll.qlPeriodEquivalent(A15&amp;"M")</f>
         <v>6M</v>
       </c>
       <c r="B16" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_002d5#0003</v>
+        <v>obj_002d5#0001</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -9063,11 +9191,11 @@
       </c>
       <c r="H16" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>1.0100000000002132E-3</v>
+        <v>1.0126385943097101E-3</v>
       </c>
       <c r="I16" s="109">
         <f t="shared" si="1"/>
-        <v>2.2189999999997871E-3</v>
+        <v>2.21636140569029E-3</v>
       </c>
       <c r="J16" s="117" t="b">
         <f>AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
@@ -9078,31 +9206,31 @@
       <c r="M16" s="118"/>
       <c r="N16" s="120">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="120">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P16" s="120">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="117"/>
       <c r="R16" s="131">
         <f t="shared" si="8"/>
-        <v>11532</v>
+        <v>11347</v>
       </c>
       <c r="S16" s="131">
         <f t="shared" si="9"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T16" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="232" t="str">
+      <c r="A17" s="229" t="str">
         <f>PROPER(Currency)&amp;IborType&amp;A16</f>
         <v>UsdLibor6M</v>
       </c>
@@ -9126,11 +9254,11 @@
       <c r="M17" s="118"/>
       <c r="N17" s="120">
         <f t="shared" si="2"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="O17" s="120">
         <f t="shared" si="3"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="P17" s="120" t="e">
         <f t="shared" si="7"/>
@@ -9143,7 +9271,7 @@
       </c>
       <c r="S17" s="131">
         <f t="shared" si="9"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="T17" s="131">
         <v>1</v>
@@ -9174,20 +9302,20 @@
       </c>
       <c r="K18" s="108">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-6.2377155946215708E-7</v>
+        <v>-5.904772727947576E-7</v>
       </c>
       <c r="L18" s="108">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3350215100597484E-3</v>
+        <v>2.3250092238845253E-3</v>
       </c>
       <c r="M18" s="118"/>
       <c r="N18" s="120">
         <f t="shared" si="2"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="O18" s="120">
         <f t="shared" si="3"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="P18" s="120" t="e">
         <f t="shared" si="7"/>
@@ -9200,18 +9328,18 @@
       </c>
       <c r="S18" s="131">
         <f t="shared" si="9"/>
-        <v>-41767</v>
+        <v>-41768</v>
       </c>
       <c r="T18" s="131">
         <v>1</v>
       </c>
       <c r="V18" s="91">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>11532</v>
+        <v>11347</v>
       </c>
       <c r="W18" s="92">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X18" s="93">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -9219,25 +9347,25 @@
       </c>
       <c r="Z18" s="76">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>3.4464311418617314E-9</v>
+        <v>5.0562748642520191E-10</v>
       </c>
       <c r="AB18" s="76">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>2.2189999999997871E-3</v>
+        <v>2.21636140569029E-3</v>
       </c>
       <c r="AD18" s="82">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>5.118047623866893E-4</v>
+        <v>5.0420168067226824E-4</v>
       </c>
       <c r="AE18" s="83">
-        <v>-1.0409588387525887E-3</v>
+        <v>-1.0084033613445367E-3</v>
       </c>
       <c r="AF18" s="84">
-        <v>5.2915407636589917E-4</v>
+        <v>5.0420168067226835E-4</v>
       </c>
       <c r="AH18" s="79">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>9.1072982488782372E-18</v>
+        <v>2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -9246,7 +9374,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00315#0000</v>
+        <v>obj_00314#0000</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -9270,11 +9398,11 @@
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>1.0625308575743092E-3</v>
+        <v>1.0604141869864339E-3</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>2.1774691424256902E-3</v>
+        <v>2.1795858130135657E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -9282,41 +9410,41 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-6.8083373072290055E-7</v>
+        <v>-6.0287856847088981E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3456350739142467E-3</v>
+        <v>2.3272910622889336E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="121">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" s="121">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P19" s="121">
         <f t="shared" si="7"/>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R19" s="100">
         <f t="shared" si="8"/>
-        <v>18043</v>
+        <v>17797</v>
       </c>
       <c r="S19" s="100">
         <f t="shared" si="9"/>
-        <v>123.5</v>
+        <v>122.5</v>
       </c>
       <c r="T19" s="100">
         <v>1</v>
       </c>
       <c r="V19" s="94">
-        <v>18043</v>
+        <v>17797</v>
       </c>
       <c r="W19" s="95">
-        <v>123.5</v>
+        <v>122.5</v>
       </c>
       <c r="X19" s="96">
         <v>1</v>
@@ -9325,25 +9453,25 @@
         <v>47</v>
       </c>
       <c r="Z19" s="77">
-        <v>-2.0973957619264082E-6</v>
+        <v>-1.3126849168579064E-6</v>
       </c>
       <c r="AA19" s="67" t="s">
         <v>48</v>
       </c>
       <c r="AB19" s="77">
-        <v>2.1774691424256902E-3</v>
+        <v>2.1795858130135657E-3</v>
       </c>
       <c r="AD19" s="85">
-        <v>-0.14204461665245036</v>
+        <v>-0.13941314230610258</v>
       </c>
       <c r="AE19" s="86">
-        <v>0.25500599997108553</v>
+        <v>0.24603939936630356</v>
       </c>
       <c r="AF19" s="87">
-        <v>-0.11296138331863512</v>
+        <v>-0.10662625706020097</v>
       </c>
       <c r="AH19" s="80">
-        <v>1.2576745200831851E-17</v>
+        <v>3.0357660829594124E-18</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -9352,7 +9480,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00316#0000</v>
+        <v>obj_0030d#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -9364,11 +9492,11 @@
       </c>
       <c r="E20" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="F20" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42012</v>
+        <v>42013</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
@@ -9376,11 +9504,11 @@
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>1.1261869519823384E-3</v>
+        <v>1.1261869518150809E-3</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>2.1438130480176611E-3</v>
+        <v>2.1438130481849184E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9388,11 +9516,11 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-6.2655793318438355E-7</v>
+        <v>-5.9465866807681667E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3355397755720824E-3</v>
+        <v>2.3257786006164244E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="121">
@@ -9428,22 +9556,22 @@
         <v>1</v>
       </c>
       <c r="Z20" s="78">
-        <v>2.3743135619310029E-3</v>
+        <v>2.3313910629527528E-3</v>
       </c>
       <c r="AB20" s="78">
-        <v>2.1438130480176611E-3</v>
+        <v>2.1438130481849184E-3</v>
       </c>
       <c r="AD20" s="88">
-        <v>8.3080168288345835</v>
+        <v>8.1048326215732089</v>
       </c>
       <c r="AE20" s="89">
-        <v>-11.711220668816102</v>
+        <v>-11.193271800523471</v>
       </c>
       <c r="AF20" s="90">
-        <v>4.4032038399815177</v>
+        <v>4.088439178950261</v>
       </c>
       <c r="AH20" s="81">
-        <v>1.5178830414797062E-17</v>
+        <v>3.4694469519536142E-18</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -9452,7 +9580,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031a#0000</v>
+        <v>obj_0031e#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -9464,11 +9592,11 @@
       </c>
       <c r="E21" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="F21" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42044</v>
+        <v>42046</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
@@ -9476,11 +9604,11 @@
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>1.2141979116499038E-3</v>
+        <v>1.2215307756949839E-3</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>2.1158020883500959E-3</v>
+        <v>2.1084692243050155E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9488,32 +9616,32 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-5.6392301447918714E-7</v>
+        <v>-5.7389458183656633E-7</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3238896806929161E-3</v>
+        <v>2.3219580087482181E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="121">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O21" s="121">
         <f t="shared" si="3"/>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P21" s="121">
         <f t="shared" si="7"/>
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="R21" s="100">
         <f t="shared" si="8"/>
-        <v>36892.333333333336</v>
+        <v>37417.333333333328</v>
       </c>
       <c r="S21" s="100">
         <f t="shared" si="9"/>
-        <v>184.5</v>
+        <v>186</v>
       </c>
       <c r="T21" s="100">
         <v>1</v>
@@ -9529,7 +9657,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00306#0000</v>
+        <v>obj_0031b#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -9541,7 +9669,7 @@
       </c>
       <c r="E22" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41890</v>
+        <v>41891</v>
       </c>
       <c r="F22" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
@@ -9553,11 +9681,11 @@
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>1.3182534355869425E-3</v>
+        <v>1.3190746123977765E-3</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>2.1317465644130574E-3</v>
+        <v>2.1309253876022234E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9565,11 +9693,11 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-3.6055138672202352E-7</v>
+        <v>-3.5158855180274305E-7</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2860625579300834E-3</v>
+        <v>2.2810536992219949E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="121">
@@ -9578,19 +9706,19 @@
       </c>
       <c r="O22" s="121">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P22" s="121">
         <f t="shared" si="7"/>
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R22" s="100">
         <f t="shared" si="8"/>
-        <v>48556.333333333328</v>
+        <v>48312.333333333336</v>
       </c>
       <c r="S22" s="100">
         <f t="shared" si="9"/>
-        <v>214</v>
+        <v>213.5</v>
       </c>
       <c r="T22" s="100">
         <v>1</v>
@@ -9606,7 +9734,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00317#0000</v>
+        <v>obj_00315#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -9618,11 +9746,11 @@
       </c>
       <c r="E23" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="F23" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42102</v>
+        <v>42103</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
@@ -9630,11 +9758,11 @@
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>1.4763631169906015E-3</v>
+        <v>1.4763631167393741E-3</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>2.1436368830093982E-3</v>
+        <v>2.1436368832606261E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9642,11 +9770,11 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.4954674500128776E-7</v>
+        <v>-2.3922540272915757E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2654156945700267E-3</v>
+        <v>2.260378879792455E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="121">
@@ -9683,7 +9811,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030c#0000</v>
+        <v>obj_00316#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -9707,11 +9835,11 @@
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>1.6749253276313748E-3</v>
+        <v>1.6544160373947112E-3</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>2.1750746723686251E-3</v>
+        <v>2.195583962605289E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9719,32 +9847,32 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.1936230334554891E-7</v>
+        <v>-5.6460443165763629E-8</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2412013884220592E-3</v>
+        <v>2.2267501272327907E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="121">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O24" s="121">
         <f t="shared" si="3"/>
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P24" s="121">
         <f t="shared" si="7"/>
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R24" s="100">
         <f t="shared" si="8"/>
-        <v>79489.333333333328</v>
+        <v>78936.333333333328</v>
       </c>
       <c r="S24" s="100">
         <f t="shared" si="9"/>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T24" s="100">
         <v>1</v>
@@ -9768,11 +9896,11 @@
       </c>
       <c r="E25" s="112">
         <f>SettlementDate</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F25" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="G25" s="114">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
@@ -9780,11 +9908,11 @@
       </c>
       <c r="H25" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>1.3300000000001173E-3</v>
+        <v>1.3299999999995325E-3</v>
       </c>
       <c r="I25" s="116">
         <f t="shared" si="1"/>
-        <v>4.1059999999998823E-3</v>
+        <v>4.1060000000004669E-3</v>
       </c>
       <c r="J25" s="117" t="b">
         <v>0</v>
@@ -9798,33 +9926,33 @@
       </c>
       <c r="O25" s="120">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P25" s="120">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q25" s="117"/>
       <c r="R25" s="131">
         <f t="shared" si="8"/>
-        <v>44408.333333333328</v>
+        <v>44896.333333333336</v>
       </c>
       <c r="S25" s="131">
         <f t="shared" si="9"/>
-        <v>182.5</v>
+        <v>183.5</v>
       </c>
       <c r="T25" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="232" t="str">
+      <c r="A26" s="229" t="str">
         <f>_xll.qlPeriodEquivalent(A25&amp;"M")</f>
         <v>1Y</v>
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_002d6#0003</v>
+        <v>obj_002d6#0001</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -9848,11 +9976,11 @@
       </c>
       <c r="H26" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>1.3300000000001173E-3</v>
+        <v>1.3213492070563218E-3</v>
       </c>
       <c r="I26" s="109">
         <f t="shared" si="1"/>
-        <v>4.1059999999998823E-3</v>
+        <v>4.1146507929436778E-3</v>
       </c>
       <c r="J26" s="117" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -9869,37 +9997,37 @@
       <c r="M26" s="118"/>
       <c r="N26" s="120">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O26" s="120">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P26" s="120">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="117"/>
       <c r="R26" s="131">
         <f t="shared" si="8"/>
-        <v>44408.333333333328</v>
+        <v>44044.333333333328</v>
       </c>
       <c r="S26" s="131">
         <f t="shared" si="9"/>
-        <v>182.5</v>
+        <v>181.5</v>
       </c>
       <c r="T26" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="232" t="str">
+      <c r="A27" s="229" t="str">
         <f>PROPER(Currency)&amp;IborType&amp;A26</f>
         <v>UsdLibor1Y</v>
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00314#0000</v>
+        <v>obj_0031a#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -9911,11 +10039,11 @@
       </c>
       <c r="E27" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="F27" s="56">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42499</v>
+        <v>42501</v>
       </c>
       <c r="G27" s="27" t="e">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
@@ -9923,7 +10051,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.7537885797785673E-3</v>
+        <v>6.8254540162014585E-3</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -9944,23 +10072,23 @@
       <c r="M27" s="5"/>
       <c r="N27" s="121">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O27" s="121">
         <f t="shared" si="3"/>
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P27" s="121">
         <f t="shared" si="7"/>
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="R27" s="100">
         <f t="shared" si="8"/>
-        <v>312076.33333333331</v>
+        <v>313663</v>
       </c>
       <c r="S27" s="100">
         <f t="shared" si="9"/>
-        <v>548.5</v>
+        <v>550</v>
       </c>
       <c r="T27" s="100">
         <v>1</v>
@@ -10031,11 +10159,11 @@
       </c>
       <c r="V30" s="126">
         <f>Z9</f>
-        <v>3.8022335085286601E-8</v>
+        <v>4.8278265966133045E-8</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>3.4464311418617314E-9</v>
+        <v>5.0562748642520191E-10</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -10044,34 +10172,34 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>6.5500000027420783E-4</v>
+        <v>6.550000007957261E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.3184999990619572E-3</v>
+        <v>1.3185000008632546E-3</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>2.2189999999997871E-3</v>
+        <v>2.21636140569029E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>4.1059999999998823E-3</v>
+        <v>4.1146507929436778E-3</v>
       </c>
       <c r="M31" s="67" t="s">
         <v>46</v>
       </c>
       <c r="N31" s="66">
         <f>K4</f>
-        <v>-1.5538643652095545E-6</v>
+        <v>-1.5020768516775448E-6</v>
       </c>
       <c r="O31" s="66">
         <f>K9</f>
-        <v>-1.3905650475273017E-6</v>
+        <v>-1.4925354260837801E-6</v>
       </c>
       <c r="P31" s="66">
         <f>AVERAGE(K19:K21)</f>
-        <v>-6.2377155946215708E-7</v>
+        <v>-5.904772727947576E-7</v>
       </c>
       <c r="Q31" s="66" t="e">
         <f>K26</f>
@@ -10082,11 +10210,11 @@
       </c>
       <c r="V31" s="72">
         <f>Z10</f>
-        <v>-7.3784256399294127E-6</v>
+        <v>-8.7667763082189924E-6</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-2.0973957619264082E-6</v>
+        <v>-1.3126849168579064E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -10095,34 +10223,34 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>6.5500000027420783E-4</v>
+        <v>6.550000007957261E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>1.3184999990619572E-3</v>
+        <v>1.3185000008632546E-3</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>2.2189999999997871E-3</v>
+        <v>2.21636140569029E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>4.1059999999998823E-3</v>
+        <v>4.1146507929436778E-3</v>
       </c>
       <c r="M32" s="67" t="s">
         <v>45</v>
       </c>
       <c r="N32" s="66">
         <f>L4</f>
-        <v>7.0472365996091359E-4</v>
+        <v>7.0156438319772996E-4</v>
       </c>
       <c r="O32" s="66">
         <f>L9</f>
-        <v>1.446431983434469E-3</v>
+        <v>1.4587983309151298E-3</v>
       </c>
       <c r="P32" s="66">
         <f>L18</f>
-        <v>2.3350215100597484E-3</v>
+        <v>2.3250092238845253E-3</v>
       </c>
       <c r="Q32" s="66" t="e">
         <f>L26</f>
@@ -10133,11 +10261,11 @@
       </c>
       <c r="V32" s="72">
         <f>Z11</f>
-        <v>1.5506338971114199E-3</v>
+        <v>1.5883429013239629E-3</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>2.3743135619310029E-3</v>
+        <v>2.3313910629527528E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -10195,7 +10323,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="132" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00310#0000</v>
+        <v>obj_00301#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -10206,47 +10334,47 @@
       </c>
       <c r="E34" s="53">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="G34" s="32">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>1.5531697955584497E-3</v>
+        <v>1.5470581526397013E-3</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>2.3969573583658959E-3</v>
+        <v>2.4253375716565368E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>3.2232660128231659E-3</v>
+        <v>3.1794235524569294E-3</v>
       </c>
       <c r="J34" s="32">
         <f t="shared" si="14"/>
-        <v>4.9559999999626283E-3</v>
+        <v>4.964650792940682E-3</v>
       </c>
       <c r="K34" s="133">
         <f>F34-$E$6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>8.4999999996274568E-4</v>
+        <v>8.4999999999700409E-4</v>
       </c>
       <c r="N34" s="71">
         <f>N$31*$K34+N$32</f>
-        <v>7.0316979559570403E-4</v>
+        <v>6.9705815264269728E-4</v>
       </c>
       <c r="O34" s="72">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>1.5469573584031503E-3</v>
+        <v>1.5753375716595329E-3</v>
       </c>
       <c r="P34" s="72">
         <f t="shared" si="15"/>
-        <v>2.3732660128604204E-3</v>
+        <v>2.3294235524599252E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
@@ -10257,17 +10385,17 @@
       </c>
       <c r="V34" s="72">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>1.5469573584031503E-3</v>
+        <v>1.5753375716595329E-3</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>2.3732660128604204E-3</v>
+        <v>2.3294235524599252E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00300#0000</v>
+        <v>obj_00311#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -10278,27 +10406,27 @@
       </c>
       <c r="E35" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="G35" s="32">
         <f t="shared" si="14"/>
-        <v>1.5438466093671923E-3</v>
+        <v>1.5410498452329913E-3</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>2.3754304388074726E-3</v>
+        <v>2.4084477292529807E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>3.2170289684356566E-3</v>
+        <v>3.1768049243230327E-3</v>
       </c>
       <c r="J35" s="32">
         <f t="shared" si="14"/>
-        <v>4.9559999999626283E-3</v>
+        <v>4.964650792940682E-3</v>
       </c>
       <c r="K35" s="134">
         <f t="shared" ref="K35:K49" si="18">F35-$E$6</f>
@@ -10306,19 +10434,19 @@
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>8.4999999996274568E-4</v>
+        <v>8.4999999999700409E-4</v>
       </c>
       <c r="N35" s="71">
         <f>N$31*$K35+N$32</f>
-        <v>6.9384660940444674E-4</v>
+        <v>6.9104984523598711E-4</v>
       </c>
       <c r="O35" s="72">
         <f t="shared" si="15"/>
-        <v>1.5254304388447268E-3</v>
+        <v>1.5584477292559767E-3</v>
       </c>
       <c r="P35" s="72">
         <f t="shared" si="15"/>
-        <v>2.367028968472911E-3</v>
+        <v>2.3268049243260285E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10329,17 +10457,17 @@
       </c>
       <c r="V35" s="72">
         <f t="shared" si="17"/>
-        <v>1.5254304388447268E-3</v>
+        <v>1.5584477292559767E-3</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>2.367028968472911E-3</v>
+        <v>2.3268049243260285E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030e#0000</v>
+        <v>obj_00300#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -10350,27 +10478,27 @@
       </c>
       <c r="E36" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="G36" s="32">
         <f t="shared" si="14"/>
-        <v>1.5329695587764671E-3</v>
+        <v>1.530535303342962E-3</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>2.3514690434526401E-3</v>
+        <v>2.3801296432782683E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>3.2098569583606071E-3</v>
+        <v>3.1722352989325782E-3</v>
       </c>
       <c r="J36" s="32">
         <f t="shared" si="14"/>
-        <v>4.9559999999283693E-3</v>
+        <v>4.9646507890123955E-3</v>
       </c>
       <c r="K36" s="134">
         <f t="shared" si="18"/>
@@ -10378,19 +10506,19 @@
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>8.4999999992848728E-4</v>
+        <v>8.4999999606871768E-4</v>
       </c>
       <c r="N36" s="71">
         <f>N$31*$K36+N$32</f>
-        <v>6.8296955884797979E-4</v>
+        <v>6.8053530727424437E-4</v>
       </c>
       <c r="O36" s="72">
         <f t="shared" si="15"/>
-        <v>1.5014690435241527E-3</v>
+        <v>1.5301296472095506E-3</v>
       </c>
       <c r="P36" s="72">
         <f t="shared" si="15"/>
-        <v>2.3598569584321197E-3</v>
+        <v>2.3222353028638605E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10401,17 +10529,17 @@
       </c>
       <c r="V36" s="72">
         <f t="shared" si="17"/>
-        <v>1.5014690435241527E-3</v>
+        <v>1.5301296472095506E-3</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>2.3598569584321197E-3</v>
+        <v>2.3222353028638605E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00319#0000</v>
+        <v>obj_00308#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -10422,27 +10550,27 @@
       </c>
       <c r="E37" s="54">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="14"/>
-        <v>1.522092508178129E-3</v>
+        <v>1.5200207684834995E-3</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="14"/>
-        <v>2.3287497110363142E-3</v>
+        <v>2.353388654355683E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>3.2027975316952454E-3</v>
+        <v>3.1676821977372474E-3</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="14"/>
-        <v>4.9559999998864982E-3</v>
+        <v>4.9646507921146761E-3</v>
       </c>
       <c r="K37" s="135">
         <f t="shared" si="18"/>
@@ -10450,19 +10578,19 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>8.4999999988661604E-4</v>
+        <v>8.4999999917099805E-4</v>
       </c>
       <c r="N37" s="101">
         <f>N$31*$K37+N$32</f>
-        <v>6.7209250829151294E-4</v>
+        <v>6.7002076931250152E-4</v>
       </c>
       <c r="O37" s="102">
         <f t="shared" si="15"/>
-        <v>1.4787497111496983E-3</v>
+        <v>1.503388655184685E-3</v>
       </c>
       <c r="P37" s="102">
         <f t="shared" si="15"/>
-        <v>2.3527975318086295E-3</v>
+        <v>2.3176821985662491E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
         <f t="shared" si="16"/>
@@ -10473,17 +10601,17 @@
       </c>
       <c r="V37" s="102">
         <f t="shared" si="17"/>
-        <v>1.4787497111496983E-3</v>
+        <v>1.503388655184685E-3</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>2.3527975318086295E-3</v>
+        <v>2.3176821985662491E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00312#0000</v>
+        <v>obj_00305#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -10494,7 +10622,7 @@
       </c>
       <c r="E38" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
@@ -10506,35 +10634,35 @@
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>2.2955573769741192E-3</v>
+        <v>2.3179230056153272E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>3.1919316112957283E-3</v>
+        <v>3.1612064152838808E-3</v>
       </c>
       <c r="J38" s="34">
         <f t="shared" si="14"/>
-        <v>4.9559999997256746E-3</v>
+        <v>4.9646507921479515E-3</v>
       </c>
       <c r="K38" s="133">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>8.4999999972579221E-4</v>
+        <v>8.4999999920427395E-4</v>
       </c>
       <c r="N38" s="71">
         <f>N$31*$K38+N$32</f>
-        <v>6.5500000027420783E-4</v>
+        <v>6.550000007957261E-4</v>
       </c>
       <c r="O38" s="72">
         <f t="shared" si="15"/>
-        <v>1.4455573772483271E-3</v>
+        <v>1.4679230064110532E-3</v>
       </c>
       <c r="P38" s="72">
         <f t="shared" si="15"/>
-        <v>2.341931611569936E-3</v>
+        <v>2.3112064160796066E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10545,17 +10673,17 @@
       </c>
       <c r="V38" s="72">
         <f t="shared" si="17"/>
-        <v>1.4455573772483271E-3</v>
+        <v>1.4679230064110532E-3</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>2.341931611569936E-3</v>
+        <v>2.3112064160796066E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00302#0000</v>
+        <v>obj_002ff#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -10566,24 +10694,24 @@
       </c>
       <c r="E39" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>2.2727522851919493E-3</v>
+        <v>2.2808373674620512E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>3.2146177150994626E-3</v>
+        <v>3.19198132059969E-3</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" si="19"/>
-        <v>5.0060000004808081E-3</v>
+        <v>5.0146507939291185E-3</v>
       </c>
       <c r="K39" s="134">
         <f t="shared" si="18"/>
@@ -10591,16 +10719,16 @@
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>9.0000000048092582E-4</v>
+        <v>9.0000000098544044E-4</v>
       </c>
       <c r="N39" s="49"/>
       <c r="O39" s="72">
         <f t="shared" si="15"/>
-        <v>1.3727522847110233E-3</v>
+        <v>1.3808373664766106E-3</v>
       </c>
       <c r="P39" s="72">
         <f t="shared" si="15"/>
-        <v>2.3146177146185368E-3</v>
+        <v>2.2919813196142494E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10611,17 +10739,17 @@
       </c>
       <c r="V39" s="72">
         <f t="shared" si="17"/>
-        <v>1.3727522847110233E-3</v>
+        <v>1.3808373664766106E-3</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>2.3146177146185368E-3</v>
+        <v>2.2919813196142494E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030f#0000</v>
+        <v>obj_0030b#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -10632,41 +10760,41 @@
       </c>
       <c r="E40" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>2.2484999999999983E-3</v>
+        <v>2.2484999999999996E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>3.2175568888820035E-3</v>
+        <v>3.2011841124871942E-3</v>
       </c>
       <c r="J40" s="32">
         <f t="shared" si="19"/>
-        <v>5.0360000009379256E-3</v>
+        <v>5.0446507920804233E-3</v>
       </c>
       <c r="K40" s="134">
         <f t="shared" si="18"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>9.3000000093804288E-4</v>
+        <v>9.2999999913674538E-4</v>
       </c>
       <c r="N40" s="47"/>
       <c r="O40" s="72">
         <f t="shared" si="15"/>
-        <v>1.3184999990619554E-3</v>
+        <v>1.3185000008632541E-3</v>
       </c>
       <c r="P40" s="72">
         <f t="shared" si="15"/>
-        <v>2.2875568879439606E-3</v>
+        <v>2.2711841133504487E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10677,17 +10805,17 @@
       </c>
       <c r="V40" s="72">
         <f t="shared" si="17"/>
-        <v>1.3184999990619554E-3</v>
+        <v>1.3185000008632541E-3</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>2.2875568879439606E-3</v>
+        <v>2.2711841133504487E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030a#0000</v>
+        <v>obj_00302#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -10698,21 +10826,21 @@
       </c>
       <c r="E41" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41890</v>
+        <v>41891</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="48"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>3.2127040748211495E-3</v>
+        <v>3.2032108205657939E-3</v>
       </c>
       <c r="J41" s="32">
         <f t="shared" si="20"/>
-        <v>5.0560000000000943E-3</v>
+        <v>5.0646507935294379E-3</v>
       </c>
       <c r="K41" s="134">
         <f t="shared" si="18"/>
@@ -10720,13 +10848,13 @@
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>9.5000000000021218E-4</v>
+        <v>9.5000000058575985E-4</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="48"/>
       <c r="P41" s="72">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>2.2627040748209376E-3</v>
+        <v>2.2532108199800338E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10738,13 +10866,13 @@
       <c r="V41" s="72"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>2.2627040748209376E-3</v>
+        <v>2.2532108199800338E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00309#0000</v>
+        <v>obj_002fe#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -10755,21 +10883,21 @@
       </c>
       <c r="E42" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="46"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>3.2207552880453546E-3</v>
+        <v>3.2149160780892746E-3</v>
       </c>
       <c r="J42" s="32">
         <f t="shared" si="20"/>
-        <v>5.0859999997016573E-3</v>
+        <v>5.0946507929432536E-3</v>
       </c>
       <c r="K42" s="134">
         <f t="shared" si="18"/>
@@ -10777,13 +10905,13 @@
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>9.7999999970177498E-4</v>
+        <v>9.7999999999957605E-4</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="46"/>
       <c r="P42" s="72">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>2.2407552883435796E-3</v>
+        <v>2.2349160780896988E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10795,13 +10923,13 @@
       <c r="V42" s="72"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>2.2407552883435796E-3</v>
+        <v>2.2349160780896988E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00301#0000</v>
+        <v>obj_00306#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -10812,7 +10940,7 @@
       </c>
       <c r="E43" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
@@ -10822,25 +10950,25 @@
       <c r="H43" s="46"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>3.2290000000000096E-3</v>
+        <v>3.2257360750510581E-3</v>
       </c>
       <c r="J43" s="32">
         <f t="shared" si="20"/>
-        <v>5.1160000000000953E-3</v>
+        <v>5.1246507929437052E-3</v>
       </c>
       <c r="K43" s="134">
         <f t="shared" si="18"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>1.0100000000002132E-3</v>
+        <v>1.0100000000000274E-3</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="46"/>
       <c r="P43" s="72">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>2.2189999999997962E-3</v>
+        <v>2.2157360750510308E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10852,13 +10980,13 @@
       <c r="V43" s="102"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>2.2189999999997962E-3</v>
+        <v>2.2157360750510308E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030b#0000</v>
+        <v>obj_0030f#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -10869,18 +10997,18 @@
       </c>
       <c r="E44" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>41981</v>
+        <v>41982</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
       <c r="I44" s="48"/>
       <c r="J44" s="32">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
-        <v>5.1359999999997944E-3</v>
+        <v>5.1446507929435899E-3</v>
       </c>
       <c r="K44" s="134">
         <f t="shared" si="18"/>
@@ -10901,7 +11029,7 @@
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_002ff#0000</v>
+        <v>obj_00304#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -10912,18 +11040,18 @@
       </c>
       <c r="E45" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42012</v>
+        <v>42013</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="46"/>
       <c r="J45" s="32">
         <f t="shared" si="21"/>
-        <v>5.1759999999997953E-3</v>
+        <v>5.1846507929435917E-3</v>
       </c>
       <c r="K45" s="134">
         <f t="shared" si="18"/>
@@ -10944,7 +11072,7 @@
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030d#0000</v>
+        <v>obj_00307#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -10955,7 +11083,7 @@
       </c>
       <c r="E46" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
@@ -10966,15 +11094,15 @@
       <c r="I46" s="46"/>
       <c r="J46" s="32">
         <f t="shared" si="21"/>
-        <v>5.2260000000001212E-3</v>
+        <v>5.2346507929438325E-3</v>
       </c>
       <c r="K46" s="134">
         <f t="shared" si="18"/>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>1.1200000000002384E-3</v>
+        <v>1.1200000000001547E-3</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
@@ -10987,7 +11115,7 @@
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00303#0000</v>
+        <v>obj_00310#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -10998,7 +11126,7 @@
       </c>
       <c r="E47" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
@@ -11009,15 +11137,15 @@
       <c r="I47" s="46"/>
       <c r="J47" s="32">
         <f t="shared" si="21"/>
-        <v>5.2759999999996195E-3</v>
+        <v>5.2846507929436648E-3</v>
       </c>
       <c r="K47" s="134">
         <f t="shared" si="18"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>1.1699999999997368E-3</v>
+        <v>1.1699999999999868E-3</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
@@ -11030,7 +11158,7 @@
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_002fe#0000</v>
+        <v>obj_00312#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -11041,18 +11169,18 @@
       </c>
       <c r="E48" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42102</v>
+        <v>42103</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="46"/>
       <c r="J48" s="32">
         <f t="shared" si="21"/>
-        <v>5.3560000000000179E-3</v>
+        <v>5.3646507929433363E-3</v>
       </c>
       <c r="K48" s="134">
         <f t="shared" si="18"/>
@@ -11060,7 +11188,7 @@
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>1.2500000000001358E-3</v>
+        <v>1.2499999999996585E-3</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
@@ -11073,7 +11201,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00311#0000</v>
+        <v>obj_0030c#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -11084,26 +11212,26 @@
       </c>
       <c r="E49" s="55">
         <f t="shared" si="13"/>
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="46"/>
       <c r="J49" s="32">
         <f t="shared" si="21"/>
-        <v>5.4359999999999999E-3</v>
+        <v>5.4446507929432099E-3</v>
       </c>
       <c r="K49" s="134">
         <f t="shared" si="18"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>1.3300000000001173E-3</v>
+        <v>1.3299999999995325E-3</v>
       </c>
       <c r="N49" s="73"/>
       <c r="O49" s="74"/>
@@ -11142,8 +11270,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11166,12 +11294,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="192"/>
-      <c r="B1" s="193"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="195"/>
+      <c r="A1" s="189"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="192"/>
       <c r="H1" s="154"/>
       <c r="I1" s="173"/>
       <c r="J1" s="173"/>
@@ -11179,29 +11307,29 @@
       <c r="L1" s="174"/>
       <c r="M1" s="174"/>
       <c r="N1" s="173"/>
-      <c r="O1" s="196"/>
+      <c r="O1" s="193"/>
       <c r="P1" s="175"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="197"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="199" t="str">
+      <c r="A2" s="194"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="196" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;".xml"</f>
         <v>USD_015_SyntheticQuotes.xml</v>
       </c>
-      <c r="D2" s="200" t="str">
+      <c r="D2" s="197" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D7,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="199"/>
       <c r="H2" s="168"/>
       <c r="I2" s="171"/>
-      <c r="J2" s="172" t="s">
+      <c r="J2" s="188" t="s">
         <v>74</v>
       </c>
       <c r="K2" s="170"/>
-      <c r="L2" s="191" t="s">
+      <c r="L2" s="188" t="s">
         <v>75</v>
       </c>
       <c r="M2" s="170"/>
@@ -11211,1560 +11339,1560 @@
       <c r="O2" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="233">
+      <c r="P2" s="230">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>474</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="218">
+      <c r="A3" s="215">
         <v>1</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="203" t="str">
+      <c r="C3" s="200" t="str">
         <f t="shared" ref="C3:C7" si="0">Currency&amp;$B3&amp;"_SYNTH"&amp;Tenor1M&amp;QuoteSuffix</f>
         <v>USDSND_SYNTH1M_Quote</v>
       </c>
-      <c r="D3" s="204" t="str">
+      <c r="D3" s="201" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USDSND_SYNTH1M_Quote#0000</v>
       </c>
-      <c r="E3" s="205" t="str">
+      <c r="E3" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
         <v/>
       </c>
-      <c r="F3" s="202"/>
-      <c r="H3" s="206"/>
+      <c r="F3" s="199"/>
+      <c r="H3" s="203"/>
       <c r="I3" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="177">
-        <f>Calculation!$G34</f>
+      <c r="J3" s="239">
+        <f>ROUND(Calculation!$G34,6)</f>
+        <v>1.547E-3</v>
+      </c>
+      <c r="K3" s="169"/>
+      <c r="L3" s="179">
         <v>1.5531697955584497E-3</v>
       </c>
-      <c r="K3" s="169"/>
-      <c r="L3" s="182">
-        <v>1.5531697955584497E-3</v>
-      </c>
       <c r="M3" s="153"/>
-      <c r="N3" s="185">
+      <c r="N3" s="182">
         <f t="array" ref="N3:N40">QuoteLive</f>
-        <v>1.5531697955584497E-3</v>
-      </c>
-      <c r="O3" s="186">
+        <v>1.547E-3</v>
+      </c>
+      <c r="O3" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="207"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="218" t="str">
+      <c r="A4" s="215" t="str">
         <f>_xll.qlPeriodEquivalent(Months1M&amp;"M")</f>
         <v>1M</v>
       </c>
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="203" t="str">
+      <c r="C4" s="200" t="str">
         <f t="shared" si="0"/>
         <v>USDSWD_SYNTH1M_Quote</v>
       </c>
-      <c r="D4" s="204" t="str">
+      <c r="D4" s="201" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USDSWD_SYNTH1M_Quote#0000</v>
       </c>
-      <c r="E4" s="205" t="str">
+      <c r="E4" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
         <v/>
       </c>
-      <c r="F4" s="202"/>
-      <c r="H4" s="206"/>
+      <c r="F4" s="199"/>
+      <c r="H4" s="203"/>
       <c r="I4" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="177">
-        <f>Calculation!$G35</f>
+      <c r="J4" s="239">
+        <f>ROUND(Calculation!$G35,6)</f>
+        <v>1.5410000000000001E-3</v>
+      </c>
+      <c r="K4" s="169"/>
+      <c r="L4" s="179">
         <v>1.5438466093671923E-3</v>
       </c>
-      <c r="K4" s="169"/>
-      <c r="L4" s="182">
-        <v>1.5438466093671923E-3</v>
-      </c>
       <c r="M4" s="153"/>
-      <c r="N4" s="185">
-        <v>1.5438466093671923E-3</v>
-      </c>
-      <c r="O4" s="186">
+      <c r="N4" s="182">
+        <v>1.5410000000000001E-3</v>
+      </c>
+      <c r="O4" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="207"/>
+      <c r="P4" s="204"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="219"/>
-      <c r="B5" s="208" t="s">
+      <c r="A5" s="216"/>
+      <c r="B5" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="203" t="str">
+      <c r="C5" s="200" t="str">
         <f t="shared" si="0"/>
         <v>USD2WD_SYNTH1M_Quote</v>
       </c>
-      <c r="D5" s="204" t="str">
+      <c r="D5" s="201" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD2WD_SYNTH1M_Quote#0000</v>
       </c>
-      <c r="E5" s="205" t="str">
+      <c r="E5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
         <v/>
       </c>
-      <c r="F5" s="202"/>
-      <c r="H5" s="206"/>
+      <c r="F5" s="199"/>
+      <c r="H5" s="203"/>
       <c r="I5" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="177">
-        <f>Calculation!$G36</f>
+      <c r="J5" s="239">
+        <f>ROUND(Calculation!$G36,6)</f>
+        <v>1.531E-3</v>
+      </c>
+      <c r="K5" s="169"/>
+      <c r="L5" s="179">
         <v>1.5329695587764671E-3</v>
       </c>
-      <c r="K5" s="169"/>
-      <c r="L5" s="182">
-        <v>1.5329695587764671E-3</v>
-      </c>
       <c r="M5" s="153"/>
-      <c r="N5" s="185">
-        <v>1.5329695587764671E-3</v>
-      </c>
-      <c r="O5" s="186">
+      <c r="N5" s="182">
+        <v>1.531E-3</v>
+      </c>
+      <c r="O5" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="207"/>
+      <c r="P5" s="204"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="219"/>
-      <c r="B6" s="208" t="s">
+      <c r="A6" s="216"/>
+      <c r="B6" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="203" t="str">
+      <c r="C6" s="200" t="str">
         <f t="shared" si="0"/>
         <v>USD3WD_SYNTH1M_Quote</v>
       </c>
-      <c r="D6" s="204" t="str">
+      <c r="D6" s="201" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD3WD_SYNTH1M_Quote#0000</v>
       </c>
-      <c r="E6" s="205" t="str">
+      <c r="E6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
         <v/>
       </c>
-      <c r="F6" s="202"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="178" t="s">
+      <c r="F6" s="199"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="179">
+      <c r="J6" s="241">
         <f>Calculation!$G37</f>
+        <v>1.5200207684834995E-3</v>
+      </c>
+      <c r="K6" s="169"/>
+      <c r="L6" s="180">
         <v>1.522092508178129E-3</v>
       </c>
-      <c r="K6" s="169"/>
-      <c r="L6" s="183">
-        <v>1.522092508178129E-3</v>
-      </c>
       <c r="M6" s="153"/>
-      <c r="N6" s="187">
-        <v>1.522092508178129E-3</v>
-      </c>
-      <c r="O6" s="188">
+      <c r="N6" s="184">
+        <v>1.5200207684834995E-3</v>
+      </c>
+      <c r="O6" s="185">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="207"/>
+      <c r="P6" s="204"/>
     </row>
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
-      <c r="B7" s="209" t="s">
+      <c r="A7" s="216"/>
+      <c r="B7" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="210" t="str">
+      <c r="C7" s="207" t="str">
         <f t="shared" si="0"/>
         <v>USD1MD_SYNTH1M_Quote</v>
       </c>
-      <c r="D7" s="210" t="str">
+      <c r="D7" s="207" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD1MD_SYNTH1M_Quote#0000</v>
       </c>
-      <c r="E7" s="211" t="str">
+      <c r="E7" s="208" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
         <v/>
       </c>
-      <c r="F7" s="202"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="180" t="s">
+      <c r="F7" s="199"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="181">
-        <f>Calculation!$G38</f>
+      <c r="J7" s="240">
+        <f>ROUND(Calculation!$G38,6)</f>
         <v>1.505E-3</v>
       </c>
       <c r="K7" s="169"/>
-      <c r="L7" s="184">
+      <c r="L7" s="181">
         <v>1.505E-3</v>
       </c>
       <c r="M7" s="153"/>
-      <c r="N7" s="189">
+      <c r="N7" s="186">
         <v>1.505E-3</v>
       </c>
-      <c r="O7" s="190">
+      <c r="O7" s="187">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND(N7,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="207"/>
+      <c r="P7" s="204"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="220">
+      <c r="A8" s="217">
         <v>3</v>
       </c>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="203" t="str">
+      <c r="C8" s="200" t="str">
         <f t="shared" ref="C8:C14" si="1">Currency&amp;$B8&amp;"_SYNTH"&amp;Tenor3M&amp;QuoteSuffix</f>
         <v>USDSND_SYNTH3M_Quote</v>
       </c>
-      <c r="D8" s="213" t="str">
+      <c r="D8" s="210" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USDSND_SYNTH3M_Quote#0000</v>
       </c>
-      <c r="E8" s="214" t="str">
+      <c r="E8" s="211" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
         <v/>
       </c>
-      <c r="F8" s="215"/>
-      <c r="H8" s="206"/>
+      <c r="F8" s="212"/>
+      <c r="H8" s="203"/>
       <c r="I8" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="177">
-        <f>Calculation!$H34</f>
-        <v>2.3969573583658959E-3</v>
+      <c r="J8" s="238">
+        <f>ROUND(Calculation!$H34,6)</f>
+        <v>2.4250000000000001E-3</v>
       </c>
       <c r="K8" s="169"/>
-      <c r="L8" s="182">
+      <c r="L8" s="179">
         <v>2.3969573583080884E-3</v>
       </c>
       <c r="M8" s="153"/>
-      <c r="N8" s="185">
-        <v>2.3969573583658959E-3</v>
-      </c>
-      <c r="O8" s="186">
+      <c r="N8" s="182">
+        <v>2.4250000000000001E-3</v>
+      </c>
+      <c r="O8" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="234">
+      <c r="P8" s="231">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>474</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="218" t="str">
+      <c r="A9" s="215" t="str">
         <f>_xll.qlPeriodEquivalent(Months3M&amp;"M")</f>
         <v>3M</v>
       </c>
-      <c r="B9" s="208" t="s">
+      <c r="B9" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="203" t="str">
+      <c r="C9" s="200" t="str">
         <f t="shared" si="1"/>
         <v>USDSWD_SYNTH3M_Quote</v>
       </c>
-      <c r="D9" s="203" t="str">
+      <c r="D9" s="200" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USDSWD_SYNTH3M_Quote#0000</v>
       </c>
-      <c r="E9" s="216" t="str">
+      <c r="E9" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
         <v/>
       </c>
-      <c r="F9" s="215"/>
-      <c r="H9" s="206"/>
+      <c r="F9" s="212"/>
+      <c r="H9" s="203"/>
       <c r="I9" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="177">
-        <f>Calculation!$H35</f>
-        <v>2.3754304388074726E-3</v>
+      <c r="J9" s="239">
+        <f>ROUND(Calculation!$H35,6)</f>
+        <v>2.408E-3</v>
       </c>
       <c r="K9" s="169"/>
-      <c r="L9" s="182">
+      <c r="L9" s="179">
         <v>2.3754304387571777E-3</v>
       </c>
       <c r="M9" s="153"/>
-      <c r="N9" s="185">
-        <v>2.3754304388074726E-3</v>
-      </c>
-      <c r="O9" s="186">
+      <c r="N9" s="182">
+        <v>2.408E-3</v>
+      </c>
+      <c r="O9" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="207"/>
+      <c r="P9" s="204"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="221"/>
-      <c r="B10" s="217" t="s">
+      <c r="A10" s="218"/>
+      <c r="B10" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="203" t="str">
+      <c r="C10" s="200" t="str">
         <f t="shared" si="1"/>
         <v>USD2WD_SYNTH3M_Quote</v>
       </c>
-      <c r="D10" s="203" t="str">
+      <c r="D10" s="200" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD2WD_SYNTH3M_Quote#0000</v>
       </c>
-      <c r="E10" s="216" t="str">
+      <c r="E10" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
         <v/>
       </c>
-      <c r="F10" s="215"/>
-      <c r="H10" s="206"/>
+      <c r="F10" s="212"/>
+      <c r="H10" s="203"/>
       <c r="I10" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="177">
-        <f>Calculation!$H36</f>
-        <v>2.3514690434526401E-3</v>
+      <c r="J10" s="239">
+        <f>ROUND(Calculation!$H36,6)</f>
+        <v>2.3800000000000002E-3</v>
       </c>
       <c r="K10" s="169"/>
-      <c r="L10" s="182">
+      <c r="L10" s="179">
         <v>2.3514690434104507E-3</v>
       </c>
       <c r="M10" s="153"/>
-      <c r="N10" s="185">
-        <v>2.3514690434526401E-3</v>
-      </c>
-      <c r="O10" s="186">
+      <c r="N10" s="182">
+        <v>2.3800000000000002E-3</v>
+      </c>
+      <c r="O10" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="207"/>
+      <c r="P10" s="204"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="222"/>
-      <c r="B11" s="217" t="s">
+      <c r="A11" s="219"/>
+      <c r="B11" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="203" t="str">
+      <c r="C11" s="200" t="str">
         <f t="shared" si="1"/>
         <v>USD3WD_SYNTH3M_Quote</v>
       </c>
-      <c r="D11" s="203" t="str">
+      <c r="D11" s="200" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD3WD_SYNTH3M_Quote#0000</v>
       </c>
-      <c r="E11" s="216" t="str">
+      <c r="E11" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
         <v/>
       </c>
-      <c r="F11" s="215"/>
-      <c r="H11" s="206"/>
+      <c r="F11" s="212"/>
+      <c r="H11" s="203"/>
       <c r="I11" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="177">
-        <f>Calculation!$H37</f>
-        <v>2.3287497110363142E-3</v>
+      <c r="J11" s="239">
+        <f>ROUND(Calculation!$H37,6)</f>
+        <v>2.3530000000000001E-3</v>
       </c>
       <c r="K11" s="169"/>
-      <c r="L11" s="182">
+      <c r="L11" s="179">
         <v>2.3287497110015183E-3</v>
       </c>
       <c r="M11" s="153"/>
-      <c r="N11" s="185">
-        <v>2.3287497110363142E-3</v>
-      </c>
-      <c r="O11" s="186">
+      <c r="N11" s="182">
+        <v>2.3530000000000001E-3</v>
+      </c>
+      <c r="O11" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="207"/>
+      <c r="P11" s="204"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="222"/>
-      <c r="B12" s="217" t="s">
+      <c r="A12" s="219"/>
+      <c r="B12" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="203" t="str">
+      <c r="C12" s="200" t="str">
         <f t="shared" si="1"/>
         <v>USD1MD_SYNTH3M_Quote</v>
       </c>
-      <c r="D12" s="203" t="str">
+      <c r="D12" s="200" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD1MD_SYNTH3M_Quote#0000</v>
       </c>
-      <c r="E12" s="216" t="str">
+      <c r="E12" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
         <v/>
       </c>
-      <c r="F12" s="215"/>
-      <c r="H12" s="206"/>
+      <c r="F12" s="212"/>
+      <c r="H12" s="203"/>
       <c r="I12" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="177">
-        <f>Calculation!$H38</f>
-        <v>2.2955573769741192E-3</v>
+      <c r="J12" s="239">
+        <f>ROUND(Calculation!$H38,6)</f>
+        <v>2.3180000000000002E-3</v>
       </c>
       <c r="K12" s="169"/>
-      <c r="L12" s="182">
+      <c r="L12" s="179">
         <v>2.2955573769495052E-3</v>
       </c>
       <c r="M12" s="153"/>
-      <c r="N12" s="185">
-        <v>2.2955573769741192E-3</v>
-      </c>
-      <c r="O12" s="186">
+      <c r="N12" s="182">
+        <v>2.3180000000000002E-3</v>
+      </c>
+      <c r="O12" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="207"/>
+      <c r="P12" s="204"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="222"/>
-      <c r="B13" s="217" t="s">
+      <c r="A13" s="219"/>
+      <c r="B13" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="203" t="str">
+      <c r="C13" s="200" t="str">
         <f t="shared" si="1"/>
         <v>USD2MD_SYNTH3M_Quote</v>
       </c>
-      <c r="D13" s="203" t="str">
+      <c r="D13" s="200" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD2MD_SYNTH3M_Quote#0000</v>
       </c>
-      <c r="E13" s="216" t="str">
+      <c r="E13" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
         <v/>
       </c>
-      <c r="F13" s="215"/>
-      <c r="H13" s="206"/>
+      <c r="F13" s="212"/>
+      <c r="H13" s="203"/>
       <c r="I13" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="177">
-        <f>Calculation!$H39</f>
-        <v>2.2727522851919493E-3</v>
+      <c r="J13" s="239">
+        <f>ROUND(Calculation!$H39,6)</f>
+        <v>2.281E-3</v>
       </c>
       <c r="K13" s="169"/>
-      <c r="L13" s="182">
+      <c r="L13" s="179">
         <v>2.2727522851857572E-3</v>
       </c>
       <c r="M13" s="153"/>
-      <c r="N13" s="185">
-        <v>2.2727522851919493E-3</v>
-      </c>
-      <c r="O13" s="186">
+      <c r="N13" s="182">
+        <v>2.281E-3</v>
+      </c>
+      <c r="O13" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="207"/>
+      <c r="P13" s="204"/>
     </row>
     <row r="14" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="224"/>
-      <c r="B14" s="209" t="s">
+      <c r="A14" s="221"/>
+      <c r="B14" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="210" t="str">
+      <c r="C14" s="207" t="str">
         <f t="shared" si="1"/>
         <v>USD3MD_SYNTH3M_Quote</v>
       </c>
-      <c r="D14" s="210" t="str">
+      <c r="D14" s="207" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD3MD_SYNTH3M_Quote#0000</v>
       </c>
-      <c r="E14" s="225" t="str">
+      <c r="E14" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
         <v/>
       </c>
-      <c r="F14" s="215"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="180" t="s">
+      <c r="F14" s="212"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="181">
-        <f>Calculation!$H40</f>
-        <v>2.2484999999999983E-3</v>
-      </c>
-      <c r="K14" s="223"/>
-      <c r="L14" s="184">
+      <c r="J14" s="240">
+        <f>ROUND(Calculation!$H40,6)</f>
+        <v>2.2490000000000001E-3</v>
+      </c>
+      <c r="K14" s="220"/>
+      <c r="L14" s="181">
         <v>2.2484999999999988E-3</v>
       </c>
-      <c r="M14" s="223"/>
-      <c r="N14" s="189">
-        <v>2.2484999999999983E-3</v>
-      </c>
-      <c r="O14" s="190">
+      <c r="M14" s="220"/>
+      <c r="N14" s="186">
+        <v>2.2490000000000001E-3</v>
+      </c>
+      <c r="O14" s="187">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="223"/>
+      <c r="P14" s="220"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="220">
+      <c r="A15" s="217">
         <v>6</v>
       </c>
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="203" t="str">
+      <c r="C15" s="200" t="str">
         <f t="shared" ref="C15:C24" si="2">Currency&amp;$B15&amp;"_SYNTH"&amp;Tenor6M&amp;QuoteSuffix</f>
         <v>USDSND_SYNTH6M_Quote</v>
       </c>
-      <c r="D15" s="213" t="str">
+      <c r="D15" s="210" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USDSND_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E15" s="214" t="str">
+      <c r="E15" s="211" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
         <v/>
       </c>
-      <c r="F15" s="215"/>
-      <c r="H15" s="206"/>
+      <c r="F15" s="212"/>
+      <c r="H15" s="203"/>
       <c r="I15" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="177">
-        <f>Calculation!$I34</f>
-        <v>3.2232660128231659E-3</v>
+      <c r="J15" s="238">
+        <f>ROUND(Calculation!$I34,6)</f>
+        <v>3.179E-3</v>
       </c>
       <c r="K15" s="169"/>
-      <c r="L15" s="182">
+      <c r="L15" s="179">
         <v>3.198244841023011E-3</v>
       </c>
       <c r="M15" s="153"/>
-      <c r="N15" s="185">
-        <v>3.2232660128231659E-3</v>
-      </c>
-      <c r="O15" s="186">
+      <c r="N15" s="182">
+        <v>3.179E-3</v>
+      </c>
+      <c r="O15" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="207">
+      <c r="P15" s="204">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>474</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="218" t="str">
+      <c r="A16" s="215" t="str">
         <f>_xll.qlPeriodEquivalent(Months6M&amp;"M")</f>
         <v>6M</v>
       </c>
-      <c r="B16" s="208" t="s">
+      <c r="B16" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="203" t="str">
+      <c r="C16" s="200" t="str">
         <f t="shared" si="2"/>
         <v>USDSWD_SYNTH6M_Quote</v>
       </c>
-      <c r="D16" s="203" t="str">
+      <c r="D16" s="200" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USDSWD_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E16" s="216" t="str">
+      <c r="E16" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
         <v/>
       </c>
-      <c r="F16" s="215"/>
-      <c r="H16" s="206"/>
+      <c r="F16" s="212"/>
+      <c r="H16" s="203"/>
       <c r="I16" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="177">
-        <f>Calculation!$I35</f>
-        <v>3.2170289684356566E-3</v>
+      <c r="J16" s="239">
+        <f>ROUND(Calculation!$I35,6)</f>
+        <v>3.1770000000000001E-3</v>
       </c>
       <c r="K16" s="169"/>
-      <c r="L16" s="182">
+      <c r="L16" s="179">
         <v>3.1932773442126367E-3</v>
       </c>
       <c r="M16" s="153"/>
-      <c r="N16" s="185">
-        <v>3.2170289684356566E-3</v>
-      </c>
-      <c r="O16" s="186">
+      <c r="N16" s="182">
+        <v>3.1770000000000001E-3</v>
+      </c>
+      <c r="O16" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="207"/>
+      <c r="P16" s="204"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="221"/>
-      <c r="B17" s="217" t="s">
+      <c r="A17" s="218"/>
+      <c r="B17" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="203" t="str">
+      <c r="C17" s="200" t="str">
         <f t="shared" si="2"/>
         <v>USD2WD_SYNTH6M_Quote</v>
       </c>
-      <c r="D17" s="203" t="str">
+      <c r="D17" s="200" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD2WD_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E17" s="216" t="str">
+      <c r="E17" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
         <v/>
       </c>
-      <c r="F17" s="215"/>
-      <c r="H17" s="206"/>
+      <c r="F17" s="212"/>
+      <c r="H17" s="203"/>
       <c r="I17" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="177">
-        <f>Calculation!$I36</f>
-        <v>3.2098569583606071E-3</v>
+      <c r="J17" s="239">
+        <f>ROUND(Calculation!$I36,6)</f>
+        <v>3.1719999999999999E-3</v>
       </c>
       <c r="K17" s="169"/>
-      <c r="L17" s="182">
+      <c r="L17" s="179">
         <v>3.1875393150908008E-3</v>
       </c>
       <c r="M17" s="153"/>
-      <c r="N17" s="185">
-        <v>3.2098569583606071E-3</v>
-      </c>
-      <c r="O17" s="186">
+      <c r="N17" s="182">
+        <v>3.1719999999999999E-3</v>
+      </c>
+      <c r="O17" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="207"/>
+      <c r="P17" s="204"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="222"/>
-      <c r="B18" s="217" t="s">
+      <c r="A18" s="219"/>
+      <c r="B18" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="203" t="str">
+      <c r="C18" s="200" t="str">
         <f t="shared" si="2"/>
         <v>USD3WD_SYNTH6M_Quote</v>
       </c>
-      <c r="D18" s="203" t="str">
+      <c r="D18" s="200" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD3WD_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E18" s="216" t="str">
+      <c r="E18" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
         <v/>
       </c>
-      <c r="F18" s="215"/>
-      <c r="H18" s="206"/>
+      <c r="F18" s="212"/>
+      <c r="H18" s="203"/>
       <c r="I18" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="177">
-        <f>Calculation!$I37</f>
-        <v>3.2027975316952454E-3</v>
+      <c r="J18" s="239">
+        <f>ROUND(Calculation!$I37,6)</f>
+        <v>3.1679999999999998E-3</v>
       </c>
       <c r="K18" s="169"/>
-      <c r="L18" s="182">
+      <c r="L18" s="179">
         <v>3.1818630839621233E-3</v>
       </c>
       <c r="M18" s="153"/>
-      <c r="N18" s="185">
-        <v>3.2027975316952454E-3</v>
-      </c>
-      <c r="O18" s="186">
+      <c r="N18" s="182">
+        <v>3.1679999999999998E-3</v>
+      </c>
+      <c r="O18" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="207"/>
+      <c r="P18" s="204"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="222"/>
-      <c r="B19" s="217" t="s">
+      <c r="A19" s="219"/>
+      <c r="B19" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="203" t="str">
+      <c r="C19" s="200" t="str">
         <f t="shared" si="2"/>
         <v>USD1MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D19" s="203" t="str">
+      <c r="D19" s="200" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD1MD_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E19" s="216" t="str">
+      <c r="E19" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
         <v/>
       </c>
-      <c r="F19" s="215"/>
-      <c r="H19" s="206"/>
+      <c r="F19" s="212"/>
+      <c r="H19" s="203"/>
       <c r="I19" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="177">
-        <f>Calculation!$I38</f>
-        <v>3.1919316112957283E-3</v>
+      <c r="J19" s="239">
+        <f>ROUND(Calculation!$I38,6)</f>
+        <v>3.1610000000000002E-3</v>
       </c>
       <c r="K19" s="169"/>
-      <c r="L19" s="182">
+      <c r="L19" s="179">
         <v>3.1730681492786942E-3</v>
       </c>
       <c r="M19" s="153"/>
-      <c r="N19" s="185">
-        <v>3.1919316112957283E-3</v>
-      </c>
-      <c r="O19" s="186">
+      <c r="N19" s="182">
+        <v>3.1610000000000002E-3</v>
+      </c>
+      <c r="O19" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="207"/>
+      <c r="P19" s="204"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="222"/>
-      <c r="B20" s="217" t="s">
+      <c r="A20" s="219"/>
+      <c r="B20" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="203" t="str">
+      <c r="C20" s="200" t="str">
         <f t="shared" si="2"/>
         <v>USD2MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D20" s="203" t="str">
+      <c r="D20" s="200" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD2MD_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E20" s="216" t="str">
+      <c r="E20" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
         <v/>
       </c>
-      <c r="F20" s="215"/>
-      <c r="H20" s="206"/>
+      <c r="F20" s="212"/>
+      <c r="H20" s="203"/>
       <c r="I20" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="177">
-        <f>Calculation!$I39</f>
-        <v>3.2146177150994626E-3</v>
+      <c r="J20" s="239">
+        <f>ROUND(Calculation!$I39,6)</f>
+        <v>3.192E-3</v>
       </c>
       <c r="K20" s="169"/>
-      <c r="L20" s="182">
+      <c r="L20" s="179">
         <v>3.2006129910139782E-3</v>
       </c>
       <c r="M20" s="153"/>
-      <c r="N20" s="185">
-        <v>3.2146177150994626E-3</v>
-      </c>
-      <c r="O20" s="186">
+      <c r="N20" s="182">
+        <v>3.192E-3</v>
+      </c>
+      <c r="O20" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="207"/>
+      <c r="P20" s="204"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="222"/>
-      <c r="B21" s="217" t="s">
+      <c r="A21" s="219"/>
+      <c r="B21" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="203" t="str">
+      <c r="C21" s="200" t="str">
         <f t="shared" si="2"/>
         <v>USD3MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D21" s="203" t="str">
+      <c r="D21" s="200" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD3MD_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E21" s="216" t="str">
+      <c r="E21" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
         <v/>
       </c>
-      <c r="F21" s="215"/>
-      <c r="H21" s="206"/>
+      <c r="F21" s="212"/>
+      <c r="H21" s="203"/>
       <c r="I21" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="177">
-        <f>Calculation!$I40</f>
-        <v>3.2175568888820035E-3</v>
+      <c r="J21" s="239">
+        <f>ROUND(Calculation!$I40,6)</f>
+        <v>3.2009999999999999E-3</v>
       </c>
       <c r="K21" s="169"/>
-      <c r="L21" s="182">
+      <c r="L21" s="179">
         <v>3.2077821016256772E-3</v>
       </c>
       <c r="M21" s="153"/>
-      <c r="N21" s="185">
-        <v>3.2175568888820035E-3</v>
-      </c>
-      <c r="O21" s="186">
+      <c r="N21" s="182">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="O21" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="207"/>
+      <c r="P21" s="204"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="222"/>
-      <c r="B22" s="217" t="s">
+      <c r="A22" s="219"/>
+      <c r="B22" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="203" t="str">
+      <c r="C22" s="200" t="str">
         <f t="shared" si="2"/>
         <v>USD4MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D22" s="203" t="str">
+      <c r="D22" s="200" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD4MD_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E22" s="216" t="str">
+      <c r="E22" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
         <v/>
       </c>
-      <c r="F22" s="215"/>
-      <c r="H22" s="206"/>
+      <c r="F22" s="212"/>
+      <c r="H22" s="203"/>
       <c r="I22" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="177">
-        <f>Calculation!$I41</f>
-        <v>3.2127040748211495E-3</v>
+      <c r="J22" s="239">
+        <f>ROUND(Calculation!$I41,6)</f>
+        <v>3.2030000000000001E-3</v>
       </c>
       <c r="K22" s="169"/>
-      <c r="L22" s="182">
+      <c r="L22" s="179">
         <v>3.2061632083677663E-3</v>
       </c>
       <c r="M22" s="153"/>
-      <c r="N22" s="185">
-        <v>3.2127040748211495E-3</v>
-      </c>
-      <c r="O22" s="186">
+      <c r="N22" s="182">
+        <v>3.2030000000000001E-3</v>
+      </c>
+      <c r="O22" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="207"/>
+      <c r="P22" s="204"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="222"/>
-      <c r="B23" s="217" t="s">
+      <c r="A23" s="219"/>
+      <c r="B23" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="203" t="str">
+      <c r="C23" s="200" t="str">
         <f t="shared" si="2"/>
         <v>USD5MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D23" s="203" t="str">
+      <c r="D23" s="200" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD5MD_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E23" s="216" t="str">
+      <c r="E23" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
         <v/>
       </c>
-      <c r="F23" s="215"/>
-      <c r="H23" s="206"/>
+      <c r="F23" s="212"/>
+      <c r="H23" s="203"/>
       <c r="I23" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="177">
-        <f>Calculation!$I42</f>
-        <v>3.2207552880453546E-3</v>
+      <c r="J23" s="239">
+        <f>ROUND(Calculation!$I42,6)</f>
+        <v>3.215E-3</v>
       </c>
       <c r="K23" s="169"/>
-      <c r="L23" s="182">
+      <c r="L23" s="179">
         <v>3.2163956824481127E-3</v>
       </c>
       <c r="M23" s="153"/>
-      <c r="N23" s="185">
-        <v>3.2207552880453546E-3</v>
-      </c>
-      <c r="O23" s="186">
+      <c r="N23" s="182">
+        <v>3.215E-3</v>
+      </c>
+      <c r="O23" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="207"/>
+      <c r="P23" s="204"/>
     </row>
     <row r="24" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="224"/>
-      <c r="B24" s="209" t="s">
+      <c r="A24" s="221"/>
+      <c r="B24" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="210" t="str">
+      <c r="C24" s="207" t="str">
         <f t="shared" si="2"/>
         <v>USD6MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D24" s="210" t="str">
+      <c r="D24" s="207" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD6MD_SYNTH6M_Quote#0000</v>
       </c>
-      <c r="E24" s="225" t="str">
+      <c r="E24" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
         <v/>
       </c>
-      <c r="F24" s="226"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="180" t="s">
+      <c r="F24" s="223"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="181">
-        <f>Calculation!$I43</f>
-        <v>3.2290000000000096E-3</v>
-      </c>
-      <c r="K24" s="228"/>
-      <c r="L24" s="184">
+      <c r="J24" s="240">
+        <f>ROUND(Calculation!$I43,6)</f>
+        <v>3.2260000000000001E-3</v>
+      </c>
+      <c r="K24" s="225"/>
+      <c r="L24" s="181">
         <v>3.2259624050081544E-3</v>
       </c>
-      <c r="M24" s="229"/>
-      <c r="N24" s="189">
-        <v>3.2290000000000096E-3</v>
-      </c>
-      <c r="O24" s="190">
+      <c r="M24" s="226"/>
+      <c r="N24" s="186">
+        <v>3.2260000000000001E-3</v>
+      </c>
+      <c r="O24" s="187">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="230"/>
+      <c r="P24" s="227"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="220">
+      <c r="A25" s="217">
         <v>12</v>
       </c>
-      <c r="B25" s="212" t="s">
+      <c r="B25" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="203" t="str">
+      <c r="C25" s="200" t="str">
         <f t="shared" ref="C25:C40" si="3">Currency&amp;$B25&amp;"_SYNTH"&amp;Tenor12M&amp;QuoteSuffix</f>
         <v>USDSND_SYNTH1Y_Quote</v>
       </c>
-      <c r="D25" s="213" t="str">
+      <c r="D25" s="210" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USDSND_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E25" s="214" t="str">
+      <c r="E25" s="211" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
         <v/>
       </c>
-      <c r="F25" s="215"/>
-      <c r="H25" s="206"/>
+      <c r="F25" s="212"/>
+      <c r="H25" s="203"/>
       <c r="I25" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="177">
-        <f>Calculation!$J34</f>
-        <v>4.9559999999626283E-3</v>
+      <c r="J25" s="238">
+        <f>ROUND(Calculation!$J34,6)</f>
+        <v>4.9649999999999998E-3</v>
       </c>
       <c r="K25" s="169"/>
-      <c r="L25" s="182">
+      <c r="L25" s="179">
         <v>4.9585255903646479E-3</v>
       </c>
       <c r="M25" s="153"/>
-      <c r="N25" s="185">
-        <v>4.9559999999626283E-3</v>
-      </c>
-      <c r="O25" s="186">
+      <c r="N25" s="182">
+        <v>4.9649999999999998E-3</v>
+      </c>
+      <c r="O25" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND(N25,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="207">
+      <c r="P25" s="204">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>474</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="218" t="str">
+      <c r="A26" s="215" t="str">
         <f>_xll.qlPeriodEquivalent(Months12M&amp;"M")</f>
         <v>1Y</v>
       </c>
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="203" t="str">
+      <c r="C26" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USDSWD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D26" s="203" t="str">
+      <c r="D26" s="200" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USDSWD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E26" s="216" t="str">
+      <c r="E26" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
         <v/>
       </c>
-      <c r="F26" s="215"/>
-      <c r="H26" s="206"/>
+      <c r="F26" s="212"/>
+      <c r="H26" s="203"/>
       <c r="I26" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="177">
-        <f>Calculation!$J35</f>
-        <v>4.9559999999626283E-3</v>
+      <c r="J26" s="239">
+        <f>ROUND(Calculation!$J35,6)</f>
+        <v>4.9649999999999998E-3</v>
       </c>
       <c r="K26" s="169"/>
-      <c r="L26" s="182">
+      <c r="L26" s="179">
         <v>4.9585255903646479E-3</v>
       </c>
       <c r="M26" s="153"/>
-      <c r="N26" s="185">
-        <v>4.9559999999626283E-3</v>
-      </c>
-      <c r="O26" s="186">
+      <c r="N26" s="182">
+        <v>4.9649999999999998E-3</v>
+      </c>
+      <c r="O26" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND(N26,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="207"/>
+      <c r="P26" s="204"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="222"/>
-      <c r="B27" s="217" t="s">
+      <c r="A27" s="219"/>
+      <c r="B27" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="203" t="str">
+      <c r="C27" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD2WD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D27" s="203" t="str">
+      <c r="D27" s="200" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD2WD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E27" s="216" t="str">
+      <c r="E27" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
         <v/>
       </c>
-      <c r="F27" s="215"/>
-      <c r="H27" s="206"/>
+      <c r="F27" s="212"/>
+      <c r="H27" s="203"/>
       <c r="I27" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="177">
-        <f>Calculation!$J36</f>
-        <v>4.9559999999283693E-3</v>
+      <c r="J27" s="239">
+        <f>ROUND(Calculation!$J36,6)</f>
+        <v>4.9649999999999998E-3</v>
       </c>
       <c r="K27" s="169"/>
-      <c r="L27" s="182">
+      <c r="L27" s="179">
         <v>4.9585255903303888E-3</v>
       </c>
       <c r="M27" s="153"/>
-      <c r="N27" s="185">
-        <v>4.9559999999283693E-3</v>
-      </c>
-      <c r="O27" s="186">
+      <c r="N27" s="182">
+        <v>4.9649999999999998E-3</v>
+      </c>
+      <c r="O27" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND(N27,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="207"/>
+      <c r="P27" s="204"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="222"/>
-      <c r="B28" s="217" t="s">
+      <c r="A28" s="219"/>
+      <c r="B28" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="203" t="str">
+      <c r="C28" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD3WD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D28" s="203" t="str">
+      <c r="D28" s="200" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD3WD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E28" s="216" t="str">
+      <c r="E28" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
         <v/>
       </c>
-      <c r="F28" s="215"/>
-      <c r="H28" s="206"/>
+      <c r="F28" s="212"/>
+      <c r="H28" s="203"/>
       <c r="I28" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="177">
-        <f>Calculation!$J37</f>
-        <v>4.9559999998864982E-3</v>
+      <c r="J28" s="239">
+        <f>ROUND(Calculation!$J37,6)</f>
+        <v>4.9649999999999998E-3</v>
       </c>
       <c r="K28" s="169"/>
-      <c r="L28" s="182">
+      <c r="L28" s="179">
         <v>4.9585255902885178E-3</v>
       </c>
       <c r="M28" s="153"/>
-      <c r="N28" s="185">
-        <v>4.9559999998864982E-3</v>
-      </c>
-      <c r="O28" s="186">
+      <c r="N28" s="182">
+        <v>4.9649999999999998E-3</v>
+      </c>
+      <c r="O28" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND(N28,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="207"/>
+      <c r="P28" s="204"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="222"/>
-      <c r="B29" s="217" t="s">
+      <c r="A29" s="219"/>
+      <c r="B29" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="203" t="str">
+      <c r="C29" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD1MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D29" s="203" t="str">
+      <c r="D29" s="200" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD1MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E29" s="216" t="str">
+      <c r="E29" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
         <v/>
       </c>
-      <c r="F29" s="215"/>
-      <c r="H29" s="206"/>
+      <c r="F29" s="212"/>
+      <c r="H29" s="203"/>
       <c r="I29" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="177">
-        <f>Calculation!$J38</f>
-        <v>4.9559999997256746E-3</v>
+      <c r="J29" s="239">
+        <f>ROUND(Calculation!$J38,6)</f>
+        <v>4.9649999999999998E-3</v>
       </c>
       <c r="K29" s="169"/>
-      <c r="L29" s="182">
+      <c r="L29" s="179">
         <v>4.9585255901276942E-3</v>
       </c>
       <c r="M29" s="153"/>
-      <c r="N29" s="185">
-        <v>4.9559999997256746E-3</v>
-      </c>
-      <c r="O29" s="186">
+      <c r="N29" s="182">
+        <v>4.9649999999999998E-3</v>
+      </c>
+      <c r="O29" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND(N29,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="207"/>
+      <c r="P29" s="204"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="222"/>
-      <c r="B30" s="217" t="s">
+      <c r="A30" s="219"/>
+      <c r="B30" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="203" t="str">
+      <c r="C30" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD2MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D30" s="203" t="str">
+      <c r="D30" s="200" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD2MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E30" s="216" t="str">
+      <c r="E30" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
         <v/>
       </c>
-      <c r="F30" s="215"/>
-      <c r="H30" s="206"/>
+      <c r="F30" s="212"/>
+      <c r="H30" s="203"/>
       <c r="I30" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="J30" s="177">
-        <f>Calculation!$J39</f>
-        <v>5.0060000004808081E-3</v>
+      <c r="J30" s="239">
+        <f>ROUND(Calculation!$J39,6)</f>
+        <v>5.0150000000000004E-3</v>
       </c>
       <c r="K30" s="169"/>
-      <c r="L30" s="182">
+      <c r="L30" s="179">
         <v>5.0085255908828277E-3</v>
       </c>
       <c r="M30" s="153"/>
-      <c r="N30" s="185">
-        <v>5.0060000004808081E-3</v>
-      </c>
-      <c r="O30" s="186">
+      <c r="N30" s="182">
+        <v>5.0150000000000004E-3</v>
+      </c>
+      <c r="O30" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND(N30,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="207"/>
+      <c r="P30" s="204"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="222"/>
-      <c r="B31" s="217" t="s">
+      <c r="A31" s="219"/>
+      <c r="B31" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="203" t="str">
+      <c r="C31" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD3MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D31" s="203" t="str">
+      <c r="D31" s="200" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD3MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E31" s="216" t="str">
+      <c r="E31" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
         <v/>
       </c>
-      <c r="F31" s="215"/>
-      <c r="H31" s="206"/>
+      <c r="F31" s="212"/>
+      <c r="H31" s="203"/>
       <c r="I31" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="177">
-        <f>Calculation!$J40</f>
-        <v>5.0360000009379256E-3</v>
+      <c r="J31" s="239">
+        <f>ROUND(Calculation!$J40,6)</f>
+        <v>5.045E-3</v>
       </c>
       <c r="K31" s="169"/>
-      <c r="L31" s="182">
+      <c r="L31" s="179">
         <v>5.0385255913399443E-3</v>
       </c>
       <c r="M31" s="153"/>
-      <c r="N31" s="185">
-        <v>5.0360000009379256E-3</v>
-      </c>
-      <c r="O31" s="186">
+      <c r="N31" s="182">
+        <v>5.045E-3</v>
+      </c>
+      <c r="O31" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND(N31,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="207"/>
+      <c r="P31" s="204"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="222"/>
-      <c r="B32" s="217" t="s">
+      <c r="A32" s="219"/>
+      <c r="B32" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="203" t="str">
+      <c r="C32" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD4MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D32" s="203" t="str">
+      <c r="D32" s="200" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD4MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E32" s="216" t="str">
+      <c r="E32" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
         <v/>
       </c>
-      <c r="F32" s="215"/>
-      <c r="H32" s="206"/>
+      <c r="F32" s="212"/>
+      <c r="H32" s="203"/>
       <c r="I32" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="177">
-        <f>Calculation!$J41</f>
-        <v>5.0560000000000943E-3</v>
+      <c r="J32" s="239">
+        <f>ROUND(Calculation!$J41,6)</f>
+        <v>5.0650000000000001E-3</v>
       </c>
       <c r="K32" s="169"/>
-      <c r="L32" s="182">
+      <c r="L32" s="179">
         <v>5.0585255904021138E-3</v>
       </c>
       <c r="M32" s="153"/>
-      <c r="N32" s="185">
-        <v>5.0560000000000943E-3</v>
-      </c>
-      <c r="O32" s="186">
+      <c r="N32" s="182">
+        <v>5.0650000000000001E-3</v>
+      </c>
+      <c r="O32" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND(N32,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="207"/>
+      <c r="P32" s="204"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="222"/>
-      <c r="B33" s="217" t="s">
+      <c r="A33" s="219"/>
+      <c r="B33" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="203" t="str">
+      <c r="C33" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD5MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D33" s="203" t="str">
+      <c r="D33" s="200" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD5MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E33" s="216" t="str">
+      <c r="E33" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
         <v/>
       </c>
-      <c r="F33" s="215"/>
-      <c r="H33" s="206"/>
+      <c r="F33" s="212"/>
+      <c r="H33" s="203"/>
       <c r="I33" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="177">
-        <f>Calculation!$J42</f>
-        <v>5.0859999997016573E-3</v>
+      <c r="J33" s="239">
+        <f>ROUND(Calculation!$J42,6)</f>
+        <v>5.0949999999999997E-3</v>
       </c>
       <c r="K33" s="169"/>
-      <c r="L33" s="182">
+      <c r="L33" s="179">
         <v>5.0885255901036769E-3</v>
       </c>
       <c r="M33" s="153"/>
-      <c r="N33" s="185">
-        <v>5.0859999997016573E-3</v>
-      </c>
-      <c r="O33" s="186">
+      <c r="N33" s="182">
+        <v>5.0949999999999997E-3</v>
+      </c>
+      <c r="O33" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND(N33,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="207"/>
+      <c r="P33" s="204"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="222"/>
-      <c r="B34" s="217" t="s">
+      <c r="A34" s="219"/>
+      <c r="B34" s="214" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="203" t="str">
+      <c r="C34" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD6MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D34" s="203" t="str">
+      <c r="D34" s="200" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD6MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E34" s="216" t="str">
+      <c r="E34" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
         <v/>
       </c>
-      <c r="F34" s="215"/>
-      <c r="H34" s="206"/>
+      <c r="F34" s="212"/>
+      <c r="H34" s="203"/>
       <c r="I34" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="177">
-        <f>Calculation!$J43</f>
-        <v>5.1160000000000953E-3</v>
+      <c r="J34" s="239">
+        <f>ROUND(Calculation!$J43,6)</f>
+        <v>5.1250000000000002E-3</v>
       </c>
       <c r="K34" s="169"/>
-      <c r="L34" s="182">
+      <c r="L34" s="179">
         <v>5.1185255904021149E-3</v>
       </c>
       <c r="M34" s="153"/>
-      <c r="N34" s="185">
-        <v>5.1160000000000953E-3</v>
-      </c>
-      <c r="O34" s="186">
+      <c r="N34" s="182">
+        <v>5.1250000000000002E-3</v>
+      </c>
+      <c r="O34" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND(N34,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P34" s="207"/>
+      <c r="P34" s="204"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="222"/>
-      <c r="B35" s="217" t="s">
+      <c r="A35" s="219"/>
+      <c r="B35" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="203" t="str">
+      <c r="C35" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD7MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D35" s="203" t="str">
+      <c r="D35" s="200" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD7MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E35" s="216" t="str">
+      <c r="E35" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
         <v/>
       </c>
-      <c r="F35" s="215"/>
-      <c r="H35" s="206"/>
+      <c r="F35" s="212"/>
+      <c r="H35" s="203"/>
       <c r="I35" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="177">
-        <f>Calculation!$J44</f>
-        <v>5.1359999999997944E-3</v>
+      <c r="J35" s="239">
+        <f>ROUND(Calculation!$J44,6)</f>
+        <v>5.1450000000000003E-3</v>
       </c>
       <c r="K35" s="169"/>
-      <c r="L35" s="182">
+      <c r="L35" s="179">
         <v>5.1385255904018139E-3</v>
       </c>
       <c r="M35" s="153"/>
-      <c r="N35" s="185">
-        <v>5.1359999999997944E-3</v>
-      </c>
-      <c r="O35" s="186">
+      <c r="N35" s="182">
+        <v>5.1450000000000003E-3</v>
+      </c>
+      <c r="O35" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="207"/>
+      <c r="P35" s="204"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="222"/>
-      <c r="B36" s="217" t="s">
+      <c r="A36" s="219"/>
+      <c r="B36" s="214" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="203" t="str">
+      <c r="C36" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD8MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D36" s="203" t="str">
+      <c r="D36" s="200" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD8MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E36" s="216" t="str">
+      <c r="E36" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
         <v/>
       </c>
-      <c r="F36" s="215"/>
-      <c r="H36" s="206"/>
+      <c r="F36" s="212"/>
+      <c r="H36" s="203"/>
       <c r="I36" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="J36" s="177">
-        <f>Calculation!$J45</f>
-        <v>5.1759999999997953E-3</v>
+      <c r="J36" s="239">
+        <f>ROUND(Calculation!$J45,6)</f>
+        <v>5.1850000000000004E-3</v>
       </c>
       <c r="K36" s="169"/>
-      <c r="L36" s="182">
+      <c r="L36" s="179">
         <v>5.1785255904018158E-3</v>
       </c>
       <c r="M36" s="153"/>
-      <c r="N36" s="185">
-        <v>5.1759999999997953E-3</v>
-      </c>
-      <c r="O36" s="186">
+      <c r="N36" s="182">
+        <v>5.1850000000000004E-3</v>
+      </c>
+      <c r="O36" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="207"/>
+      <c r="P36" s="204"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="222"/>
-      <c r="B37" s="217" t="s">
+      <c r="A37" s="219"/>
+      <c r="B37" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="203" t="str">
+      <c r="C37" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD9MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D37" s="203" t="str">
+      <c r="D37" s="200" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD9MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E37" s="216" t="str">
+      <c r="E37" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
         <v/>
       </c>
-      <c r="F37" s="215"/>
-      <c r="H37" s="206"/>
+      <c r="F37" s="212"/>
+      <c r="H37" s="203"/>
       <c r="I37" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="J37" s="177">
-        <f>Calculation!$J46</f>
-        <v>5.2260000000001212E-3</v>
+      <c r="J37" s="239">
+        <f>ROUND(Calculation!$J46,6)</f>
+        <v>5.2350000000000001E-3</v>
       </c>
       <c r="K37" s="169"/>
-      <c r="L37" s="182">
+      <c r="L37" s="179">
         <v>5.2285255904021399E-3</v>
       </c>
       <c r="M37" s="153"/>
-      <c r="N37" s="185">
-        <v>5.2260000000001212E-3</v>
-      </c>
-      <c r="O37" s="186">
+      <c r="N37" s="182">
+        <v>5.2350000000000001E-3</v>
+      </c>
+      <c r="O37" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND(N37,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="207"/>
+      <c r="P37" s="204"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="222"/>
-      <c r="B38" s="217" t="s">
+      <c r="A38" s="219"/>
+      <c r="B38" s="214" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="203" t="str">
+      <c r="C38" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD10MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D38" s="203" t="str">
+      <c r="D38" s="200" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD10MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E38" s="216" t="str">
+      <c r="E38" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
         <v/>
       </c>
-      <c r="F38" s="215"/>
-      <c r="H38" s="206"/>
+      <c r="F38" s="212"/>
+      <c r="H38" s="203"/>
       <c r="I38" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="J38" s="177">
-        <f>Calculation!$J47</f>
-        <v>5.2759999999996195E-3</v>
+      <c r="J38" s="239">
+        <f>ROUND(Calculation!$J47,6)</f>
+        <v>5.2849999999999998E-3</v>
       </c>
       <c r="K38" s="169"/>
-      <c r="L38" s="182">
+      <c r="L38" s="179">
         <v>5.2785255904016382E-3</v>
       </c>
       <c r="M38" s="153"/>
-      <c r="N38" s="185">
-        <v>5.2759999999996195E-3</v>
-      </c>
-      <c r="O38" s="186">
+      <c r="N38" s="182">
+        <v>5.2849999999999998E-3</v>
+      </c>
+      <c r="O38" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND(N38,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P38" s="207"/>
+      <c r="P38" s="204"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="222"/>
-      <c r="B39" s="217" t="s">
+      <c r="A39" s="219"/>
+      <c r="B39" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="203" t="str">
+      <c r="C39" s="200" t="str">
         <f t="shared" si="3"/>
         <v>USD11MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D39" s="203" t="str">
+      <c r="D39" s="200" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD11MD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E39" s="216" t="str">
+      <c r="E39" s="213" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
         <v/>
       </c>
-      <c r="F39" s="215"/>
-      <c r="H39" s="206"/>
+      <c r="F39" s="212"/>
+      <c r="H39" s="203"/>
       <c r="I39" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="177">
-        <f>Calculation!$J48</f>
-        <v>5.3560000000000179E-3</v>
+      <c r="J39" s="239">
+        <f>ROUND(Calculation!$J48,6)</f>
+        <v>5.365E-3</v>
       </c>
       <c r="K39" s="169"/>
-      <c r="L39" s="182">
+      <c r="L39" s="179">
         <v>5.3585255904020374E-3</v>
       </c>
       <c r="M39" s="153"/>
-      <c r="N39" s="185">
-        <v>5.3560000000000179E-3</v>
-      </c>
-      <c r="O39" s="186">
+      <c r="N39" s="182">
+        <v>5.365E-3</v>
+      </c>
+      <c r="O39" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND(N39,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P39" s="207"/>
+      <c r="P39" s="204"/>
     </row>
     <row r="40" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="224"/>
-      <c r="B40" s="209" t="s">
+      <c r="A40" s="221"/>
+      <c r="B40" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="210" t="str">
+      <c r="C40" s="207" t="str">
         <f t="shared" si="3"/>
         <v>USD1YD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D40" s="210" t="str">
+      <c r="D40" s="207" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
         <v>USD1YD_SYNTH1Y_Quote#0000</v>
       </c>
-      <c r="E40" s="225" t="str">
+      <c r="E40" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
         <v/>
       </c>
-      <c r="F40" s="226"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="180" t="s">
+      <c r="F40" s="223"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="J40" s="181">
-        <f>Calculation!$J49</f>
-        <v>5.4359999999999999E-3</v>
-      </c>
-      <c r="K40" s="228"/>
-      <c r="L40" s="184">
+      <c r="J40" s="240">
+        <f>ROUND(Calculation!$J49,6)</f>
+        <v>5.4450000000000002E-3</v>
+      </c>
+      <c r="K40" s="225"/>
+      <c r="L40" s="181">
         <v>5.4385255904020194E-3</v>
       </c>
-      <c r="M40" s="229"/>
-      <c r="N40" s="189">
-        <v>5.4359999999999999E-3</v>
-      </c>
-      <c r="O40" s="190">
+      <c r="M40" s="226"/>
+      <c r="N40" s="186">
+        <v>5.4450000000000002E-3</v>
+      </c>
+      <c r="O40" s="187">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="230"/>
+      <c r="P40" s="227"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-15" windowWidth="19140" windowHeight="12015" activeTab="3"/>
+    <workbookView xWindow="19095" yWindow="-15" windowWidth="19140" windowHeight="12015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="4" r:id="rId1"/>
@@ -1468,6 +1468,10 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="46" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="34" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="33" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1486,10 +1490,6 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="46" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="34" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="33" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Euro" xfId="1"/>
@@ -2161,19 +2161,19 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="236" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="234"/>
-      <c r="H2" s="235" t="s">
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="238"/>
+      <c r="H2" s="239" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="237"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="241"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B3" s="142"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="D10" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="143"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="D14" s="51" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_002fd#0000</v>
+        <v>obj_002fc#0000</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="143"/>
@@ -2592,7 +2592,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="152">
-        <v>41766.702766203707</v>
+        <v>41768.417488425926</v>
       </c>
       <c r="D2" s="59"/>
       <c r="E2" s="60"/>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C3" s="151">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -8055,8 +8055,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031d#0000</v>
+        <v>obj_00315#0000</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -8150,11 +8150,11 @@
       </c>
       <c r="E2" s="112">
         <f>SettlementDate</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F2" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
       <c r="G2" s="114">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
@@ -8162,11 +8162,11 @@
       </c>
       <c r="H2" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>8.4999999920427395E-4</v>
+        <v>8.4999999730385868E-4</v>
       </c>
       <c r="I2" s="116">
         <f>G2-H2</f>
-        <v>6.550000007957261E-4</v>
+        <v>6.5500000269614136E-4</v>
       </c>
       <c r="J2" s="117" t="b">
         <v>0</v>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="B3" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00319#0000</v>
+        <v>obj_0031c#0000</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -8218,11 +8218,11 @@
       </c>
       <c r="E3" s="105">
         <f>E2</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F3" s="106">
         <f>F2</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
       <c r="G3" s="107">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
@@ -8230,11 +8230,11 @@
       </c>
       <c r="H3" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>8.4999999920427395E-4</v>
+        <v>8.4999999730385868E-4</v>
       </c>
       <c r="I3" s="109">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>6.550000007957261E-4</v>
+        <v>6.5500000269614136E-4</v>
       </c>
       <c r="J3" s="117" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -8242,11 +8242,11 @@
       </c>
       <c r="K3" s="119">
         <f>K4</f>
-        <v>-1.5020768516775448E-6</v>
+        <v>-1.45365791101556E-6</v>
       </c>
       <c r="L3" s="108">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>7.0156438319772996E-4</v>
+        <v>7.0006339793762373E-4</v>
       </c>
       <c r="M3" s="118"/>
       <c r="N3" s="120">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B4" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00320#0000</v>
+        <v>obj_0031f#0000</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -8292,23 +8292,23 @@
       </c>
       <c r="E4" s="55">
         <f>F3</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
       <c r="F4" s="56">
         <f>F5</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
       <c r="G4" s="27">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>1.5149703307208995E-3</v>
+        <v>1.514803685651027E-3</v>
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>9.5159701787750361E-4</v>
+        <v>9.4993047343785032E-4</v>
       </c>
       <c r="I4" s="16">
         <f>G4-H4</f>
-        <v>5.6337331284339587E-4</v>
+        <v>5.6487321221317663E-4</v>
       </c>
       <c r="J4" s="1" t="b">
         <f>NOT(ISERROR(I4))</f>
@@ -8316,11 +8316,11 @@
       </c>
       <c r="K4" s="15">
         <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>-1.5020768516775448E-6</v>
+        <v>-1.45365791101556E-6</v>
       </c>
       <c r="L4" s="15">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>7.0156438319772996E-4</v>
+        <v>7.0006339793762373E-4</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="121">
@@ -8329,19 +8329,19 @@
       </c>
       <c r="O4" s="121">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P4" s="121">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R4" s="100">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2191</v>
+        <v>2242.333333333333</v>
       </c>
       <c r="S4" s="100">
         <f>(O4+N4)/2</f>
-        <v>46</v>
+        <v>46.5</v>
       </c>
       <c r="T4" s="100">
         <v>1</v>
@@ -8357,11 +8357,11 @@
       </c>
       <c r="E5" s="55">
         <f>SettlementDate</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F5" s="56">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
       <c r="G5" s="52">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
@@ -8400,11 +8400,11 @@
       </c>
       <c r="E6" s="112">
         <f>SettlementDate</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F6" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
       <c r="G6" s="114">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
@@ -8412,11 +8412,11 @@
       </c>
       <c r="H6" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>9.2999999913674538E-4</v>
+        <v>9.3000000052011623E-4</v>
       </c>
       <c r="I6" s="116">
         <f t="shared" si="1"/>
-        <v>1.3185000008632546E-3</v>
+        <v>1.3184999994798837E-3</v>
       </c>
       <c r="J6" s="117" t="b">
         <v>0</v>
@@ -8430,20 +8430,20 @@
       </c>
       <c r="O6" s="120">
         <f t="shared" ref="O6:O27" si="3">F6-SettlementDate</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P6" s="120">
         <f>(O6^2-N6^2)/(O6-N6)</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="117"/>
       <c r="R6" s="131">
         <f t="shared" ref="R6:R14" si="4">(O6^3-N6^3)/3/(O6-N6)</f>
-        <v>2945.333333333333</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="S6" s="131">
         <f t="shared" ref="S6:S14" si="5">(O6+N6)/2</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T6" s="131">
         <v>1</v>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="B7" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031f#0000</v>
+        <v>obj_0031e#0000</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -8468,11 +8468,11 @@
       </c>
       <c r="E7" s="105">
         <f>E6</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F7" s="106">
         <f>F6</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
       <c r="G7" s="107">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
@@ -8480,11 +8480,11 @@
       </c>
       <c r="H7" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>9.2999999913674538E-4</v>
+        <v>9.3000000052011623E-4</v>
       </c>
       <c r="I7" s="109">
         <f t="shared" si="1"/>
-        <v>1.3185000008632546E-3</v>
+        <v>1.3184999994798837E-3</v>
       </c>
       <c r="J7" s="117" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)))</f>
@@ -8499,20 +8499,20 @@
       </c>
       <c r="O7" s="120">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P7" s="120">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="117"/>
       <c r="R7" s="131">
         <f t="shared" si="4"/>
-        <v>2945.333333333333</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="S7" s="131">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T7" s="131">
         <v>1</v>
@@ -8543,11 +8543,11 @@
       <c r="M8" s="118"/>
       <c r="N8" s="120">
         <f t="shared" si="2"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="O8" s="120">
         <f t="shared" si="3"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="P8" s="120" t="e">
         <f t="shared" si="6"/>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="S8" s="131">
         <f t="shared" si="5"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="T8" s="131">
         <v>1</v>
@@ -8591,20 +8591,20 @@
       </c>
       <c r="K9" s="108">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>-1.4925354260837801E-6</v>
+        <v>-1.5756535248817924E-6</v>
       </c>
       <c r="L9" s="108">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4587983309151298E-3</v>
+        <v>1.4634601237690087E-3</v>
       </c>
       <c r="M9" s="118"/>
       <c r="N9" s="120">
         <f t="shared" si="2"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="O9" s="120">
         <f t="shared" si="3"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="P9" s="120" t="e">
         <f t="shared" si="6"/>
@@ -8617,18 +8617,18 @@
       </c>
       <c r="S9" s="131">
         <f t="shared" si="5"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="T9" s="131">
         <v>1</v>
       </c>
       <c r="V9" s="91">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>2945.333333333333</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="W9" s="92">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X9" s="93">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -8636,25 +8636,25 @@
       </c>
       <c r="Z9" s="76">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>4.8278265966133045E-8</v>
+        <v>8.0563397793739767E-8</v>
       </c>
       <c r="AB9" s="76">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.3185000008632546E-3</v>
+        <v>1.3184999994798837E-3</v>
       </c>
       <c r="AD9" s="82">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>2.1739130434782626E-3</v>
+        <v>3.4722222222222398E-3</v>
       </c>
       <c r="AE9" s="83">
-        <v>-3.0279503105590097E-3</v>
+        <v>-4.4642857142857357E-3</v>
       </c>
       <c r="AF9" s="84">
-        <v>8.5403726708074682E-4</v>
+        <v>9.9206349206349613E-4</v>
       </c>
       <c r="AH9" s="79">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>-4.3368086899420177E-19</v>
+        <v>2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00309#0000</v>
+        <v>obj_00305#0000</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -8688,11 +8688,11 @@
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>9.4866976758114217E-4</v>
+        <v>9.4316293803225798E-4</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="1"/>
-        <v>1.2763302324187793E-3</v>
+        <v>1.2818370619676635E-3</v>
       </c>
       <c r="J10" s="1" t="b">
         <f>AND(NOT(ISERROR(I10)),E10&lt;&gt;$E$9,E10&lt;&gt;$E$8)</f>
@@ -8700,41 +8700,41 @@
       </c>
       <c r="K10" s="15">
         <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.916807656567057E-6</v>
+        <v>-2.2914335945137639E-6</v>
       </c>
       <c r="L10" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4986799205805579E-3</v>
+        <v>1.52931189017515E-3</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="121">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O10" s="121">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P10" s="121">
         <f t="shared" si="6"/>
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="R10" s="100">
         <f t="shared" si="4"/>
-        <v>4069.3333333333335</v>
+        <v>3621.3333333333335</v>
       </c>
       <c r="S10" s="100">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T10" s="100">
         <v>1</v>
       </c>
       <c r="V10" s="94">
-        <v>4069.3333333333335</v>
+        <v>3621.3333333333335</v>
       </c>
       <c r="W10" s="95">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="X10" s="96">
         <v>1</v>
@@ -8743,25 +8743,25 @@
         <v>47</v>
       </c>
       <c r="Z10" s="77">
-        <v>-8.7667763082189924E-6</v>
+        <v>-1.2639206968401427E-5</v>
       </c>
       <c r="AA10" s="67" t="s">
         <v>48</v>
       </c>
       <c r="AB10" s="77">
-        <v>1.2763302324187793E-3</v>
+        <v>1.2818370619676635E-3</v>
       </c>
       <c r="AD10" s="85">
-        <v>-0.31304347826086992</v>
+        <v>-0.47222222222222443</v>
       </c>
       <c r="AE10" s="86">
-        <v>0.40031055900621171</v>
+        <v>0.57142857142857417</v>
       </c>
       <c r="AF10" s="87">
-        <v>-8.7267080745341799E-2</v>
+        <v>-9.9206349206349714E-2</v>
       </c>
       <c r="AH10" s="80">
-        <v>-6.5052130349130266E-19</v>
+        <v>2.8189256484623115E-18</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00303#0000</v>
+        <v>obj_00312#0000</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -8795,11 +8795,11 @@
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>9.9948153583582513E-4</v>
+        <v>9.9027531434893999E-4</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="1"/>
-        <v>1.2255184641640964E-3</v>
+        <v>1.2347246856509815E-3</v>
       </c>
       <c r="J11" s="1" t="b">
         <f>NOT(ISERROR(I11))</f>
@@ -8807,62 +8807,62 @@
       </c>
       <c r="K11" s="15">
         <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.1920709833225413E-6</v>
+        <v>-1.1635460254014199E-6</v>
       </c>
       <c r="L11" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4305546732955735E-3</v>
+        <v>1.4255462338168144E-3</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="121">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O11" s="121">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P11" s="121">
         <f t="shared" si="6"/>
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="R11" s="100">
         <f t="shared" si="4"/>
-        <v>8101.333333333333</v>
+        <v>7429.333333333333</v>
       </c>
       <c r="S11" s="100">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T11" s="100">
         <v>1</v>
       </c>
       <c r="V11" s="97">
-        <v>8101.333333333333</v>
+        <v>7429.333333333333</v>
       </c>
       <c r="W11" s="98">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X11" s="99">
         <v>1</v>
       </c>
       <c r="Z11" s="78">
-        <v>1.5883429013239629E-3</v>
+        <v>1.6726073203842803E-3</v>
       </c>
       <c r="AB11" s="78">
-        <v>1.2255184641640964E-3</v>
+        <v>1.2347246856509815E-3</v>
       </c>
       <c r="AD11" s="88">
-        <v>9.3101449275362445</v>
+        <v>12.925925925925981</v>
       </c>
       <c r="AE11" s="89">
-        <v>-9.8962732919254837</v>
+        <v>-13.690476190476257</v>
       </c>
       <c r="AF11" s="90">
-        <v>1.5861283643892392</v>
+        <v>1.7645502645502769</v>
       </c>
       <c r="AH11" s="81">
-        <v>-1.0842021724855044E-18</v>
+        <v>5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00313#0000</v>
+        <v>obj_00309#0000</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -8883,11 +8883,11 @@
       </c>
       <c r="E12" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
       <c r="F12" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41891</v>
+        <v>41897</v>
       </c>
       <c r="G12" s="52">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
@@ -8895,11 +8895,11 @@
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>9.8362365743845013E-4</v>
+        <v>9.8290678162284888E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>1.2363763425615501E-3</v>
+        <v>1.2370932183771513E-3</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -8907,11 +8907,11 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.3687276383617419E-6</v>
+        <v>-1.2719809547301941E-6</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4471603988692582E-3</v>
+        <v>1.4355222473150615E-3</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="121">
@@ -8920,19 +8920,19 @@
       </c>
       <c r="O12" s="121">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P12" s="121">
         <f t="shared" si="6"/>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R12" s="100">
         <f t="shared" si="4"/>
-        <v>6634.333333333333</v>
+        <v>6820.3333333333339</v>
       </c>
       <c r="S12" s="100">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" s="100">
         <v>1</v>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030a#0000</v>
+        <v>obj_00311#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -8959,11 +8959,11 @@
       </c>
       <c r="E13" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
       <c r="F13" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41921</v>
+        <v>41926</v>
       </c>
       <c r="G13" s="52">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
@@ -8971,11 +8971,11 @@
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>1.0328859624979922E-3</v>
+        <v>1.0337528116660909E-3</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>1.207114037502008E-3</v>
+        <v>1.2062471883339094E-3</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -8983,32 +8983,32 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-9.2821636134372122E-7</v>
+        <v>-9.0526460601592229E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4057523388295644E-3</v>
+        <v>1.4017843432333485E-3</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="121">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O13" s="121">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P13" s="121">
         <f t="shared" si="6"/>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R13" s="100">
         <f t="shared" si="4"/>
-        <v>12154.333333333334</v>
+        <v>12369.333333333334</v>
       </c>
       <c r="S13" s="100">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T13" s="100">
         <v>1</v>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030e#0000</v>
+        <v>obj_00310#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -9035,11 +9035,11 @@
       </c>
       <c r="E14" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
       <c r="F14" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41955</v>
+        <v>41956</v>
       </c>
       <c r="G14" s="52">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
@@ -9047,11 +9047,11 @@
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>1.0933329919471737E-3</v>
+        <v>1.0897410043681185E-3</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>1.1866670080528262E-3</v>
+        <v>1.1902589956318814E-3</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -9059,32 +9059,32 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-7.0498926636592729E-7</v>
+        <v>-6.9696197743479502E-7</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3847689919016517E-3</v>
+        <v>1.3826205014038848E-3</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="121">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O14" s="121">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P14" s="121">
         <f t="shared" si="6"/>
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="R14" s="100">
         <f t="shared" si="4"/>
-        <v>20461</v>
+        <v>19749.333333333336</v>
       </c>
       <c r="S14" s="100">
         <f t="shared" si="5"/>
-        <v>140.5</v>
+        <v>138</v>
       </c>
       <c r="T14" s="100">
         <v>1</v>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00318#0000</v>
+        <v>obj_0031b#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -9111,11 +9111,11 @@
       </c>
       <c r="E15" s="112">
         <f>SettlementDate</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F15" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
       <c r="G15" s="114">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
@@ -9123,11 +9123,11 @@
       </c>
       <c r="H15" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>1.0100000000000274E-3</v>
+        <v>1.0099999999998396E-3</v>
       </c>
       <c r="I15" s="116">
         <f t="shared" si="1"/>
-        <v>2.2189999999999727E-3</v>
+        <v>2.2190000000001605E-3</v>
       </c>
       <c r="J15" s="117" t="b">
         <v>0</v>
@@ -9141,20 +9141,20 @@
       </c>
       <c r="O15" s="120">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P15" s="120">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="117"/>
       <c r="R15" s="131">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11408.333333333332</v>
+        <v>11285.333333333332</v>
       </c>
       <c r="S15" s="131">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="T15" s="131">
         <v>1</v>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="B16" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_002d5#0001</v>
+        <v>obj_002d5#0002</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -9178,12 +9178,12 @@
         <v>Usdlibor6MLastFixing_Quote</v>
       </c>
       <c r="E16" s="105">
-        <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41767</v>
+        <f>E15</f>
+        <v>41772</v>
       </c>
       <c r="F16" s="106">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
       <c r="G16" s="107">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
@@ -9191,11 +9191,11 @@
       </c>
       <c r="H16" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>1.0126385943097101E-3</v>
+        <v>1.0099999999998396E-3</v>
       </c>
       <c r="I16" s="109">
         <f t="shared" si="1"/>
-        <v>2.21636140569029E-3</v>
+        <v>2.2190000000001605E-3</v>
       </c>
       <c r="J16" s="117" t="b">
         <f>AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
@@ -9206,11 +9206,11 @@
       <c r="M16" s="118"/>
       <c r="N16" s="120">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="120">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P16" s="120">
         <f t="shared" si="7"/>
@@ -9219,7 +9219,7 @@
       <c r="Q16" s="117"/>
       <c r="R16" s="131">
         <f t="shared" si="8"/>
-        <v>11347</v>
+        <v>11285.333333333332</v>
       </c>
       <c r="S16" s="131">
         <f t="shared" si="9"/>
@@ -9254,11 +9254,11 @@
       <c r="M17" s="118"/>
       <c r="N17" s="120">
         <f t="shared" si="2"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="O17" s="120">
         <f t="shared" si="3"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="P17" s="120" t="e">
         <f t="shared" si="7"/>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="S17" s="131">
         <f t="shared" si="9"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="T17" s="131">
         <v>1</v>
@@ -9302,20 +9302,20 @@
       </c>
       <c r="K18" s="108">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-5.904772727947576E-7</v>
+        <v>-6.0502092168050342E-7</v>
       </c>
       <c r="L18" s="108">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3250092238845253E-3</v>
+        <v>2.3303238495893733E-3</v>
       </c>
       <c r="M18" s="118"/>
       <c r="N18" s="120">
         <f t="shared" si="2"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="O18" s="120">
         <f t="shared" si="3"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="P18" s="120" t="e">
         <f t="shared" si="7"/>
@@ -9328,14 +9328,14 @@
       </c>
       <c r="S18" s="131">
         <f t="shared" si="9"/>
-        <v>-41768</v>
+        <v>-41772</v>
       </c>
       <c r="T18" s="131">
         <v>1</v>
       </c>
       <c r="V18" s="91">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>11347</v>
+        <v>11285.333333333332</v>
       </c>
       <c r="W18" s="92">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
@@ -9347,25 +9347,25 @@
       </c>
       <c r="Z18" s="76">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>5.0562748642520191E-10</v>
+        <v>-7.2039262426848514E-10</v>
       </c>
       <c r="AB18" s="76">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>2.21636140569029E-3</v>
+        <v>2.2190000000001605E-3</v>
       </c>
       <c r="AD18" s="82">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>5.0420168067226824E-4</v>
+        <v>5.2896288588276212E-4</v>
       </c>
       <c r="AE18" s="83">
-        <v>-1.0084033613445367E-3</v>
+        <v>-1.0752688172043028E-3</v>
       </c>
       <c r="AF18" s="84">
-        <v>5.0420168067226835E-4</v>
+        <v>5.463059313215409E-4</v>
       </c>
       <c r="AH18" s="79">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>2.1684043449710089E-18</v>
+        <v>-1.0408340855860843E-17</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00314#0000</v>
+        <v>obj_00313#0000</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -9386,11 +9386,11 @@
       </c>
       <c r="E19" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
       <c r="F19" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>41982</v>
+        <v>41988</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
@@ -9398,11 +9398,11 @@
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>1.0604141869864339E-3</v>
+        <v>1.0600845703129457E-3</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>2.1795858130135657E-3</v>
+        <v>2.1799154296870535E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -9410,11 +9410,11 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-6.0287856847088981E-7</v>
+        <v>-6.2039000496995339E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3272910622889336E-3</v>
+        <v>2.333151760914632E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="121">
@@ -9423,28 +9423,28 @@
       </c>
       <c r="O19" s="121">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P19" s="121">
         <f t="shared" si="7"/>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R19" s="100">
         <f t="shared" si="8"/>
-        <v>17797</v>
+        <v>18104.333333333332</v>
       </c>
       <c r="S19" s="100">
         <f t="shared" si="9"/>
-        <v>122.5</v>
+        <v>123.5</v>
       </c>
       <c r="T19" s="100">
         <v>1</v>
       </c>
       <c r="V19" s="94">
-        <v>17797</v>
+        <v>18104.333333333332</v>
       </c>
       <c r="W19" s="95">
-        <v>122.5</v>
+        <v>123.5</v>
       </c>
       <c r="X19" s="96">
         <v>1</v>
@@ -9453,25 +9453,25 @@
         <v>47</v>
       </c>
       <c r="Z19" s="77">
-        <v>-1.3126849168579064E-6</v>
+        <v>-1.0848321589911752E-6</v>
       </c>
       <c r="AA19" s="67" t="s">
         <v>48</v>
       </c>
       <c r="AB19" s="77">
-        <v>2.1795858130135657E-3</v>
+        <v>2.1799154296870535E-3</v>
       </c>
       <c r="AD19" s="85">
-        <v>-0.13941314230610258</v>
+        <v>-0.14625390218522399</v>
       </c>
       <c r="AE19" s="86">
-        <v>0.24603939936630356</v>
+        <v>0.26451612903225852</v>
       </c>
       <c r="AF19" s="87">
-        <v>-0.10662625706020097</v>
+        <v>-0.11826222684703457</v>
       </c>
       <c r="AH19" s="80">
-        <v>3.0357660829594124E-18</v>
+        <v>-1.214306433183765E-17</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030d#0000</v>
+        <v>obj_0030f#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -9492,11 +9492,11 @@
       </c>
       <c r="E20" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
       <c r="F20" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42013</v>
+        <v>42018</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
@@ -9504,11 +9504,11 @@
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>1.1261869518150809E-3</v>
+        <v>1.1292470221626316E-3</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>2.1438130481849184E-3</v>
+        <v>2.1407529778373676E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9516,62 +9516,62 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-5.9465866807681667E-7</v>
+        <v>-6.31024372280588E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3257786006164244E-3</v>
+        <v>2.3351084844997886E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="121">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="121">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P20" s="121">
         <f t="shared" si="7"/>
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R20" s="100">
         <f t="shared" si="8"/>
-        <v>26230.333333333332</v>
+        <v>26537.333333333332</v>
       </c>
       <c r="S20" s="100">
         <f t="shared" si="9"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T20" s="100">
         <v>1</v>
       </c>
       <c r="V20" s="97">
-        <v>26230.333333333332</v>
+        <v>26537.333333333332</v>
       </c>
       <c r="W20" s="98">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X20" s="99">
         <v>1</v>
       </c>
       <c r="Z20" s="78">
-        <v>2.3313910629527528E-3</v>
+        <v>2.326934429523083E-3</v>
       </c>
       <c r="AB20" s="78">
-        <v>2.1438130481849184E-3</v>
+        <v>2.1407529778373676E-3</v>
       </c>
       <c r="AD20" s="88">
-        <v>8.1048326215732089</v>
+        <v>8.4858365128916766</v>
       </c>
       <c r="AE20" s="89">
-        <v>-11.193271800523471</v>
+        <v>-12.200716845878162</v>
       </c>
       <c r="AF20" s="90">
-        <v>4.088439178950261</v>
+        <v>4.7148803329864846</v>
       </c>
       <c r="AH20" s="81">
-        <v>3.4694469519536142E-18</v>
+        <v>-1.3010426069826053E-17</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031e#0000</v>
+        <v>obj_00316#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -9592,11 +9592,11 @@
       </c>
       <c r="E21" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
       <c r="F21" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42046</v>
+        <v>42048</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
@@ -9604,11 +9604,11 @@
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>1.2215307756949839E-3</v>
+        <v>1.2147113033533774E-3</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>2.1084692243050155E-3</v>
+        <v>2.1152886966466222E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9616,32 +9616,32 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-5.7389458183656633E-7</v>
+        <v>-5.6364838779096897E-7</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3219580087482181E-3</v>
+        <v>2.3227113033536988E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="121">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O21" s="121">
         <f t="shared" si="3"/>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P21" s="121">
         <f t="shared" si="7"/>
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R21" s="100">
         <f t="shared" si="8"/>
-        <v>37417.333333333328</v>
+        <v>36677.333333333328</v>
       </c>
       <c r="S21" s="100">
         <f t="shared" si="9"/>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T21" s="100">
         <v>1</v>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031b#0000</v>
+        <v>obj_00318#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -9669,11 +9669,11 @@
       </c>
       <c r="E22" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41891</v>
+        <v>41897</v>
       </c>
       <c r="F22" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42072</v>
+        <v>42079</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
@@ -9681,11 +9681,11 @@
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>1.3190746123977765E-3</v>
+        <v>1.33216093166435E-3</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>2.1309253876022234E-3</v>
+        <v>2.1178390683356499E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9693,32 +9693,32 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-3.5158855180274305E-7</v>
+        <v>-4.0790698251818793E-7</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2810536992219949E-3</v>
+        <v>2.2940548847835071E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="121">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O22" s="121">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P22" s="121">
         <f t="shared" si="7"/>
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="R22" s="100">
         <f t="shared" si="8"/>
-        <v>48312.333333333336</v>
+        <v>49416.333333333328</v>
       </c>
       <c r="S22" s="100">
         <f t="shared" si="9"/>
-        <v>213.5</v>
+        <v>216</v>
       </c>
       <c r="T22" s="100">
         <v>1</v>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00315#0000</v>
+        <v>obj_0031a#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -9746,11 +9746,11 @@
       </c>
       <c r="E23" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41921</v>
+        <v>41925</v>
       </c>
       <c r="F23" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42103</v>
+        <v>42107</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
@@ -9758,11 +9758,11 @@
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>1.4763631167393741E-3</v>
+        <v>1.479103683772023E-3</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>2.1436368832606261E-3</v>
+        <v>2.1408963162279767E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9770,11 +9770,11 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.3922540272915757E-7</v>
+        <v>-2.5692001240849926E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.260378879792455E-3</v>
+        <v>2.2662732822833244E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="121">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00316#0000</v>
+        <v>obj_00314#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -9823,11 +9823,11 @@
       </c>
       <c r="E24" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
       <c r="F24" s="56">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
@@ -9835,11 +9835,11 @@
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>1.6544160373947112E-3</v>
+        <v>1.6544498036487477E-3</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>2.195583962605289E-3</v>
+        <v>2.1955501963512522E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -9847,32 +9847,32 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-5.6460443165763629E-8</v>
+        <v>-6.4246037394269346E-8</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2267501272327907E-3</v>
+        <v>2.2308212708807059E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="121">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O24" s="121">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P24" s="121">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R24" s="100">
         <f t="shared" si="8"/>
-        <v>78936.333333333328</v>
+        <v>78080.333333333343</v>
       </c>
       <c r="S24" s="100">
         <f t="shared" si="9"/>
-        <v>276</v>
+        <v>274.5</v>
       </c>
       <c r="T24" s="100">
         <v>1</v>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031c#0000</v>
+        <v>obj_00319#0000</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -9896,11 +9896,11 @@
       </c>
       <c r="E25" s="112">
         <f>SettlementDate</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F25" s="113">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
       <c r="G25" s="114">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
@@ -9908,11 +9908,11 @@
       </c>
       <c r="H25" s="115">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>1.3299999999995325E-3</v>
+        <v>1.3299999999996791E-3</v>
       </c>
       <c r="I25" s="116">
         <f t="shared" si="1"/>
-        <v>4.1060000000004669E-3</v>
+        <v>4.1060000000003212E-3</v>
       </c>
       <c r="J25" s="117" t="b">
         <v>0</v>
@@ -9926,20 +9926,20 @@
       </c>
       <c r="O25" s="120">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P25" s="120">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="117"/>
       <c r="R25" s="131">
         <f t="shared" si="8"/>
-        <v>44896.333333333336</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="S25" s="131">
         <f t="shared" si="9"/>
-        <v>183.5</v>
+        <v>182.5</v>
       </c>
       <c r="T25" s="131">
         <v>1</v>
@@ -9952,7 +9952,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_002d6#0001</v>
+        <v>obj_002d4#0002</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -9963,12 +9963,12 @@
         <v>Usdlibor1YLastFixing_Quote</v>
       </c>
       <c r="E26" s="105">
-        <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41767</v>
+        <f>E25</f>
+        <v>41772</v>
       </c>
       <c r="F26" s="106">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42132</v>
+        <v>42137</v>
       </c>
       <c r="G26" s="107">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
@@ -9976,11 +9976,11 @@
       </c>
       <c r="H26" s="108">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>1.3213492070563218E-3</v>
+        <v>1.3299999999996791E-3</v>
       </c>
       <c r="I26" s="109">
         <f t="shared" si="1"/>
-        <v>4.1146507929436778E-3</v>
+        <v>4.1060000000003212E-3</v>
       </c>
       <c r="J26" s="117" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -9997,24 +9997,24 @@
       <c r="M26" s="118"/>
       <c r="N26" s="120">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="120">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P26" s="120">
         <f t="shared" si="7"/>
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="117"/>
       <c r="R26" s="131">
         <f t="shared" si="8"/>
-        <v>44044.333333333328</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="S26" s="131">
         <f t="shared" si="9"/>
-        <v>181.5</v>
+        <v>182.5</v>
       </c>
       <c r="T26" s="131">
         <v>1</v>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031a#0000</v>
+        <v>obj_0031d#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E27" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
       <c r="F27" s="56">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42501</v>
+        <v>42503</v>
       </c>
       <c r="G27" s="27" t="e">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.8254540162014585E-3</v>
+        <v>6.7611728899782276E-3</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -10072,23 +10072,23 @@
       <c r="M27" s="5"/>
       <c r="N27" s="121">
         <f t="shared" si="2"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O27" s="121">
         <f t="shared" si="3"/>
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="P27" s="121">
         <f t="shared" si="7"/>
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="R27" s="100">
         <f t="shared" si="8"/>
-        <v>313663</v>
+        <v>311467</v>
       </c>
       <c r="S27" s="100">
         <f t="shared" si="9"/>
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="T27" s="100">
         <v>1</v>
@@ -10159,11 +10159,11 @@
       </c>
       <c r="V30" s="126">
         <f>Z9</f>
-        <v>4.8278265966133045E-8</v>
+        <v>8.0563397793739767E-8</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>5.0562748642520191E-10</v>
+        <v>-7.2039262426848514E-10</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -10172,34 +10172,34 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>6.550000007957261E-4</v>
+        <v>6.5500000269614136E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.3185000008632546E-3</v>
+        <v>1.3184999994798837E-3</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>2.21636140569029E-3</v>
+        <v>2.2190000000001605E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>4.1146507929436778E-3</v>
+        <v>4.1060000000003212E-3</v>
       </c>
       <c r="M31" s="67" t="s">
         <v>46</v>
       </c>
       <c r="N31" s="66">
         <f>K4</f>
-        <v>-1.5020768516775448E-6</v>
+        <v>-1.45365791101556E-6</v>
       </c>
       <c r="O31" s="66">
         <f>K9</f>
-        <v>-1.4925354260837801E-6</v>
+        <v>-1.5756535248817924E-6</v>
       </c>
       <c r="P31" s="66">
         <f>AVERAGE(K19:K21)</f>
-        <v>-5.904772727947576E-7</v>
+        <v>-6.0502092168050342E-7</v>
       </c>
       <c r="Q31" s="66" t="e">
         <f>K26</f>
@@ -10210,11 +10210,11 @@
       </c>
       <c r="V31" s="72">
         <f>Z10</f>
-        <v>-8.7667763082189924E-6</v>
+        <v>-1.2639206968401427E-5</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-1.3126849168579064E-6</v>
+        <v>-1.0848321589911752E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -10223,34 +10223,34 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>6.550000007957261E-4</v>
+        <v>6.5500000269614136E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>1.3185000008632546E-3</v>
+        <v>1.3184999994798837E-3</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>2.21636140569029E-3</v>
+        <v>2.2190000000001605E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>4.1146507929436778E-3</v>
+        <v>4.1060000000003212E-3</v>
       </c>
       <c r="M32" s="67" t="s">
         <v>45</v>
       </c>
       <c r="N32" s="66">
         <f>L4</f>
-        <v>7.0156438319772996E-4</v>
+        <v>7.0006339793762373E-4</v>
       </c>
       <c r="O32" s="66">
         <f>L9</f>
-        <v>1.4587983309151298E-3</v>
+        <v>1.4634601237690087E-3</v>
       </c>
       <c r="P32" s="66">
         <f>L18</f>
-        <v>2.3250092238845253E-3</v>
+        <v>2.3303238495893733E-3</v>
       </c>
       <c r="Q32" s="66" t="e">
         <f>L26</f>
@@ -10261,11 +10261,11 @@
       </c>
       <c r="V32" s="72">
         <f>Z11</f>
-        <v>1.5883429013239629E-3</v>
+        <v>1.6726073203842803E-3</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>2.3313910629527528E-3</v>
+        <v>2.326934429523083E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -10323,7 +10323,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="132" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00301#0000</v>
+        <v>obj_0030e#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -10334,47 +10334,47 @@
       </c>
       <c r="E34" s="53">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41771</v>
+        <v>41773</v>
       </c>
       <c r="G34" s="32">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>1.5470581526397013E-3</v>
+        <v>1.5486097400350316E-3</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>2.4253375716565368E-3</v>
+        <v>2.5163145713744343E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>3.1794235524569294E-3</v>
+        <v>3.1763917733211361E-3</v>
       </c>
       <c r="J34" s="32">
         <f t="shared" si="14"/>
-        <v>4.964650792940682E-3</v>
+        <v>4.9560000000087451E-3</v>
       </c>
       <c r="K34" s="133">
         <f>F34-$E$6</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>8.4999999999700409E-4</v>
+        <v>8.5000000000842344E-4</v>
       </c>
       <c r="N34" s="71">
         <f>N$31*$K34+N$32</f>
-        <v>6.9705815264269728E-4</v>
+        <v>6.9860974002660813E-4</v>
       </c>
       <c r="O34" s="72">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>1.5753375716595329E-3</v>
+        <v>1.6663145713660108E-3</v>
       </c>
       <c r="P34" s="72">
         <f t="shared" si="15"/>
-        <v>2.3294235524599252E-3</v>
+        <v>2.3263917733127126E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
@@ -10385,17 +10385,17 @@
       </c>
       <c r="V34" s="72">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>1.5753375716595329E-3</v>
+        <v>1.6663145713660108E-3</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>2.3294235524599252E-3</v>
+        <v>2.3263917733127126E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00311#0000</v>
+        <v>obj_00306#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -10406,27 +10406,27 @@
       </c>
       <c r="E35" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="G35" s="32">
         <f t="shared" si="14"/>
-        <v>1.5410498452329913E-3</v>
+        <v>1.5398877925689382E-3</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>2.4084477292529807E-3</v>
+        <v>2.4796859648339299E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>3.1768049243230327E-3</v>
+        <v>3.1731257505621742E-3</v>
       </c>
       <c r="J35" s="32">
         <f t="shared" si="14"/>
-        <v>4.964650792940682E-3</v>
+        <v>4.9560000000087451E-3</v>
       </c>
       <c r="K35" s="134">
         <f t="shared" ref="K35:K49" si="18">F35-$E$6</f>
@@ -10434,19 +10434,19 @@
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>8.4999999999700409E-4</v>
+        <v>8.5000000000842344E-4</v>
       </c>
       <c r="N35" s="71">
         <f>N$31*$K35+N$32</f>
-        <v>6.9104984523598711E-4</v>
+        <v>6.8988779256051475E-4</v>
       </c>
       <c r="O35" s="72">
         <f t="shared" si="15"/>
-        <v>1.5584477292559767E-3</v>
+        <v>1.6296859648255065E-3</v>
       </c>
       <c r="P35" s="72">
         <f t="shared" si="15"/>
-        <v>2.3268049243260285E-3</v>
+        <v>2.3231257505537508E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10457,17 +10457,17 @@
       </c>
       <c r="V35" s="72">
         <f t="shared" si="17"/>
-        <v>1.5584477292559767E-3</v>
+        <v>1.6296859648255065E-3</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>2.3268049243260285E-3</v>
+        <v>2.3231257505537508E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00300#0000</v>
+        <v>obj_00307#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -10478,27 +10478,27 @@
       </c>
       <c r="E36" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41782</v>
+        <v>41786</v>
       </c>
       <c r="G36" s="32">
         <f t="shared" si="14"/>
-        <v>1.530535303342962E-3</v>
+        <v>1.5297121895271042E-3</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>2.3801296432782683E-3</v>
+        <v>2.4393963492716931E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>3.1722352989325782E-3</v>
+        <v>3.1692935411023909E-3</v>
       </c>
       <c r="J36" s="32">
         <f t="shared" si="14"/>
-        <v>4.9646507890123955E-3</v>
+        <v>4.9560000023440194E-3</v>
       </c>
       <c r="K36" s="134">
         <f t="shared" si="18"/>
@@ -10506,19 +10506,19 @@
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>8.4999999606871768E-4</v>
+        <v>8.5000000234369832E-4</v>
       </c>
       <c r="N36" s="71">
         <f>N$31*$K36+N$32</f>
-        <v>6.8053530727424437E-4</v>
+        <v>6.7971218718340589E-4</v>
       </c>
       <c r="O36" s="72">
         <f t="shared" si="15"/>
-        <v>1.5301296472095506E-3</v>
+        <v>1.5893963469279947E-3</v>
       </c>
       <c r="P36" s="72">
         <f t="shared" si="15"/>
-        <v>2.3222353028638605E-3</v>
+        <v>2.3192935387586927E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10529,17 +10529,17 @@
       </c>
       <c r="V36" s="72">
         <f t="shared" si="17"/>
-        <v>1.5301296472095506E-3</v>
+        <v>1.5893963469279947E-3</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>2.3222353028638605E-3</v>
+        <v>2.3192935387586927E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00308#0000</v>
+        <v>obj_002fe#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -10550,27 +10550,27 @@
       </c>
       <c r="E37" s="54">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="14"/>
-        <v>1.5200207684834995E-3</v>
+        <v>1.5195365791844434E-3</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="14"/>
-        <v>2.353388654355683E-3</v>
+        <v>2.4017384640698915E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>3.1676821977372474E-3</v>
+        <v>3.1654377915160546E-3</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="14"/>
-        <v>4.9646507921146761E-3</v>
+        <v>4.955999997378468E-3</v>
       </c>
       <c r="K37" s="135">
         <f t="shared" si="18"/>
@@ -10578,19 +10578,19 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>8.4999999917099805E-4</v>
+        <v>8.4999999737814648E-4</v>
       </c>
       <c r="N37" s="101">
         <f>N$31*$K37+N$32</f>
-        <v>6.7002076931250152E-4</v>
+        <v>6.6953658180629691E-4</v>
       </c>
       <c r="O37" s="102">
         <f t="shared" si="15"/>
-        <v>1.503388655184685E-3</v>
+        <v>1.5517384666917451E-3</v>
       </c>
       <c r="P37" s="102">
         <f t="shared" si="15"/>
-        <v>2.3176821985662491E-3</v>
+        <v>2.3154377941379083E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
         <f t="shared" si="16"/>
@@ -10601,17 +10601,17 @@
       </c>
       <c r="V37" s="102">
         <f t="shared" si="17"/>
-        <v>1.503388655184685E-3</v>
+        <v>1.5517384666917451E-3</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>2.3176821985662491E-3</v>
+        <v>2.3154377941379083E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00305#0000</v>
+        <v>obj_00304#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -10622,11 +10622,11 @@
       </c>
       <c r="E38" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="14"/>
@@ -10634,15 +10634,15 @@
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>2.3179230056153272E-3</v>
+        <v>2.352506751437845E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>3.1612064152838808E-3</v>
+        <v>3.1598887625919375E-3</v>
       </c>
       <c r="J38" s="34">
         <f t="shared" si="14"/>
-        <v>4.9646507921479515E-3</v>
+        <v>4.9559999973041802E-3</v>
       </c>
       <c r="K38" s="133">
         <f t="shared" si="18"/>
@@ -10650,19 +10650,19 @@
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>8.4999999920427395E-4</v>
+        <v>8.4999999730385868E-4</v>
       </c>
       <c r="N38" s="71">
         <f>N$31*$K38+N$32</f>
-        <v>6.550000007957261E-4</v>
+        <v>6.5500000269614136E-4</v>
       </c>
       <c r="O38" s="72">
         <f t="shared" si="15"/>
-        <v>1.4679230064110532E-3</v>
+        <v>1.5025067541339862E-3</v>
       </c>
       <c r="P38" s="72">
         <f t="shared" si="15"/>
-        <v>2.3112064160796066E-3</v>
+        <v>2.309888765288079E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10673,17 +10673,17 @@
       </c>
       <c r="V38" s="72">
         <f t="shared" si="17"/>
-        <v>1.4679230064110532E-3</v>
+        <v>1.5025067541339862E-3</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>2.3112064160796066E-3</v>
+        <v>2.309888765288079E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_002ff#0000</v>
+        <v>obj_00303#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -10694,41 +10694,41 @@
       </c>
       <c r="E39" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>2.2808373674620512E-3</v>
+        <v>2.2840204715912343E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>3.19198132059969E-3</v>
+        <v>3.1923815696994805E-3</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" si="19"/>
-        <v>5.0146507939291185E-3</v>
+        <v>5.0060000001880076E-3</v>
       </c>
       <c r="K39" s="134">
         <f t="shared" si="18"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>9.0000000098544044E-4</v>
+        <v>9.0000000018768621E-4</v>
       </c>
       <c r="N39" s="49"/>
       <c r="O39" s="72">
         <f t="shared" si="15"/>
-        <v>1.3808373664766106E-3</v>
+        <v>1.3840204714035478E-3</v>
       </c>
       <c r="P39" s="72">
         <f t="shared" si="15"/>
-        <v>2.2919813196142494E-3</v>
+        <v>2.2923815695117941E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10739,17 +10739,17 @@
       </c>
       <c r="V39" s="72">
         <f t="shared" si="17"/>
-        <v>1.3808373664766106E-3</v>
+        <v>1.3840204714035478E-3</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>2.2919813196142494E-3</v>
+        <v>2.2923815695117941E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030b#0000</v>
+        <v>obj_002ff#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -10760,41 +10760,41 @@
       </c>
       <c r="E40" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>2.2484999999999996E-3</v>
+        <v>2.2485000000000022E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>3.2011841124871942E-3</v>
+        <v>3.204999683005669E-3</v>
       </c>
       <c r="J40" s="32">
         <f t="shared" si="19"/>
-        <v>5.0446507920804233E-3</v>
+        <v>5.0360000005204375E-3</v>
       </c>
       <c r="K40" s="134">
         <f t="shared" si="18"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>9.2999999913674538E-4</v>
+        <v>9.3000000052011623E-4</v>
       </c>
       <c r="N40" s="47"/>
       <c r="O40" s="72">
         <f t="shared" si="15"/>
-        <v>1.3185000008632541E-3</v>
+        <v>1.3184999994798859E-3</v>
       </c>
       <c r="P40" s="72">
         <f t="shared" si="15"/>
-        <v>2.2711841133504487E-3</v>
+        <v>2.2749996824855527E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10805,17 +10805,17 @@
       </c>
       <c r="V40" s="72">
         <f t="shared" si="17"/>
-        <v>1.3185000008632541E-3</v>
+        <v>1.3184999994798859E-3</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>2.2711841133504487E-3</v>
+        <v>2.2749996824855527E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00302#0000</v>
+        <v>obj_0030a#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -10826,35 +10826,35 @@
       </c>
       <c r="E41" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41891</v>
+        <v>41897</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="48"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>3.2032108205657939E-3</v>
+        <v>3.2053803751534299E-3</v>
       </c>
       <c r="J41" s="32">
         <f t="shared" si="20"/>
-        <v>5.0646507935294379E-3</v>
+        <v>5.0560000004856815E-3</v>
       </c>
       <c r="K41" s="134">
         <f t="shared" si="18"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>9.5000000058575985E-4</v>
+        <v>9.5000000048536045E-4</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="48"/>
       <c r="P41" s="72">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>2.2532108199800338E-3</v>
+        <v>2.2553803746680695E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10866,13 +10866,13 @@
       <c r="V41" s="72"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>2.2532108199800338E-3</v>
+        <v>2.2553803746680695E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_002fe#0000</v>
+        <v>obj_002fd#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -10883,21 +10883,21 @@
       </c>
       <c r="E42" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41921</v>
+        <v>41925</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="46"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>3.2149160780892746E-3</v>
+        <v>3.2183235457133863E-3</v>
       </c>
       <c r="J42" s="32">
         <f t="shared" si="20"/>
-        <v>5.0946507929432536E-3</v>
+        <v>5.0860000000006161E-3</v>
       </c>
       <c r="K42" s="134">
         <f t="shared" si="18"/>
@@ -10905,13 +10905,13 @@
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>9.7999999999957605E-4</v>
+        <v>9.8000000000029531E-4</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="46"/>
       <c r="P42" s="72">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>2.2349160780896988E-3</v>
+        <v>2.238323545713091E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10923,13 +10923,13 @@
       <c r="V42" s="72"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>2.2349160780896988E-3</v>
+        <v>2.238323545713091E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00306#0000</v>
+        <v>obj_00308#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -10940,35 +10940,35 @@
       </c>
       <c r="E43" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="46"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>3.2257360750510581E-3</v>
+        <v>3.2289999999999897E-3</v>
       </c>
       <c r="J43" s="32">
         <f t="shared" si="20"/>
-        <v>5.1246507929437052E-3</v>
+        <v>5.1160000000001603E-3</v>
       </c>
       <c r="K43" s="134">
         <f t="shared" si="18"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>1.0100000000000274E-3</v>
+        <v>1.0099999999998396E-3</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="46"/>
       <c r="P43" s="72">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>2.2157360750510308E-3</v>
+        <v>2.2190000000001501E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
         <f t="shared" si="16"/>
@@ -10980,13 +10980,13 @@
       <c r="V43" s="102"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>2.2157360750510308E-3</v>
+        <v>2.2190000000001501E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030f#0000</v>
+        <v>obj_0030b#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -10997,26 +10997,26 @@
       </c>
       <c r="E44" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>41982</v>
+        <v>41988</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
       <c r="I44" s="48"/>
       <c r="J44" s="32">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
-        <v>5.1446507929435899E-3</v>
+        <v>5.1360000000007042E-3</v>
       </c>
       <c r="K44" s="134">
         <f t="shared" si="18"/>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>1.0299999999999121E-3</v>
+        <v>1.0300000000003826E-3</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
@@ -11029,7 +11029,7 @@
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00304#0000</v>
+        <v>obj_00302#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -11040,18 +11040,18 @@
       </c>
       <c r="E45" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42013</v>
+        <v>42017</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="46"/>
       <c r="J45" s="32">
         <f t="shared" si="21"/>
-        <v>5.1846507929435917E-3</v>
+        <v>5.1760000000002342E-3</v>
       </c>
       <c r="K45" s="134">
         <f t="shared" si="18"/>
@@ -11072,7 +11072,7 @@
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00307#0000</v>
+        <v>obj_0030c#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -11083,18 +11083,18 @@
       </c>
       <c r="E46" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42044</v>
+        <v>42048</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
       <c r="I46" s="46"/>
       <c r="J46" s="32">
         <f t="shared" si="21"/>
-        <v>5.2346507929438325E-3</v>
+        <v>5.2260000000004759E-3</v>
       </c>
       <c r="K46" s="134">
         <f t="shared" si="18"/>
@@ -11115,7 +11115,7 @@
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00310#0000</v>
+        <v>obj_00301#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -11126,18 +11126,18 @@
       </c>
       <c r="E47" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42072</v>
+        <v>42076</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
       <c r="I47" s="46"/>
       <c r="J47" s="32">
         <f t="shared" si="21"/>
-        <v>5.2846507929436648E-3</v>
+        <v>5.2760000000003082E-3</v>
       </c>
       <c r="K47" s="134">
         <f t="shared" si="18"/>
@@ -11145,7 +11145,7 @@
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>1.1699999999999868E-3</v>
+        <v>1.169999999999987E-3</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
@@ -11158,7 +11158,7 @@
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00312#0000</v>
+        <v>obj_0030d#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -11169,18 +11169,18 @@
       </c>
       <c r="E48" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42103</v>
+        <v>42107</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="46"/>
       <c r="J48" s="32">
         <f t="shared" si="21"/>
-        <v>5.3646507929433363E-3</v>
+        <v>5.3559999999999797E-3</v>
       </c>
       <c r="K48" s="134">
         <f t="shared" si="18"/>
@@ -11201,7 +11201,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0030c#0000</v>
+        <v>obj_00300#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -11212,26 +11212,26 @@
       </c>
       <c r="E49" s="55">
         <f t="shared" si="13"/>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="46"/>
       <c r="J49" s="32">
         <f t="shared" si="21"/>
-        <v>5.4446507929432099E-3</v>
+        <v>5.4359999999999999E-3</v>
       </c>
       <c r="K49" s="134">
         <f t="shared" si="18"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>1.3299999999995325E-3</v>
+        <v>1.3299999999996791E-3</v>
       </c>
       <c r="N49" s="73"/>
       <c r="O49" s="74"/>
@@ -11270,8 +11270,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="P2" s="230">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -11368,9 +11368,9 @@
       <c r="I3" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="239">
+      <c r="J3" s="233">
         <f>ROUND(Calculation!$G34,6)</f>
-        <v>1.547E-3</v>
+        <v>1.549E-3</v>
       </c>
       <c r="K3" s="169"/>
       <c r="L3" s="179">
@@ -11379,7 +11379,7 @@
       <c r="M3" s="153"/>
       <c r="N3" s="182">
         <f t="array" ref="N3:N40">QuoteLive</f>
-        <v>1.547E-3</v>
+        <v>1.549E-3</v>
       </c>
       <c r="O3" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
@@ -11412,9 +11412,9 @@
       <c r="I4" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="239">
+      <c r="J4" s="233">
         <f>ROUND(Calculation!$G35,6)</f>
-        <v>1.5410000000000001E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="K4" s="169"/>
       <c r="L4" s="179">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="M4" s="153"/>
       <c r="N4" s="182">
-        <v>1.5410000000000001E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="O4" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
@@ -11452,9 +11452,9 @@
       <c r="I5" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="239">
+      <c r="J5" s="233">
         <f>ROUND(Calculation!$G36,6)</f>
-        <v>1.531E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="K5" s="169"/>
       <c r="L5" s="179">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="182">
-        <v>1.531E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="O5" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
@@ -11492,9 +11492,9 @@
       <c r="I6" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="241">
+      <c r="J6" s="235">
         <f>Calculation!$G37</f>
-        <v>1.5200207684834995E-3</v>
+        <v>1.5195365791844434E-3</v>
       </c>
       <c r="K6" s="169"/>
       <c r="L6" s="180">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="M6" s="153"/>
       <c r="N6" s="184">
-        <v>1.5200207684834995E-3</v>
+        <v>1.5195365791844434E-3</v>
       </c>
       <c r="O6" s="185">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
@@ -11532,7 +11532,7 @@
       <c r="I7" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="240">
+      <c r="J7" s="234">
         <f>ROUND(Calculation!$G38,6)</f>
         <v>1.505E-3</v>
       </c>
@@ -11574,9 +11574,9 @@
       <c r="I8" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="238">
+      <c r="J8" s="232">
         <f>ROUND(Calculation!$H34,6)</f>
-        <v>2.4250000000000001E-3</v>
+        <v>2.516E-3</v>
       </c>
       <c r="K8" s="169"/>
       <c r="L8" s="179">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="M8" s="153"/>
       <c r="N8" s="182">
-        <v>2.4250000000000001E-3</v>
+        <v>2.516E-3</v>
       </c>
       <c r="O8" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="P8" s="231">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -11620,9 +11620,9 @@
       <c r="I9" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="239">
+      <c r="J9" s="233">
         <f>ROUND(Calculation!$H35,6)</f>
-        <v>2.408E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="K9" s="169"/>
       <c r="L9" s="179">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="M9" s="153"/>
       <c r="N9" s="182">
-        <v>2.408E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="O9" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
@@ -11660,9 +11660,9 @@
       <c r="I10" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="239">
+      <c r="J10" s="233">
         <f>ROUND(Calculation!$H36,6)</f>
-        <v>2.3800000000000002E-3</v>
+        <v>2.4390000000000002E-3</v>
       </c>
       <c r="K10" s="169"/>
       <c r="L10" s="179">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="M10" s="153"/>
       <c r="N10" s="182">
-        <v>2.3800000000000002E-3</v>
+        <v>2.4390000000000002E-3</v>
       </c>
       <c r="O10" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
@@ -11700,9 +11700,9 @@
       <c r="I11" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="239">
+      <c r="J11" s="233">
         <f>ROUND(Calculation!$H37,6)</f>
-        <v>2.3530000000000001E-3</v>
+        <v>2.4020000000000001E-3</v>
       </c>
       <c r="K11" s="169"/>
       <c r="L11" s="179">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="M11" s="153"/>
       <c r="N11" s="182">
-        <v>2.3530000000000001E-3</v>
+        <v>2.4020000000000001E-3</v>
       </c>
       <c r="O11" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
@@ -11740,9 +11740,9 @@
       <c r="I12" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="239">
+      <c r="J12" s="233">
         <f>ROUND(Calculation!$H38,6)</f>
-        <v>2.3180000000000002E-3</v>
+        <v>2.3530000000000001E-3</v>
       </c>
       <c r="K12" s="169"/>
       <c r="L12" s="179">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="M12" s="153"/>
       <c r="N12" s="182">
-        <v>2.3180000000000002E-3</v>
+        <v>2.3530000000000001E-3</v>
       </c>
       <c r="O12" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
@@ -11780,9 +11780,9 @@
       <c r="I13" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="239">
+      <c r="J13" s="233">
         <f>ROUND(Calculation!$H39,6)</f>
-        <v>2.281E-3</v>
+        <v>2.284E-3</v>
       </c>
       <c r="K13" s="169"/>
       <c r="L13" s="179">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="M13" s="153"/>
       <c r="N13" s="182">
-        <v>2.281E-3</v>
+        <v>2.284E-3</v>
       </c>
       <c r="O13" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
@@ -11820,7 +11820,7 @@
       <c r="I14" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="240">
+      <c r="J14" s="234">
         <f>ROUND(Calculation!$H40,6)</f>
         <v>2.2490000000000001E-3</v>
       </c>
@@ -11862,9 +11862,9 @@
       <c r="I15" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="238">
+      <c r="J15" s="232">
         <f>ROUND(Calculation!$I34,6)</f>
-        <v>3.179E-3</v>
+        <v>3.176E-3</v>
       </c>
       <c r="K15" s="169"/>
       <c r="L15" s="179">
@@ -11872,7 +11872,7 @@
       </c>
       <c r="M15" s="153"/>
       <c r="N15" s="182">
-        <v>3.179E-3</v>
+        <v>3.176E-3</v>
       </c>
       <c r="O15" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="P15" s="204">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -11908,9 +11908,9 @@
       <c r="I16" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="239">
+      <c r="J16" s="233">
         <f>ROUND(Calculation!$I35,6)</f>
-        <v>3.1770000000000001E-3</v>
+        <v>3.173E-3</v>
       </c>
       <c r="K16" s="169"/>
       <c r="L16" s="179">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="M16" s="153"/>
       <c r="N16" s="182">
-        <v>3.1770000000000001E-3</v>
+        <v>3.173E-3</v>
       </c>
       <c r="O16" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
@@ -11948,9 +11948,9 @@
       <c r="I17" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="239">
+      <c r="J17" s="233">
         <f>ROUND(Calculation!$I36,6)</f>
-        <v>3.1719999999999999E-3</v>
+        <v>3.1689999999999999E-3</v>
       </c>
       <c r="K17" s="169"/>
       <c r="L17" s="179">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="M17" s="153"/>
       <c r="N17" s="182">
-        <v>3.1719999999999999E-3</v>
+        <v>3.1689999999999999E-3</v>
       </c>
       <c r="O17" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
@@ -11988,9 +11988,9 @@
       <c r="I18" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="239">
+      <c r="J18" s="233">
         <f>ROUND(Calculation!$I37,6)</f>
-        <v>3.1679999999999998E-3</v>
+        <v>3.1649999999999998E-3</v>
       </c>
       <c r="K18" s="169"/>
       <c r="L18" s="179">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="M18" s="153"/>
       <c r="N18" s="182">
-        <v>3.1679999999999998E-3</v>
+        <v>3.1649999999999998E-3</v>
       </c>
       <c r="O18" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
@@ -12028,9 +12028,9 @@
       <c r="I19" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="239">
+      <c r="J19" s="233">
         <f>ROUND(Calculation!$I38,6)</f>
-        <v>3.1610000000000002E-3</v>
+        <v>3.16E-3</v>
       </c>
       <c r="K19" s="169"/>
       <c r="L19" s="179">
@@ -12038,7 +12038,7 @@
       </c>
       <c r="M19" s="153"/>
       <c r="N19" s="182">
-        <v>3.1610000000000002E-3</v>
+        <v>3.16E-3</v>
       </c>
       <c r="O19" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
@@ -12068,7 +12068,7 @@
       <c r="I20" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="239">
+      <c r="J20" s="233">
         <f>ROUND(Calculation!$I39,6)</f>
         <v>3.192E-3</v>
       </c>
@@ -12108,9 +12108,9 @@
       <c r="I21" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="239">
+      <c r="J21" s="233">
         <f>ROUND(Calculation!$I40,6)</f>
-        <v>3.2009999999999999E-3</v>
+        <v>3.2049999999999999E-3</v>
       </c>
       <c r="K21" s="169"/>
       <c r="L21" s="179">
@@ -12118,7 +12118,7 @@
       </c>
       <c r="M21" s="153"/>
       <c r="N21" s="182">
-        <v>3.2009999999999999E-3</v>
+        <v>3.2049999999999999E-3</v>
       </c>
       <c r="O21" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
@@ -12148,9 +12148,9 @@
       <c r="I22" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="239">
+      <c r="J22" s="233">
         <f>ROUND(Calculation!$I41,6)</f>
-        <v>3.2030000000000001E-3</v>
+        <v>3.2049999999999999E-3</v>
       </c>
       <c r="K22" s="169"/>
       <c r="L22" s="179">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="M22" s="153"/>
       <c r="N22" s="182">
-        <v>3.2030000000000001E-3</v>
+        <v>3.2049999999999999E-3</v>
       </c>
       <c r="O22" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
@@ -12188,9 +12188,9 @@
       <c r="I23" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="239">
+      <c r="J23" s="233">
         <f>ROUND(Calculation!$I42,6)</f>
-        <v>3.215E-3</v>
+        <v>3.2179999999999999E-3</v>
       </c>
       <c r="K23" s="169"/>
       <c r="L23" s="179">
@@ -12198,7 +12198,7 @@
       </c>
       <c r="M23" s="153"/>
       <c r="N23" s="182">
-        <v>3.215E-3</v>
+        <v>3.2179999999999999E-3</v>
       </c>
       <c r="O23" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
@@ -12228,9 +12228,9 @@
       <c r="I24" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="240">
+      <c r="J24" s="234">
         <f>ROUND(Calculation!$I43,6)</f>
-        <v>3.2260000000000001E-3</v>
+        <v>3.2290000000000001E-3</v>
       </c>
       <c r="K24" s="225"/>
       <c r="L24" s="181">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="M24" s="226"/>
       <c r="N24" s="186">
-        <v>3.2260000000000001E-3</v>
+        <v>3.2290000000000001E-3</v>
       </c>
       <c r="O24" s="187">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
@@ -12270,9 +12270,9 @@
       <c r="I25" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="238">
+      <c r="J25" s="232">
         <f>ROUND(Calculation!$J34,6)</f>
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="K25" s="169"/>
       <c r="L25" s="179">
@@ -12280,15 +12280,15 @@
       </c>
       <c r="M25" s="153"/>
       <c r="N25" s="182">
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="O25" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND(N25,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8870000000000002E-3</v>
       </c>
       <c r="P25" s="204">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -12316,9 +12316,9 @@
       <c r="I26" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="239">
+      <c r="J26" s="233">
         <f>ROUND(Calculation!$J35,6)</f>
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="K26" s="169"/>
       <c r="L26" s="179">
@@ -12326,11 +12326,11 @@
       </c>
       <c r="M26" s="153"/>
       <c r="N26" s="182">
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="O26" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND(N26,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8870000000000002E-3</v>
       </c>
       <c r="P26" s="204"/>
     </row>
@@ -12356,9 +12356,9 @@
       <c r="I27" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="239">
+      <c r="J27" s="233">
         <f>ROUND(Calculation!$J36,6)</f>
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="K27" s="169"/>
       <c r="L27" s="179">
@@ -12366,11 +12366,11 @@
       </c>
       <c r="M27" s="153"/>
       <c r="N27" s="182">
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="O27" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND(N27,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8870000000000002E-3</v>
       </c>
       <c r="P27" s="204"/>
     </row>
@@ -12396,9 +12396,9 @@
       <c r="I28" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="239">
+      <c r="J28" s="233">
         <f>ROUND(Calculation!$J37,6)</f>
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="K28" s="169"/>
       <c r="L28" s="179">
@@ -12406,11 +12406,11 @@
       </c>
       <c r="M28" s="153"/>
       <c r="N28" s="182">
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="O28" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND(N28,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8870000000000002E-3</v>
       </c>
       <c r="P28" s="204"/>
     </row>
@@ -12436,9 +12436,9 @@
       <c r="I29" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="239">
+      <c r="J29" s="233">
         <f>ROUND(Calculation!$J38,6)</f>
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="K29" s="169"/>
       <c r="L29" s="179">
@@ -12446,11 +12446,11 @@
       </c>
       <c r="M29" s="153"/>
       <c r="N29" s="182">
-        <v>4.9649999999999998E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="O29" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND(N29,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8870000000000002E-3</v>
       </c>
       <c r="P29" s="204"/>
     </row>
@@ -12476,9 +12476,9 @@
       <c r="I30" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="J30" s="239">
+      <c r="J30" s="233">
         <f>ROUND(Calculation!$J39,6)</f>
-        <v>5.0150000000000004E-3</v>
+        <v>5.006E-3</v>
       </c>
       <c r="K30" s="169"/>
       <c r="L30" s="179">
@@ -12486,11 +12486,11 @@
       </c>
       <c r="M30" s="153"/>
       <c r="N30" s="182">
-        <v>5.0150000000000004E-3</v>
+        <v>5.006E-3</v>
       </c>
       <c r="O30" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND(N30,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8870000000000002E-3</v>
       </c>
       <c r="P30" s="204"/>
     </row>
@@ -12516,9 +12516,9 @@
       <c r="I31" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="239">
+      <c r="J31" s="233">
         <f>ROUND(Calculation!$J40,6)</f>
-        <v>5.045E-3</v>
+        <v>5.0359999999999997E-3</v>
       </c>
       <c r="K31" s="169"/>
       <c r="L31" s="179">
@@ -12526,11 +12526,11 @@
       </c>
       <c r="M31" s="153"/>
       <c r="N31" s="182">
-        <v>5.045E-3</v>
+        <v>5.0359999999999997E-3</v>
       </c>
       <c r="O31" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND(N31,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8869999999999998E-3</v>
       </c>
       <c r="P31" s="204"/>
     </row>
@@ -12556,9 +12556,9 @@
       <c r="I32" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="239">
+      <c r="J32" s="233">
         <f>ROUND(Calculation!$J41,6)</f>
-        <v>5.0650000000000001E-3</v>
+        <v>5.0559999999999997E-3</v>
       </c>
       <c r="K32" s="169"/>
       <c r="L32" s="179">
@@ -12566,11 +12566,11 @@
       </c>
       <c r="M32" s="153"/>
       <c r="N32" s="182">
-        <v>5.0650000000000001E-3</v>
+        <v>5.0559999999999997E-3</v>
       </c>
       <c r="O32" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND(N32,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8869999999999998E-3</v>
       </c>
       <c r="P32" s="204"/>
     </row>
@@ -12596,9 +12596,9 @@
       <c r="I33" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="239">
+      <c r="J33" s="233">
         <f>ROUND(Calculation!$J42,6)</f>
-        <v>5.0949999999999997E-3</v>
+        <v>5.0860000000000002E-3</v>
       </c>
       <c r="K33" s="169"/>
       <c r="L33" s="179">
@@ -12606,11 +12606,11 @@
       </c>
       <c r="M33" s="153"/>
       <c r="N33" s="182">
-        <v>5.0949999999999997E-3</v>
+        <v>5.0860000000000002E-3</v>
       </c>
       <c r="O33" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND(N33,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8870000000000002E-3</v>
       </c>
       <c r="P33" s="204"/>
     </row>
@@ -12636,9 +12636,9 @@
       <c r="I34" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="239">
+      <c r="J34" s="233">
         <f>ROUND(Calculation!$J43,6)</f>
-        <v>5.1250000000000002E-3</v>
+        <v>5.1159999999999999E-3</v>
       </c>
       <c r="K34" s="169"/>
       <c r="L34" s="179">
@@ -12646,11 +12646,11 @@
       </c>
       <c r="M34" s="153"/>
       <c r="N34" s="182">
-        <v>5.1250000000000002E-3</v>
+        <v>5.1159999999999999E-3</v>
       </c>
       <c r="O34" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND(N34,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8869999999999998E-3</v>
       </c>
       <c r="P34" s="204"/>
     </row>
@@ -12676,9 +12676,9 @@
       <c r="I35" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="239">
+      <c r="J35" s="233">
         <f>ROUND(Calculation!$J44,6)</f>
-        <v>5.1450000000000003E-3</v>
+        <v>5.1359999999999999E-3</v>
       </c>
       <c r="K35" s="169"/>
       <c r="L35" s="179">
@@ -12686,11 +12686,11 @@
       </c>
       <c r="M35" s="153"/>
       <c r="N35" s="182">
-        <v>5.1450000000000003E-3</v>
+        <v>5.1359999999999999E-3</v>
       </c>
       <c r="O35" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8869999999999998E-3</v>
       </c>
       <c r="P35" s="204"/>
     </row>
@@ -12716,9 +12716,9 @@
       <c r="I36" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="J36" s="239">
+      <c r="J36" s="233">
         <f>ROUND(Calculation!$J45,6)</f>
-        <v>5.1850000000000004E-3</v>
+        <v>5.176E-3</v>
       </c>
       <c r="K36" s="169"/>
       <c r="L36" s="179">
@@ -12726,11 +12726,11 @@
       </c>
       <c r="M36" s="153"/>
       <c r="N36" s="182">
-        <v>5.1850000000000004E-3</v>
+        <v>5.176E-3</v>
       </c>
       <c r="O36" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8870000000000002E-3</v>
       </c>
       <c r="P36" s="204"/>
     </row>
@@ -12756,9 +12756,9 @@
       <c r="I37" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="J37" s="239">
+      <c r="J37" s="233">
         <f>ROUND(Calculation!$J46,6)</f>
-        <v>5.2350000000000001E-3</v>
+        <v>5.2259999999999997E-3</v>
       </c>
       <c r="K37" s="169"/>
       <c r="L37" s="179">
@@ -12766,11 +12766,11 @@
       </c>
       <c r="M37" s="153"/>
       <c r="N37" s="182">
-        <v>5.2350000000000001E-3</v>
+        <v>5.2259999999999997E-3</v>
       </c>
       <c r="O37" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND(N37,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8869999999999998E-3</v>
       </c>
       <c r="P37" s="204"/>
     </row>
@@ -12796,9 +12796,9 @@
       <c r="I38" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="J38" s="239">
+      <c r="J38" s="233">
         <f>ROUND(Calculation!$J47,6)</f>
-        <v>5.2849999999999998E-3</v>
+        <v>5.2760000000000003E-3</v>
       </c>
       <c r="K38" s="169"/>
       <c r="L38" s="179">
@@ -12806,11 +12806,11 @@
       </c>
       <c r="M38" s="153"/>
       <c r="N38" s="182">
-        <v>5.2849999999999998E-3</v>
+        <v>5.2760000000000003E-3</v>
       </c>
       <c r="O38" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND(N38,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8870000000000002E-3</v>
       </c>
       <c r="P38" s="204"/>
     </row>
@@ -12836,9 +12836,9 @@
       <c r="I39" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="239">
+      <c r="J39" s="233">
         <f>ROUND(Calculation!$J48,6)</f>
-        <v>5.365E-3</v>
+        <v>5.3559999999999997E-3</v>
       </c>
       <c r="K39" s="169"/>
       <c r="L39" s="179">
@@ -12846,11 +12846,11 @@
       </c>
       <c r="M39" s="153"/>
       <c r="N39" s="182">
-        <v>5.365E-3</v>
+        <v>5.3559999999999997E-3</v>
       </c>
       <c r="O39" s="183">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND(N39,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8869999999999998E-3</v>
       </c>
       <c r="P39" s="204"/>
     </row>
@@ -12876,9 +12876,9 @@
       <c r="I40" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="J40" s="240">
+      <c r="J40" s="234">
         <f>ROUND(Calculation!$J49,6)</f>
-        <v>5.4450000000000002E-3</v>
+        <v>5.4359999999999999E-3</v>
       </c>
       <c r="K40" s="225"/>
       <c r="L40" s="181">
@@ -12886,11 +12886,11 @@
       </c>
       <c r="M40" s="226"/>
       <c r="N40" s="186">
-        <v>5.4450000000000002E-3</v>
+        <v>5.4359999999999999E-3</v>
       </c>
       <c r="O40" s="187">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.8869999999999998E-3</v>
       </c>
       <c r="P40" s="227"/>
     </row>

--- a/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_SynthQuotesFeed.xlsx
@@ -2325,7 +2325,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>47</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="8">
@@ -2440,36 +2440,36 @@
       <sheetData sheetId="10">
         <row r="7">
           <cell r="D7" t="str">
-            <v>N4</v>
+            <v>Q4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>Q4</v>
+            <v>U4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="7">
           <cell r="D7" t="str">
-            <v>N4</v>
+            <v>Q4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>Q4</v>
+            <v>U4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="7">
           <cell r="D7" t="str">
-            <v>V4</v>
+            <v>X4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>X4</v>
+            <v>Z4</v>
           </cell>
         </row>
       </sheetData>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="138">
-        <v>41795.680763888886</v>
+        <v>41809.397766203707</v>
       </c>
       <c r="E11" s="134"/>
       <c r="G11" s="142"/>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D17" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="E17" s="255"/>
       <c r="G17" s="253"/>
@@ -3208,7 +3208,7 @@
         <v>56</v>
       </c>
       <c r="I17" s="55">
-        <v>41795.679988425924</v>
+        <v>41809.397245370368</v>
       </c>
       <c r="J17" s="255"/>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="D18" s="55" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00365#0000</v>
+        <v>obj_00364#0000</v>
       </c>
       <c r="E18" s="255"/>
       <c r="G18" s="253"/>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="I18" s="55">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41795</v>
+        <v>41809</v>
       </c>
       <c r="J18" s="255"/>
     </row>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="I19" s="300">
         <f>[1]!TriggerCounter</f>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J19" s="255"/>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="D31" s="269" t="str">
         <f>_xll.qlLibor(,Currency,IborTenor1Y,YieldCurve1Y,,Trigger)</f>
-        <v>obj_00412#0000</v>
+        <v>obj_00414#0000</v>
       </c>
       <c r="E31" s="255"/>
       <c r="G31" s="253"/>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="I31" s="269" t="str">
         <f>_xll.qlLibor(,Currency,IborTenor6M,YieldCurve6M,,Trigger)</f>
-        <v>obj_00445#0000</v>
+        <v>obj_00412#0000</v>
       </c>
       <c r="J31" s="255"/>
     </row>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="I34" s="270" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,'6M_FRA_Calculation'!J2:J14,'6M_FRA_Calculation'!N2:N14)</f>
-        <v>obj_00619#0045</v>
+        <v>obj_0061b#0040</v>
       </c>
       <c r="J34" s="255"/>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="D35" s="276" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,Ndays,Calendar,_xll.ohPack('1Y_FRA_Calculation'!A3:A127),DayCounter,,,,TraitsID,InterpolatorID)</f>
-        <v>obj_00411#0000</v>
+        <v>obj_00410#0000</v>
       </c>
       <c r="E35" s="255"/>
       <c r="G35" s="253"/>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="I35" s="276" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,Ndays,Calendar,_xll.ohPack('6M_FRA_Calculation'!A2:A127),DayCounter,,,,TraitsID,InterpolatorID)</f>
-        <v>obj_00413#0000</v>
+        <v>obj_00411#0000</v>
       </c>
       <c r="J35" s="255"/>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="D39" s="274">
         <f>MIN(_xll.ohPack('1Y_FRA_Calculation'!E2:E127))</f>
-        <v>0.9063926502983003</v>
+        <v>0.90471464544723379</v>
       </c>
       <c r="E39" s="255"/>
       <c r="G39" s="253"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="I39" s="274">
         <f>MIN(_xll.ohPack('6M_FRA_Calculation'!E2:E127))</f>
-        <v>0.9144866786523792</v>
+        <v>0.91270311802508219</v>
       </c>
       <c r="J39" s="255"/>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003fe#0000</v>
+        <v>obj_00404#0000</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -3715,23 +3715,23 @@
       </c>
       <c r="E2" s="103">
         <f>SettlementDate</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F2" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="G2" s="105">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
-        <v>1.5100000000000001E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="H2" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>9.3999999967309122E-4</v>
+        <v>9.899999997919906E-4</v>
       </c>
       <c r="I2" s="107">
         <f>G2-H2</f>
-        <v>5.7000000032690883E-4</v>
+        <v>5.4000000020800929E-4</v>
       </c>
       <c r="J2" s="108" t="b">
         <v>0</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B3" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031c#0001</v>
+        <v>obj_0031b#0003</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -3783,23 +3783,23 @@
       </c>
       <c r="E3" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41799</v>
+        <v>41810</v>
       </c>
       <c r="F3" s="97">
         <f>F2</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="G3" s="98">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>1.5100000000000001E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="H3" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>9.3999999967309122E-4</v>
+        <v>1.0454665453812405E-3</v>
       </c>
       <c r="I3" s="100">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>5.7000000032690883E-4</v>
+        <v>4.845334546187594E-4</v>
       </c>
       <c r="J3" s="108" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -3807,16 +3807,16 @@
       </c>
       <c r="K3" s="110">
         <f>K4</f>
-        <v>-6.0784568828288207E-7</v>
+        <v>-1.4697085264505213E-6</v>
       </c>
       <c r="L3" s="99">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>5.8823537097539525E-4</v>
+        <v>5.2421558483292348E-4</v>
       </c>
       <c r="M3" s="109"/>
       <c r="N3" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="O3" s="111">
         <f t="shared" si="0"/>
@@ -3824,16 +3824,16 @@
       </c>
       <c r="P3" s="111">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="108"/>
       <c r="R3" s="122">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="S3" s="122">
         <f>(O3+N3)/2</f>
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="T3" s="122">
         <v>1</v>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B4" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0040e#0000</v>
+        <v>obj_0040d#0000</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -3857,23 +3857,23 @@
       </c>
       <c r="E4" s="53">
         <f>F3</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="F4" s="54">
         <f>F5</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="G4" s="27">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>1.4907215084529342E-3</v>
+        <v>1.4136252684661969E-3</v>
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>9.5901578648784698E-4</v>
+        <v>1.0275622851196224E-3</v>
       </c>
       <c r="I4" s="16">
         <f>G4-H4</f>
-        <v>5.3170572196508726E-4</v>
+        <v>3.8606298334657447E-4</v>
       </c>
       <c r="J4" s="1" t="b">
         <f>NOT(ISERROR(I4))</f>
@@ -3881,11 +3881,11 @@
       </c>
       <c r="K4" s="15">
         <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>-6.0784568828288207E-7</v>
+        <v>-1.4697085264505213E-6</v>
       </c>
       <c r="L4" s="15">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>5.8823537097539525E-4</v>
+        <v>5.2421558483292348E-4</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="112">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="O4" s="112">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P4" s="112">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R4" s="91">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2253</v>
+        <v>2305.333333333333</v>
       </c>
       <c r="S4" s="91">
         <f>(O4+N4)/2</f>
-        <v>46.5</v>
+        <v>47</v>
       </c>
       <c r="T4" s="91">
         <v>1</v>
@@ -3922,15 +3922,15 @@
       </c>
       <c r="E5" s="53">
         <f>SettlementDate</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F5" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="G5" s="50">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>1.5E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="16"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00401#0000</v>
+        <v>obj_0040a#0000</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -3965,23 +3965,23 @@
       </c>
       <c r="E6" s="103">
         <f>SettlementDate</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F6" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="G6" s="105">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>2.3059999999999999E-3</v>
+        <v>2.31E-3</v>
       </c>
       <c r="H6" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>9.7000000019611585E-4</v>
+        <v>1.0299999999994493E-3</v>
       </c>
       <c r="I6" s="107">
         <f t="shared" si="1"/>
-        <v>1.335999999803884E-3</v>
+        <v>1.2800000000005507E-3</v>
       </c>
       <c r="J6" s="108" t="b">
         <v>0</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B7" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031d#0001</v>
+        <v>obj_0031c#0003</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -4033,23 +4033,23 @@
       </c>
       <c r="E7" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41799</v>
+        <v>41810</v>
       </c>
       <c r="F7" s="97">
         <f>F6</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="G7" s="98">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>2.3059999999999999E-3</v>
+        <v>2.31E-3</v>
       </c>
       <c r="H7" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>9.7000000019611585E-4</v>
+        <v>1.0480132996887269E-3</v>
       </c>
       <c r="I7" s="100">
         <f t="shared" si="1"/>
-        <v>1.335999999803884E-3</v>
+        <v>1.261986700311273E-3</v>
       </c>
       <c r="J7" s="108" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
@@ -4060,7 +4060,7 @@
       <c r="M7" s="109"/>
       <c r="N7" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="O7" s="111">
         <f t="shared" si="3"/>
@@ -4068,16 +4068,16 @@
       </c>
       <c r="P7" s="111">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="108"/>
       <c r="R7" s="122">
         <f t="shared" si="4"/>
-        <v>2821.333333333333</v>
+        <v>2732.333333333333</v>
       </c>
       <c r="S7" s="122">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>44.5</v>
       </c>
       <c r="T7" s="122">
         <v>1</v>
@@ -4108,11 +4108,11 @@
       <c r="M8" s="109"/>
       <c r="N8" s="111">
         <f t="shared" si="2"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="O8" s="111">
         <f t="shared" si="3"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="P8" s="111" t="e">
         <f t="shared" si="6"/>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="S8" s="122">
         <f t="shared" si="5"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="T8" s="122">
         <v>1</v>
@@ -4156,20 +4156,20 @@
       </c>
       <c r="K9" s="99">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>-1.6610552975502599E-6</v>
+        <v>-3.2999498178883768E-7</v>
       </c>
       <c r="L9" s="99">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.488817087178508E-3</v>
+        <v>1.2913562536904797E-3</v>
       </c>
       <c r="M9" s="109"/>
       <c r="N9" s="111">
         <f t="shared" si="2"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="O9" s="111">
         <f t="shared" si="3"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="P9" s="111" t="e">
         <f t="shared" si="6"/>
@@ -4182,18 +4182,18 @@
       </c>
       <c r="S9" s="122">
         <f t="shared" si="5"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="T9" s="122">
         <v>1</v>
       </c>
       <c r="V9" s="82">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>2821.333333333333</v>
+        <v>2732.333333333333</v>
       </c>
       <c r="W9" s="83">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>46</v>
+        <v>44.5</v>
       </c>
       <c r="X9" s="84">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -4201,35 +4201,35 @@
       </c>
       <c r="Z9" s="67">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>1.5084531411774134E-7</v>
+        <v>5.1616990216393329E-9</v>
       </c>
       <c r="AB9" s="67">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.335999999803884E-3</v>
+        <v>1.261986700311273E-3</v>
       </c>
       <c r="AD9" s="73">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>3.0030030030030103E-3</v>
+        <v>4.6034750712617965E-4</v>
       </c>
       <c r="AE9" s="74">
-        <v>-3.9682539682539784E-3</v>
+        <v>-6.408037299196421E-4</v>
       </c>
       <c r="AF9" s="75">
-        <v>9.6525096525096788E-4</v>
+        <v>1.8045622279346248E-4</v>
       </c>
       <c r="AH9" s="70">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>-7.1557343384043293E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="214" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate-1,FALSE)</f>
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0040f#0000</v>
+        <v>obj_0040e#0000</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -4237,27 +4237,27 @@
       </c>
       <c r="D10" s="11" t="str">
         <f>Currency&amp;"FUT3M"&amp;A10&amp;QuoteSuffix</f>
-        <v>USDFUT3MM4_Quote</v>
+        <v>USDFUT3MN4_Quote</v>
       </c>
       <c r="E10" s="53">
         <f>_xll.qlIMMdate(A10)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="F10" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"3M","mf")</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
       <c r="G10" s="50">
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
-        <v>2.2624999999999451E-3</v>
+        <v>2.3125000000000506E-3</v>
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>9.8001014841688004E-4</v>
+        <v>1.069180770846327E-3</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="1"/>
-        <v>1.2824898515830651E-3</v>
+        <v>1.2433192291537237E-3</v>
       </c>
       <c r="J10" s="1" t="b">
         <f>AND(NOT(ISERROR(I10)))</f>
@@ -4265,41 +4265,41 @@
       </c>
       <c r="K10" s="15">
         <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-2.9727860122677202E-6</v>
+        <v>-3.8096879913366078E-7</v>
       </c>
       <c r="L10" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.6094963129325143E-3</v>
+        <v>1.2958929234341689E-3</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="112">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="O10" s="112">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="P10" s="112">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="R10" s="91">
         <f t="shared" si="4"/>
-        <v>3730.3333333333335</v>
+        <v>5466.3333333333339</v>
       </c>
       <c r="S10" s="91">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="T10" s="91">
         <v>1</v>
       </c>
       <c r="V10" s="85">
-        <v>3730.3333333333335</v>
+        <v>5466.3333333333339</v>
       </c>
       <c r="W10" s="86">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="X10" s="87">
         <v>1</v>
@@ -4308,35 +4308,35 @@
         <v>46</v>
       </c>
       <c r="Z10" s="68">
-        <v>-2.1180948750427488E-5</v>
+        <v>-1.3379410727637267E-6</v>
       </c>
       <c r="AA10" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB10" s="68">
-        <v>1.2824898515830651E-3</v>
+        <v>1.2433192291537237E-3</v>
       </c>
       <c r="AD10" s="76">
-        <v>-0.4144144144144154</v>
+        <v>-9.2187350387060232E-2</v>
       </c>
       <c r="AE10" s="77">
-        <v>0.51190476190476319</v>
+        <v>0.11232479173878784</v>
       </c>
       <c r="AF10" s="78">
-        <v>-9.7490347490347823E-2</v>
+        <v>-2.0137441351727618E-2</v>
       </c>
       <c r="AH10" s="71">
-        <v>-8.4567769453869346E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="214" t="str">
         <f>_xll.qlIMMNextCode(E10,IF(_xll.qlIMMIsIMMdate(E10,TRUE),FALSE,TRUE))</f>
-        <v>N4</v>
+        <v>U4</v>
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00410#0000</v>
+        <v>obj_0040f#0000</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -4344,27 +4344,27 @@
       </c>
       <c r="D11" s="11" t="str">
         <f>Currency&amp;"FUT3M"&amp;A11&amp;QuoteSuffix</f>
-        <v>USDFUT3MN4_Quote</v>
+        <v>USDFUT3MU4_Quote</v>
       </c>
       <c r="E11" s="53">
         <f>_xll.qlIMMdate(A11)</f>
-        <v>41836</v>
+        <v>41899</v>
       </c>
       <c r="F11" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,E11,"3M","mf")</f>
-        <v>41928</v>
+        <v>41990</v>
       </c>
       <c r="G11" s="50">
         <f>1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
-        <v>2.274999999999916E-3</v>
+        <v>2.4250000000001215E-3</v>
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>1.0027104196778632E-3</v>
+        <v>1.200698262939293E-3</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="1"/>
-        <v>1.2722895803220528E-3</v>
+        <v>1.2243017370608285E-3</v>
       </c>
       <c r="J11" s="1" t="b">
         <f>NOT(ISERROR(I11))</f>
@@ -4372,62 +4372,62 @@
       </c>
       <c r="K11" s="15">
         <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-8.6095161461934109E-7</v>
+        <v>-2.1658024856577319E-7</v>
       </c>
       <c r="L11" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4152075483488634E-3</v>
+        <v>1.2812623424336268E-3</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="112">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="O11" s="112">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="P11" s="112">
         <f t="shared" si="6"/>
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="R11" s="91">
         <f t="shared" si="4"/>
-        <v>7594.333333333333</v>
+        <v>17982.333333333332</v>
       </c>
       <c r="S11" s="91">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>131.5</v>
       </c>
       <c r="T11" s="91">
         <v>1</v>
       </c>
       <c r="V11" s="88">
-        <v>7594.333333333333</v>
+        <v>17982.333333333332</v>
       </c>
       <c r="W11" s="89">
-        <v>83</v>
+        <v>131.5</v>
       </c>
       <c r="X11" s="90">
         <v>1</v>
       </c>
       <c r="Z11" s="69">
-        <v>1.8847387294260204E-3</v>
+        <v>1.3074215957557997E-3</v>
       </c>
       <c r="AB11" s="69">
-        <v>1.2722895803220528E-3</v>
+        <v>1.2243017370608285E-3</v>
       </c>
       <c r="AD11" s="79">
-        <v>11.590590590590615</v>
+        <v>3.8445142535864156</v>
       </c>
       <c r="AE11" s="80">
-        <v>-12.351851851851885</v>
+        <v>-3.2475638409922905</v>
       </c>
       <c r="AF11" s="81">
-        <v>1.7612612612612697</v>
+        <v>0.4030495874058751</v>
       </c>
       <c r="AH11" s="72">
-        <v>-1.3444106938820255E-17</v>
+        <v>2.1684043449710089E-19</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003fc#0000</v>
+        <v>obj_00402#0000</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -4448,23 +4448,23 @@
       </c>
       <c r="E12" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="F12" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="G12" s="50">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>2.2599999999999999E-3</v>
+        <v>2.32E-3</v>
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>9.9296569614193897E-4</v>
+        <v>1.082736761241753E-3</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>1.2670343038580609E-3</v>
+        <v>1.2372632387582471E-3</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -4472,11 +4472,11 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.1494282657637191E-6</v>
+        <v>-3.9243589766707908E-7</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4417474002541462E-3</v>
+        <v>1.2969134952036431E-3</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="112">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00400#0000</v>
+        <v>obj_00405#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -4524,23 +4524,23 @@
       </c>
       <c r="E13" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="F13" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41955</v>
+        <v>41969</v>
       </c>
       <c r="G13" s="50">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.3E-3</v>
+        <v>2.3899999999999998E-3</v>
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>1.053102913455427E-3</v>
+        <v>1.1652803520564256E-3</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>1.246897086544573E-3</v>
+        <v>1.2247196479435742E-3</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -4548,16 +4548,16 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-7.0159774219929949E-7</v>
+        <v>-2.8448131578396057E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4005469920862195E-3</v>
+        <v>1.2873055374160456E-3</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="112">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O13" s="112">
         <f t="shared" si="3"/>
@@ -4565,15 +4565,15 @@
       </c>
       <c r="P13" s="112">
         <f t="shared" si="6"/>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R13" s="91">
         <f t="shared" si="4"/>
-        <v>12711</v>
+        <v>12805.333333333334</v>
       </c>
       <c r="S13" s="91">
         <f t="shared" si="5"/>
-        <v>109.5</v>
+        <v>110</v>
       </c>
       <c r="T13" s="91">
         <v>1</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00402#0000</v>
+        <v>obj_00400#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -4600,23 +4600,23 @@
       </c>
       <c r="E14" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="F14" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="G14" s="50">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.32E-3</v>
+        <v>2.4299999999999999E-3</v>
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>1.0903890451317401E-3</v>
+        <v>1.210670335654127E-3</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>1.2296109548682599E-3</v>
+        <v>1.2193296643458729E-3</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -4624,11 +4624,11 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-5.8136090128756366E-7</v>
+        <v>-2.2933890303978562E-7</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.38948520272234E-3</v>
+        <v>1.282397862681814E-3</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="112">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003fd#0000</v>
+        <v>obj_00409#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -4676,23 +4676,23 @@
       </c>
       <c r="E15" s="103">
         <f>SettlementDate</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F15" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="G15" s="105">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
-        <v>3.2240000000000003E-3</v>
+        <v>3.2540000000000004E-3</v>
       </c>
       <c r="H15" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>1.0299999999998242E-3</v>
+        <v>1.1200000000001736E-3</v>
       </c>
       <c r="I15" s="107">
         <f t="shared" si="1"/>
-        <v>2.1940000000001758E-3</v>
+        <v>2.133999999999827E-3</v>
       </c>
       <c r="J15" s="108" t="b">
         <v>0</v>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B16" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031e#0001</v>
+        <v>obj_0031d#0003</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -4744,23 +4744,23 @@
       </c>
       <c r="E16" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41799</v>
+        <v>41810</v>
       </c>
       <c r="F16" s="97">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41982</v>
+        <v>41995</v>
       </c>
       <c r="G16" s="98">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>3.2240000000000003E-3</v>
+        <v>3.2540000000000004E-3</v>
       </c>
       <c r="H16" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>1.0299999999998242E-3</v>
+        <v>1.1270206487944202E-3</v>
       </c>
       <c r="I16" s="100">
         <f t="shared" si="1"/>
-        <v>2.1940000000001758E-3</v>
+        <v>2.1269793512055804E-3</v>
       </c>
       <c r="J16" s="108" t="b">
         <f>AND(NOT(ISERROR(I16)))</f>
@@ -4771,24 +4771,24 @@
       <c r="M16" s="109"/>
       <c r="N16" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="O16" s="111">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P16" s="111">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="108"/>
       <c r="R16" s="122">
         <f t="shared" si="8"/>
-        <v>11163</v>
+        <v>10862.333333333334</v>
       </c>
       <c r="S16" s="122">
         <f t="shared" si="9"/>
-        <v>91.5</v>
+        <v>89.5</v>
       </c>
       <c r="T16" s="122">
         <v>1</v>
@@ -4819,11 +4819,11 @@
       <c r="M17" s="109"/>
       <c r="N17" s="111">
         <f t="shared" si="2"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="O17" s="111">
         <f t="shared" si="3"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="P17" s="111" t="e">
         <f t="shared" si="7"/>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="S17" s="122">
         <f t="shared" si="9"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="T17" s="122">
         <v>1</v>
@@ -4867,20 +4867,20 @@
       </c>
       <c r="K18" s="99">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-5.155238947481853E-7</v>
+        <v>-1.8874754956327148E-7</v>
       </c>
       <c r="L18" s="99">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2883408727390939E-3</v>
+        <v>2.1607651625774062E-3</v>
       </c>
       <c r="M18" s="109"/>
       <c r="N18" s="111">
         <f t="shared" si="2"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="O18" s="111">
         <f t="shared" si="3"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="P18" s="111" t="e">
         <f t="shared" si="7"/>
@@ -4893,18 +4893,18 @@
       </c>
       <c r="S18" s="122">
         <f t="shared" si="9"/>
-        <v>-41799</v>
+        <v>-41813</v>
       </c>
       <c r="T18" s="122">
         <v>1</v>
       </c>
       <c r="V18" s="82">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>11163</v>
+        <v>10862.333333333334</v>
       </c>
       <c r="W18" s="83">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>91.5</v>
+        <v>89.5</v>
       </c>
       <c r="X18" s="84">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -4912,25 +4912,25 @@
       </c>
       <c r="Z18" s="67">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>1.2832995850787475E-8</v>
+        <v>-2.5719430710668681E-9</v>
       </c>
       <c r="AB18" s="67">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>2.1940000000001758E-3</v>
+        <v>2.1269793512055804E-3</v>
       </c>
       <c r="AD18" s="73">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>5.2461309784034341E-4</v>
+        <v>4.5620437956204486E-4</v>
       </c>
       <c r="AE18" s="74">
-        <v>-1.009482779177631E-3</v>
+        <v>-8.9228209531988175E-4</v>
       </c>
       <c r="AF18" s="75">
-        <v>4.8486968133728728E-4</v>
+        <v>4.3607771575783705E-4</v>
       </c>
       <c r="AH18" s="70">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>-5.6378512969246231E-18</v>
+        <v>2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -4951,23 +4951,23 @@
       </c>
       <c r="E19" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="F19" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>42013</v>
+        <v>42027</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>3.2300000000000002E-3</v>
+        <v>3.2999999999999995E-3</v>
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>1.0794806581263577E-3</v>
+        <v>1.1876194127372669E-3</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>2.1505193418736423E-3</v>
+        <v>2.1123805872627329E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -4975,11 +4975,11 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-7.1279767420546818E-7</v>
+        <v>-2.2459636835150098E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3244419743797765E-3</v>
+        <v>2.1671821011404993E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="112">
@@ -5018,25 +5018,25 @@
         <v>46</v>
       </c>
       <c r="Z19" s="68">
-        <v>-4.1783080212351453E-6</v>
+        <v>9.2339768998918022E-8</v>
       </c>
       <c r="AA19" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB19" s="68">
-        <v>2.1505193418736423E-3</v>
+        <v>2.1123805872627329E-3</v>
       </c>
       <c r="AD19" s="76">
-        <v>-0.1453178281017751</v>
+        <v>-0.12682481751824842</v>
       </c>
       <c r="AE19" s="77">
-        <v>0.24932369952917338</v>
+        <v>0.21864265779304473</v>
       </c>
       <c r="AF19" s="78">
-        <v>-0.10400587142739824</v>
+        <v>-9.1817840274796295E-2</v>
       </c>
       <c r="AH19" s="71">
-        <v>-8.6736173798840355E-18</v>
+        <v>3.903127820947816E-18</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00409#0000</v>
+        <v>obj_0040c#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -5057,23 +5057,23 @@
       </c>
       <c r="E20" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="F20" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42046</v>
+        <v>42061</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>3.2699999999999995E-3</v>
+        <v>3.3899999999999998E-3</v>
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>1.1400584077550632E-3</v>
+        <v>1.2987898664990301E-3</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>2.129941592244936E-3</v>
+        <v>2.0912101335009694E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5081,62 +5081,62 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-5.0439691145858121E-7</v>
+        <v>-2.6894148650083472E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2863046347970963E-3</v>
+        <v>2.1751198772892296E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="112">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="112">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P20" s="112">
         <f t="shared" si="7"/>
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R20" s="91">
         <f t="shared" si="8"/>
-        <v>26846.333333333332</v>
+        <v>27157.333333333332</v>
       </c>
       <c r="S20" s="91">
         <f t="shared" si="9"/>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T20" s="91">
         <v>1</v>
       </c>
       <c r="V20" s="88">
-        <v>26846.333333333332</v>
+        <v>27157.333333333332</v>
       </c>
       <c r="W20" s="89">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X20" s="90">
         <v>1</v>
       </c>
       <c r="Z20" s="69">
-        <v>2.4330604512608454E-3</v>
+        <v>2.1466522448324648E-3</v>
       </c>
       <c r="AB20" s="69">
-        <v>2.129941592244936E-3</v>
+        <v>2.0912101335009694E-3</v>
       </c>
       <c r="AD20" s="79">
-        <v>8.4403252601206677</v>
+        <v>7.3953771289537835</v>
       </c>
       <c r="AE20" s="80">
-        <v>-11.544262242959469</v>
+        <v>-9.8762523257478403</v>
       </c>
       <c r="AF20" s="81">
-        <v>4.1039369828388006</v>
+        <v>3.4808751967940568</v>
       </c>
       <c r="AH20" s="72">
-        <v>-1.3877787807814457E-17</v>
+        <v>6.5052130349130266E-18</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00405#0000</v>
+        <v>obj_003f9#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -5157,23 +5157,23 @@
       </c>
       <c r="E21" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="F21" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>3.3299999999999996E-3</v>
+        <v>3.4899999999999996E-3</v>
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>1.195946631941476E-3</v>
+        <v>1.3765437404481902E-3</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>2.1340533680585237E-3</v>
+        <v>2.1134562595518094E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5181,11 +5181,11 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-3.2937709858050647E-7</v>
+        <v>-7.2704793837478699E-8</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2542760090404085E-3</v>
+        <v>2.1399935093024893E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="112">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0040c#0000</v>
+        <v>obj_00406#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -5234,23 +5234,23 @@
       </c>
       <c r="E22" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="F22" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42103</v>
+        <v>42117</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>3.4199999999999999E-3</v>
+        <v>3.6600000000000001E-3</v>
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>1.3136296630150885E-3</v>
+        <v>1.5271437237369852E-3</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>2.1063703369849111E-3</v>
+        <v>2.1328562762630149E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5258,11 +5258,11 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-3.6061589718215947E-7</v>
+        <v>2.3793218856009895E-8</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2599927091845112E-3</v>
+        <v>2.1227203650303547E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="112">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00408#0000</v>
+        <v>obj_003fd#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -5311,23 +5311,23 @@
       </c>
       <c r="E23" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="F23" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42135</v>
+        <v>42150</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>3.5699999999999998E-3</v>
+        <v>3.8900000000000002E-3</v>
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>1.4339958187556247E-3</v>
+        <v>1.7437150043534539E-3</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>2.1360041812443749E-3</v>
+        <v>2.1462849956465462E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5335,11 +5335,11 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.8891146174527988E-7</v>
+        <v>6.1877065515915741E-8</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2285707974995621E-3</v>
+        <v>2.1159033564782316E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="112">
@@ -5348,19 +5348,19 @@
       </c>
       <c r="O23" s="112">
         <f t="shared" si="3"/>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P23" s="112">
         <f t="shared" si="7"/>
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="R23" s="91">
         <f t="shared" si="8"/>
-        <v>62785.333333333328</v>
+        <v>63061</v>
       </c>
       <c r="S23" s="91">
         <f t="shared" si="9"/>
-        <v>245</v>
+        <v>245.5</v>
       </c>
       <c r="T23" s="91">
         <v>1</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0040b#0000</v>
+        <v>obj_003fa#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -5388,23 +5388,23 @@
       </c>
       <c r="E24" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="F24" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>3.7699999999999999E-3</v>
+        <v>4.1700000000000001E-3</v>
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>1.6107500447158807E-3</v>
+        <v>2.0012781880485169E-3</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>2.1592499552841194E-3</v>
+        <v>2.1687218119514832E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5412,11 +5412,11 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-9.5205601961798455E-8</v>
+        <v>1.1312319985339511E-7</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2114226251591851E-3</v>
+        <v>2.1067302984318229E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="112">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0040a#0000</v>
+        <v>obj_00401#0000</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -5461,23 +5461,23 @@
       </c>
       <c r="E25" s="103">
         <f>SettlementDate</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F25" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="G25" s="105">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>5.3449999999999999E-3</v>
+        <v>5.5059999999999996E-3</v>
       </c>
       <c r="H25" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>1.3199999999998877E-3</v>
+        <v>1.5600000000064969E-3</v>
       </c>
       <c r="I25" s="107">
         <f t="shared" si="1"/>
-        <v>4.0250000000001118E-3</v>
+        <v>3.9459999999935024E-3</v>
       </c>
       <c r="J25" s="108" t="b">
         <v>0</v>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0031f#0001</v>
+        <v>obj_0031e#0003</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -5529,23 +5529,23 @@
       </c>
       <c r="E26" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41799</v>
+        <v>41810</v>
       </c>
       <c r="F26" s="97">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42164</v>
+        <v>42177</v>
       </c>
       <c r="G26" s="98">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>5.3449999999999999E-3</v>
+        <v>5.5059999999999996E-3</v>
       </c>
       <c r="H26" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>1.3199999999998877E-3</v>
+        <v>1.5559560643813954E-3</v>
       </c>
       <c r="I26" s="100">
         <f t="shared" si="1"/>
-        <v>4.0250000000001118E-3</v>
+        <v>3.9500439356186037E-3</v>
       </c>
       <c r="J26" s="108" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -5553,33 +5553,33 @@
       </c>
       <c r="K26" s="110">
         <f>K27</f>
-        <v>5.968632697174077E-7</v>
+        <v>5.523601800513903E-7</v>
       </c>
       <c r="L26" s="99">
         <f>L27</f>
-        <v>3.807144906553258E-3</v>
+        <v>3.7506419106200519E-3</v>
       </c>
       <c r="M26" s="109"/>
       <c r="N26" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="O26" s="111">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P26" s="111">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="108"/>
       <c r="R26" s="122">
         <f t="shared" si="8"/>
-        <v>44408.333333333328</v>
+        <v>43804.333333333336</v>
       </c>
       <c r="S26" s="122">
         <f t="shared" si="9"/>
-        <v>182.5</v>
+        <v>180.5</v>
       </c>
       <c r="T26" s="122">
         <v>1</v>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0040d#0000</v>
+        <v>obj_003fe#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -5604,23 +5604,23 @@
       </c>
       <c r="E27" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="F27" s="54">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="G27" s="27">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
-        <v>1.0669999999999999E-2</v>
+        <v>1.1770000000000001E-2</v>
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.2086929498364621E-3</v>
+        <v>7.4139713320436253E-3</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="1"/>
-        <v>4.4613070501635368E-3</v>
+        <v>4.3560286679563756E-3</v>
       </c>
       <c r="J27" s="1" t="b">
         <f>NOT(ISERROR(I27))</f>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="K27" s="15">
         <f>(I27-_xll.ohFilter($I$25:$I$26,$J$25:$J$26))/(P27-_xll.ohFilter($P$25:$P$26,$J$25:$J$26))</f>
-        <v>5.968632697174077E-7</v>
+        <v>5.523601800513903E-7</v>
       </c>
       <c r="L27" s="15">
         <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K27*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>3.807144906553258E-3</v>
+        <v>3.7506419106200519E-3</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="112">
@@ -5725,11 +5725,11 @@
       </c>
       <c r="V30" s="117">
         <f>Z9</f>
-        <v>1.5084531411774134E-7</v>
+        <v>5.1616990216393329E-9</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>1.2832995850787475E-8</v>
+        <v>-2.5719430710668681E-9</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -5738,49 +5738,49 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>5.7000000032690883E-4</v>
+        <v>4.845334546187594E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.335999999803884E-3</v>
+        <v>1.261986700311273E-3</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>2.1940000000001758E-3</v>
+        <v>2.1269793512055804E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>4.0250000000001118E-3</v>
+        <v>3.9500439356186037E-3</v>
       </c>
       <c r="M31" s="58" t="s">
         <v>45</v>
       </c>
       <c r="N31" s="57">
         <f>K4</f>
-        <v>-6.0784568828288207E-7</v>
+        <v>-1.4697085264505213E-6</v>
       </c>
       <c r="O31" s="57">
         <f>K9</f>
-        <v>-1.6610552975502599E-6</v>
+        <v>-3.2999498178883768E-7</v>
       </c>
       <c r="P31" s="57">
         <f>AVERAGE(K19:K21)</f>
-        <v>-5.155238947481853E-7</v>
+        <v>-1.8874754956327148E-7</v>
       </c>
       <c r="Q31" s="57">
         <f>K26</f>
-        <v>5.968632697174077E-7</v>
+        <v>5.523601800513903E-7</v>
       </c>
       <c r="U31" s="118" t="s">
         <v>45</v>
       </c>
       <c r="V31" s="63">
         <f>Z10</f>
-        <v>-2.1180948750427488E-5</v>
+        <v>-1.3379410727637267E-6</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-4.1783080212351453E-6</v>
+        <v>9.2339768998918022E-8</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -5789,49 +5789,49 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>5.7000000032690883E-4</v>
+        <v>4.845334546187594E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>1.335999999803884E-3</v>
+        <v>1.261986700311273E-3</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>2.1940000000001758E-3</v>
+        <v>2.1269793512055804E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>4.0250000000001118E-3</v>
+        <v>3.9500439356186037E-3</v>
       </c>
       <c r="M32" s="58" t="s">
         <v>44</v>
       </c>
       <c r="N32" s="57">
         <f>L4</f>
-        <v>5.8823537097539525E-4</v>
+        <v>5.2421558483292348E-4</v>
       </c>
       <c r="O32" s="57">
         <f>L9</f>
-        <v>1.488817087178508E-3</v>
+        <v>1.2913562536904797E-3</v>
       </c>
       <c r="P32" s="57">
         <f>L18</f>
-        <v>2.2883408727390939E-3</v>
+        <v>2.1607651625774062E-3</v>
       </c>
       <c r="Q32" s="57">
         <f>L26</f>
-        <v>3.807144906553258E-3</v>
+        <v>3.7506419106200519E-3</v>
       </c>
       <c r="U32" s="118" t="s">
         <v>44</v>
       </c>
       <c r="V32" s="63">
         <f>Z11</f>
-        <v>1.8847387294260204E-3</v>
+        <v>1.3074215957557997E-3</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>2.4330604512608454E-3</v>
+        <v>2.1466522448324648E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -5889,7 +5889,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="123" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c9#0000</v>
+        <v>obj_003d6#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -5900,27 +5900,27 @@
       </c>
       <c r="E34" s="51">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
       <c r="G34" s="32">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>1.4876275252872987E-3</v>
+        <v>1.4827458761551737E-3</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>2.7741985368223655E-3</v>
+        <v>2.2667543456344592E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>3.3309755749156979E-3</v>
+        <v>3.1066975572513079E-3</v>
       </c>
       <c r="J34" s="32">
         <f t="shared" si="14"/>
-        <v>4.9250000000002981E-3</v>
+        <v>4.9100439354673045E-3</v>
       </c>
       <c r="K34" s="124">
         <f>F34-$E$6</f>
@@ -5928,40 +5928,40 @@
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>9.0000000000018635E-4</v>
+        <v>9.599999998487008E-4</v>
       </c>
       <c r="N34" s="62">
         <f>N$31*$K34+N$32</f>
-        <v>5.8762752528711238E-4</v>
+        <v>5.2274587630647294E-4</v>
       </c>
       <c r="O34" s="63">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>1.8741985368221793E-3</v>
+        <v>1.3067543457857583E-3</v>
       </c>
       <c r="P34" s="63">
         <f t="shared" si="15"/>
-        <v>2.4309755749155116E-3</v>
+        <v>2.1466975574026071E-3</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
-        <v>3.8077417698229752E-3</v>
+        <v>3.7511942708001035E-3</v>
       </c>
       <c r="U34" s="21" t="s">
         <v>14</v>
       </c>
       <c r="V34" s="63">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>1.8741985368221793E-3</v>
+        <v>1.3067543457857583E-3</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>2.4309755749155116E-3</v>
+        <v>2.1466975574026071E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b7#0000</v>
+        <v>obj_003ea#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -5972,27 +5972,27 @@
       </c>
       <c r="E35" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41806</v>
+        <v>41820</v>
       </c>
       <c r="G35" s="32">
         <f t="shared" si="14"/>
-        <v>1.4839804511576015E-3</v>
+        <v>1.4739276249964707E-3</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>2.7130692155969672E-3</v>
+        <v>2.2628231096005142E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>3.3186459787856049E-3</v>
+        <v>3.1069334254691678E-3</v>
       </c>
       <c r="J35" s="32">
         <f t="shared" si="14"/>
-        <v>4.9250000000002981E-3</v>
+        <v>4.9100439354673045E-3</v>
       </c>
       <c r="K35" s="125">
         <f t="shared" ref="K35:K49" si="18">F35-$E$6</f>
@@ -6000,40 +6000,40 @@
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>9.0000000000018635E-4</v>
+        <v>9.599999998487008E-4</v>
       </c>
       <c r="N35" s="62">
         <f>N$31*$K35+N$32</f>
-        <v>5.8398045115741503E-4</v>
+        <v>5.1392762514776988E-4</v>
       </c>
       <c r="O35" s="63">
         <f t="shared" si="15"/>
-        <v>1.8130692155967807E-3</v>
+        <v>1.3028231097518134E-3</v>
       </c>
       <c r="P35" s="63">
         <f t="shared" si="15"/>
-        <v>2.4186459787854187E-3</v>
+        <v>2.146933425620467E-3</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="16"/>
-        <v>3.8113229494412797E-3</v>
+        <v>3.7545084318804118E-3</v>
       </c>
       <c r="U35" s="23" t="s">
         <v>4</v>
       </c>
       <c r="V35" s="63">
         <f t="shared" si="17"/>
-        <v>1.8130692155967807E-3</v>
+        <v>1.3028231097518134E-3</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>2.4186459787854187E-3</v>
+        <v>2.146933425620467E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003be#0000</v>
+        <v>obj_003d9#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -6044,27 +6044,27 @@
       </c>
       <c r="E36" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41813</v>
+        <v>41827</v>
       </c>
       <c r="G36" s="32">
         <f t="shared" si="14"/>
-        <v>1.4997255275473573E-3</v>
+        <v>1.4836396687589761E-3</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>2.666327311569976E-3</v>
+        <v>2.278393242545561E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>3.3246507137157065E-3</v>
+        <v>3.1271305928978407E-3</v>
       </c>
       <c r="J36" s="32">
         <f t="shared" si="14"/>
-        <v>4.9449999962080339E-3</v>
+        <v>4.9300439389149634E-3</v>
       </c>
       <c r="K36" s="125">
         <f t="shared" si="18"/>
@@ -6072,40 +6072,40 @@
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>9.1999999620792237E-4</v>
+        <v>9.800000032963599E-4</v>
       </c>
       <c r="N36" s="62">
         <f>N$31*$K36+N$32</f>
-        <v>5.7972553133943492E-4</v>
+        <v>5.0363966546261617E-4</v>
       </c>
       <c r="O36" s="63">
         <f t="shared" si="15"/>
-        <v>1.7463273153620537E-3</v>
+        <v>1.2983932392492009E-3</v>
       </c>
       <c r="P36" s="63">
         <f t="shared" si="15"/>
-        <v>2.404650717507784E-3</v>
+        <v>2.1471305896014811E-3</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="16"/>
-        <v>3.8155009923293015E-3</v>
+        <v>3.7583749531407713E-3</v>
       </c>
       <c r="U36" s="23" t="s">
         <v>5</v>
       </c>
       <c r="V36" s="63">
         <f t="shared" si="17"/>
-        <v>1.7463273153620537E-3</v>
+        <v>1.2983932392492009E-3</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>2.404650717507784E-3</v>
+        <v>2.1471305896014811E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b2#0000</v>
+        <v>obj_003cd#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -6116,27 +6116,27 @@
       </c>
       <c r="E37" s="52">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41820</v>
+        <v>41834</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="14"/>
-        <v>1.5054706107835709E-3</v>
+        <v>1.4733517056632174E-3</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="14"/>
-        <v>2.614513027983956E-3</v>
+        <v>2.2741319841337163E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>3.3210746666900584E-3</v>
+        <v>3.1272437366612615E-3</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="14"/>
-        <v>4.9549999992622284E-3</v>
+        <v>4.9300439355043583E-3</v>
       </c>
       <c r="K37" s="126">
         <f t="shared" si="18"/>
@@ -6144,40 +6144,40 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>9.2999999926211623E-4</v>
+        <v>9.7999999988575477E-4</v>
       </c>
       <c r="N37" s="92">
         <f>N$31*$K37+N$32</f>
-        <v>5.7547061152145469E-4</v>
+        <v>4.9335170577746257E-4</v>
       </c>
       <c r="O37" s="93">
         <f t="shared" si="15"/>
-        <v>1.6845130287218397E-3</v>
+        <v>1.2941319842479616E-3</v>
       </c>
       <c r="P37" s="93">
         <f t="shared" si="15"/>
-        <v>2.3910746674279423E-3</v>
+        <v>2.1472437367755066E-3</v>
       </c>
       <c r="Q37" s="14">
         <f t="shared" si="16"/>
-        <v>3.8196790352173237E-3</v>
+        <v>3.7622414744011312E-3</v>
       </c>
       <c r="U37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="V37" s="93">
         <f t="shared" si="17"/>
-        <v>1.6845130287218397E-3</v>
+        <v>1.2941319842479616E-3</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>2.3910746674279423E-3</v>
+        <v>2.1472437367755066E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ce#0000</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -6188,27 +6188,27 @@
       </c>
       <c r="E38" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="14"/>
-        <v>1.5100000000000001E-3</v>
+        <v>1.4701243288313985E-3</v>
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>2.5522780920780217E-3</v>
+        <v>2.2789009891628262E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>3.3142357293706459E-3</v>
+        <v>3.1372657582381192E-3</v>
       </c>
       <c r="J38" s="34">
         <f t="shared" si="14"/>
-        <v>4.964999999673203E-3</v>
+        <v>4.9400439354105943E-3</v>
       </c>
       <c r="K38" s="124">
         <f t="shared" si="18"/>
@@ -6216,40 +6216,40 @@
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>9.3999999967309122E-4</v>
+        <v>9.899999997919906E-4</v>
       </c>
       <c r="N38" s="62">
         <f>N$31*$K38+N$32</f>
-        <v>5.7000000032690883E-4</v>
+        <v>4.8012432903940788E-4</v>
       </c>
       <c r="O38" s="63">
         <f t="shared" si="15"/>
-        <v>1.6122780924049305E-3</v>
+        <v>1.2889009893708356E-3</v>
       </c>
       <c r="P38" s="63">
         <f t="shared" si="15"/>
-        <v>2.3742357296975547E-3</v>
+        <v>2.1472657584461286E-3</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="16"/>
-        <v>3.82505080464478E-3</v>
+        <v>3.7672127160215934E-3</v>
       </c>
       <c r="U38" s="23" t="s">
         <v>9</v>
       </c>
       <c r="V38" s="63">
         <f t="shared" si="17"/>
-        <v>1.6122780924049305E-3</v>
+        <v>1.2889009893708356E-3</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>2.3742357296975547E-3</v>
+        <v>2.1472657584461286E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ea#0000</v>
+        <v>obj_003e1#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -6260,62 +6260,62 @@
       </c>
       <c r="E39" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>2.3671071943661575E-3</v>
+        <v>2.2816549211578611E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>3.2684218021033612E-3</v>
+        <v>3.1560955578336892E-3</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" si="19"/>
-        <v>4.9750000000009431E-3</v>
+        <v>4.960043935618226E-3</v>
       </c>
       <c r="K39" s="125">
         <f t="shared" si="18"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>9.5000000000083115E-4</v>
+        <v>1.0099999999996223E-3</v>
       </c>
       <c r="N39" s="47"/>
       <c r="O39" s="63">
         <f t="shared" si="15"/>
-        <v>1.4171071943653263E-3</v>
+        <v>1.2716549211582388E-3</v>
       </c>
       <c r="P39" s="63">
         <f t="shared" si="15"/>
-        <v>2.31842180210253E-3</v>
+        <v>2.1460955578340669E-3</v>
       </c>
       <c r="Q39" s="16">
         <f t="shared" si="16"/>
-        <v>3.8447472925454548E-3</v>
+        <v>3.7859929621433409E-3</v>
       </c>
       <c r="U39" s="23" t="s">
         <v>10</v>
       </c>
       <c r="V39" s="63">
         <f t="shared" si="17"/>
-        <v>1.4171071943653263E-3</v>
+        <v>1.2716549211582388E-3</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>2.31842180210253E-3</v>
+        <v>2.1460955578340669E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003e2#0000</v>
+        <v>obj_003f2#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -6326,24 +6326,24 @@
       </c>
       <c r="E40" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>2.305999999999993E-3</v>
+        <v>2.2904391799145026E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>3.2470644414404996E-3</v>
+        <v>3.1736435654880278E-3</v>
       </c>
       <c r="J40" s="32">
         <f t="shared" si="19"/>
-        <v>4.9950000001962279E-3</v>
+        <v>4.9800439356180535E-3</v>
       </c>
       <c r="K40" s="125">
         <f t="shared" si="18"/>
@@ -6351,37 +6351,37 @@
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>9.7000000019611585E-4</v>
+        <v>1.0299999999994493E-3</v>
       </c>
       <c r="N40" s="45"/>
       <c r="O40" s="63">
         <f t="shared" si="15"/>
-        <v>1.3359999998038769E-3</v>
+        <v>1.2604391799150535E-3</v>
       </c>
       <c r="P40" s="63">
         <f t="shared" si="15"/>
-        <v>2.277064441244384E-3</v>
+        <v>2.1436435654885785E-3</v>
       </c>
       <c r="Q40" s="16">
         <f t="shared" si="16"/>
-        <v>3.8620563273672596E-3</v>
+        <v>3.8014590471847796E-3</v>
       </c>
       <c r="U40" s="23" t="s">
         <v>3</v>
       </c>
       <c r="V40" s="63">
         <f t="shared" si="17"/>
-        <v>1.3359999998038769E-3</v>
+        <v>1.2604391799150535E-3</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>2.277064441244384E-3</v>
+        <v>2.1436435654885785E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f5#0000</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -6392,21 +6392,21 @@
       </c>
       <c r="E41" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="46"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>3.2218524321116692E-3</v>
+        <v>3.1995247038520023E-3</v>
       </c>
       <c r="J41" s="32">
         <f t="shared" si="20"/>
-        <v>5.0050000000652394E-3</v>
+        <v>5.0100439356191269E-3</v>
       </c>
       <c r="K41" s="125">
         <f t="shared" si="18"/>
@@ -6414,17 +6414,17 @@
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>9.8000000006512734E-4</v>
+        <v>1.0600000000005232E-3</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="46"/>
       <c r="P41" s="63">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>2.2418524320465417E-3</v>
+        <v>2.1395247038514791E-3</v>
       </c>
       <c r="Q41" s="16">
         <f t="shared" si="16"/>
-        <v>3.8799622254587817E-3</v>
+        <v>3.8180298525863215E-3</v>
       </c>
       <c r="U41" s="23" t="s">
         <v>12</v>
@@ -6432,13 +6432,13 @@
       <c r="V41" s="63"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>2.2418524320465417E-3</v>
+        <v>2.1395247038514791E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ac#0000</v>
+        <v>obj_003cf#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -6449,21 +6449,21 @@
       </c>
       <c r="E42" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="44"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>3.2227798434913148E-3</v>
+        <v>3.2334303397541803E-3</v>
       </c>
       <c r="J42" s="32">
         <f t="shared" si="20"/>
-        <v>5.0349999999999284E-3</v>
+        <v>5.0500439356185433E-3</v>
       </c>
       <c r="K42" s="125">
         <f t="shared" si="18"/>
@@ -6471,17 +6471,17 @@
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>1.009999999999817E-3</v>
+        <v>1.0999999999999396E-3</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="44"/>
       <c r="P42" s="63">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>2.2127798434914978E-3</v>
+        <v>2.1334303397542408E-3</v>
       </c>
       <c r="Q42" s="16">
         <f t="shared" si="16"/>
-        <v>3.8990618500897387E-3</v>
+        <v>3.8357053783479658E-3</v>
       </c>
       <c r="U42" s="23" t="s">
         <v>13</v>
@@ -6489,13 +6489,13 @@
       <c r="V42" s="63"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>2.2127798434914978E-3</v>
+        <v>2.1334303397542408E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d8#0000</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -6506,21 +6506,21 @@
       </c>
       <c r="E43" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="44"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>3.2239999999999942E-3</v>
+        <v>3.2463907331937202E-3</v>
       </c>
       <c r="J43" s="32">
         <f t="shared" si="20"/>
-        <v>5.0549999999999363E-3</v>
+        <v>5.0700439356187775E-3</v>
       </c>
       <c r="K43" s="125">
         <f t="shared" si="18"/>
@@ -6528,17 +6528,17 @@
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>1.0299999999998242E-3</v>
+        <v>1.1200000000001736E-3</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="44"/>
       <c r="P43" s="63">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>2.1940000000001702E-3</v>
+        <v>2.1263907331935464E-3</v>
       </c>
       <c r="Q43" s="16">
         <f t="shared" si="16"/>
-        <v>3.916370884911544E-3</v>
+        <v>3.8517238235694562E-3</v>
       </c>
       <c r="U43" s="120" t="s">
         <v>15</v>
@@ -6546,13 +6546,13 @@
       <c r="V43" s="93"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>2.1940000000001702E-3</v>
+        <v>2.1263907331935464E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c3#0000</v>
+        <v>obj_003f5#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -6563,18 +6563,18 @@
       </c>
       <c r="E44" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>42013</v>
+        <v>42027</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
       <c r="I44" s="46"/>
       <c r="J44" s="32">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
-        <v>5.0850000000001085E-3</v>
+        <v>5.1100439356188817E-3</v>
       </c>
       <c r="K44" s="125">
         <f t="shared" si="18"/>
@@ -6582,20 +6582,20 @@
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>1.0599999999999965E-3</v>
+        <v>1.160000000000278E-3</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
       <c r="P44" s="46"/>
       <c r="Q44" s="16">
         <f t="shared" si="16"/>
-        <v>3.9348736462727829E-3</v>
+        <v>3.8688469891510493E-3</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c1#0000</v>
+        <v>obj_003eb#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -6606,18 +6606,18 @@
       </c>
       <c r="E45" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42044</v>
+        <v>42058</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="44"/>
       <c r="J45" s="32">
         <f t="shared" si="21"/>
-        <v>5.1150000000003189E-3</v>
+        <v>5.170043935619581E-3</v>
       </c>
       <c r="K45" s="125">
         <f t="shared" si="18"/>
@@ -6625,20 +6625,20 @@
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>1.0900000000002076E-3</v>
+        <v>1.2200000000009777E-3</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
       <c r="P45" s="44"/>
       <c r="Q45" s="16">
         <f t="shared" si="16"/>
-        <v>3.9533764076340227E-3</v>
+        <v>3.8859701547326424E-3</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b8#0000</v>
+        <v>obj_003ee#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -6649,18 +6649,18 @@
       </c>
       <c r="E46" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
       <c r="I46" s="44"/>
       <c r="J46" s="32">
         <f t="shared" si="21"/>
-        <v>5.1450000000003047E-3</v>
+        <v>5.2100439356199185E-3</v>
       </c>
       <c r="K46" s="125">
         <f t="shared" si="18"/>
@@ -6668,20 +6668,20 @@
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>1.1200000000001929E-3</v>
+        <v>1.260000000001315E-3</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
       <c r="P46" s="44"/>
       <c r="Q46" s="16">
         <f t="shared" si="16"/>
-        <v>3.9700885791861106E-3</v>
+        <v>3.9014362397740815E-3</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003af#0000</v>
+        <v>obj_003e3#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -6692,18 +6692,18 @@
       </c>
       <c r="E47" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42103</v>
+        <v>42117</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
       <c r="I47" s="44"/>
       <c r="J47" s="32">
         <f t="shared" si="21"/>
-        <v>5.2050000000000065E-3</v>
+        <v>5.290043935622807E-3</v>
       </c>
       <c r="K47" s="125">
         <f t="shared" si="18"/>
@@ -6711,20 +6711,20 @@
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>1.1799999999998945E-3</v>
+        <v>1.3400000000042035E-3</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
       <c r="P47" s="44"/>
       <c r="Q47" s="16">
         <f t="shared" si="16"/>
-        <v>3.9885913405473495E-3</v>
+        <v>3.9185594053556747E-3</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a7#0000</v>
+        <v>obj_003d8#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -6735,39 +6735,39 @@
       </c>
       <c r="E48" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42135</v>
+        <v>42150</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="44"/>
       <c r="J48" s="32">
         <f t="shared" si="21"/>
-        <v>5.2650000000002417E-3</v>
+        <v>5.4000439356242484E-3</v>
       </c>
       <c r="K48" s="125">
         <f t="shared" si="18"/>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>1.2400000000001299E-3</v>
+        <v>1.4500000000056447E-3</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
       <c r="P48" s="44"/>
       <c r="Q48" s="16">
         <f t="shared" si="16"/>
-        <v>4.0076909651783066E-3</v>
+        <v>3.9367872912973705E-3</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f1#0000</v>
+        <v>obj_003c8#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -6778,18 +6778,18 @@
       </c>
       <c r="E49" s="53">
         <f t="shared" si="13"/>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="44"/>
       <c r="J49" s="32">
         <f t="shared" si="21"/>
-        <v>5.3449999999999991E-3</v>
+        <v>5.5100439356251009E-3</v>
       </c>
       <c r="K49" s="125">
         <f t="shared" si="18"/>
@@ -6797,14 +6797,14 @@
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>1.3199999999998877E-3</v>
+        <v>1.5600000000064969E-3</v>
       </c>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
       <c r="P49" s="66"/>
       <c r="Q49" s="14">
         <f t="shared" si="16"/>
-        <v>4.0250000000001118E-3</v>
+        <v>3.9522533763388093E-3</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="C2" s="345" t="str">
         <f>_xll.qlLibor(,Currency,B2,,,EvaluationDate)</f>
-        <v>obj_00320#0000</v>
+        <v>obj_0031f#0000</v>
       </c>
       <c r="D2" s="343" t="s">
         <v>97</v>
@@ -6906,11 +6906,11 @@
       </c>
       <c r="F2" s="343" t="str">
         <f>_xll.qlDepositRateHelper(,E2,$C2)</f>
-        <v>obj_0039e#0000</v>
+        <v>obj_0039b#0000</v>
       </c>
       <c r="G2" s="344">
         <f>_xll.qlRateHelperQuoteValue(F2,InterestRatesTrigger)</f>
-        <v>3.3310000000000002E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="H2" s="343" t="b">
         <v>1</v>
@@ -6923,11 +6923,11 @@
       </c>
       <c r="K2" s="341">
         <f>_xll.qlRateHelperEarliestDate($F2)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L2" s="355">
         <f>_xll.qlRateHelperLatestDate($F2)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
       <c r="M2" s="325"/>
     </row>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="C3" s="338" t="str">
         <f>_xll.qlLibor(,Currency,B3,,,EvaluationDate)</f>
-        <v>obj_00326#0000</v>
+        <v>obj_00324#0000</v>
       </c>
       <c r="D3" s="336" t="s">
         <v>97</v>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="G3" s="337">
         <f>_xll.qlRateHelperQuoteValue(F3,InterestRatesTrigger)</f>
-        <v>3.3189999999999999E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="H3" s="336" t="b">
         <v>1</v>
@@ -6966,11 +6966,11 @@
       </c>
       <c r="K3" s="334">
         <f>_xll.qlRateHelperEarliestDate($F3)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L3" s="333">
         <f>_xll.qlRateHelperLatestDate($F3)</f>
-        <v>41806</v>
+        <v>41820</v>
       </c>
       <c r="M3" s="325"/>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C4" s="338" t="str">
         <f>_xll.qlLibor(,Currency,B4,,,EvaluationDate)</f>
-        <v>obj_00324#0000</v>
+        <v>obj_00326#0000</v>
       </c>
       <c r="D4" s="336" t="s">
         <v>97</v>
@@ -6992,11 +6992,11 @@
       </c>
       <c r="F4" s="336" t="str">
         <f>_xll.qlDepositRateHelper(,E4,$C4)</f>
-        <v>obj_0039d#0000</v>
+        <v>obj_0039a#0000</v>
       </c>
       <c r="G4" s="337">
         <f>_xll.qlRateHelperQuoteValue(F4,InterestRatesTrigger)</f>
-        <v>3.3249999999999998E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="H4" s="336" t="b">
         <v>1</v>
@@ -7009,11 +7009,11 @@
       </c>
       <c r="K4" s="334">
         <f>_xll.qlRateHelperEarliestDate($F4)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L4" s="333">
         <f>_xll.qlRateHelperLatestDate($F4)</f>
-        <v>41813</v>
+        <v>41827</v>
       </c>
       <c r="M4" s="325"/>
     </row>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="C5" s="338" t="str">
         <f>_xll.qlLibor(,Currency,B5,,,EvaluationDate)</f>
-        <v>obj_00329#0000</v>
+        <v>obj_00327#0000</v>
       </c>
       <c r="D5" s="336" t="s">
         <v>97</v>
@@ -7035,11 +7035,11 @@
       </c>
       <c r="F5" s="336" t="str">
         <f>_xll.qlDepositRateHelper(,E5,$C5)</f>
-        <v>obj_003a2#0000</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="G5" s="337">
         <f>_xll.qlRateHelperQuoteValue(F5,InterestRatesTrigger)</f>
-        <v>3.3210000000000002E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="H5" s="336" t="b">
         <v>1</v>
@@ -7052,11 +7052,11 @@
       </c>
       <c r="K5" s="334">
         <f>_xll.qlRateHelperEarliestDate($F5)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L5" s="333">
         <f>_xll.qlRateHelperLatestDate($F5)</f>
-        <v>41820</v>
+        <v>41834</v>
       </c>
       <c r="M5" s="325"/>
     </row>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="C6" s="338" t="str">
         <f>_xll.qlLibor(,Currency,B6,,,EvaluationDate)</f>
-        <v>obj_00328#0000</v>
+        <v>obj_00322#0000</v>
       </c>
       <c r="D6" s="336" t="s">
         <v>97</v>
@@ -7078,11 +7078,11 @@
       </c>
       <c r="F6" s="336" t="str">
         <f>_xll.qlDepositRateHelper(,E6,$C6)</f>
-        <v>obj_0039b#0000</v>
+        <v>obj_0039e#0000</v>
       </c>
       <c r="G6" s="337">
         <f>_xll.qlRateHelperQuoteValue(F6,InterestRatesTrigger)</f>
-        <v>3.3140000000000001E-3</v>
+        <v>3.137E-3</v>
       </c>
       <c r="H6" s="336" t="b">
         <v>1</v>
@@ -7095,11 +7095,11 @@
       </c>
       <c r="K6" s="334">
         <f>_xll.qlRateHelperEarliestDate($F6)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L6" s="333">
         <f>_xll.qlRateHelperLatestDate($F6)</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="M6" s="325"/>
     </row>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C7" s="338" t="str">
         <f>_xll.qlLibor(,Currency,B7,,,EvaluationDate)</f>
-        <v>obj_00321#0000</v>
+        <v>obj_00320#0000</v>
       </c>
       <c r="D7" s="336" t="s">
         <v>97</v>
@@ -7121,11 +7121,11 @@
       </c>
       <c r="F7" s="336" t="str">
         <f>_xll.qlDepositRateHelper(,E7,$C7)</f>
-        <v>obj_003a1#0000</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="G7" s="337">
         <f>_xll.qlRateHelperQuoteValue(F7,InterestRatesTrigger)</f>
-        <v>3.2680000000000001E-3</v>
+        <v>3.156E-3</v>
       </c>
       <c r="H7" s="336" t="b">
         <v>1</v>
@@ -7138,11 +7138,11 @@
       </c>
       <c r="K7" s="334">
         <f>_xll.qlRateHelperEarliestDate($F7)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L7" s="333">
         <f>_xll.qlRateHelperLatestDate($F7)</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="M7" s="325"/>
     </row>
@@ -7164,11 +7164,11 @@
       </c>
       <c r="F8" s="336" t="str">
         <f>_xll.qlDepositRateHelper(,E8,$C8)</f>
-        <v>obj_003a0#0000</v>
+        <v>obj_0039c#0000</v>
       </c>
       <c r="G8" s="337">
         <f>_xll.qlRateHelperQuoteValue(F8,InterestRatesTrigger)</f>
-        <v>3.2469999999999999E-3</v>
+        <v>3.1740000000000002E-3</v>
       </c>
       <c r="H8" s="336" t="b">
         <v>1</v>
@@ -7181,11 +7181,11 @@
       </c>
       <c r="K8" s="334">
         <f>_xll.qlRateHelperEarliestDate($F8)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L8" s="333">
         <f>_xll.qlRateHelperLatestDate($F8)</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="M8" s="325"/>
     </row>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="C9" s="338" t="str">
         <f>_xll.qlLibor(,Currency,B9,,,EvaluationDate)</f>
-        <v>obj_00327#0000</v>
+        <v>obj_00323#0000</v>
       </c>
       <c r="D9" s="336" t="s">
         <v>97</v>
@@ -7207,11 +7207,11 @@
       </c>
       <c r="F9" s="336" t="str">
         <f>_xll.qlDepositRateHelper(,E9,$C9)</f>
-        <v>obj_003a3#0000</v>
+        <v>obj_0039d#0000</v>
       </c>
       <c r="G9" s="337">
         <f>_xll.qlRateHelperQuoteValue(F9,InterestRatesTrigger)</f>
-        <v>3.222E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="H9" s="336" t="b">
         <v>1</v>
@@ -7224,11 +7224,11 @@
       </c>
       <c r="K9" s="334">
         <f>_xll.qlRateHelperEarliestDate($F9)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L9" s="333">
         <f>_xll.qlRateHelperLatestDate($F9)</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="M9" s="325"/>
     </row>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="C10" s="338" t="str">
         <f>_xll.qlLibor(,Currency,B10,,,EvaluationDate)</f>
-        <v>obj_0033f#0000</v>
+        <v>obj_0033e#0000</v>
       </c>
       <c r="D10" s="336" t="s">
         <v>97</v>
@@ -7250,11 +7250,11 @@
       </c>
       <c r="F10" s="336" t="str">
         <f>_xll.qlDepositRateHelper(,E10,$C10)</f>
-        <v>obj_0039c#0000</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="G10" s="337">
         <f>_xll.qlRateHelperQuoteValue(F10,InterestRatesTrigger)</f>
-        <v>3.2230000000000002E-3</v>
+        <v>3.2330000000000002E-3</v>
       </c>
       <c r="H10" s="336" t="b">
         <v>1</v>
@@ -7267,11 +7267,11 @@
       </c>
       <c r="K10" s="334">
         <f>_xll.qlRateHelperEarliestDate($F10)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L10" s="333">
         <f>_xll.qlRateHelperLatestDate($F10)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="M10" s="325"/>
     </row>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="C11" s="338" t="str">
         <f>_xll.qlLibor(,Currency,Tenor6M,,,EvaluationDate)</f>
-        <v>obj_00322#0000</v>
+        <v>obj_00321#0000</v>
       </c>
       <c r="D11" s="336" t="s">
         <v>97</v>
@@ -7293,11 +7293,11 @@
       </c>
       <c r="F11" s="336" t="str">
         <f>_xll.qlDepositRateHelper(,E11,$C11)</f>
-        <v>obj_003a5#0000</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="G11" s="337">
         <f>_xll.qlRateHelperQuoteValue(F11,InterestRatesTrigger)</f>
-        <v>3.2239999999999999E-3</v>
+        <v>3.2460000000000002E-3</v>
       </c>
       <c r="H11" s="336" t="b">
         <v>1</v>
@@ -7310,11 +7310,11 @@
       </c>
       <c r="K11" s="334">
         <f>_xll.qlRateHelperEarliestDate($F11)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L11" s="333">
         <f>_xll.qlRateHelperLatestDate($F11)</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="M11" s="325"/>
     </row>
@@ -7336,11 +7336,11 @@
       </c>
       <c r="F12" s="343" t="str">
         <f>_xll.qlFraRateHelper(,E12,B12&amp;"M",$C$11)</f>
-        <v>obj_00332#0000</v>
+        <v>obj_0032f#0000</v>
       </c>
       <c r="G12" s="344">
         <f>_xll.qlRateHelperQuoteValue(F12,InterestRatesTrigger)</f>
-        <v>3.2300000000000002E-3</v>
+        <v>3.2999999999999995E-3</v>
       </c>
       <c r="H12" s="343" t="b">
         <v>1</v>
@@ -7353,11 +7353,11 @@
       </c>
       <c r="K12" s="341">
         <f>_xll.qlRateHelperEarliestDate($F12)</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="L12" s="355">
         <f>_xll.qlRateHelperLatestDate($F12)</f>
-        <v>42013</v>
+        <v>42027</v>
       </c>
       <c r="M12" s="325"/>
     </row>
@@ -7379,11 +7379,11 @@
       </c>
       <c r="F13" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E13,B13&amp;"M",$C$11)</f>
-        <v>obj_00330#0000</v>
+        <v>obj_0032a#0000</v>
       </c>
       <c r="G13" s="337">
         <f>_xll.qlRateHelperQuoteValue(F13,InterestRatesTrigger)</f>
-        <v>3.2699999999999995E-3</v>
+        <v>3.3899999999999998E-3</v>
       </c>
       <c r="H13" s="336" t="b">
         <v>1</v>
@@ -7396,11 +7396,11 @@
       </c>
       <c r="K13" s="334">
         <f>_xll.qlRateHelperEarliestDate($F13)</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="L13" s="334">
         <f>_xll.qlRateHelperLatestDate($F13)</f>
-        <v>42046</v>
+        <v>42061</v>
       </c>
       <c r="M13" s="325"/>
     </row>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="F14" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E14,B14&amp;"M",$C$11)</f>
-        <v>obj_0032a#0000</v>
+        <v>obj_00331#0000</v>
       </c>
       <c r="G14" s="337">
         <f>_xll.qlRateHelperQuoteValue(F14,InterestRatesTrigger)</f>
-        <v>3.3299999999999996E-3</v>
+        <v>3.4899999999999996E-3</v>
       </c>
       <c r="H14" s="336" t="b">
         <v>1</v>
@@ -7439,11 +7439,11 @@
       </c>
       <c r="K14" s="334">
         <f>_xll.qlRateHelperEarliestDate($F14)</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="L14" s="334">
         <f>_xll.qlRateHelperLatestDate($F14)</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="M14" s="325"/>
     </row>
@@ -7465,11 +7465,11 @@
       </c>
       <c r="F15" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E15,B15&amp;"M",$C$11)</f>
-        <v>obj_0032e#0000</v>
+        <v>obj_0032c#0000</v>
       </c>
       <c r="G15" s="337">
         <f>_xll.qlRateHelperQuoteValue(F15,InterestRatesTrigger)</f>
-        <v>3.4199999999999999E-3</v>
+        <v>3.6600000000000001E-3</v>
       </c>
       <c r="H15" s="336" t="b">
         <v>1</v>
@@ -7482,11 +7482,11 @@
       </c>
       <c r="K15" s="334">
         <f>_xll.qlRateHelperEarliestDate($F15)</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="L15" s="334">
         <f>_xll.qlRateHelperLatestDate($F15)</f>
-        <v>42103</v>
+        <v>42117</v>
       </c>
       <c r="M15" s="325"/>
     </row>
@@ -7508,11 +7508,11 @@
       </c>
       <c r="F16" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E16,B16&amp;"M",$C$11)</f>
-        <v>obj_00331#0000</v>
+        <v>obj_00329#0000</v>
       </c>
       <c r="G16" s="337">
         <f>_xll.qlRateHelperQuoteValue(F16,InterestRatesTrigger)</f>
-        <v>3.5699999999999998E-3</v>
+        <v>3.8900000000000002E-3</v>
       </c>
       <c r="H16" s="336" t="b">
         <v>1</v>
@@ -7525,11 +7525,11 @@
       </c>
       <c r="K16" s="334">
         <f>_xll.qlRateHelperEarliestDate($F16)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="L16" s="334">
         <f>_xll.qlRateHelperLatestDate($F16)</f>
-        <v>42135</v>
+        <v>42150</v>
       </c>
       <c r="M16" s="325"/>
     </row>
@@ -7551,11 +7551,11 @@
       </c>
       <c r="F17" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E17,B17&amp;"M",$C$11)</f>
-        <v>obj_0032f#0000</v>
+        <v>obj_0032b#0000</v>
       </c>
       <c r="G17" s="337">
         <f>_xll.qlRateHelperQuoteValue(F17,InterestRatesTrigger)</f>
-        <v>3.7699999999999999E-3</v>
+        <v>4.1700000000000001E-3</v>
       </c>
       <c r="H17" s="336" t="b">
         <v>1</v>
@@ -7568,11 +7568,11 @@
       </c>
       <c r="K17" s="334">
         <f>_xll.qlRateHelperEarliestDate($F17)</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="L17" s="334">
         <f>_xll.qlRateHelperLatestDate($F17)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="M17" s="325"/>
     </row>
@@ -7594,11 +7594,11 @@
       </c>
       <c r="F18" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E18,B18&amp;"M",$C$11)</f>
-        <v>obj_0032d#0000</v>
+        <v>obj_0032e#0000</v>
       </c>
       <c r="G18" s="337">
         <f>_xll.qlRateHelperQuoteValue(F18,InterestRatesTrigger)</f>
-        <v>4.8500000000000001E-3</v>
+        <v>5.5200000000000006E-3</v>
       </c>
       <c r="H18" s="336" t="b">
         <v>1</v>
@@ -7611,11 +7611,11 @@
       </c>
       <c r="K18" s="334">
         <f>_xll.qlRateHelperEarliestDate($F18)</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="L18" s="334">
         <f>_xll.qlRateHelperLatestDate($F18)</f>
-        <v>42256</v>
+        <v>42270</v>
       </c>
       <c r="M18" s="325"/>
     </row>
@@ -7637,11 +7637,11 @@
       </c>
       <c r="F19" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E19,B19&amp;"M",$C$11)</f>
-        <v>obj_0032b#0000</v>
+        <v>obj_0032d#0000</v>
       </c>
       <c r="G19" s="337">
         <f>_xll.qlRateHelperQuoteValue(F19,InterestRatesTrigger)</f>
-        <v>6.5400000000000007E-3</v>
+        <v>7.4700000000000001E-3</v>
       </c>
       <c r="H19" s="336" t="b">
         <v>1</v>
@@ -7654,11 +7654,11 @@
       </c>
       <c r="K19" s="334">
         <f>_xll.qlRateHelperEarliestDate($F19)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="L19" s="334">
         <f>_xll.qlRateHelperLatestDate($F19)</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="M19" s="325"/>
     </row>
@@ -7680,11 +7680,11 @@
       </c>
       <c r="F20" s="329" t="str">
         <f>_xll.qlFraRateHelper(,E20,B20&amp;"M",$C$11)</f>
-        <v>obj_0032c#0000</v>
+        <v>obj_00330#0000</v>
       </c>
       <c r="G20" s="330">
         <f>_xll.qlRateHelperQuoteValue(F20,InterestRatesTrigger)</f>
-        <v>1.0970000000000001E-2</v>
+        <v>1.217E-2</v>
       </c>
       <c r="H20" s="329" t="b">
         <v>1</v>
@@ -7697,11 +7697,11 @@
       </c>
       <c r="K20" s="327">
         <f>_xll.qlRateHelperEarliestDate($F20)</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="L20" s="327">
         <f>_xll.qlRateHelperLatestDate($F20)</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="M20" s="325"/>
     </row>
@@ -7720,11 +7720,11 @@
       </c>
       <c r="F21" s="336" t="str">
         <f>_xll.qlSwapRateHelper2(,E21,B21,Calendar,"annual","mf","30/360 (Bond Basis)",$C$11,0,"0D",OisCurve)</f>
-        <v>obj_003fb#0000</v>
+        <v>obj_003fc#0000</v>
       </c>
       <c r="G21" s="337">
         <f>_xll.qlRateHelperQuoteValue(F21,InterestRatesTrigger)</f>
-        <v>1.0183009891608908E-2</v>
+        <v>1.1063277810980758E-2</v>
       </c>
       <c r="H21" s="336" t="b">
         <v>1</v>
@@ -7737,11 +7737,11 @@
       </c>
       <c r="K21" s="334">
         <f>_xll.qlRateHelperEarliestDate($F21)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L21" s="333">
         <f>_xll.qlRateHelperLatestDate($F21)</f>
-        <v>42895</v>
+        <v>42909</v>
       </c>
       <c r="M21" s="325"/>
     </row>
@@ -7760,11 +7760,11 @@
       </c>
       <c r="F22" s="336" t="str">
         <f>_xll.qlSwapRateHelper2(,E22,B22,Calendar,"annual","mf","30/360 (Bond Basis)",$C$11,0,"0D",OisCurve)</f>
-        <v>obj_00406#0000</v>
+        <v>obj_00407#0000</v>
       </c>
       <c r="G22" s="337">
         <f>_xll.qlRateHelperQuoteValue(F22,InterestRatesTrigger)</f>
-        <v>1.4274305171691168E-2</v>
+        <v>1.4994445581000279E-2</v>
       </c>
       <c r="H22" s="336" t="b">
         <v>1</v>
@@ -7777,11 +7777,11 @@
       </c>
       <c r="K22" s="334">
         <f>_xll.qlRateHelperEarliestDate($F22)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L22" s="333">
         <f>_xll.qlRateHelperLatestDate($F22)</f>
-        <v>43262</v>
+        <v>43276</v>
       </c>
       <c r="M22" s="325"/>
     </row>
@@ -7800,11 +7800,11 @@
       </c>
       <c r="F23" s="336" t="str">
         <f>_xll.qlSwapRateHelper2(,E23,B23,Calendar,"annual","mf","30/360 (Bond Basis)",$C$11,0,"0D",OisCurve)</f>
-        <v>obj_003fa#0000</v>
+        <v>obj_00403#0000</v>
       </c>
       <c r="G23" s="337">
         <f>_xll.qlRateHelperQuoteValue(F23,InterestRatesTrigger)</f>
-        <v>1.7785389508166827E-2</v>
+        <v>1.8185400652098779E-2</v>
       </c>
       <c r="H23" s="336" t="b">
         <v>1</v>
@@ -7817,11 +7817,11 @@
       </c>
       <c r="K23" s="334">
         <f>_xll.qlRateHelperEarliestDate($F23)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L23" s="333">
         <f>_xll.qlRateHelperLatestDate($F23)</f>
-        <v>43626</v>
+        <v>43640</v>
       </c>
       <c r="M23" s="325"/>
     </row>
@@ -7832,7 +7832,7 @@
       <c r="B24" s="352"/>
       <c r="C24" s="351" t="str">
         <f>_xll.qlLibor(,Currency,Tenor1Y,,,EvaluationDate)</f>
-        <v>obj_00323#0000</v>
+        <v>obj_00328#0000</v>
       </c>
       <c r="D24" s="349" t="s">
         <v>97</v>
@@ -7843,11 +7843,11 @@
       </c>
       <c r="F24" s="349" t="str">
         <f>_xll.qlDepositRateHelper(,E24,$C$24)</f>
-        <v>obj_0039f#0000</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="G24" s="350">
         <f>_xll.qlRateHelperQuoteValue(F24,InterestRatesTrigger)</f>
-        <v>5.3449999999999999E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="H24" s="349" t="b">
         <v>1</v>
@@ -7860,11 +7860,11 @@
       </c>
       <c r="K24" s="347">
         <f>_xll.qlRateHelperEarliestDate($F24)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L24" s="347">
         <f>_xll.qlRateHelperLatestDate($F24)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="M24" s="325"/>
     </row>
@@ -7886,11 +7886,11 @@
       </c>
       <c r="F25" s="343" t="str">
         <f>_xll.qlFraRateHelper(,E25,B25&amp;"M",$C$24)</f>
-        <v>obj_0033c#0000</v>
+        <v>obj_00333#0000</v>
       </c>
       <c r="G25" s="344">
         <f>_xll.qlRateHelperQuoteValue(F25,InterestRatesTrigger)</f>
-        <v>5.4800000000000005E-3</v>
+        <v>5.680000000000001E-3</v>
       </c>
       <c r="H25" s="343" t="b">
         <v>1</v>
@@ -7903,11 +7903,11 @@
       </c>
       <c r="K25" s="341">
         <f>_xll.qlRateHelperEarliestDate($F25)</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="L25" s="341">
         <f>_xll.qlRateHelperLatestDate($F25)</f>
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="M25" s="325"/>
     </row>
@@ -7929,11 +7929,11 @@
       </c>
       <c r="F26" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E26,B26&amp;"M",$C$24)</f>
-        <v>obj_0033d#0000</v>
+        <v>obj_0033b#0000</v>
       </c>
       <c r="G26" s="337">
         <f>_xll.qlRateHelperQuoteValue(F26,InterestRatesTrigger)</f>
-        <v>5.7200000000000003E-3</v>
+        <v>6.0599999999999994E-3</v>
       </c>
       <c r="H26" s="336" t="b">
         <v>1</v>
@@ -7946,11 +7946,11 @@
       </c>
       <c r="K26" s="334">
         <f>_xll.qlRateHelperEarliestDate($F26)</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="L26" s="334">
         <f>_xll.qlRateHelperLatestDate($F26)</f>
-        <v>42227</v>
+        <v>42242</v>
       </c>
       <c r="M26" s="325"/>
     </row>
@@ -7972,11 +7972,11 @@
       </c>
       <c r="F27" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E27,B27&amp;"M",$C$24)</f>
-        <v>obj_00337#0000</v>
+        <v>obj_00338#0000</v>
       </c>
       <c r="G27" s="337">
         <f>_xll.qlRateHelperQuoteValue(F27,InterestRatesTrigger)</f>
-        <v>5.9800000000000001E-3</v>
+        <v>6.4400000000000004E-3</v>
       </c>
       <c r="H27" s="336" t="b">
         <v>0</v>
@@ -7989,11 +7989,11 @@
       </c>
       <c r="K27" s="334">
         <f>_xll.qlRateHelperEarliestDate($F27)</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="L27" s="334">
         <f>_xll.qlRateHelperLatestDate($F27)</f>
-        <v>42256</v>
+        <v>42270</v>
       </c>
       <c r="M27" s="325"/>
     </row>
@@ -8015,11 +8015,11 @@
       </c>
       <c r="F28" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E28,B28&amp;"M",$C$24)</f>
-        <v>obj_00336#0000</v>
+        <v>obj_00339#0000</v>
       </c>
       <c r="G28" s="337">
         <f>_xll.qlRateHelperQuoteValue(F28,InterestRatesTrigger)</f>
-        <v>6.28E-3</v>
+        <v>6.8199999999999997E-3</v>
       </c>
       <c r="H28" s="336" t="b">
         <v>1</v>
@@ -8032,11 +8032,11 @@
       </c>
       <c r="K28" s="334">
         <f>_xll.qlRateHelperEarliestDate($F28)</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="L28" s="334">
         <f>_xll.qlRateHelperLatestDate($F28)</f>
-        <v>42286</v>
+        <v>42300</v>
       </c>
       <c r="M28" s="325"/>
     </row>
@@ -8058,11 +8058,11 @@
       </c>
       <c r="F29" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E29,B29&amp;"M",$C$24)</f>
-        <v>obj_00338#0000</v>
+        <v>obj_00335#0000</v>
       </c>
       <c r="G29" s="337">
         <f>_xll.qlRateHelperQuoteValue(F29,InterestRatesTrigger)</f>
-        <v>6.6600000000000001E-3</v>
+        <v>7.2699999999999996E-3</v>
       </c>
       <c r="H29" s="336" t="b">
         <v>1</v>
@@ -8075,11 +8075,11 @@
       </c>
       <c r="K29" s="334">
         <f>_xll.qlRateHelperEarliestDate($F29)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="L29" s="334">
         <f>_xll.qlRateHelperLatestDate($F29)</f>
-        <v>42318</v>
+        <v>42332</v>
       </c>
       <c r="M29" s="325"/>
     </row>
@@ -8101,11 +8101,11 @@
       </c>
       <c r="F30" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E30,B30&amp;"M",$C$24)</f>
-        <v>obj_00339#0000</v>
+        <v>obj_00337#0000</v>
       </c>
       <c r="G30" s="337">
         <f>_xll.qlRateHelperQuoteValue(F30,InterestRatesTrigger)</f>
-        <v>7.0599999999999994E-3</v>
+        <v>7.7499999999999999E-3</v>
       </c>
       <c r="H30" s="336" t="b">
         <v>1</v>
@@ -8118,11 +8118,11 @@
       </c>
       <c r="K30" s="334">
         <f>_xll.qlRateHelperEarliestDate($F30)</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="L30" s="334">
         <f>_xll.qlRateHelperLatestDate($F30)</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="M30" s="325"/>
     </row>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="F31" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E31,B31&amp;"M",$C$24)</f>
-        <v>obj_0033b#0000</v>
+        <v>obj_0033c#0000</v>
       </c>
       <c r="G31" s="337" t="e">
         <f>_xll.qlRateHelperQuoteValue(F31,InterestRatesTrigger)</f>
@@ -8161,11 +8161,11 @@
       </c>
       <c r="K31" s="334">
         <f>_xll.qlRateHelperEarliestDate($F31)</f>
-        <v>42013</v>
+        <v>42027</v>
       </c>
       <c r="L31" s="334">
         <f>_xll.qlRateHelperLatestDate($F31)</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
       <c r="M31" s="325"/>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="F32" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E32,B32&amp;"M",$C$24)</f>
-        <v>obj_00335#0000</v>
+        <v>obj_00336#0000</v>
       </c>
       <c r="G32" s="337" t="e">
         <f>_xll.qlRateHelperQuoteValue(F32,InterestRatesTrigger)</f>
@@ -8204,11 +8204,11 @@
       </c>
       <c r="K32" s="334">
         <f>_xll.qlRateHelperEarliestDate($F32)</f>
-        <v>42044</v>
+        <v>42058</v>
       </c>
       <c r="L32" s="334">
         <f>_xll.qlRateHelperLatestDate($F32)</f>
-        <v>42409</v>
+        <v>42423</v>
       </c>
       <c r="M32" s="325"/>
     </row>
@@ -8230,11 +8230,11 @@
       </c>
       <c r="F33" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E33,B33&amp;"M",$C$24)</f>
-        <v>obj_0033e#0000</v>
+        <v>obj_00332#0000</v>
       </c>
       <c r="G33" s="337">
         <f>_xll.qlRateHelperQuoteValue(F33,InterestRatesTrigger)</f>
-        <v>8.6300000000000005E-3</v>
+        <v>9.5500000000000012E-3</v>
       </c>
       <c r="H33" s="336" t="b">
         <v>1</v>
@@ -8247,11 +8247,11 @@
       </c>
       <c r="K33" s="334">
         <f>_xll.qlRateHelperEarliestDate($F33)</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="L33" s="334">
         <f>_xll.qlRateHelperLatestDate($F33)</f>
-        <v>42438</v>
+        <v>42452</v>
       </c>
       <c r="M33" s="325"/>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="F34" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E34,B34&amp;"M",$C$24)</f>
-        <v>obj_00334#0000</v>
+        <v>obj_0033a#0000</v>
       </c>
       <c r="G34" s="337" t="e">
         <f>_xll.qlRateHelperQuoteValue(F34,InterestRatesTrigger)</f>
@@ -8290,11 +8290,11 @@
       </c>
       <c r="K34" s="334">
         <f>_xll.qlRateHelperEarliestDate($F34)</f>
-        <v>42103</v>
+        <v>42117</v>
       </c>
       <c r="L34" s="334">
         <f>_xll.qlRateHelperLatestDate($F34)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
       <c r="M34" s="325"/>
     </row>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="F35" s="336" t="str">
         <f>_xll.qlFraRateHelper(,E35,B35&amp;"M",$C$24)</f>
-        <v>obj_00333#0000</v>
+        <v>obj_0033d#0000</v>
       </c>
       <c r="G35" s="337" t="e">
         <f>_xll.qlRateHelperQuoteValue(F35,InterestRatesTrigger)</f>
@@ -8333,11 +8333,11 @@
       </c>
       <c r="K35" s="334">
         <f>_xll.qlRateHelperEarliestDate($F35)</f>
-        <v>42135</v>
+        <v>42150</v>
       </c>
       <c r="L35" s="334">
         <f>_xll.qlRateHelperLatestDate($F35)</f>
-        <v>42501</v>
+        <v>42516</v>
       </c>
       <c r="M35" s="325"/>
     </row>
@@ -8358,11 +8358,11 @@
       </c>
       <c r="F36" s="329" t="str">
         <f>_xll.qlFraRateHelper(,E36,B36&amp;"M",$C$24)</f>
-        <v>obj_0033a#0000</v>
+        <v>obj_00334#0000</v>
       </c>
       <c r="G36" s="330">
         <f>_xll.qlRateHelperQuoteValue(F36,InterestRatesTrigger)</f>
-        <v>1.0669999999999999E-2</v>
+        <v>1.1770000000000001E-2</v>
       </c>
       <c r="H36" s="329" t="b">
         <v>1</v>
@@ -8375,11 +8375,11 @@
       </c>
       <c r="K36" s="327">
         <f>_xll.qlRateHelperEarliestDate($F36)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="L36" s="327">
         <f>_xll.qlRateHelperLatestDate($F36)</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="M36" s="325"/>
     </row>
@@ -8398,11 +8398,11 @@
       </c>
       <c r="F37" s="336" t="str">
         <f>_xll.qlSwapRateHelper2(,E37,B37,Calendar,"annual","mf","30/360 (Bond Basis)",$C$24,0,"0D",OisCurve)</f>
-        <v>obj_00403#0000</v>
+        <v>obj_003fb#0000</v>
       </c>
       <c r="G37" s="337">
         <f>_xll.qlRateHelperQuoteValue(F37,InterestRatesTrigger)</f>
-        <v>1.2009234894449375E-2</v>
+        <v>1.2850062116897581E-2</v>
       </c>
       <c r="H37" s="336" t="b">
         <v>1</v>
@@ -8415,11 +8415,11 @@
       </c>
       <c r="K37" s="334">
         <f>_xll.qlRateHelperEarliestDate($F37)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L37" s="333">
         <f>_xll.qlRateHelperLatestDate($F37)</f>
-        <v>42895</v>
+        <v>42909</v>
       </c>
       <c r="M37" s="325"/>
     </row>
@@ -8438,11 +8438,11 @@
       </c>
       <c r="F38" s="336" t="str">
         <f>_xll.qlSwapRateHelper2(,E38,B38,Calendar,"annual","mf","30/360 (Bond Basis)",$C$24,0,"0D",OisCurve)</f>
-        <v>obj_00404#0000</v>
+        <v>obj_00408#0000</v>
       </c>
       <c r="G38" s="337">
         <f>_xll.qlRateHelperQuoteValue(F38,InterestRatesTrigger)</f>
-        <v>1.6103311394079656E-2</v>
+        <v>1.679380745182843E-2</v>
       </c>
       <c r="H38" s="336" t="b">
         <v>1</v>
@@ -8455,11 +8455,11 @@
       </c>
       <c r="K38" s="334">
         <f>_xll.qlRateHelperEarliestDate($F38)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L38" s="333">
         <f>_xll.qlRateHelperLatestDate($F38)</f>
-        <v>43262</v>
+        <v>43276</v>
       </c>
       <c r="M38" s="325"/>
     </row>
@@ -8478,11 +8478,11 @@
       </c>
       <c r="F39" s="329" t="str">
         <f>_xll.qlSwapRateHelper2(,E39,B39,Calendar,"annual","mf","30/360 (Bond Basis)",$C$24,0,"0D",OisCurve)</f>
-        <v>obj_00407#0000</v>
+        <v>obj_0040b#0000</v>
       </c>
       <c r="G39" s="330">
         <f>_xll.qlRateHelperQuoteValue(F39,InterestRatesTrigger)</f>
-        <v>1.9606602163050199E-2</v>
+        <v>1.9986773789750278E-2</v>
       </c>
       <c r="H39" s="329" t="b">
         <v>1</v>
@@ -8495,11 +8495,11 @@
       </c>
       <c r="K39" s="327">
         <f>_xll.qlRateHelperEarliestDate($F39)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L39" s="326">
         <f>_xll.qlRateHelperLatestDate($F39)</f>
-        <v>43626</v>
+        <v>43640</v>
       </c>
       <c r="M39" s="325"/>
     </row>
@@ -8597,7 +8597,7 @@
       <c r="C2" s="292"/>
       <c r="D2" s="288">
         <f>SettlementDate</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="E2" s="297">
         <f t="array" ref="E2:E127">_xll.qlPiecewiseYieldCurveData(YieldCurve6M,InterestRatesTrigger)</f>
@@ -8612,53 +8612,53 @@
       </c>
       <c r="H2" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J2)</f>
-        <v>41795</v>
+        <v>41809</v>
       </c>
       <c r="I2" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J2,K2,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0044d#0000</v>
+        <v>obj_00446#0000</v>
       </c>
       <c r="J2" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F2&amp;"M","mf")</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="K2" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J2)</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="L2" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H2,TRUE,InterestRatesTrigger)</f>
-        <v>3.2240000000074579E-3</v>
+        <v>3.2459999999577666E-3</v>
       </c>
       <c r="M2" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I2,Contribution!$P$40)</f>
-        <v>1.0299999999998242E-3</v>
+        <v>1.1200000000001736E-3</v>
       </c>
       <c r="N2" s="298">
         <f>L2-M2</f>
-        <v>2.1940000000076334E-3</v>
+        <v>2.1259999999575932E-3</v>
       </c>
       <c r="O2" s="297"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="283" t="str">
         <f t="array" ref="A3:A126">_xll.ohFilter(FRA_RateHelpers!F2:F23,FRA_RateHelpers!H2:H23)</f>
-        <v>obj_0039e#0000</v>
+        <v>obj_0039b#0000</v>
       </c>
       <c r="B3" s="284">
         <f>_xll.qlRateHelperRate($A3,InterestRatesTrigger)</f>
-        <v>3.3310000000000002E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="C3" s="287">
         <f>_xll.qlRateHelperEarliestDate($A3)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D3" s="288">
         <f>_xll.qlRateHelperLatestDate($A3)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
       <c r="E3" s="297">
-        <v>0.99999074730783544</v>
+        <v>0.99999136951893031</v>
       </c>
       <c r="F3" s="282">
         <v>1</v>
@@ -8669,31 +8669,31 @@
       </c>
       <c r="H3" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J3)</f>
-        <v>41827</v>
+        <v>41841</v>
       </c>
       <c r="I3" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J3,K3,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0045b#0000</v>
+        <v>obj_0044c#0000</v>
       </c>
       <c r="J3" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F3&amp;"M","mf")</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="K3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J3)</f>
-        <v>42013</v>
+        <v>42027</v>
       </c>
       <c r="L3" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H3,TRUE,InterestRatesTrigger)</f>
-        <v>3.2299999999890992E-3</v>
+        <v>3.2999999999403797E-3</v>
       </c>
       <c r="M3" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I3,Contribution!$P$40)</f>
-        <v>1.0794806581263577E-3</v>
+        <v>1.1876194127372669E-3</v>
       </c>
       <c r="N3" s="298">
         <f t="shared" ref="N3:N11" si="1">L3-M3</f>
-        <v>2.1505193418627413E-3</v>
+        <v>2.112380587203113E-3</v>
       </c>
       <c r="O3" s="297"/>
     </row>
@@ -8703,18 +8703,18 @@
       </c>
       <c r="B4" s="284">
         <f>_xll.qlRateHelperRate($A4,InterestRatesTrigger)</f>
-        <v>3.3189999999999999E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="C4" s="287">
         <f>_xll.qlRateHelperEarliestDate($A4)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D4" s="288">
         <f>_xll.qlRateHelperLatestDate($A4)</f>
-        <v>41806</v>
+        <v>41820</v>
       </c>
       <c r="E4" s="297">
-        <v>0.99993546805352984</v>
+        <v>0.99993958976072916</v>
       </c>
       <c r="F4" s="282">
         <v>2</v>
@@ -8725,52 +8725,52 @@
       </c>
       <c r="H4" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J4)</f>
-        <v>41858</v>
+        <v>41872</v>
       </c>
       <c r="I4" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J4,K4,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00454#0000</v>
+        <v>obj_0042a#0000</v>
       </c>
       <c r="J4" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F4&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="K4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J4)</f>
-        <v>42046</v>
+        <v>42061</v>
       </c>
       <c r="L4" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H4,TRUE,InterestRatesTrigger)</f>
-        <v>3.2699999999944006E-3</v>
+        <v>3.3899999998482609E-3</v>
       </c>
       <c r="M4" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I4,Contribution!$P$40)</f>
-        <v>1.1400584077550632E-3</v>
+        <v>1.2987898664990301E-3</v>
       </c>
       <c r="N4" s="298">
         <f t="shared" si="1"/>
-        <v>2.1299415922393372E-3</v>
+        <v>2.0912101333492306E-3</v>
       </c>
       <c r="O4" s="297"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="283" t="str">
-        <v>obj_0039d#0000</v>
+        <v>obj_0039a#0000</v>
       </c>
       <c r="B5" s="284">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>3.3249999999999998E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="C5" s="287">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D5" s="288">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>41813</v>
+        <v>41827</v>
       </c>
       <c r="E5" s="297">
-        <v>0.99987071116220994</v>
+        <v>0.99987840923055982</v>
       </c>
       <c r="F5" s="282">
         <v>3</v>
@@ -8781,52 +8781,52 @@
       </c>
       <c r="H5" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J5)</f>
-        <v>41887</v>
+        <v>41901</v>
       </c>
       <c r="I5" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J5,K5,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00460#0000</v>
+        <v>obj_00432#0000</v>
       </c>
       <c r="J5" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F5&amp;"M","mf")</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="K5" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J5)</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="L5" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H5,TRUE,InterestRatesTrigger)</f>
-        <v>3.3299999999902609E-3</v>
+        <v>3.4899999998520169E-3</v>
       </c>
       <c r="M5" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I5,Contribution!$P$40)</f>
-        <v>1.195946631941476E-3</v>
+        <v>1.3765437404481902E-3</v>
       </c>
       <c r="N5" s="298">
         <f t="shared" si="1"/>
-        <v>2.1340533680487849E-3</v>
+        <v>2.1134562594038266E-3</v>
       </c>
       <c r="O5" s="297"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="283" t="str">
-        <v>obj_003a2#0000</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="B6" s="284">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>3.3210000000000002E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="C6" s="287">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D6" s="288">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>41820</v>
+        <v>41834</v>
       </c>
       <c r="E6" s="297">
-        <v>0.99980631252210728</v>
+        <v>0.99981762493340287</v>
       </c>
       <c r="F6" s="282">
         <v>4</v>
@@ -8837,52 +8837,52 @@
       </c>
       <c r="H6" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J6)</f>
-        <v>41919</v>
+        <v>41933</v>
       </c>
       <c r="I6" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J6,K6,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00446#0000</v>
+        <v>obj_00447#0000</v>
       </c>
       <c r="J6" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F6&amp;"M","mf")</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="K6" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J6)</f>
-        <v>42103</v>
+        <v>42117</v>
       </c>
       <c r="L6" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H6,TRUE,InterestRatesTrigger)</f>
-        <v>3.4199999987071495E-3</v>
+        <v>3.6599999998180761E-3</v>
       </c>
       <c r="M6" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I6,Contribution!$P$40)</f>
-        <v>1.3136296630150885E-3</v>
+        <v>1.5271437237369852E-3</v>
       </c>
       <c r="N6" s="298">
         <f t="shared" si="1"/>
-        <v>2.1063703356920607E-3</v>
+        <v>2.132856276081091E-3</v>
       </c>
       <c r="O6" s="297"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="283" t="str">
-        <v>obj_0039b#0000</v>
+        <v>obj_0039e#0000</v>
       </c>
       <c r="B7" s="284">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>3.3140000000000001E-3</v>
+        <v>3.137E-3</v>
       </c>
       <c r="C7" s="287">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D7" s="288">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="E7" s="297">
-        <v>0.99972390958030566</v>
+        <v>0.99973865165415521</v>
       </c>
       <c r="F7" s="282">
         <v>5</v>
@@ -8893,52 +8893,52 @@
       </c>
       <c r="H7" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J7)</f>
-        <v>41949</v>
+        <v>41963</v>
       </c>
       <c r="I7" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J7,K7,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00452#0000</v>
+        <v>obj_0043d#0000</v>
       </c>
       <c r="J7" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F7&amp;"M","mf")</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="K7" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J7)</f>
-        <v>42135</v>
+        <v>42150</v>
       </c>
       <c r="L7" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H7,TRUE,InterestRatesTrigger)</f>
-        <v>3.5700000000005051E-3</v>
+        <v>3.8899999999658383E-3</v>
       </c>
       <c r="M7" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I7,Contribution!$P$40)</f>
-        <v>1.4339958187556247E-3</v>
+        <v>1.7437150043534539E-3</v>
       </c>
       <c r="N7" s="298">
         <f t="shared" si="1"/>
-        <v>2.1360041812448806E-3</v>
+        <v>2.1462849956123842E-3</v>
       </c>
       <c r="O7" s="297"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="283" t="str">
-        <v>obj_003a1#0000</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="B8" s="284">
         <f>_xll.qlRateHelperRate($A8,InterestRatesTrigger)</f>
-        <v>3.2680000000000001E-3</v>
+        <v>3.156E-3</v>
       </c>
       <c r="C8" s="287">
         <f>_xll.qlRateHelperEarliestDate($A8)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D8" s="288">
         <f>_xll.qlRateHelperLatestDate($A8)</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="E8" s="297">
-        <v>0.99942842688266864</v>
+        <v>0.99943924795269279</v>
       </c>
       <c r="F8" s="282">
         <v>6</v>
@@ -8949,52 +8949,52 @@
       </c>
       <c r="H8" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J8)</f>
-        <v>41978</v>
+        <v>41992</v>
       </c>
       <c r="I8" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J8,K8,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0044b#0000</v>
+        <v>obj_0045f#0000</v>
       </c>
       <c r="J8" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F8&amp;"M","mf")</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="K8" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J8)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="L8" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H8,TRUE,InterestRatesTrigger)</f>
-        <v>3.7700000000000585E-3</v>
+        <v>4.1699999999591977E-3</v>
       </c>
       <c r="M8" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I8,Contribution!$P$40)</f>
-        <v>1.6107500447158807E-3</v>
+        <v>2.0012781880485169E-3</v>
       </c>
       <c r="N8" s="298">
         <f t="shared" si="1"/>
-        <v>2.1592499552841775E-3</v>
+        <v>2.1687218119106808E-3</v>
       </c>
       <c r="O8" s="297"/>
     </row>
     <row r="9" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="283" t="str">
-        <v>obj_003a0#0000</v>
+        <v>obj_0039c#0000</v>
       </c>
       <c r="B9" s="284">
         <f>_xll.qlRateHelperRate($A9,InterestRatesTrigger)</f>
-        <v>3.2469999999999999E-3</v>
+        <v>3.1740000000000002E-3</v>
       </c>
       <c r="C9" s="287">
         <f>_xll.qlRateHelperEarliestDate($A9)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D9" s="288">
         <f>_xll.qlRateHelperLatestDate($A9)</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="E9" s="297">
-        <v>0.99917089908983958</v>
+        <v>0.99918952407079209</v>
       </c>
       <c r="F9" s="282">
         <v>12</v>
@@ -9005,52 +9005,52 @@
       </c>
       <c r="H9" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J9)</f>
-        <v>42160</v>
+        <v>42174</v>
       </c>
       <c r="I9" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J9,K9,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0045a#0000</v>
+        <v>obj_00441#0000</v>
       </c>
       <c r="J9" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F9&amp;"M","mf")</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="K9" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J9)</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="L9" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H9,TRUE,InterestRatesTrigger)</f>
-        <v>6.5400000000003441E-3</v>
+        <v>7.4699999998547109E-3</v>
       </c>
       <c r="M9" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I9,Contribution!$P$40)</f>
-        <v>4.078777270394387E-3</v>
+        <v>5.1296863768570643E-3</v>
       </c>
       <c r="N9" s="298">
         <f t="shared" si="1"/>
-        <v>2.4612227296059571E-3</v>
+        <v>2.3403136229976466E-3</v>
       </c>
       <c r="O9" s="297"/>
     </row>
     <row r="10" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="283" t="str">
-        <v>obj_003a3#0000</v>
+        <v>obj_0039d#0000</v>
       </c>
       <c r="B10" s="284">
         <f>_xll.qlRateHelperRate($A10,InterestRatesTrigger)</f>
-        <v>3.222E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C10" s="287">
         <f>_xll.qlRateHelperEarliestDate($A10)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D10" s="288">
         <f>_xll.qlRateHelperLatestDate($A10)</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="E10" s="297">
-        <v>0.99890929094584668</v>
+        <v>0.99891673030145067</v>
       </c>
       <c r="F10" s="282">
         <v>18</v>
@@ -9061,52 +9061,52 @@
       </c>
       <c r="H10" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J10)</f>
-        <v>42345</v>
+        <v>42359</v>
       </c>
       <c r="I10" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J10,K10,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00448#0000</v>
+        <v>obj_00439#0000</v>
       </c>
       <c r="J10" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F10&amp;"M","mf")</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="K10" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J10)</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="L10" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H10,TRUE,InterestRatesTrigger)</f>
-        <v>1.0969999999999728E-2</v>
+        <v>1.21700000003566E-2</v>
       </c>
       <c r="M10" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I10,Contribution!$P$40)</f>
-        <v>8.3213553105385019E-3</v>
+        <v>9.673032977606499E-3</v>
       </c>
       <c r="N10" s="298">
         <f t="shared" si="1"/>
-        <v>2.6486446894612263E-3</v>
+        <v>2.4969670227501014E-3</v>
       </c>
       <c r="O10" s="297"/>
     </row>
     <row r="11" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="283" t="str">
-        <v>obj_0039c#0000</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="B11" s="284">
         <f>_xll.qlRateHelperRate($A11,InterestRatesTrigger)</f>
-        <v>3.2230000000000002E-3</v>
+        <v>3.2330000000000002E-3</v>
       </c>
       <c r="C11" s="287">
         <f>_xll.qlRateHelperEarliestDate($A11)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D11" s="288">
         <f>_xll.qlRateHelperLatestDate($A11)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="E11" s="297">
-        <v>0.99862317049532234</v>
+        <v>0.99861890450720048</v>
       </c>
       <c r="F11" s="282">
         <v>24</v>
@@ -9117,52 +9117,52 @@
       </c>
       <c r="H11" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J11)</f>
-        <v>42528</v>
+        <v>42542</v>
       </c>
       <c r="I11" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J11,K11,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0044a#0000</v>
+        <v>obj_00453#0000</v>
       </c>
       <c r="J11" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F11&amp;"M","mf")</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="K11" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J11)</f>
-        <v>42713</v>
+        <v>42727</v>
       </c>
       <c r="L11" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H11,TRUE,InterestRatesTrigger)</f>
-        <v>1.5673223566633459E-2</v>
+        <v>1.7099044881929669E-2</v>
       </c>
       <c r="M11" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I11,Contribution!$P$40)</f>
-        <v>1.3315501126164945E-2</v>
+        <v>1.4887762464942554E-2</v>
       </c>
       <c r="N11" s="298">
         <f t="shared" si="1"/>
-        <v>2.3577224404685137E-3</v>
+        <v>2.2112824169871152E-3</v>
       </c>
       <c r="O11" s="297"/>
     </row>
     <row r="12" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="283" t="str">
-        <v>obj_003a5#0000</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="B12" s="284">
         <f>_xll.qlRateHelperRate($A12,InterestRatesTrigger)</f>
-        <v>3.2239999999999999E-3</v>
+        <v>3.2460000000000002E-3</v>
       </c>
       <c r="C12" s="287">
         <f>_xll.qlRateHelperEarliestDate($A12)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D12" s="288">
         <f>_xll.qlRateHelperLatestDate($A12)</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="E12" s="297">
-        <v>0.99836381482267722</v>
+        <v>0.9983526681798911</v>
       </c>
       <c r="F12" s="282">
         <v>30</v>
@@ -9173,52 +9173,52 @@
       </c>
       <c r="H12" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J12)</f>
-        <v>42711</v>
+        <v>42725</v>
       </c>
       <c r="I12" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J12,K12,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00447#0000</v>
+        <v>obj_00435#0000</v>
       </c>
       <c r="J12" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F12&amp;"M","mf")</f>
-        <v>42713</v>
+        <v>42727</v>
       </c>
       <c r="K12" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J12)</f>
-        <v>42895</v>
+        <v>42909</v>
       </c>
       <c r="L12" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H12,TRUE,InterestRatesTrigger)</f>
-        <v>2.0208795225965685E-2</v>
+        <v>2.1466113423495917E-2</v>
       </c>
       <c r="M12" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I12,Contribution!$P$40)</f>
-        <v>1.7998529929301635E-2</v>
+        <v>1.9397354314821973E-2</v>
       </c>
       <c r="N12" s="298">
         <f t="shared" ref="N12" si="2">L12-M12</f>
-        <v>2.2102652966640504E-3</v>
+        <v>2.0687591086739447E-3</v>
       </c>
       <c r="O12" s="296"/>
     </row>
     <row r="13" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="283" t="str">
-        <v>obj_00332#0000</v>
+        <v>obj_0032f#0000</v>
       </c>
       <c r="B13" s="284">
         <f>_xll.qlRateHelperRate($A13,InterestRatesTrigger)</f>
-        <v>3.2300000000000002E-3</v>
+        <v>3.2999999999999995E-3</v>
       </c>
       <c r="C13" s="287">
         <f>_xll.qlRateHelperEarliestDate($A13)</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="D13" s="288">
         <f>_xll.qlRateHelperLatestDate($A13)</f>
-        <v>42013</v>
+        <v>42027</v>
       </c>
       <c r="E13" s="297">
-        <v>0.9980761966769528</v>
+        <v>0.99805526510703835</v>
       </c>
       <c r="F13" s="282">
         <v>36</v>
@@ -9229,51 +9229,51 @@
       </c>
       <c r="H13" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J13)</f>
-        <v>42893</v>
+        <v>42907</v>
       </c>
       <c r="I13" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J13,K13,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0045d#0000</v>
+        <v>obj_00425#0000</v>
       </c>
       <c r="J13" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F13&amp;"M","mf")</f>
-        <v>42895</v>
+        <v>42909</v>
       </c>
       <c r="K13" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J13)</f>
-        <v>43080</v>
+        <v>43096</v>
       </c>
       <c r="L13" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H13,TRUE,InterestRatesTrigger)</f>
-        <v>2.4543434876340364E-2</v>
+        <v>2.516124571085545E-2</v>
       </c>
       <c r="M13" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I13,Contribution!$P$40)</f>
-        <v>2.2132231255648258E-2</v>
+        <v>2.2756636591431449E-2</v>
       </c>
       <c r="N13" s="298">
         <f t="shared" ref="N13:N14" si="3">L13-M13</f>
-        <v>2.411203620692106E-3</v>
+        <v>2.4046091194240005E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="283" t="str">
-        <v>obj_00330#0000</v>
+        <v>obj_0032a#0000</v>
       </c>
       <c r="B14" s="284">
         <f>_xll.qlRateHelperRate($A14,InterestRatesTrigger)</f>
-        <v>3.2699999999999995E-3</v>
+        <v>3.3899999999999998E-3</v>
       </c>
       <c r="C14" s="287">
         <f>_xll.qlRateHelperEarliestDate($A14)</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="D14" s="288">
         <f>_xll.qlRateHelperLatestDate($A14)</f>
-        <v>42046</v>
+        <v>42061</v>
       </c>
       <c r="E14" s="297">
-        <v>0.99776083593887233</v>
+        <v>0.99771054814302096</v>
       </c>
       <c r="F14" s="282">
         <v>42</v>
@@ -9284,51 +9284,51 @@
       </c>
       <c r="H14" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J14)</f>
-        <v>43076</v>
+        <v>43090</v>
       </c>
       <c r="I14" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J14,K14,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00450#0000</v>
+        <v>obj_00424#0000</v>
       </c>
       <c r="J14" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F14&amp;"M","mf")</f>
-        <v>43080</v>
+        <v>43096</v>
       </c>
       <c r="K14" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J14)</f>
-        <v>43262</v>
+        <v>43278</v>
       </c>
       <c r="L14" s="297">
         <f>_xll.qlIndexFixing(IborIndex6M,H14,TRUE,InterestRatesTrigger)</f>
-        <v>2.8310095345458548E-2</v>
+        <v>2.8212139438543019E-2</v>
       </c>
       <c r="M14" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I14,Contribution!$P$40)</f>
-        <v>2.5611261980833987E-2</v>
+        <v>2.5438487868707844E-2</v>
       </c>
       <c r="N14" s="298">
         <f t="shared" si="3"/>
-        <v>2.6988333646245609E-3</v>
+        <v>2.7736515698351741E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="283" t="str">
-        <v>obj_0032a#0000</v>
+        <v>obj_00331#0000</v>
       </c>
       <c r="B15" s="284">
         <f>_xll.qlRateHelperRate($A15,InterestRatesTrigger)</f>
-        <v>3.3299999999999996E-3</v>
+        <v>3.4899999999999996E-3</v>
       </c>
       <c r="C15" s="287">
         <f>_xll.qlRateHelperEarliestDate($A15)</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="D15" s="288">
         <f>_xll.qlRateHelperLatestDate($A15)</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="E15" s="297">
-        <v>0.99750083331965911</v>
+        <v>0.99743932283242176</v>
       </c>
       <c r="F15" s="282"/>
       <c r="G15" s="282"/>
@@ -9342,22 +9342,22 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="283" t="str">
-        <v>obj_0032e#0000</v>
+        <v>obj_0032c#0000</v>
       </c>
       <c r="B16" s="284">
         <f>_xll.qlRateHelperRate($A16,InterestRatesTrigger)</f>
-        <v>3.4199999999999999E-3</v>
+        <v>3.6600000000000001E-3</v>
       </c>
       <c r="C16" s="287">
         <f>_xll.qlRateHelperEarliestDate($A16)</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="D16" s="288">
         <f>_xll.qlRateHelperLatestDate($A16)</f>
-        <v>42103</v>
+        <v>42117</v>
       </c>
       <c r="E16" s="297">
-        <v>0.99718515780864736</v>
+        <v>0.99707181508636089</v>
       </c>
       <c r="F16" s="282"/>
       <c r="G16" s="282"/>
@@ -9371,162 +9371,162 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="283" t="str">
-        <v>obj_00331#0000</v>
+        <v>obj_00329#0000</v>
       </c>
       <c r="B17" s="284">
         <f>_xll.qlRateHelperRate($A17,InterestRatesTrigger)</f>
-        <v>3.5699999999999998E-3</v>
+        <v>3.8900000000000002E-3</v>
       </c>
       <c r="C17" s="287">
         <f>_xll.qlRateHelperEarliestDate($A17)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="D17" s="288">
         <f>_xll.qlRateHelperLatestDate($A17)</f>
-        <v>42135</v>
+        <v>42150</v>
       </c>
       <c r="E17" s="297">
-        <v>0.9968240691877831</v>
+        <v>0.99664811591201141</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="283" t="str">
-        <v>obj_0032f#0000</v>
+        <v>obj_0032b#0000</v>
       </c>
       <c r="B18" s="284">
         <f>_xll.qlRateHelperRate($A18,InterestRatesTrigger)</f>
-        <v>3.7699999999999999E-3</v>
+        <v>4.1700000000000001E-3</v>
       </c>
       <c r="C18" s="287">
         <f>_xll.qlRateHelperEarliestDate($A18)</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="D18" s="288">
         <f>_xll.qlRateHelperLatestDate($A18)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="E18" s="297">
-        <v>0.99646460863775854</v>
+        <v>0.99625240207427213</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="283" t="str">
-        <v>obj_0032d#0000</v>
+        <v>obj_0032e#0000</v>
       </c>
       <c r="B19" s="284">
         <f>_xll.qlRateHelperRate($A19,InterestRatesTrigger)</f>
-        <v>4.8500000000000001E-3</v>
+        <v>5.5200000000000006E-3</v>
       </c>
       <c r="C19" s="287">
         <f>_xll.qlRateHelperEarliestDate($A19)</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="D19" s="288">
         <f>_xll.qlRateHelperLatestDate($A19)</f>
-        <v>42256</v>
+        <v>42270</v>
       </c>
       <c r="E19" s="297">
-        <v>0.99503425396344547</v>
+        <v>0.99463313122515906</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="283" t="str">
-        <v>obj_0032b#0000</v>
+        <v>obj_0032d#0000</v>
       </c>
       <c r="B20" s="284">
         <f>_xll.qlRateHelperRate($A20,InterestRatesTrigger)</f>
-        <v>6.5400000000000007E-3</v>
+        <v>7.4700000000000001E-3</v>
       </c>
       <c r="C20" s="287">
         <f>_xll.qlRateHelperEarliestDate($A20)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="D20" s="288">
         <f>_xll.qlRateHelperLatestDate($A20)</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="E20" s="297">
-        <v>0.99316283878023359</v>
+        <v>0.99248369336969733</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="283" t="str">
-        <v>obj_0032c#0000</v>
+        <v>obj_00330#0000</v>
       </c>
       <c r="B21" s="284">
         <f>_xll.qlRateHelperRate($A21,InterestRatesTrigger)</f>
-        <v>1.0970000000000001E-2</v>
+        <v>1.217E-2</v>
       </c>
       <c r="C21" s="287">
         <f>_xll.qlRateHelperEarliestDate($A21)</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="D21" s="288">
         <f>_xll.qlRateHelperLatestDate($A21)</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="E21" s="297">
-        <v>0.9876552615189782</v>
+        <v>0.98638152625579745</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="283" t="str">
-        <v>obj_003fb#0000</v>
+        <v>obj_003fc#0000</v>
       </c>
       <c r="B22" s="284">
         <f>_xll.qlRateHelperRate($A22,InterestRatesTrigger)</f>
-        <v>1.0183009891608908E-2</v>
+        <v>1.1063277810980758E-2</v>
       </c>
       <c r="C22" s="287">
         <f>_xll.qlRateHelperEarliestDate($A22)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D22" s="288">
         <f>_xll.qlRateHelperLatestDate($A22)</f>
-        <v>42895</v>
+        <v>42909</v>
       </c>
       <c r="E22" s="297">
-        <v>0.96993904441993006</v>
+        <v>0.96738341627823843</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="283" t="str">
-        <v>obj_00406#0000</v>
+        <v>obj_00407#0000</v>
       </c>
       <c r="B23" s="284">
         <f>_xll.qlRateHelperRate($A23,InterestRatesTrigger)</f>
-        <v>1.4274305171691168E-2</v>
+        <v>1.4994445581000279E-2</v>
       </c>
       <c r="C23" s="287">
         <f>_xll.qlRateHelperEarliestDate($A23)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D23" s="288">
         <f>_xll.qlRateHelperLatestDate($A23)</f>
-        <v>43262</v>
+        <v>43276</v>
       </c>
       <c r="E23" s="297">
-        <v>0.9443422326194072</v>
+        <v>0.94162807214564181</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="283" t="str">
-        <v>obj_003fa#0000</v>
+        <v>obj_00403#0000</v>
       </c>
       <c r="B24" s="284">
         <f>_xll.qlRateHelperRate($A24,InterestRatesTrigger)</f>
-        <v>1.7785389508166827E-2</v>
+        <v>1.8185400652098779E-2</v>
       </c>
       <c r="C24" s="287">
         <f>_xll.qlRateHelperEarliestDate($A24)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D24" s="288">
         <f>_xll.qlRateHelperLatestDate($A24)</f>
-        <v>43626</v>
+        <v>43640</v>
       </c>
       <c r="E24" s="297">
-        <v>0.9144866786523792</v>
+        <v>0.91270311802508219</v>
       </c>
       <c r="F24" s="282">
         <v>7</v>
@@ -9537,32 +9537,32 @@
       </c>
       <c r="H24" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J24)</f>
-        <v>42011</v>
+        <v>42025</v>
       </c>
       <c r="I24" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J24,K24,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0044c#0000</v>
+        <v>obj_00442#0000</v>
       </c>
       <c r="J24" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F24&amp;"M","mf")</f>
-        <v>42013</v>
+        <v>42027</v>
       </c>
       <c r="K24" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J24)</f>
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="L24" s="296"/>
       <c r="M24" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I24,Contribution!$P$40)</f>
-        <v>1.8669475074010653E-3</v>
+        <v>2.3596651016675567E-3</v>
       </c>
       <c r="N24" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J24,,M24)</f>
-        <v>2.1896050027212766E-3</v>
+        <v>2.1950876658800543E-3</v>
       </c>
       <c r="O24" s="297">
         <f>M24+N24</f>
-        <v>4.0565525101223417E-3</v>
+        <v>4.554752767547611E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -9593,32 +9593,32 @@
       </c>
       <c r="H25" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J25)</f>
-        <v>42040</v>
+        <v>42054</v>
       </c>
       <c r="I25" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J25,K25,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00458#0000</v>
+        <v>obj_00436#0000</v>
       </c>
       <c r="J25" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F25&amp;"M","mf")</f>
-        <v>42044</v>
+        <v>42058</v>
       </c>
       <c r="K25" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J25)</f>
-        <v>42226</v>
+        <v>42240</v>
       </c>
       <c r="L25" s="296"/>
       <c r="M25" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I25,Contribution!$P$40)</f>
-        <v>2.1926679928380706E-3</v>
+        <v>2.7921076590885384E-3</v>
       </c>
       <c r="N25" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J25,,M25)</f>
-        <v>2.2324940352299711E-3</v>
+        <v>2.2213363394761234E-3</v>
       </c>
       <c r="O25" s="297">
         <f t="shared" ref="O25:O38" si="5">M25+N25</f>
-        <v>4.4251620280680417E-3</v>
+        <v>5.0134439985646618E-3</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -9649,32 +9649,32 @@
       </c>
       <c r="H26" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J26)</f>
-        <v>42101</v>
+        <v>42115</v>
       </c>
       <c r="I26" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J26,K26,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00461#0000</v>
+        <v>obj_00413#0000</v>
       </c>
       <c r="J26" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F26&amp;"M","mf")</f>
-        <v>42103</v>
+        <v>42117</v>
       </c>
       <c r="K26" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J26)</f>
-        <v>42286</v>
+        <v>42300</v>
       </c>
       <c r="L26" s="296"/>
       <c r="M26" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I26,Contribution!$P$40)</f>
-        <v>2.9910090742343537E-3</v>
+        <v>3.8440187641563366E-3</v>
       </c>
       <c r="N26" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J26,,M26)</f>
-        <v>2.3383548599100086E-3</v>
+        <v>2.2744781355714446E-3</v>
       </c>
       <c r="O26" s="297">
         <f t="shared" si="5"/>
-        <v>5.3293639341443627E-3</v>
+        <v>6.1184968997277812E-3</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -9705,32 +9705,32 @@
       </c>
       <c r="H27" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J27)</f>
-        <v>42131</v>
+        <v>42145</v>
       </c>
       <c r="I27" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J27,K27,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0045e#0000</v>
+        <v>obj_00419#0000</v>
       </c>
       <c r="J27" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F27&amp;"M","mf")</f>
-        <v>42135</v>
+        <v>42150</v>
       </c>
       <c r="K27" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J27)</f>
-        <v>42320</v>
+        <v>42335</v>
       </c>
       <c r="L27" s="296"/>
       <c r="M27" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I27,Contribution!$P$40)</f>
-        <v>3.5766985483909452E-3</v>
+        <v>4.559688870688341E-3</v>
       </c>
       <c r="N27" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J27,,M27)</f>
-        <v>2.40278938381276E-3</v>
+        <v>2.3081909533968431E-3</v>
       </c>
       <c r="O27" s="297">
         <f t="shared" si="5"/>
-        <v>5.9794879322037052E-3</v>
+        <v>6.8678798240851841E-3</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -9761,32 +9761,32 @@
       </c>
       <c r="H28" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J28)</f>
-        <v>42192</v>
+        <v>42206</v>
       </c>
       <c r="I28" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J28,K28,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00456#0000</v>
+        <v>obj_0045b#0000</v>
       </c>
       <c r="J28" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F28&amp;"M","mf")</f>
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="K28" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J28)</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
       <c r="L28" s="296"/>
       <c r="M28" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I28,Contribution!$P$40)</f>
-        <v>4.683454488393894E-3</v>
+        <v>5.8409761254993213E-3</v>
       </c>
       <c r="N28" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J28,,M28)</f>
-        <v>2.5182870960404145E-3</v>
+        <v>2.378555210783151E-3</v>
       </c>
       <c r="O28" s="297">
         <f t="shared" si="5"/>
-        <v>7.2017415844343085E-3</v>
+        <v>8.2195313362824728E-3</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -9817,32 +9817,32 @@
       </c>
       <c r="H29" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J29)</f>
-        <v>42222</v>
+        <v>42236</v>
       </c>
       <c r="I29" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J29,K29,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00451#0000</v>
+        <v>obj_0041b#0000</v>
       </c>
       <c r="J29" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F29&amp;"M","mf")</f>
-        <v>42226</v>
+        <v>42240</v>
       </c>
       <c r="K29" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J29)</f>
-        <v>42410</v>
+        <v>42424</v>
       </c>
       <c r="L29" s="296"/>
       <c r="M29" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I29,Contribution!$P$40)</f>
-        <v>5.3777503227282822E-3</v>
+        <v>6.578356751816573E-3</v>
       </c>
       <c r="N29" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J29,,M29)</f>
-        <v>2.5720980289356183E-3</v>
+        <v>2.4202360568990112E-3</v>
       </c>
       <c r="O29" s="297">
         <f t="shared" si="5"/>
-        <v>7.9498483516639001E-3</v>
+        <v>8.9985928087155838E-3</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -9873,32 +9873,32 @@
       </c>
       <c r="H30" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J30)</f>
-        <v>42254</v>
+        <v>42268</v>
       </c>
       <c r="I30" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J30,K30,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00449#0000</v>
+        <v>obj_0044b#0000</v>
       </c>
       <c r="J30" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F30&amp;"M","mf")</f>
-        <v>42256</v>
+        <v>42270</v>
       </c>
       <c r="K30" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J30)</f>
-        <v>42438</v>
+        <v>42452</v>
       </c>
       <c r="L30" s="296"/>
       <c r="M30" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I30,Contribution!$P$40)</f>
-        <v>6.0254419898557567E-3</v>
+        <v>7.3116905427417223E-3</v>
       </c>
       <c r="N30" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J30,,M30)</f>
-        <v>2.6128603195506635E-3</v>
+        <v>2.4557900273215159E-3</v>
       </c>
       <c r="O30" s="297">
         <f t="shared" si="5"/>
-        <v>8.6383023094064211E-3</v>
+        <v>9.7674805700632382E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -9929,32 +9929,32 @@
       </c>
       <c r="H31" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J31)</f>
-        <v>42284</v>
+        <v>42298</v>
       </c>
       <c r="I31" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J31,K31,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00455#0000</v>
+        <v>obj_00433#0000</v>
       </c>
       <c r="J31" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F31&amp;"M","mf")</f>
-        <v>42286</v>
+        <v>42300</v>
       </c>
       <c r="K31" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J31)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
       <c r="L31" s="296"/>
       <c r="M31" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I31,Contribution!$P$40)</f>
-        <v>6.80837776522711E-3</v>
+        <v>8.1035430885945427E-3</v>
       </c>
       <c r="N31" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J31,,M31)</f>
-        <v>2.6412091729988096E-3</v>
+        <v>2.4834809858379496E-3</v>
       </c>
       <c r="O31" s="297">
         <f t="shared" si="5"/>
-        <v>9.44958693822592E-3</v>
+        <v>1.0587024074432492E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -9985,32 +9985,32 @@
       </c>
       <c r="H32" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J32)</f>
-        <v>42313</v>
+        <v>42327</v>
       </c>
       <c r="I32" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J32,K32,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00453#0000</v>
+        <v>obj_0042e#0000</v>
       </c>
       <c r="J32" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F32&amp;"M","mf")</f>
-        <v>42317</v>
+        <v>42331</v>
       </c>
       <c r="K32" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J32)</f>
-        <v>42499</v>
+        <v>42513</v>
       </c>
       <c r="L32" s="296"/>
       <c r="M32" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I32,Contribution!$P$40)</f>
-        <v>7.5204233890524197E-3</v>
+        <v>8.8396838997540882E-3</v>
       </c>
       <c r="N32" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J32,,M32)</f>
-        <v>2.6543552610555276E-3</v>
+        <v>2.499063443647742E-3</v>
       </c>
       <c r="O32" s="297">
         <f t="shared" si="5"/>
-        <v>1.0174778650107947E-2</v>
+        <v>1.1338747343401831E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -10041,32 +10041,32 @@
       </c>
       <c r="H33" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J33)</f>
-        <v>42376</v>
+        <v>42390</v>
       </c>
       <c r="I33" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J33,K33,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00459#0000</v>
+        <v>obj_00418#0000</v>
       </c>
       <c r="J33" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F33&amp;"M","mf")</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
       <c r="K33" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J33)</f>
-        <v>42562</v>
+        <v>42576</v>
       </c>
       <c r="L33" s="296"/>
       <c r="M33" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I33,Contribution!$P$40)</f>
-        <v>9.2014057692782255E-3</v>
+        <v>1.056307566847714E-2</v>
       </c>
       <c r="N33" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J33,,M33)</f>
-        <v>2.6201260239947593E-3</v>
+        <v>2.4720527046068661E-3</v>
       </c>
       <c r="O33" s="297">
         <f t="shared" si="5"/>
-        <v>1.1821531793272985E-2</v>
+        <v>1.3035128373084006E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -10097,32 +10097,32 @@
       </c>
       <c r="H34" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J34)</f>
-        <v>42405</v>
+        <v>42419</v>
       </c>
       <c r="I34" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J34,K34,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0045f#0000</v>
+        <v>obj_0045c#0000</v>
       </c>
       <c r="J34" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F34&amp;"M","mf")</f>
-        <v>42409</v>
+        <v>42423</v>
       </c>
       <c r="K34" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J34)</f>
-        <v>42591</v>
+        <v>42605</v>
       </c>
       <c r="L34" s="296"/>
       <c r="M34" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I34,Contribution!$P$40)</f>
-        <v>9.9631653196032444E-3</v>
+        <v>1.1378244043602282E-2</v>
       </c>
       <c r="N34" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J34,,M34)</f>
-        <v>2.5798252090484708E-3</v>
+        <v>2.43413389875583E-3</v>
       </c>
       <c r="O34" s="297">
         <f t="shared" si="5"/>
-        <v>1.2542990528651715E-2</v>
+        <v>1.3812377942358112E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -10153,32 +10153,32 @@
       </c>
       <c r="H35" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J35)</f>
-        <v>42436</v>
+        <v>42450</v>
       </c>
       <c r="I35" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J35,K35,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0045c#0000</v>
+        <v>obj_0043b#0000</v>
       </c>
       <c r="J35" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F35&amp;"M","mf")</f>
-        <v>42438</v>
+        <v>42452</v>
       </c>
       <c r="K35" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J35)</f>
-        <v>42622</v>
+        <v>42636</v>
       </c>
       <c r="L35" s="296"/>
       <c r="M35" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I35,Contribution!$P$40)</f>
-        <v>1.0807566560412084E-2</v>
+        <v>1.2241599821481021E-2</v>
       </c>
       <c r="N35" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J35,,M35)</f>
-        <v>2.5300444167610427E-3</v>
+        <v>2.3858494085743651E-3</v>
       </c>
       <c r="O35" s="297">
         <f t="shared" si="5"/>
-        <v>1.3337610977173127E-2</v>
+        <v>1.4627449230055385E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -10209,32 +10209,32 @@
       </c>
       <c r="H36" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J36)</f>
-        <v>42467</v>
+        <v>42481</v>
       </c>
       <c r="I36" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J36,K36,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0044e#0000</v>
+        <v>obj_00450#0000</v>
       </c>
       <c r="J36" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F36&amp;"M","mf")</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
       <c r="K36" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J36)</f>
-        <v>42654</v>
+        <v>42668</v>
       </c>
       <c r="L36" s="296"/>
       <c r="M36" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I36,Contribution!$P$40)</f>
-        <v>1.1681460047344917E-2</v>
+        <v>1.3182151076114859E-2</v>
       </c>
       <c r="N36" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J36,,M36)</f>
-        <v>2.4674500955049836E-3</v>
+        <v>2.3237460913742049E-3</v>
       </c>
       <c r="O36" s="297">
         <f t="shared" si="5"/>
-        <v>1.4148910142849901E-2</v>
+        <v>1.5505897167489064E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -10265,32 +10265,32 @@
       </c>
       <c r="H37" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J37)</f>
-        <v>42495</v>
+        <v>42509</v>
       </c>
       <c r="I37" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J37,K37,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00457#0000</v>
+        <v>obj_00420#0000</v>
       </c>
       <c r="J37" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F37&amp;"M","mf")</f>
-        <v>42499</v>
+        <v>42513</v>
       </c>
       <c r="K37" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J37)</f>
-        <v>42683</v>
+        <v>42697</v>
       </c>
       <c r="L37" s="296"/>
       <c r="M37" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I37,Contribution!$P$40)</f>
-        <v>1.2476097757973271E-2</v>
+        <v>1.4010873448412151E-2</v>
       </c>
       <c r="N37" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J37,,M37)</f>
-        <v>2.4136732277261954E-3</v>
+        <v>2.2692814803746257E-3</v>
       </c>
       <c r="O37" s="297">
         <f t="shared" si="5"/>
-        <v>1.4889770985699467E-2</v>
+        <v>1.6280154928786778E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -10321,32 +10321,32 @@
       </c>
       <c r="H38" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex6M,J38)</f>
-        <v>42528</v>
+        <v>42542</v>
       </c>
       <c r="I38" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J38,K38,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0044f#0000</v>
+        <v>obj_00457#0000</v>
       </c>
       <c r="J38" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F38&amp;"M","mf")</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="K38" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex6M,J38)</f>
-        <v>42713</v>
+        <v>42727</v>
       </c>
       <c r="L38" s="296"/>
       <c r="M38" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I38,Contribution!$P$40)</f>
-        <v>1.3315501126164945E-2</v>
+        <v>1.4887762464942554E-2</v>
       </c>
       <c r="N38" s="298">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator6M,J38,,M38)</f>
-        <v>2.3577224404685146E-3</v>
+        <v>2.2112824169871147E-3</v>
       </c>
       <c r="O38" s="297">
         <f t="shared" si="5"/>
-        <v>1.5673223566633459E-2</v>
+        <v>1.7099044881929669E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -12479,7 +12479,7 @@
       <c r="C2" s="292"/>
       <c r="D2" s="288">
         <f>SettlementDate</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="E2" s="285">
         <f t="array" ref="E2:E127">_xll.qlPiecewiseYieldCurveData(YieldCurve1Y,InterestRatesTrigger)</f>
@@ -12494,53 +12494,53 @@
       </c>
       <c r="H2" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J2)</f>
-        <v>41795</v>
+        <v>41809</v>
       </c>
       <c r="I2" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J2,K2,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00439#0000</v>
+        <v>obj_00434#0000</v>
       </c>
       <c r="J2" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F2&amp;"M","mf")</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="K2" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J2)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="L2" s="285">
         <f>_xll.qlIndexFixing(IborIndex1Y,H2,TRUE,InterestRatesTrigger)</f>
-        <v>5.345000000000058E-3</v>
+        <v>5.5099999999991406E-3</v>
       </c>
       <c r="M2" s="285">
         <f>_xll.qlOvernightIndexedSwapFairRate(I2,Contribution!$P$40)</f>
-        <v>1.3199999999998877E-3</v>
+        <v>1.5600000000064969E-3</v>
       </c>
       <c r="N2" s="293">
         <f>L2-M2</f>
-        <v>4.0250000000001708E-3</v>
+        <v>3.9499999999926434E-3</v>
       </c>
       <c r="O2" s="297"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="283" t="str">
         <f t="array" ref="A3:A126">_xll.ohFilter(FRA_RateHelpers!F24:F39,FRA_RateHelpers!H24:H39)</f>
-        <v>obj_0039f#0000</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="B3" s="284">
         <f>_xll.qlRateHelperRate($A3,InterestRatesTrigger)</f>
-        <v>5.3449999999999999E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="C3" s="287">
         <f>_xll.qlRateHelperEarliestDate($A3)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D3" s="288">
         <f>_xll.qlRateHelperLatestDate($A3)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="E3" s="285">
-        <v>0.99460997371397786</v>
+        <v>0.99444450813186358</v>
       </c>
       <c r="F3" s="282">
         <v>1</v>
@@ -12551,52 +12551,52 @@
       </c>
       <c r="H3" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J3)</f>
-        <v>41827</v>
+        <v>41841</v>
       </c>
       <c r="I3" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J3,K3,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00438#0000</v>
+        <v>obj_0044a#0000</v>
       </c>
       <c r="J3" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F3&amp;"M","mf")</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="K3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J3)</f>
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="L3" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H3,TRUE,InterestRatesTrigger)</f>
-        <v>5.4800000004425892E-3</v>
+        <v>5.6799999995529957E-3</v>
       </c>
       <c r="M3" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I3,Contribution!$P$40)</f>
-        <v>1.4704887142380039E-3</v>
+        <v>1.7695359096182479E-3</v>
       </c>
       <c r="N3" s="298">
         <f t="shared" ref="N3:N13" si="1">L3-M3</f>
-        <v>4.0095112862045855E-3</v>
+        <v>3.9104640899347478E-3</v>
       </c>
       <c r="O3" s="297"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="283" t="str">
-        <v>obj_0033c#0000</v>
+        <v>obj_00333#0000</v>
       </c>
       <c r="B4" s="284">
         <f>_xll.qlRateHelperRate($A4,InterestRatesTrigger)</f>
-        <v>5.4800000000000005E-3</v>
+        <v>5.680000000000001E-3</v>
       </c>
       <c r="C4" s="287">
         <f>_xll.qlRateHelperEarliestDate($A4)</f>
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="D4" s="288">
         <f>_xll.qlRateHelperLatestDate($A4)</f>
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="E4" s="285">
-        <v>0.99406980802952782</v>
+        <v>0.99386064008205732</v>
       </c>
       <c r="F4" s="282">
         <v>2</v>
@@ -12607,52 +12607,52 @@
       </c>
       <c r="H4" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J4)</f>
-        <v>41858</v>
+        <v>41872</v>
       </c>
       <c r="I4" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J4,K4,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0043d#0000</v>
+        <v>obj_0044f#0000</v>
       </c>
       <c r="J4" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F4&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="K4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J4)</f>
-        <v>42227</v>
+        <v>42242</v>
       </c>
       <c r="L4" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H4,TRUE,InterestRatesTrigger)</f>
-        <v>5.7200000005913311E-3</v>
+        <v>6.0599999994084249E-3</v>
       </c>
       <c r="M4" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I4,Contribution!$P$40)</f>
-        <v>1.670932493971838E-3</v>
+        <v>2.0587663321299209E-3</v>
       </c>
       <c r="N4" s="298">
         <f t="shared" si="1"/>
-        <v>4.0490675066194928E-3</v>
+        <v>4.001233667278504E-3</v>
       </c>
       <c r="O4" s="297"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="283" t="str">
-        <v>obj_0033d#0000</v>
+        <v>obj_0033b#0000</v>
       </c>
       <c r="B5" s="284">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>5.7200000000000003E-3</v>
+        <v>6.0599999999999994E-3</v>
       </c>
       <c r="C5" s="287">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41862</v>
+        <v>41877</v>
       </c>
       <c r="D5" s="288">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>42227</v>
+        <v>42242</v>
       </c>
       <c r="E5" s="285">
-        <v>0.99338255661537622</v>
+        <v>0.99300973340049614</v>
       </c>
       <c r="F5" s="282">
         <v>3</v>
@@ -12663,52 +12663,52 @@
       </c>
       <c r="H5" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J5)</f>
-        <v>41887</v>
+        <v>41901</v>
       </c>
       <c r="I5" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J5,K5,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00423#0000</v>
+        <v>obj_00455#0000</v>
       </c>
       <c r="J5" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F5&amp;"M","mf")</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
       <c r="K5" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J5)</f>
-        <v>42256</v>
+        <v>42270</v>
       </c>
       <c r="L5" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H5,TRUE,InterestRatesTrigger)</f>
-        <v>5.9758348981272602E-3</v>
+        <v>6.4221599539311209E-3</v>
       </c>
       <c r="M5" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I5,Contribution!$P$40)</f>
-        <v>1.8849268124173785E-3</v>
+        <v>2.3336892202065755E-3</v>
       </c>
       <c r="N5" s="298">
         <f t="shared" si="1"/>
-        <v>4.0909080857098818E-3</v>
+        <v>4.088470733724545E-3</v>
       </c>
       <c r="O5" s="297"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="283" t="str">
-        <v>obj_00336#0000</v>
+        <v>obj_00339#0000</v>
       </c>
       <c r="B6" s="284">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>6.28E-3</v>
+        <v>6.8199999999999997E-3</v>
       </c>
       <c r="C6" s="287">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="D6" s="288">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>42286</v>
+        <v>42300</v>
       </c>
       <c r="E6" s="285">
-        <v>0.99201349011908924</v>
+        <v>0.99143653139153387</v>
       </c>
       <c r="F6" s="282">
         <v>4</v>
@@ -12719,52 +12719,52 @@
       </c>
       <c r="H6" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J6)</f>
-        <v>41919</v>
+        <v>41933</v>
       </c>
       <c r="I6" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J6,K6,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042f#0000</v>
+        <v>obj_00445#0000</v>
       </c>
       <c r="J6" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F6&amp;"M","mf")</f>
-        <v>41921</v>
+        <v>41935</v>
       </c>
       <c r="K6" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J6)</f>
-        <v>42286</v>
+        <v>42300</v>
       </c>
       <c r="L6" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H6,TRUE,InterestRatesTrigger)</f>
-        <v>6.2800000002805117E-3</v>
+        <v>6.8199999997136567E-3</v>
       </c>
       <c r="M6" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I6,Contribution!$P$40)</f>
-        <v>2.1556130533579064E-3</v>
+        <v>2.6902430097114701E-3</v>
       </c>
       <c r="N6" s="298">
         <f t="shared" si="1"/>
-        <v>4.1243869469226053E-3</v>
+        <v>4.1297569900021862E-3</v>
       </c>
       <c r="O6" s="297"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="283" t="str">
-        <v>obj_00338#0000</v>
+        <v>obj_00335#0000</v>
       </c>
       <c r="B7" s="284">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>6.6600000000000001E-3</v>
+        <v>7.2699999999999996E-3</v>
       </c>
       <c r="C7" s="287">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="D7" s="288">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>42318</v>
+        <v>42332</v>
       </c>
       <c r="E7" s="285">
-        <v>0.9911865806629061</v>
+        <v>0.99052902056836845</v>
       </c>
       <c r="F7" s="282">
         <v>5</v>
@@ -12775,52 +12775,52 @@
       </c>
       <c r="H7" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J7)</f>
-        <v>41949</v>
+        <v>41963</v>
       </c>
       <c r="I7" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J7,K7,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00424#0000</v>
+        <v>obj_00460#0000</v>
       </c>
       <c r="J7" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F7&amp;"M","mf")</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="K7" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J7)</f>
-        <v>42318</v>
+        <v>42332</v>
       </c>
       <c r="L7" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H7,TRUE,InterestRatesTrigger)</f>
-        <v>6.6599999994957958E-3</v>
+        <v>7.2700000005106544E-3</v>
       </c>
       <c r="M7" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I7,Contribution!$P$40)</f>
-        <v>2.4999733860099271E-3</v>
+        <v>3.1337509129990243E-3</v>
       </c>
       <c r="N7" s="298">
         <f t="shared" si="1"/>
-        <v>4.1600266134858687E-3</v>
+        <v>4.1362490875116297E-3</v>
       </c>
       <c r="O7" s="296"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="283" t="str">
-        <v>obj_00339#0000</v>
+        <v>obj_00337#0000</v>
       </c>
       <c r="B8" s="284">
         <f>_xll.qlRateHelperRate($A8,InterestRatesTrigger)</f>
-        <v>7.0599999999999994E-3</v>
+        <v>7.7499999999999999E-3</v>
       </c>
       <c r="C8" s="287">
         <f>_xll.qlRateHelperEarliestDate($A8)</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="D8" s="288">
         <f>_xll.qlRateHelperLatestDate($A8)</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="E8" s="285">
-        <v>0.99037493763872475</v>
+        <v>0.9896271131272858</v>
       </c>
       <c r="F8" s="282">
         <v>6</v>
@@ -12831,51 +12831,51 @@
       </c>
       <c r="H8" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J8)</f>
-        <v>41978</v>
+        <v>41992</v>
       </c>
       <c r="I8" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J8,K8,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00430#0000</v>
+        <v>obj_0045e#0000</v>
       </c>
       <c r="J8" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F8&amp;"M","mf")</f>
-        <v>41982</v>
+        <v>41996</v>
       </c>
       <c r="K8" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J8)</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="L8" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H8,TRUE,InterestRatesTrigger)</f>
-        <v>7.0599999993420483E-3</v>
+        <v>7.7500000006646922E-3</v>
       </c>
       <c r="M8" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I8,Contribution!$P$40)</f>
-        <v>2.8498097890564573E-3</v>
+        <v>3.5723698815435093E-3</v>
       </c>
       <c r="N8" s="298">
         <f t="shared" si="1"/>
-        <v>4.210190210285591E-3</v>
+        <v>4.1776301191211833E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="283" t="str">
-        <v>obj_0033e#0000</v>
+        <v>obj_00332#0000</v>
       </c>
       <c r="B9" s="284">
         <f>_xll.qlRateHelperRate($A9,InterestRatesTrigger)</f>
-        <v>8.6300000000000005E-3</v>
+        <v>9.5500000000000012E-3</v>
       </c>
       <c r="C9" s="287">
         <f>_xll.qlRateHelperEarliestDate($A9)</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="D9" s="288">
         <f>_xll.qlRateHelperLatestDate($A9)</f>
-        <v>42438</v>
+        <v>42452</v>
       </c>
       <c r="E9" s="285">
-        <v>0.98745124688013508</v>
+        <v>0.9864331811718009</v>
       </c>
       <c r="F9" s="282">
         <v>9</v>
@@ -12886,51 +12886,51 @@
       </c>
       <c r="H9" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J9)</f>
-        <v>42068</v>
+        <v>42082</v>
       </c>
       <c r="I9" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J9,K9,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041f#0000</v>
+        <v>obj_0041c#0000</v>
       </c>
       <c r="J9" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F9&amp;"M","mf")</f>
-        <v>42072</v>
+        <v>42086</v>
       </c>
       <c r="K9" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J9)</f>
-        <v>42438</v>
+        <v>42452</v>
       </c>
       <c r="L9" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H9,TRUE,InterestRatesTrigger)</f>
-        <v>8.6300000000000369E-3</v>
+        <v>9.5499999999997739E-3</v>
       </c>
       <c r="M9" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I9,Contribution!$P$40)</f>
-        <v>4.2877446560304041E-3</v>
+        <v>5.2873746858303535E-3</v>
       </c>
       <c r="N9" s="298">
         <f t="shared" si="1"/>
-        <v>4.3422553439696329E-3</v>
+        <v>4.2626253141694204E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="283" t="str">
-        <v>obj_0033a#0000</v>
+        <v>obj_00334#0000</v>
       </c>
       <c r="B10" s="284">
         <f>_xll.qlRateHelperRate($A10,InterestRatesTrigger)</f>
-        <v>1.0669999999999999E-2</v>
+        <v>1.1770000000000001E-2</v>
       </c>
       <c r="C10" s="287">
         <f>_xll.qlRateHelperEarliestDate($A10)</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="D10" s="288">
         <f>_xll.qlRateHelperLatestDate($A10)</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="E10" s="285">
-        <v>0.98393639568300795</v>
+        <v>0.98268552930725117</v>
       </c>
       <c r="F10" s="282">
         <v>12</v>
@@ -12941,51 +12941,51 @@
       </c>
       <c r="H10" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J10)</f>
-        <v>42160</v>
+        <v>42174</v>
       </c>
       <c r="I10" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J10,K10,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041d#0000</v>
+        <v>obj_00422#0000</v>
       </c>
       <c r="J10" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F10&amp;"M","mf")</f>
-        <v>42164</v>
+        <v>42178</v>
       </c>
       <c r="K10" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J10)</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="L10" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H10,TRUE,InterestRatesTrigger)</f>
-        <v>1.0669999999999947E-2</v>
+        <v>1.1770000000000383E-2</v>
       </c>
       <c r="M10" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I10,Contribution!$P$40)</f>
-        <v>6.2086929498364621E-3</v>
+        <v>7.4139713320436253E-3</v>
       </c>
       <c r="N10" s="298">
         <f t="shared" si="1"/>
-        <v>4.4613070501634848E-3</v>
+        <v>4.3560286679567572E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="283" t="str">
-        <v>obj_00403#0000</v>
+        <v>obj_003fb#0000</v>
       </c>
       <c r="B11" s="284">
         <f>_xll.qlRateHelperRate($A11,InterestRatesTrigger)</f>
-        <v>1.2009234894449375E-2</v>
+        <v>1.2850062116897581E-2</v>
       </c>
       <c r="C11" s="287">
         <f>_xll.qlRateHelperEarliestDate($A11)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D11" s="288">
         <f>_xll.qlRateHelperLatestDate($A11)</f>
-        <v>42895</v>
+        <v>42909</v>
       </c>
       <c r="E11" s="285">
-        <v>0.96471316284569286</v>
+        <v>0.96228946007087734</v>
       </c>
       <c r="F11" s="318">
         <v>24</v>
@@ -12996,51 +12996,51 @@
       </c>
       <c r="H11" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J11)</f>
-        <v>42528</v>
+        <v>42542</v>
       </c>
       <c r="I11" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J11,K11,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0043b#0000</v>
+        <v>obj_00416#0000</v>
       </c>
       <c r="J11" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F11&amp;"M","mf")</f>
-        <v>42530</v>
+        <v>42544</v>
       </c>
       <c r="K11" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J11)</f>
-        <v>42895</v>
+        <v>42909</v>
       </c>
       <c r="L11" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H11,TRUE,InterestRatesTrigger)</f>
-        <v>1.9653407469544564E-2</v>
+        <v>2.090501025146296E-2</v>
       </c>
       <c r="M11" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I11,Contribution!$P$40)</f>
-        <v>1.5711346976049208E-2</v>
+        <v>1.7209578837693341E-2</v>
       </c>
       <c r="N11" s="298">
         <f t="shared" si="1"/>
-        <v>3.9420604934953564E-3</v>
+        <v>3.6954314137696183E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="283" t="str">
-        <v>obj_00404#0000</v>
+        <v>obj_00408#0000</v>
       </c>
       <c r="B12" s="284">
         <f>_xll.qlRateHelperRate($A12,InterestRatesTrigger)</f>
-        <v>1.6103311394079656E-2</v>
+        <v>1.679380745182843E-2</v>
       </c>
       <c r="C12" s="287">
         <f>_xll.qlRateHelperEarliestDate($A12)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D12" s="288">
         <f>_xll.qlRateHelperLatestDate($A12)</f>
-        <v>43262</v>
+        <v>43276</v>
       </c>
       <c r="E12" s="285">
-        <v>0.93758320319270005</v>
+        <v>0.93500381564666313</v>
       </c>
       <c r="F12" s="318">
         <v>36</v>
@@ -13051,51 +13051,51 @@
       </c>
       <c r="H12" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J12)</f>
-        <v>42893</v>
+        <v>42907</v>
       </c>
       <c r="I12" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J12,K12,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00417#0000</v>
+        <v>obj_0041e#0000</v>
       </c>
       <c r="J12" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F12&amp;"M","mf")</f>
-        <v>42895</v>
+        <v>42909</v>
       </c>
       <c r="K12" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J12)</f>
-        <v>43262</v>
+        <v>43276</v>
       </c>
       <c r="L12" s="297">
         <f>_xll.qlIndexFixing(IborIndex1Y,H12,TRUE,InterestRatesTrigger)</f>
-        <v>2.8384141686708626E-2</v>
+        <v>2.862577600382166E-2</v>
       </c>
       <c r="M12" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I12,Contribution!$P$40)</f>
-        <v>2.4001981531533923E-2</v>
+        <v>2.4212329673137484E-2</v>
       </c>
       <c r="N12" s="298">
         <f t="shared" si="1"/>
-        <v>4.3821601551747025E-3</v>
+        <v>4.4134463306841759E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="283" t="str">
-        <v>obj_00407#0000</v>
+        <v>obj_0040b#0000</v>
       </c>
       <c r="B13" s="284">
         <f>_xll.qlRateHelperRate($A13,InterestRatesTrigger)</f>
-        <v>1.9606602163050199E-2</v>
+        <v>1.9986773789750278E-2</v>
       </c>
       <c r="C13" s="287">
         <f>_xll.qlRateHelperEarliestDate($A13)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="D13" s="288">
         <f>_xll.qlRateHelperLatestDate($A13)</f>
-        <v>43626</v>
+        <v>43640</v>
       </c>
       <c r="E13" s="285">
-        <v>0.9063926502983003</v>
+        <v>0.90471464544723379</v>
       </c>
       <c r="F13" s="318">
         <v>48</v>
@@ -13106,19 +13106,19 @@
       </c>
       <c r="H13" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J13)</f>
-        <v>43258</v>
+        <v>43272</v>
       </c>
       <c r="I13" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J13,K13,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042b#0000</v>
+        <v>obj_00459#0000</v>
       </c>
       <c r="J13" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F13&amp;"M","mf")</f>
-        <v>43262</v>
+        <v>43276</v>
       </c>
       <c r="K13" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J13)</f>
-        <v>43627</v>
+        <v>43641</v>
       </c>
       <c r="L13" s="297" t="e">
         <f>_xll.qlIndexFixing(IborIndex1Y,H13,TRUE,InterestRatesTrigger)</f>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="M13" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I13,Contribution!$P$40)</f>
-        <v>2.9652299203271323E-2</v>
+        <v>2.8754833319066246E-2</v>
       </c>
       <c r="N13" s="298" t="e">
         <f t="shared" si="1"/>
@@ -13268,24 +13268,24 @@
       </c>
       <c r="H19" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J19)</f>
-        <v>42011</v>
+        <v>42025</v>
       </c>
       <c r="I19" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J19,K19,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042c#0000</v>
+        <v>obj_0045a#0000</v>
       </c>
       <c r="J19" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F19&amp;"M","mf")</f>
-        <v>42013</v>
+        <v>42027</v>
       </c>
       <c r="K19" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J19)</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
       <c r="L19" s="279"/>
       <c r="M19" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I19,Contribution!$P$40)</f>
-        <v>3.296615044453788E-3</v>
+        <v>4.1275473006826911E-3</v>
       </c>
       <c r="N19" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J19,,M19)</f>
@@ -13324,24 +13324,24 @@
       </c>
       <c r="H20" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J20)</f>
-        <v>42040</v>
+        <v>42054</v>
       </c>
       <c r="I20" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J20,K20,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00444#0000</v>
+        <v>obj_00452#0000</v>
       </c>
       <c r="J20" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F20&amp;"M","mf")</f>
-        <v>42044</v>
+        <v>42058</v>
       </c>
       <c r="K20" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J20)</f>
-        <v>42409</v>
+        <v>42423</v>
       </c>
       <c r="L20" s="279"/>
       <c r="M20" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I20,Contribution!$P$40)</f>
-        <v>3.7866272348368707E-3</v>
+        <v>4.6887193515182824E-3</v>
       </c>
       <c r="N20" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J20,,M20)</f>
@@ -13380,24 +13380,24 @@
       </c>
       <c r="H21" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J21)</f>
-        <v>42101</v>
+        <v>42115</v>
       </c>
       <c r="I21" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J21,K21,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00422#0000</v>
+        <v>obj_0041d#0000</v>
       </c>
       <c r="J21" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F21&amp;"M","mf")</f>
-        <v>42103</v>
+        <v>42117</v>
       </c>
       <c r="K21" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J21)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
       <c r="L21" s="279"/>
       <c r="M21" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I21,Contribution!$P$40)</f>
-        <v>4.9152706633101206E-3</v>
+        <v>5.9933160850356654E-3</v>
       </c>
       <c r="N21" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J21,,M21)</f>
@@ -13436,24 +13436,24 @@
       </c>
       <c r="H22" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J22)</f>
-        <v>42131</v>
+        <v>42145</v>
       </c>
       <c r="I22" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J22,K22,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00428#0000</v>
+        <v>obj_00458#0000</v>
       </c>
       <c r="J22" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F22&amp;"M","mf")</f>
-        <v>42135</v>
+        <v>42150</v>
       </c>
       <c r="K22" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J22)</f>
-        <v>42501</v>
+        <v>42516</v>
       </c>
       <c r="L22" s="279"/>
       <c r="M22" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I22,Contribution!$P$40)</f>
-        <v>5.5647164856914844E-3</v>
+        <v>6.7323051402546708E-3</v>
       </c>
       <c r="N22" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J22,,M22)</f>
@@ -13492,24 +13492,24 @@
       </c>
       <c r="H23" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J23)</f>
-        <v>42192</v>
+        <v>42206</v>
       </c>
       <c r="I23" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J23,K23,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0043f#0000</v>
+        <v>obj_00454#0000</v>
       </c>
       <c r="J23" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F23&amp;"M","mf")</f>
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="K23" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J23)</f>
-        <v>42562</v>
+        <v>42576</v>
       </c>
       <c r="L23" s="279"/>
       <c r="M23" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I23,Contribution!$P$40)</f>
-        <v>6.9288877490563507E-3</v>
+        <v>8.1921278882352271E-3</v>
       </c>
       <c r="N23" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J23,,M23)</f>
@@ -13548,24 +13548,24 @@
       </c>
       <c r="H24" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J24)</f>
-        <v>42222</v>
+        <v>42236</v>
       </c>
       <c r="I24" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J24,K24,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042d#0000</v>
+        <v>obj_00437#0000</v>
       </c>
       <c r="J24" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F24&amp;"M","mf")</f>
-        <v>42226</v>
+        <v>42240</v>
       </c>
       <c r="K24" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J24)</f>
-        <v>42592</v>
+        <v>42606</v>
       </c>
       <c r="L24" s="279"/>
       <c r="M24" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I24,Contribution!$P$40)</f>
-        <v>7.6851943169518998E-3</v>
+        <v>8.9984404562328587E-3</v>
       </c>
       <c r="N24" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J24,,M24)</f>
@@ -13604,24 +13604,24 @@
       </c>
       <c r="H25" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J25)</f>
-        <v>42254</v>
+        <v>42268</v>
       </c>
       <c r="I25" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J25,K25,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00436#0000</v>
+        <v>obj_00430#0000</v>
       </c>
       <c r="J25" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F25&amp;"M","mf")</f>
-        <v>42256</v>
+        <v>42270</v>
       </c>
       <c r="K25" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J25)</f>
-        <v>42622</v>
+        <v>42636</v>
       </c>
       <c r="L25" s="279"/>
       <c r="M25" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I25,Contribution!$P$40)</f>
-        <v>8.4461211212222553E-3</v>
+        <v>9.8128638426448565E-3</v>
       </c>
       <c r="N25" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J25,,M25)</f>
@@ -13660,24 +13660,24 @@
       </c>
       <c r="H26" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J26)</f>
-        <v>42284</v>
+        <v>42298</v>
       </c>
       <c r="I26" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J26,K26,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00416#0000</v>
+        <v>obj_00426#0000</v>
       </c>
       <c r="J26" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F26&amp;"M","mf")</f>
-        <v>42286</v>
+        <v>42300</v>
       </c>
       <c r="K26" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J26)</f>
-        <v>42654</v>
+        <v>42667</v>
       </c>
       <c r="L26" s="279"/>
       <c r="M26" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I26,Contribution!$P$40)</f>
-        <v>9.2520010260431201E-3</v>
+        <v>1.0641956658634971E-2</v>
       </c>
       <c r="N26" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J26,,M26)</f>
@@ -13716,24 +13716,24 @@
       </c>
       <c r="H27" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J27)</f>
-        <v>42313</v>
+        <v>42327</v>
       </c>
       <c r="I27" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J27,K27,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0043a#0000</v>
+        <v>obj_00449#0000</v>
       </c>
       <c r="J27" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F27&amp;"M","mf")</f>
-        <v>42317</v>
+        <v>42331</v>
       </c>
       <c r="K27" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J27)</f>
-        <v>42683</v>
+        <v>42697</v>
       </c>
       <c r="L27" s="279"/>
       <c r="M27" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I27,Contribution!$P$40)</f>
-        <v>1.0035647279407856E-2</v>
+        <v>1.1470885639126136E-2</v>
       </c>
       <c r="N27" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J27,,M27)</f>
@@ -13772,24 +13772,24 @@
       </c>
       <c r="H28" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J28)</f>
-        <v>42345</v>
+        <v>42359</v>
       </c>
       <c r="I28" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J28,K28,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00433#0000</v>
+        <v>obj_0043e#0000</v>
       </c>
       <c r="J28" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F28&amp;"M","mf")</f>
-        <v>42347</v>
+        <v>42361</v>
       </c>
       <c r="K28" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J28)</f>
-        <v>42713</v>
+        <v>42727</v>
       </c>
       <c r="L28" s="279"/>
       <c r="M28" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I28,Contribution!$P$40)</f>
-        <v>1.0846590651587223E-2</v>
+        <v>1.2317000216501622E-2</v>
       </c>
       <c r="N28" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J28,,M28)</f>
@@ -13828,24 +13828,24 @@
       </c>
       <c r="H29" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J29)</f>
-        <v>42376</v>
+        <v>42390</v>
       </c>
       <c r="I29" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J29,K29,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00414#0000</v>
+        <v>obj_0044e#0000</v>
       </c>
       <c r="J29" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F29&amp;"M","mf")</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
       <c r="K29" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J29)</f>
-        <v>42746</v>
+        <v>42760</v>
       </c>
       <c r="L29" s="279"/>
       <c r="M29" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I29,Contribution!$P$40)</f>
-        <v>1.1742450211150378E-2</v>
+        <v>1.3231479411504371E-2</v>
       </c>
       <c r="N29" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J29,,M29)</f>
@@ -13884,24 +13884,24 @@
       </c>
       <c r="H30" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J30)</f>
-        <v>42405</v>
+        <v>42419</v>
       </c>
       <c r="I30" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J30,K30,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041a#0000</v>
+        <v>obj_0043a#0000</v>
       </c>
       <c r="J30" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F30&amp;"M","mf")</f>
-        <v>42409</v>
+        <v>42423</v>
       </c>
       <c r="K30" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J30)</f>
-        <v>42775</v>
+        <v>42789</v>
       </c>
       <c r="L30" s="279"/>
       <c r="M30" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I30,Contribution!$P$40)</f>
-        <v>1.2510764787880532E-2</v>
+        <v>1.4028029364824553E-2</v>
       </c>
       <c r="N30" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J30,,M30)</f>
@@ -13940,24 +13940,24 @@
       </c>
       <c r="H31" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J31)</f>
-        <v>42436</v>
+        <v>42450</v>
       </c>
       <c r="I31" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J31,K31,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00429#0000</v>
+        <v>obj_00421#0000</v>
       </c>
       <c r="J31" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F31&amp;"M","mf")</f>
-        <v>42438</v>
+        <v>42452</v>
       </c>
       <c r="K31" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J31)</f>
-        <v>42803</v>
+        <v>42817</v>
       </c>
       <c r="L31" s="279"/>
       <c r="M31" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I31,Contribution!$P$40)</f>
-        <v>1.3286400582321087E-2</v>
+        <v>1.4804100415648168E-2</v>
       </c>
       <c r="N31" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J31,,M31)</f>
@@ -13996,24 +13996,24 @@
       </c>
       <c r="H32" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J32)</f>
-        <v>42467</v>
+        <v>42481</v>
       </c>
       <c r="I32" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J32,K32,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00415#0000</v>
+        <v>obj_0041a#0000</v>
       </c>
       <c r="J32" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F32&amp;"M","mf")</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
       <c r="K32" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J32)</f>
-        <v>42836</v>
+        <v>42850</v>
       </c>
       <c r="L32" s="279"/>
       <c r="M32" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I32,Contribution!$P$40)</f>
-        <v>1.4155529603788672E-2</v>
+        <v>1.5686394859434547E-2</v>
       </c>
       <c r="N32" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J32,,M32)</f>
@@ -14052,24 +14052,24 @@
       </c>
       <c r="H33" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J33)</f>
-        <v>42495</v>
+        <v>42509</v>
       </c>
       <c r="I33" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J33,K33,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00418#0000</v>
+        <v>obj_00423#0000</v>
       </c>
       <c r="J33" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F33&amp;"M","mf")</f>
-        <v>42499</v>
+        <v>42513</v>
       </c>
       <c r="K33" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J33)</f>
-        <v>42864</v>
+        <v>42878</v>
       </c>
       <c r="L33" s="279"/>
       <c r="M33" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I33,Contribution!$P$40)</f>
-        <v>1.4900054145966006E-2</v>
+        <v>1.6420203385121714E-2</v>
       </c>
       <c r="N33" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J33,,M33)</f>
@@ -14108,24 +14108,24 @@
       </c>
       <c r="H34" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J34)</f>
-        <v>42558</v>
+        <v>42572</v>
       </c>
       <c r="I34" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J34,K34,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041c#0000</v>
+        <v>obj_0044d#0000</v>
       </c>
       <c r="J34" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F34&amp;"M","mf")</f>
-        <v>42562</v>
+        <v>42576</v>
       </c>
       <c r="K34" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J34)</f>
-        <v>42927</v>
+        <v>42941</v>
       </c>
       <c r="L34" s="279"/>
       <c r="M34" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I34,Contribution!$P$40)</f>
-        <v>1.6530712140524571E-2</v>
+        <v>1.7987599010054929E-2</v>
       </c>
       <c r="N34" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J34,,M34)</f>
@@ -14164,24 +14164,24 @@
       </c>
       <c r="H35" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J35)</f>
-        <v>42587</v>
+        <v>42601</v>
       </c>
       <c r="I35" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J35,K35,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041b#0000</v>
+        <v>obj_0043f#0000</v>
       </c>
       <c r="J35" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F35&amp;"M","mf")</f>
-        <v>42591</v>
+        <v>42605</v>
       </c>
       <c r="K35" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J35)</f>
-        <v>42956</v>
+        <v>42970</v>
       </c>
       <c r="L35" s="279"/>
       <c r="M35" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I35,Contribution!$P$40)</f>
-        <v>1.7258514827357338E-2</v>
+        <v>1.8659508707622632E-2</v>
       </c>
       <c r="N35" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J35,,M35)</f>
@@ -14220,24 +14220,24 @@
       </c>
       <c r="H36" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J36)</f>
-        <v>42620</v>
+        <v>42634</v>
       </c>
       <c r="I36" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J36,K36,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00440#0000</v>
+        <v>obj_00443#0000</v>
       </c>
       <c r="J36" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F36&amp;"M","mf")</f>
-        <v>42622</v>
+        <v>42636</v>
       </c>
       <c r="K36" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J36)</f>
-        <v>42989</v>
+        <v>43003</v>
       </c>
       <c r="L36" s="279"/>
       <c r="M36" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I36,Contribution!$P$40)</f>
-        <v>1.8044858381252485E-2</v>
+        <v>1.9365055810169975E-2</v>
       </c>
       <c r="N36" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J36,,M36)</f>
@@ -14276,24 +14276,24 @@
       </c>
       <c r="H37" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J37)</f>
-        <v>42649</v>
+        <v>42663</v>
       </c>
       <c r="I37" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J37,K37,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00437#0000</v>
+        <v>obj_0041f#0000</v>
       </c>
       <c r="J37" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F37&amp;"M","mf")</f>
-        <v>42653</v>
+        <v>42667</v>
       </c>
       <c r="K37" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J37)</f>
-        <v>43018</v>
+        <v>43032</v>
       </c>
       <c r="L37" s="279"/>
       <c r="M37" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I37,Contribution!$P$40)</f>
-        <v>1.8778261971630524E-2</v>
+        <v>1.99975163729781E-2</v>
       </c>
       <c r="N37" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J37,,M37)</f>
@@ -14332,24 +14332,24 @@
       </c>
       <c r="H38" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J38)</f>
-        <v>42681</v>
+        <v>42695</v>
       </c>
       <c r="I38" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J38,K38,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00419#0000</v>
+        <v>obj_00415#0000</v>
       </c>
       <c r="J38" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F38&amp;"M","mf")</f>
-        <v>42683</v>
+        <v>42697</v>
       </c>
       <c r="K38" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J38)</f>
-        <v>43048</v>
+        <v>43063</v>
       </c>
       <c r="L38" s="279"/>
       <c r="M38" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I38,Contribution!$P$40)</f>
-        <v>1.9471766229880966E-2</v>
+        <v>2.0609751139671659E-2</v>
       </c>
       <c r="N38" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J38,,M38)</f>
@@ -14388,24 +14388,24 @@
       </c>
       <c r="H39" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J39)</f>
-        <v>42711</v>
+        <v>42725</v>
       </c>
       <c r="I39" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J39,K39,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0043c#0000</v>
+        <v>obj_0045d#0000</v>
       </c>
       <c r="J39" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F39&amp;"M","mf")</f>
-        <v>42713</v>
+        <v>42727</v>
       </c>
       <c r="K39" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J39)</f>
-        <v>43080</v>
+        <v>43096</v>
       </c>
       <c r="L39" s="279"/>
       <c r="M39" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I39,Contribution!$P$40)</f>
-        <v>2.018379236439289E-2</v>
+        <v>2.1212847551445282E-2</v>
       </c>
       <c r="N39" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J39,,M39)</f>
@@ -14444,24 +14444,24 @@
       </c>
       <c r="H40" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J40)</f>
-        <v>42740</v>
+        <v>42754</v>
       </c>
       <c r="I40" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J40,K40,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00435#0000</v>
+        <v>obj_00448#0000</v>
       </c>
       <c r="J40" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F40&amp;"M","mf")</f>
-        <v>42744</v>
+        <v>42758</v>
       </c>
       <c r="K40" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J40)</f>
-        <v>43109</v>
+        <v>43123</v>
       </c>
       <c r="L40" s="279"/>
       <c r="M40" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I40,Contribution!$P$40)</f>
-        <v>2.0856232932436575E-2</v>
+        <v>2.1745205716906708E-2</v>
       </c>
       <c r="N40" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J40,,M40)</f>
@@ -14500,24 +14500,24 @@
       </c>
       <c r="H41" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J41)</f>
-        <v>42773</v>
+        <v>42787</v>
       </c>
       <c r="I41" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J41,K41,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041e#0000</v>
+        <v>obj_00456#0000</v>
       </c>
       <c r="J41" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F41&amp;"M","mf")</f>
-        <v>42775</v>
+        <v>42789</v>
       </c>
       <c r="K41" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J41)</f>
-        <v>43140</v>
+        <v>43154</v>
       </c>
       <c r="L41" s="279"/>
       <c r="M41" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I41,Contribution!$P$40)</f>
-        <v>2.1533572275200644E-2</v>
+        <v>2.2289288641545894E-2</v>
       </c>
       <c r="N41" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J41,,M41)</f>
@@ -14556,24 +14556,24 @@
       </c>
       <c r="H42" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J42)</f>
-        <v>42801</v>
+        <v>42815</v>
       </c>
       <c r="I42" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J42,K42,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00432#0000</v>
+        <v>obj_0042f#0000</v>
       </c>
       <c r="J42" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F42&amp;"M","mf")</f>
-        <v>42803</v>
+        <v>42817</v>
       </c>
       <c r="K42" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J42)</f>
-        <v>43168</v>
+        <v>43182</v>
       </c>
       <c r="L42" s="279"/>
       <c r="M42" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I42,Contribution!$P$40)</f>
-        <v>2.2129832261451411E-2</v>
+        <v>2.2760980128861984E-2</v>
       </c>
       <c r="N42" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J42,,M42)</f>
@@ -14612,24 +14612,24 @@
       </c>
       <c r="H43" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J43)</f>
-        <v>42831</v>
+        <v>42845</v>
       </c>
       <c r="I43" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J43,K43,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0043e#0000</v>
+        <v>obj_0042c#0000</v>
       </c>
       <c r="J43" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F43&amp;"M","mf")</f>
-        <v>42835</v>
+        <v>42849</v>
       </c>
       <c r="K43" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J43)</f>
-        <v>43200</v>
+        <v>43214</v>
       </c>
       <c r="L43" s="279"/>
       <c r="M43" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I43,Contribution!$P$40)</f>
-        <v>2.2792932011209823E-2</v>
+        <v>2.3279001750684113E-2</v>
       </c>
       <c r="N43" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J43,,M43)</f>
@@ -14668,24 +14668,24 @@
       </c>
       <c r="H44" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J44)</f>
-        <v>42860</v>
+        <v>42874</v>
       </c>
       <c r="I44" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J44,K44,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00442#0000</v>
+        <v>obj_00444#0000</v>
       </c>
       <c r="J44" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F44&amp;"M","mf")</f>
-        <v>42864</v>
+        <v>42878</v>
       </c>
       <c r="K44" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J44)</f>
-        <v>43229</v>
+        <v>43243</v>
       </c>
       <c r="L44" s="279"/>
       <c r="M44" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I44,Contribution!$P$40)</f>
-        <v>2.3376706917133415E-2</v>
+        <v>2.373076430910841E-2</v>
       </c>
       <c r="N44" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J44,,M44)</f>
@@ -14724,24 +14724,24 @@
       </c>
       <c r="H45" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J45)</f>
-        <v>42922</v>
+        <v>42936</v>
       </c>
       <c r="I45" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J45,K45,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042e#0000</v>
+        <v>obj_0042b#0000</v>
       </c>
       <c r="J45" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F45&amp;"M","mf")</f>
-        <v>42926</v>
+        <v>42940</v>
       </c>
       <c r="K45" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J45)</f>
-        <v>43291</v>
+        <v>43305</v>
       </c>
       <c r="L45" s="279"/>
       <c r="M45" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I45,Contribution!$P$40)</f>
-        <v>2.4568927596414832E-2</v>
+        <v>2.464748216254873E-2</v>
       </c>
       <c r="N45" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J45,,M45)</f>
@@ -14780,24 +14780,24 @@
       </c>
       <c r="H46" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J46)</f>
-        <v>42954</v>
+        <v>42968</v>
       </c>
       <c r="I46" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J46,K46,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00425#0000</v>
+        <v>obj_00440#0000</v>
       </c>
       <c r="J46" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F46&amp;"M","mf")</f>
-        <v>42956</v>
+        <v>42970</v>
       </c>
       <c r="K46" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J46)</f>
-        <v>43321</v>
+        <v>43335</v>
       </c>
       <c r="L46" s="279"/>
       <c r="M46" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I46,Contribution!$P$40)</f>
-        <v>2.5118078884679138E-2</v>
+        <v>2.5069514887935331E-2</v>
       </c>
       <c r="N46" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J46,,M46)</f>
@@ -14836,24 +14836,24 @@
       </c>
       <c r="H47" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J47)</f>
-        <v>42985</v>
+        <v>42999</v>
       </c>
       <c r="I47" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J47,K47,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00421#0000</v>
+        <v>obj_00427#0000</v>
       </c>
       <c r="J47" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F47&amp;"M","mf")</f>
-        <v>42989</v>
+        <v>43003</v>
       </c>
       <c r="K47" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J47)</f>
-        <v>43354</v>
+        <v>43368</v>
       </c>
       <c r="L47" s="279"/>
       <c r="M47" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I47,Contribution!$P$40)</f>
-        <v>2.5701032897474139E-2</v>
+        <v>2.551872351066569E-2</v>
       </c>
       <c r="N47" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J47,,M47)</f>
@@ -14892,24 +14892,24 @@
       </c>
       <c r="H48" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J48)</f>
-        <v>43013</v>
+        <v>43027</v>
       </c>
       <c r="I48" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J48,K48,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00431#0000</v>
+        <v>obj_00417#0000</v>
       </c>
       <c r="J48" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F48&amp;"M","mf")</f>
-        <v>43017</v>
+        <v>43031</v>
       </c>
       <c r="K48" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J48)</f>
-        <v>43382</v>
+        <v>43396</v>
       </c>
       <c r="L48" s="279"/>
       <c r="M48" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I48,Contribution!$P$40)</f>
-        <v>2.6186247777457414E-2</v>
+        <v>2.5888206867868066E-2</v>
       </c>
       <c r="N48" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J48,,M48)</f>
@@ -14948,24 +14948,24 @@
       </c>
       <c r="H49" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J49)</f>
-        <v>43046</v>
+        <v>43060</v>
       </c>
       <c r="I49" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J49,K49,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00443#0000</v>
+        <v>obj_00451#0000</v>
       </c>
       <c r="J49" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F49&amp;"M","mf")</f>
-        <v>43048</v>
+        <v>43062</v>
       </c>
       <c r="K49" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J49)</f>
-        <v>43413</v>
+        <v>43427</v>
       </c>
       <c r="L49" s="279"/>
       <c r="M49" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I49,Contribution!$P$40)</f>
-        <v>2.6687613183080366E-2</v>
+        <v>2.6291271125690394E-2</v>
       </c>
       <c r="N49" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J49,,M49)</f>
@@ -15004,24 +15004,24 @@
       </c>
       <c r="H50" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J50)</f>
-        <v>43076</v>
+        <v>43090</v>
       </c>
       <c r="I50" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J50,K50,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00420#0000</v>
+        <v>obj_0042d#0000</v>
       </c>
       <c r="J50" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F50&amp;"M","mf")</f>
-        <v>43080</v>
+        <v>43096</v>
       </c>
       <c r="K50" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J50)</f>
-        <v>43445</v>
+        <v>43461</v>
       </c>
       <c r="L50" s="279"/>
       <c r="M50" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I50,Contribution!$P$40)</f>
-        <v>2.7192544313837441E-2</v>
+        <v>2.6708010455193894E-2</v>
       </c>
       <c r="N50" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J50,,M50)</f>
@@ -15060,24 +15060,24 @@
       </c>
       <c r="H51" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J51)</f>
-        <v>43105</v>
+        <v>43119</v>
       </c>
       <c r="I51" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J51,K51,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00427#0000</v>
+        <v>obj_00431#0000</v>
       </c>
       <c r="J51" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F51&amp;"M","mf")</f>
-        <v>43109</v>
+        <v>43123</v>
       </c>
       <c r="K51" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J51)</f>
-        <v>43474</v>
+        <v>43488</v>
       </c>
       <c r="L51" s="279"/>
       <c r="M51" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I51,Contribution!$P$40)</f>
-        <v>2.7631641090735692E-2</v>
+        <v>2.7034275846230249E-2</v>
       </c>
       <c r="N51" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J51,,M51)</f>
@@ -15116,24 +15116,24 @@
       </c>
       <c r="H52" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J52)</f>
-        <v>43138</v>
+        <v>43152</v>
       </c>
       <c r="I52" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J52,K52,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00434#0000</v>
+        <v>obj_00429#0000</v>
       </c>
       <c r="J52" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F52&amp;"M","mf")</f>
-        <v>43140</v>
+        <v>43154</v>
       </c>
       <c r="K52" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J52)</f>
-        <v>43507</v>
+        <v>43521</v>
       </c>
       <c r="L52" s="279"/>
       <c r="M52" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I52,Contribution!$P$40)</f>
-        <v>2.8096463705853485E-2</v>
+        <v>2.7412671768552423E-2</v>
       </c>
       <c r="N52" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J52,,M52)</f>
@@ -15172,24 +15172,24 @@
       </c>
       <c r="H53" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J53)</f>
-        <v>43166</v>
+        <v>43180</v>
       </c>
       <c r="I53" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J53,K53,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00426#0000</v>
+        <v>obj_00438#0000</v>
       </c>
       <c r="J53" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F53&amp;"M","mf")</f>
-        <v>43168</v>
+        <v>43182</v>
       </c>
       <c r="K53" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J53)</f>
-        <v>43535</v>
+        <v>43549</v>
       </c>
       <c r="L53" s="279"/>
       <c r="M53" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I53,Contribution!$P$40)</f>
-        <v>2.8484669522581187E-2</v>
+        <v>2.7734463951385516E-2</v>
       </c>
       <c r="N53" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J53,,M53)</f>
@@ -15228,24 +15228,24 @@
       </c>
       <c r="H54" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J54)</f>
-        <v>43195</v>
+        <v>43209</v>
       </c>
       <c r="I54" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J54,K54,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00441#0000</v>
+        <v>obj_0043c#0000</v>
       </c>
       <c r="J54" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F54&amp;"M","mf")</f>
-        <v>43199</v>
+        <v>43213</v>
       </c>
       <c r="K54" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J54)</f>
-        <v>43564</v>
+        <v>43578</v>
       </c>
       <c r="L54" s="279"/>
       <c r="M54" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I54,Contribution!$P$40)</f>
-        <v>2.8881063884977905E-2</v>
+        <v>2.8069830238448539E-2</v>
       </c>
       <c r="N54" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J54,,M54)</f>
@@ -15284,24 +15284,24 @@
       </c>
       <c r="H55" s="294">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex1Y,J55)</f>
-        <v>43224</v>
+        <v>43241</v>
       </c>
       <c r="I55" s="282" t="str">
         <f>_xll.qlMakeDatedOIS(,J55,K55,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042a#0000</v>
+        <v>obj_00428#0000</v>
       </c>
       <c r="J55" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F55&amp;"M","mf")</f>
-        <v>43229</v>
+        <v>43243</v>
       </c>
       <c r="K55" s="294">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex1Y,J55)</f>
-        <v>43594</v>
+        <v>43608</v>
       </c>
       <c r="L55" s="279"/>
       <c r="M55" s="297">
         <f>_xll.qlOvernightIndexedSwapFairRate(I55,Contribution!$P$40)</f>
-        <v>2.9259028590848477E-2</v>
+        <v>2.8399589574997643E-2</v>
       </c>
       <c r="N55" s="298" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator1Y,J55,,M55)</f>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="P2" s="215">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -16914,16 +16914,16 @@
       </c>
       <c r="J3" s="218">
         <f>ROUND(Depo_Calculation!$G34,6)</f>
-        <v>1.488E-3</v>
+        <v>1.4829999999999999E-3</v>
       </c>
       <c r="K3" s="156"/>
       <c r="L3" s="166">
-        <v>1.488E-3</v>
+        <v>1.4829999999999999E-3</v>
       </c>
       <c r="M3" s="140"/>
       <c r="N3" s="169">
         <f t="array" ref="N3:N92">QuoteLive</f>
-        <v>1.488E-3</v>
+        <v>1.4829999999999999E-3</v>
       </c>
       <c r="O3" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
@@ -16958,15 +16958,15 @@
       </c>
       <c r="J4" s="218">
         <f>ROUND(Depo_Calculation!$G35,6)</f>
-        <v>1.4840000000000001E-3</v>
+        <v>1.474E-3</v>
       </c>
       <c r="K4" s="156"/>
       <c r="L4" s="166">
-        <v>1.4840000000000001E-3</v>
+        <v>1.474E-3</v>
       </c>
       <c r="M4" s="140"/>
       <c r="N4" s="169">
-        <v>1.4840000000000001E-3</v>
+        <v>1.474E-3</v>
       </c>
       <c r="O4" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
@@ -16998,15 +16998,15 @@
       </c>
       <c r="J5" s="218">
         <f>ROUND(Depo_Calculation!$G36,6)</f>
-        <v>1.5E-3</v>
+        <v>1.4840000000000001E-3</v>
       </c>
       <c r="K5" s="156"/>
       <c r="L5" s="166">
-        <v>1.5E-3</v>
+        <v>1.4840000000000001E-3</v>
       </c>
       <c r="M5" s="140"/>
       <c r="N5" s="169">
-        <v>1.5E-3</v>
+        <v>1.4840000000000001E-3</v>
       </c>
       <c r="O5" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
@@ -17038,15 +17038,15 @@
       </c>
       <c r="J6" s="220">
         <f>Depo_Calculation!$G37</f>
-        <v>1.5054706107835709E-3</v>
+        <v>1.4733517056632174E-3</v>
       </c>
       <c r="K6" s="156"/>
       <c r="L6" s="167">
-        <v>1.5054706107835709E-3</v>
+        <v>1.4733517056632174E-3</v>
       </c>
       <c r="M6" s="140"/>
       <c r="N6" s="171">
-        <v>1.5054706107835709E-3</v>
+        <v>1.4733517056632174E-3</v>
       </c>
       <c r="O6" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
@@ -17078,15 +17078,15 @@
       </c>
       <c r="J7" s="219">
         <f>ROUND(Depo_Calculation!$G38,6)</f>
-        <v>1.5100000000000001E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="K7" s="156"/>
       <c r="L7" s="168">
-        <v>1.5100000000000001E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="M7" s="140"/>
       <c r="N7" s="172">
-        <v>1.5100000000000001E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="O7" s="361">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND(N7,6),EvaluationDate)</f>
@@ -17120,15 +17120,15 @@
       </c>
       <c r="J8" s="217">
         <f>ROUND(Depo_Calculation!$H34,6)</f>
-        <v>2.774E-3</v>
+        <v>2.2669999999999999E-3</v>
       </c>
       <c r="K8" s="156"/>
       <c r="L8" s="166">
-        <v>2.774E-3</v>
+        <v>2.2669999999999999E-3</v>
       </c>
       <c r="M8" s="140"/>
       <c r="N8" s="169">
-        <v>2.774E-3</v>
+        <v>2.2669999999999999E-3</v>
       </c>
       <c r="O8" s="317">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
@@ -17136,7 +17136,7 @@
       </c>
       <c r="P8" s="216">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -17166,15 +17166,15 @@
       </c>
       <c r="J9" s="218">
         <f>ROUND(Depo_Calculation!$H35,6)</f>
-        <v>2.7130000000000001E-3</v>
+        <v>2.2629999999999998E-3</v>
       </c>
       <c r="K9" s="156"/>
       <c r="L9" s="166">
-        <v>2.7130000000000001E-3</v>
+        <v>2.2629999999999998E-3</v>
       </c>
       <c r="M9" s="140"/>
       <c r="N9" s="169">
-        <v>2.7130000000000001E-3</v>
+        <v>2.2629999999999998E-3</v>
       </c>
       <c r="O9" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
@@ -17206,15 +17206,15 @@
       </c>
       <c r="J10" s="218">
         <f>ROUND(Depo_Calculation!$H36,6)</f>
-        <v>2.666E-3</v>
+        <v>2.2780000000000001E-3</v>
       </c>
       <c r="K10" s="156"/>
       <c r="L10" s="166">
-        <v>2.666E-3</v>
+        <v>2.2780000000000001E-3</v>
       </c>
       <c r="M10" s="140"/>
       <c r="N10" s="169">
-        <v>2.666E-3</v>
+        <v>2.2780000000000001E-3</v>
       </c>
       <c r="O10" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
@@ -17246,15 +17246,15 @@
       </c>
       <c r="J11" s="218">
         <f>ROUND(Depo_Calculation!$H37,6)</f>
-        <v>2.6150000000000001E-3</v>
+        <v>2.274E-3</v>
       </c>
       <c r="K11" s="156"/>
       <c r="L11" s="166">
-        <v>2.6150000000000001E-3</v>
+        <v>2.274E-3</v>
       </c>
       <c r="M11" s="140"/>
       <c r="N11" s="169">
-        <v>2.6150000000000001E-3</v>
+        <v>2.274E-3</v>
       </c>
       <c r="O11" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
@@ -17286,15 +17286,15 @@
       </c>
       <c r="J12" s="218">
         <f>ROUND(Depo_Calculation!$H38,6)</f>
-        <v>2.552E-3</v>
+        <v>2.2790000000000002E-3</v>
       </c>
       <c r="K12" s="156"/>
       <c r="L12" s="166">
-        <v>2.552E-3</v>
+        <v>2.2790000000000002E-3</v>
       </c>
       <c r="M12" s="140"/>
       <c r="N12" s="169">
-        <v>2.552E-3</v>
+        <v>2.2790000000000002E-3</v>
       </c>
       <c r="O12" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
@@ -17326,15 +17326,15 @@
       </c>
       <c r="J13" s="218">
         <f>ROUND(Depo_Calculation!$H39,6)</f>
-        <v>2.3670000000000002E-3</v>
+        <v>2.2820000000000002E-3</v>
       </c>
       <c r="K13" s="156"/>
       <c r="L13" s="166">
-        <v>2.3670000000000002E-3</v>
+        <v>2.2820000000000002E-3</v>
       </c>
       <c r="M13" s="140"/>
       <c r="N13" s="169">
-        <v>2.3670000000000002E-3</v>
+        <v>2.2820000000000002E-3</v>
       </c>
       <c r="O13" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
@@ -17366,15 +17366,15 @@
       </c>
       <c r="J14" s="219">
         <f>ROUND(Depo_Calculation!$H40,6)</f>
-        <v>2.3059999999999999E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="K14" s="206"/>
       <c r="L14" s="168">
-        <v>2.3059999999999999E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="M14" s="206"/>
       <c r="N14" s="172">
-        <v>2.3059999999999999E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="O14" s="173">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
@@ -17408,15 +17408,15 @@
       </c>
       <c r="J15" s="217">
         <f>ROUND(Depo_Calculation!$I34,6)</f>
-        <v>3.3310000000000002E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="K15" s="156"/>
       <c r="L15" s="166">
-        <v>3.3310000000000002E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="M15" s="140"/>
       <c r="N15" s="169">
-        <v>3.3310000000000002E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="O15" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
@@ -17424,7 +17424,7 @@
       </c>
       <c r="P15" s="190">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -17454,15 +17454,15 @@
       </c>
       <c r="J16" s="218">
         <f>ROUND(Depo_Calculation!$I35,6)</f>
-        <v>3.3189999999999999E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="K16" s="156"/>
       <c r="L16" s="166">
-        <v>3.3189999999999999E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="M16" s="140"/>
       <c r="N16" s="169">
-        <v>3.3189999999999999E-3</v>
+        <v>3.107E-3</v>
       </c>
       <c r="O16" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
@@ -17494,15 +17494,15 @@
       </c>
       <c r="J17" s="218">
         <f>ROUND(Depo_Calculation!$I36,6)</f>
-        <v>3.3249999999999998E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="K17" s="156"/>
       <c r="L17" s="166">
-        <v>3.3249999999999998E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="M17" s="140"/>
       <c r="N17" s="169">
-        <v>3.3249999999999998E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="O17" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
@@ -17534,15 +17534,15 @@
       </c>
       <c r="J18" s="218">
         <f>ROUND(Depo_Calculation!$I37,6)</f>
-        <v>3.3210000000000002E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="K18" s="156"/>
       <c r="L18" s="166">
-        <v>3.3210000000000002E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="M18" s="140"/>
       <c r="N18" s="169">
-        <v>3.3210000000000002E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="O18" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
@@ -17574,15 +17574,15 @@
       </c>
       <c r="J19" s="218">
         <f>ROUND(Depo_Calculation!$I38,6)</f>
-        <v>3.3140000000000001E-3</v>
+        <v>3.137E-3</v>
       </c>
       <c r="K19" s="156"/>
       <c r="L19" s="166">
-        <v>3.3140000000000001E-3</v>
+        <v>3.137E-3</v>
       </c>
       <c r="M19" s="140"/>
       <c r="N19" s="169">
-        <v>3.3140000000000001E-3</v>
+        <v>3.137E-3</v>
       </c>
       <c r="O19" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
@@ -17614,15 +17614,15 @@
       </c>
       <c r="J20" s="218">
         <f>ROUND(Depo_Calculation!$I39,6)</f>
-        <v>3.2680000000000001E-3</v>
+        <v>3.156E-3</v>
       </c>
       <c r="K20" s="156"/>
       <c r="L20" s="166">
-        <v>3.2680000000000001E-3</v>
+        <v>3.156E-3</v>
       </c>
       <c r="M20" s="140"/>
       <c r="N20" s="169">
-        <v>3.2680000000000001E-3</v>
+        <v>3.156E-3</v>
       </c>
       <c r="O20" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
@@ -17654,15 +17654,15 @@
       </c>
       <c r="J21" s="218">
         <f>ROUND(Depo_Calculation!$I40,6)</f>
-        <v>3.2469999999999999E-3</v>
+        <v>3.1740000000000002E-3</v>
       </c>
       <c r="K21" s="156"/>
       <c r="L21" s="166">
-        <v>3.2469999999999999E-3</v>
+        <v>3.1740000000000002E-3</v>
       </c>
       <c r="M21" s="140"/>
       <c r="N21" s="169">
-        <v>3.2469999999999999E-3</v>
+        <v>3.1740000000000002E-3</v>
       </c>
       <c r="O21" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
@@ -17694,15 +17694,15 @@
       </c>
       <c r="J22" s="218">
         <f>ROUND(Depo_Calculation!$I41,6)</f>
-        <v>3.222E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="K22" s="156"/>
       <c r="L22" s="166">
-        <v>3.222E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="M22" s="140"/>
       <c r="N22" s="169">
-        <v>3.222E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="O22" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
@@ -17734,15 +17734,15 @@
       </c>
       <c r="J23" s="218">
         <f>ROUND(Depo_Calculation!$I42,6)</f>
-        <v>3.2230000000000002E-3</v>
+        <v>3.2330000000000002E-3</v>
       </c>
       <c r="K23" s="156"/>
       <c r="L23" s="166">
-        <v>3.2230000000000002E-3</v>
+        <v>3.2330000000000002E-3</v>
       </c>
       <c r="M23" s="140"/>
       <c r="N23" s="169">
-        <v>3.2230000000000002E-3</v>
+        <v>3.2330000000000002E-3</v>
       </c>
       <c r="O23" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
@@ -17774,15 +17774,15 @@
       </c>
       <c r="J24" s="219">
         <f>ROUND(Depo_Calculation!$I43,6)</f>
-        <v>3.2239999999999999E-3</v>
+        <v>3.2460000000000002E-3</v>
       </c>
       <c r="K24" s="211"/>
       <c r="L24" s="168">
-        <v>3.2239999999999999E-3</v>
+        <v>3.2460000000000002E-3</v>
       </c>
       <c r="M24" s="212"/>
       <c r="N24" s="172">
-        <v>3.2239999999999999E-3</v>
+        <v>3.2460000000000002E-3</v>
       </c>
       <c r="O24" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
@@ -17821,15 +17821,15 @@
       </c>
       <c r="J25" s="218">
         <f>'6M_FRA_Calculation'!O24</f>
-        <v>4.0565525101223417E-3</v>
+        <v>4.554752767547611E-3</v>
       </c>
       <c r="K25" s="305"/>
       <c r="L25" s="166">
-        <v>4.061306424392481E-3</v>
+        <v>4.554752767547611E-3</v>
       </c>
       <c r="M25" s="306"/>
       <c r="N25" s="169">
-        <v>4.0565525101223417E-3</v>
+        <v>4.554752767547611E-3</v>
       </c>
       <c r="O25" s="317">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND(N25,6),EvaluationDate)</f>
@@ -17868,15 +17868,15 @@
       </c>
       <c r="J26" s="218">
         <f>'6M_FRA_Calculation'!O25</f>
-        <v>4.4251620280680417E-3</v>
+        <v>5.0134439985646618E-3</v>
       </c>
       <c r="K26" s="305"/>
       <c r="L26" s="166">
-        <v>4.4229990916612224E-3</v>
+        <v>5.0134439985646618E-3</v>
       </c>
       <c r="M26" s="306"/>
       <c r="N26" s="169">
-        <v>4.4251620280680417E-3</v>
+        <v>5.0134439985646618E-3</v>
       </c>
       <c r="O26" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND(N26,6),EvaluationDate)</f>
@@ -17915,15 +17915,15 @@
       </c>
       <c r="J27" s="218">
         <f>'6M_FRA_Calculation'!O26</f>
-        <v>5.3293639341443627E-3</v>
+        <v>6.1184968997277812E-3</v>
       </c>
       <c r="K27" s="305"/>
       <c r="L27" s="166">
-        <v>5.2872960492981111E-3</v>
+        <v>6.1184968997277812E-3</v>
       </c>
       <c r="M27" s="306"/>
       <c r="N27" s="169">
-        <v>5.3293639341443627E-3</v>
+        <v>6.1184968997277812E-3</v>
       </c>
       <c r="O27" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND(N27,6),EvaluationDate)</f>
@@ -17962,15 +17962,15 @@
       </c>
       <c r="J28" s="218">
         <f>'6M_FRA_Calculation'!O27</f>
-        <v>5.9794879322037052E-3</v>
+        <v>6.8678798240851841E-3</v>
       </c>
       <c r="K28" s="305"/>
       <c r="L28" s="166">
-        <v>5.9337779425432356E-3</v>
+        <v>6.8678798240851841E-3</v>
       </c>
       <c r="M28" s="306"/>
       <c r="N28" s="169">
-        <v>5.9794879322037052E-3</v>
+        <v>6.8678798240851841E-3</v>
       </c>
       <c r="O28" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND(N28,6),EvaluationDate)</f>
@@ -18009,15 +18009,15 @@
       </c>
       <c r="J29" s="218">
         <f>'6M_FRA_Calculation'!O28</f>
-        <v>7.2017415844343085E-3</v>
+        <v>8.2195313362824728E-3</v>
       </c>
       <c r="K29" s="305"/>
       <c r="L29" s="166">
-        <v>7.1864211947494702E-3</v>
+        <v>8.2195313362824728E-3</v>
       </c>
       <c r="M29" s="306"/>
       <c r="N29" s="169">
-        <v>7.2017415844343085E-3</v>
+        <v>8.2195313362824728E-3</v>
       </c>
       <c r="O29" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND(N29,6),EvaluationDate)</f>
@@ -18056,15 +18056,15 @@
       </c>
       <c r="J30" s="218">
         <f>'6M_FRA_Calculation'!O29</f>
-        <v>7.9498483516639001E-3</v>
+        <v>8.9985928087155838E-3</v>
       </c>
       <c r="K30" s="305"/>
       <c r="L30" s="166">
-        <v>7.9112189177477088E-3</v>
+        <v>8.9985928087155838E-3</v>
       </c>
       <c r="M30" s="306"/>
       <c r="N30" s="169">
-        <v>7.9498483516639001E-3</v>
+        <v>8.9985928087155838E-3</v>
       </c>
       <c r="O30" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND(N30,6),EvaluationDate)</f>
@@ -18103,15 +18103,15 @@
       </c>
       <c r="J31" s="218">
         <f>'6M_FRA_Calculation'!O30</f>
-        <v>8.6383023094064211E-3</v>
+        <v>9.7674805700632382E-3</v>
       </c>
       <c r="K31" s="305"/>
       <c r="L31" s="166">
-        <v>8.6444362226229029E-3</v>
+        <v>9.7674805700632382E-3</v>
       </c>
       <c r="M31" s="306"/>
       <c r="N31" s="169">
-        <v>8.6383023094064211E-3</v>
+        <v>9.7674805700632382E-3</v>
       </c>
       <c r="O31" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND(N31,6),EvaluationDate)</f>
@@ -18150,15 +18150,15 @@
       </c>
       <c r="J32" s="218">
         <f>'6M_FRA_Calculation'!O31</f>
-        <v>9.44958693822592E-3</v>
+        <v>1.0587024074432492E-2</v>
       </c>
       <c r="K32" s="305"/>
       <c r="L32" s="166">
-        <v>9.4585068866655918E-3</v>
+        <v>1.0587024074432492E-2</v>
       </c>
       <c r="M32" s="306"/>
       <c r="N32" s="169">
-        <v>9.44958693822592E-3</v>
+        <v>1.0587024074432492E-2</v>
       </c>
       <c r="O32" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND(N32,6),EvaluationDate)</f>
@@ -18197,15 +18197,15 @@
       </c>
       <c r="J33" s="218">
         <f>'6M_FRA_Calculation'!O32</f>
-        <v>1.0174778650107947E-2</v>
+        <v>1.1338747343401831E-2</v>
       </c>
       <c r="K33" s="305"/>
       <c r="L33" s="166">
-        <v>1.019596436412195E-2</v>
+        <v>1.1338747343401831E-2</v>
       </c>
       <c r="M33" s="306"/>
       <c r="N33" s="169">
-        <v>1.0174778650107947E-2</v>
+        <v>1.1338747343401831E-2</v>
       </c>
       <c r="O33" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND(N33,6),EvaluationDate)</f>
@@ -18244,15 +18244,15 @@
       </c>
       <c r="J34" s="218">
         <f>'6M_FRA_Calculation'!O33</f>
-        <v>1.1821531793272985E-2</v>
+        <v>1.3035128373084006E-2</v>
       </c>
       <c r="K34" s="305"/>
       <c r="L34" s="166">
-        <v>1.1820054990029531E-2</v>
+        <v>1.3035128373084006E-2</v>
       </c>
       <c r="M34" s="306"/>
       <c r="N34" s="169">
-        <v>1.1821531793272985E-2</v>
+        <v>1.3035128373084006E-2</v>
       </c>
       <c r="O34" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND(N34,6),EvaluationDate)</f>
@@ -18291,15 +18291,15 @@
       </c>
       <c r="J35" s="218">
         <f>'6M_FRA_Calculation'!O34</f>
-        <v>1.2542990528651715E-2</v>
+        <v>1.3812377942358112E-2</v>
       </c>
       <c r="K35" s="305"/>
       <c r="L35" s="166">
-        <v>1.2570265214793543E-2</v>
+        <v>1.3812377942358112E-2</v>
       </c>
       <c r="M35" s="306"/>
       <c r="N35" s="169">
-        <v>1.2542990528651715E-2</v>
+        <v>1.3812377942358112E-2</v>
       </c>
       <c r="O35" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
@@ -18338,15 +18338,15 @@
       </c>
       <c r="J36" s="218">
         <f>'6M_FRA_Calculation'!O35</f>
-        <v>1.3337610977173127E-2</v>
+        <v>1.4627449230055385E-2</v>
       </c>
       <c r="K36" s="305"/>
       <c r="L36" s="166">
-        <v>1.3324270071589456E-2</v>
+        <v>1.4627449230055385E-2</v>
       </c>
       <c r="M36" s="306"/>
       <c r="N36" s="169">
-        <v>1.3337610977173127E-2</v>
+        <v>1.4627449230055385E-2</v>
       </c>
       <c r="O36" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
@@ -18385,15 +18385,15 @@
       </c>
       <c r="J37" s="218">
         <f>'6M_FRA_Calculation'!O36</f>
-        <v>1.4148910142849901E-2</v>
+        <v>1.5505897167489064E-2</v>
       </c>
       <c r="K37" s="305"/>
       <c r="L37" s="166">
-        <v>1.4162810853153334E-2</v>
+        <v>1.5505897167489064E-2</v>
       </c>
       <c r="M37" s="306"/>
       <c r="N37" s="169">
-        <v>1.4148910142849901E-2</v>
+        <v>1.5505897167489064E-2</v>
       </c>
       <c r="O37" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND(N37,6),EvaluationDate)</f>
@@ -18432,15 +18432,15 @@
       </c>
       <c r="J38" s="218">
         <f>'6M_FRA_Calculation'!O37</f>
-        <v>1.4889770985699467E-2</v>
+        <v>1.6280154928786778E-2</v>
       </c>
       <c r="K38" s="305"/>
       <c r="L38" s="166">
-        <v>1.4897094023238917E-2</v>
+        <v>1.6280154928786778E-2</v>
       </c>
       <c r="M38" s="306"/>
       <c r="N38" s="169">
-        <v>1.4889770985699467E-2</v>
+        <v>1.6280154928786778E-2</v>
       </c>
       <c r="O38" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND(N38,6),EvaluationDate)</f>
@@ -18479,15 +18479,15 @@
       </c>
       <c r="J39" s="218">
         <f>'6M_FRA_Calculation'!O38</f>
-        <v>1.5673223566633459E-2</v>
+        <v>1.7099044881929669E-2</v>
       </c>
       <c r="K39" s="305"/>
       <c r="L39" s="166">
-        <v>1.5674229546431721E-2</v>
+        <v>1.7099044881929669E-2</v>
       </c>
       <c r="M39" s="306"/>
       <c r="N39" s="169">
-        <v>1.5673223566633459E-2</v>
+        <v>1.7099044881929669E-2</v>
       </c>
       <c r="O39" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND(N39,6),EvaluationDate)</f>
@@ -18522,15 +18522,15 @@
       </c>
       <c r="J40" s="217">
         <f>ROUND(Depo_Calculation!$J34,6)</f>
-        <v>4.9249999999999997E-3</v>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="K40" s="156"/>
       <c r="L40" s="315">
-        <v>4.9249999999999997E-3</v>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="M40" s="140"/>
       <c r="N40" s="316">
-        <v>4.9249999999999997E-3</v>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="O40" s="317">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>
@@ -18538,7 +18538,7 @@
       </c>
       <c r="P40" s="190">
         <f>_xll.ohTrigger(O40:O55)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="303" customFormat="1" x14ac:dyDescent="0.2">
@@ -18569,15 +18569,15 @@
       </c>
       <c r="J41" s="218">
         <f>ROUND(Depo_Calculation!$J35,6)</f>
-        <v>4.9249999999999997E-3</v>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="K41" s="156"/>
       <c r="L41" s="166">
-        <v>4.9249999999999997E-3</v>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="M41" s="140"/>
       <c r="N41" s="169">
-        <v>4.9249999999999997E-3</v>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="O41" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(N41,6),EvaluationDate)</f>
@@ -18610,15 +18610,15 @@
       </c>
       <c r="J42" s="218">
         <f>ROUND(Depo_Calculation!$J36,6)</f>
-        <v>4.9449999999999997E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="K42" s="156"/>
       <c r="L42" s="166">
-        <v>4.9449999999999997E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="M42" s="140"/>
       <c r="N42" s="169">
-        <v>4.9449999999999997E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="O42" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(N42,6),EvaluationDate)</f>
@@ -18650,15 +18650,15 @@
       </c>
       <c r="J43" s="218">
         <f>ROUND(Depo_Calculation!$J37,6)</f>
-        <v>4.9550000000000002E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="K43" s="156"/>
       <c r="L43" s="166">
-        <v>4.9550000000000002E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="M43" s="140"/>
       <c r="N43" s="169">
-        <v>4.9550000000000002E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="O43" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(N43,6),EvaluationDate)</f>
@@ -18690,15 +18690,15 @@
       </c>
       <c r="J44" s="218">
         <f>ROUND(Depo_Calculation!$J38,6)</f>
-        <v>4.9649999999999998E-3</v>
+        <v>4.9399999999999999E-3</v>
       </c>
       <c r="K44" s="156"/>
       <c r="L44" s="166">
-        <v>4.9649999999999998E-3</v>
+        <v>4.9399999999999999E-3</v>
       </c>
       <c r="M44" s="140"/>
       <c r="N44" s="169">
-        <v>4.9649999999999998E-3</v>
+        <v>4.9399999999999999E-3</v>
       </c>
       <c r="O44" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(N44,6),EvaluationDate)</f>
@@ -18730,15 +18730,15 @@
       </c>
       <c r="J45" s="218">
         <f>ROUND(Depo_Calculation!$J39,6)</f>
-        <v>4.9750000000000003E-3</v>
+        <v>4.96E-3</v>
       </c>
       <c r="K45" s="156"/>
       <c r="L45" s="166">
-        <v>4.9750000000000003E-3</v>
+        <v>4.96E-3</v>
       </c>
       <c r="M45" s="140"/>
       <c r="N45" s="169">
-        <v>4.9750000000000003E-3</v>
+        <v>4.96E-3</v>
       </c>
       <c r="O45" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(N45,6),EvaluationDate)</f>
@@ -18770,15 +18770,15 @@
       </c>
       <c r="J46" s="218">
         <f>ROUND(Depo_Calculation!$J40,6)</f>
-        <v>4.9950000000000003E-3</v>
+        <v>4.9800000000000001E-3</v>
       </c>
       <c r="K46" s="156"/>
       <c r="L46" s="166">
-        <v>4.9950000000000003E-3</v>
+        <v>4.9800000000000001E-3</v>
       </c>
       <c r="M46" s="140"/>
       <c r="N46" s="169">
-        <v>4.9950000000000003E-3</v>
+        <v>4.9800000000000001E-3</v>
       </c>
       <c r="O46" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(N46,6),EvaluationDate)</f>
@@ -18810,15 +18810,15 @@
       </c>
       <c r="J47" s="218">
         <f>ROUND(Depo_Calculation!$J41,6)</f>
-        <v>5.0049999999999999E-3</v>
+        <v>5.0099999999999997E-3</v>
       </c>
       <c r="K47" s="156"/>
       <c r="L47" s="166">
-        <v>5.0049999999999999E-3</v>
+        <v>5.0099999999999997E-3</v>
       </c>
       <c r="M47" s="140"/>
       <c r="N47" s="169">
-        <v>5.0049999999999999E-3</v>
+        <v>5.0099999999999997E-3</v>
       </c>
       <c r="O47" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(N47,6),EvaluationDate)</f>
@@ -18850,15 +18850,15 @@
       </c>
       <c r="J48" s="218">
         <f>ROUND(Depo_Calculation!$J42,6)</f>
-        <v>5.0350000000000004E-3</v>
+        <v>5.0499999999999998E-3</v>
       </c>
       <c r="K48" s="156"/>
       <c r="L48" s="166">
-        <v>5.0350000000000004E-3</v>
+        <v>5.0499999999999998E-3</v>
       </c>
       <c r="M48" s="140"/>
       <c r="N48" s="169">
-        <v>5.0350000000000004E-3</v>
+        <v>5.0499999999999998E-3</v>
       </c>
       <c r="O48" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(N48,6),EvaluationDate)</f>
@@ -18890,15 +18890,15 @@
       </c>
       <c r="J49" s="218">
         <f>ROUND(Depo_Calculation!$J43,6)</f>
-        <v>5.0549999999999996E-3</v>
+        <v>5.0699999999999999E-3</v>
       </c>
       <c r="K49" s="156"/>
       <c r="L49" s="166">
-        <v>5.0549999999999996E-3</v>
+        <v>5.0699999999999999E-3</v>
       </c>
       <c r="M49" s="140"/>
       <c r="N49" s="169">
-        <v>5.0549999999999996E-3</v>
+        <v>5.0699999999999999E-3</v>
       </c>
       <c r="O49" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(N49,6),EvaluationDate)</f>
@@ -18930,15 +18930,15 @@
       </c>
       <c r="J50" s="218">
         <f>ROUND(Depo_Calculation!$J44,6)</f>
-        <v>5.0850000000000001E-3</v>
+        <v>5.11E-3</v>
       </c>
       <c r="K50" s="156"/>
       <c r="L50" s="166">
-        <v>5.0850000000000001E-3</v>
+        <v>5.11E-3</v>
       </c>
       <c r="M50" s="140"/>
       <c r="N50" s="169">
-        <v>5.0850000000000001E-3</v>
+        <v>5.11E-3</v>
       </c>
       <c r="O50" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(N50,6),EvaluationDate)</f>
@@ -18970,15 +18970,15 @@
       </c>
       <c r="J51" s="218">
         <f>ROUND(Depo_Calculation!$J45,6)</f>
-        <v>5.1149999999999998E-3</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="K51" s="156"/>
       <c r="L51" s="166">
-        <v>5.1149999999999998E-3</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="M51" s="140"/>
       <c r="N51" s="169">
-        <v>5.1149999999999998E-3</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="O51" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(N51,6),EvaluationDate)</f>
@@ -19010,15 +19010,15 @@
       </c>
       <c r="J52" s="218">
         <f>ROUND(Depo_Calculation!$J46,6)</f>
-        <v>5.1450000000000003E-3</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="K52" s="156"/>
       <c r="L52" s="166">
-        <v>5.1450000000000003E-3</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="M52" s="140"/>
       <c r="N52" s="169">
-        <v>5.1450000000000003E-3</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="O52" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(N52,6),EvaluationDate)</f>
@@ -19050,15 +19050,15 @@
       </c>
       <c r="J53" s="218">
         <f>ROUND(Depo_Calculation!$J47,6)</f>
-        <v>5.2050000000000004E-3</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="K53" s="156"/>
       <c r="L53" s="166">
-        <v>5.2050000000000004E-3</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="M53" s="140"/>
       <c r="N53" s="169">
-        <v>5.2050000000000004E-3</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="O53" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(N53,6),EvaluationDate)</f>
@@ -19090,15 +19090,15 @@
       </c>
       <c r="J54" s="218">
         <f>ROUND(Depo_Calculation!$J48,6)</f>
-        <v>5.2649999999999997E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="K54" s="156"/>
       <c r="L54" s="166">
-        <v>5.2649999999999997E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="M54" s="140"/>
       <c r="N54" s="169">
-        <v>5.2649999999999997E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="O54" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(N54,6),EvaluationDate)</f>
@@ -19130,15 +19130,15 @@
       </c>
       <c r="J55" s="219">
         <f>ROUND(Depo_Calculation!$J49,6)</f>
-        <v>5.3449999999999999E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="K55" s="211"/>
       <c r="L55" s="168">
-        <v>5.3449999999999999E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="M55" s="212"/>
       <c r="N55" s="172">
-        <v>5.3449999999999999E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="O55" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(N55,6),EvaluationDate)</f>
